--- a/3des/frequencia.xlsx
+++ b/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB72901A-FA36-433A-8706-51A22ECDCADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDEEF460-857D-40C3-AD47-28B58AA5B3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="33">
   <si>
     <t>Alunos</t>
   </si>
@@ -640,13 +640,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BX28"/>
+  <dimension ref="A1:ER28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BE3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="BN3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BX8" sqref="BX8"/>
+      <selection pane="bottomRight" activeCell="BZ21" sqref="BZ21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,15 +682,13 @@
     <col min="63" max="63" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="64" max="65" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="66" max="68" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="7.42578125" customWidth="1"/>
-    <col min="70" max="73" width="7.28515625" customWidth="1"/>
-    <col min="74" max="74" width="7.42578125" customWidth="1"/>
-    <col min="75" max="75" width="7.28515625" customWidth="1"/>
-    <col min="76" max="76" width="10" customWidth="1"/>
-    <col min="77" max="78" width="6.7109375" customWidth="1"/>
-    <col min="79" max="79" width="7.42578125" customWidth="1"/>
-    <col min="80" max="80" width="7.7109375" customWidth="1"/>
-    <col min="81" max="83" width="6.7109375" customWidth="1"/>
+    <col min="69" max="70" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="71" max="73" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="74" max="75" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="77" max="78" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="79" max="81" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="82" max="83" width="6.7109375" customWidth="1"/>
     <col min="84" max="84" width="7.42578125" customWidth="1"/>
     <col min="85" max="88" width="6.7109375" customWidth="1"/>
     <col min="89" max="89" width="7.42578125" customWidth="1"/>
@@ -713,7 +711,7 @@
     <col min="120" max="120" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -940,8 +938,23 @@
       <c r="BX1" s="10">
         <v>45231</v>
       </c>
+      <c r="BY1" s="10">
+        <v>45236</v>
+      </c>
+      <c r="BZ1" s="10">
+        <v>45237</v>
+      </c>
+      <c r="CA1" s="10">
+        <v>45238</v>
+      </c>
+      <c r="CB1" s="10">
+        <v>45239</v>
+      </c>
+      <c r="CC1" s="10">
+        <v>45240</v>
+      </c>
     </row>
-    <row r="2" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1170,8 +1183,23 @@
       <c r="BX2" t="s">
         <v>3</v>
       </c>
+      <c r="BY2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>5</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>3</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1392,8 +1420,86 @@
       <c r="BX3" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="BY3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BZ3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CA3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CB3" s="1"/>
+      <c r="CC3" s="1"/>
+      <c r="CD3" s="1"/>
+      <c r="CE3" s="1"/>
+      <c r="CF3" s="1"/>
+      <c r="CG3" s="1"/>
+      <c r="CH3" s="1"/>
+      <c r="CI3" s="1"/>
+      <c r="CJ3" s="1"/>
+      <c r="CK3" s="1"/>
+      <c r="CL3" s="1"/>
+      <c r="CM3" s="1"/>
+      <c r="CN3" s="1"/>
+      <c r="CO3" s="1"/>
+      <c r="CP3" s="1"/>
+      <c r="CQ3" s="1"/>
+      <c r="CR3" s="1"/>
+      <c r="CS3" s="1"/>
+      <c r="CT3" s="1"/>
+      <c r="CU3" s="1"/>
+      <c r="CV3" s="1"/>
+      <c r="CW3" s="1"/>
+      <c r="CX3" s="1"/>
+      <c r="CY3" s="1"/>
+      <c r="CZ3" s="1"/>
+      <c r="DA3" s="1"/>
+      <c r="DB3" s="1"/>
+      <c r="DC3" s="1"/>
+      <c r="DD3" s="1"/>
+      <c r="DE3" s="1"/>
+      <c r="DF3" s="1"/>
+      <c r="DG3" s="1"/>
+      <c r="DH3" s="1"/>
+      <c r="DI3" s="1"/>
+      <c r="DJ3" s="1"/>
+      <c r="DK3" s="1"/>
+      <c r="DL3" s="1"/>
+      <c r="DM3" s="1"/>
+      <c r="DN3" s="1"/>
+      <c r="DO3" s="1"/>
+      <c r="DP3" s="1"/>
+      <c r="DQ3" s="1"/>
+      <c r="DR3" s="1"/>
+      <c r="DS3" s="1"/>
+      <c r="DT3" s="1"/>
+      <c r="DU3" s="1"/>
+      <c r="DV3" s="1"/>
+      <c r="DW3" s="1"/>
+      <c r="DX3" s="1"/>
+      <c r="DY3" s="1"/>
+      <c r="DZ3" s="1"/>
+      <c r="EA3" s="1"/>
+      <c r="EB3" s="1"/>
+      <c r="EC3" s="1"/>
+      <c r="ED3" s="1"/>
+      <c r="EE3" s="1"/>
+      <c r="EF3" s="1"/>
+      <c r="EG3" s="1"/>
+      <c r="EH3" s="1"/>
+      <c r="EI3" s="1"/>
+      <c r="EJ3" s="1"/>
+      <c r="EK3" s="1"/>
+      <c r="EL3" s="1"/>
+      <c r="EM3" s="1"/>
+      <c r="EN3" s="1"/>
+      <c r="EO3" s="1"/>
+      <c r="EP3" s="1"/>
+      <c r="EQ3" s="1"/>
+      <c r="ER3" s="1"/>
     </row>
-    <row r="4" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1614,8 +1720,86 @@
       <c r="BX4" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="BY4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BZ4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CA4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CB4" s="1"/>
+      <c r="CC4" s="1"/>
+      <c r="CD4" s="1"/>
+      <c r="CE4" s="1"/>
+      <c r="CF4" s="1"/>
+      <c r="CG4" s="1"/>
+      <c r="CH4" s="1"/>
+      <c r="CI4" s="1"/>
+      <c r="CJ4" s="1"/>
+      <c r="CK4" s="1"/>
+      <c r="CL4" s="1"/>
+      <c r="CM4" s="1"/>
+      <c r="CN4" s="1"/>
+      <c r="CO4" s="1"/>
+      <c r="CP4" s="1"/>
+      <c r="CQ4" s="1"/>
+      <c r="CR4" s="1"/>
+      <c r="CS4" s="1"/>
+      <c r="CT4" s="1"/>
+      <c r="CU4" s="1"/>
+      <c r="CV4" s="1"/>
+      <c r="CW4" s="1"/>
+      <c r="CX4" s="1"/>
+      <c r="CY4" s="1"/>
+      <c r="CZ4" s="1"/>
+      <c r="DA4" s="1"/>
+      <c r="DB4" s="1"/>
+      <c r="DC4" s="1"/>
+      <c r="DD4" s="1"/>
+      <c r="DE4" s="1"/>
+      <c r="DF4" s="1"/>
+      <c r="DG4" s="1"/>
+      <c r="DH4" s="1"/>
+      <c r="DI4" s="1"/>
+      <c r="DJ4" s="1"/>
+      <c r="DK4" s="1"/>
+      <c r="DL4" s="1"/>
+      <c r="DM4" s="1"/>
+      <c r="DN4" s="1"/>
+      <c r="DO4" s="1"/>
+      <c r="DP4" s="1"/>
+      <c r="DQ4" s="1"/>
+      <c r="DR4" s="1"/>
+      <c r="DS4" s="1"/>
+      <c r="DT4" s="1"/>
+      <c r="DU4" s="1"/>
+      <c r="DV4" s="1"/>
+      <c r="DW4" s="1"/>
+      <c r="DX4" s="1"/>
+      <c r="DY4" s="1"/>
+      <c r="DZ4" s="1"/>
+      <c r="EA4" s="1"/>
+      <c r="EB4" s="1"/>
+      <c r="EC4" s="1"/>
+      <c r="ED4" s="1"/>
+      <c r="EE4" s="1"/>
+      <c r="EF4" s="1"/>
+      <c r="EG4" s="1"/>
+      <c r="EH4" s="1"/>
+      <c r="EI4" s="1"/>
+      <c r="EJ4" s="1"/>
+      <c r="EK4" s="1"/>
+      <c r="EL4" s="1"/>
+      <c r="EM4" s="1"/>
+      <c r="EN4" s="1"/>
+      <c r="EO4" s="1"/>
+      <c r="EP4" s="1"/>
+      <c r="EQ4" s="1"/>
+      <c r="ER4" s="1"/>
     </row>
-    <row r="5" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1836,8 +2020,86 @@
       <c r="BX5" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="BY5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BZ5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CA5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CB5" s="1"/>
+      <c r="CC5" s="1"/>
+      <c r="CD5" s="1"/>
+      <c r="CE5" s="1"/>
+      <c r="CF5" s="1"/>
+      <c r="CG5" s="1"/>
+      <c r="CH5" s="1"/>
+      <c r="CI5" s="1"/>
+      <c r="CJ5" s="1"/>
+      <c r="CK5" s="1"/>
+      <c r="CL5" s="1"/>
+      <c r="CM5" s="1"/>
+      <c r="CN5" s="1"/>
+      <c r="CO5" s="1"/>
+      <c r="CP5" s="1"/>
+      <c r="CQ5" s="1"/>
+      <c r="CR5" s="1"/>
+      <c r="CS5" s="1"/>
+      <c r="CT5" s="1"/>
+      <c r="CU5" s="1"/>
+      <c r="CV5" s="1"/>
+      <c r="CW5" s="1"/>
+      <c r="CX5" s="1"/>
+      <c r="CY5" s="1"/>
+      <c r="CZ5" s="1"/>
+      <c r="DA5" s="1"/>
+      <c r="DB5" s="1"/>
+      <c r="DC5" s="1"/>
+      <c r="DD5" s="1"/>
+      <c r="DE5" s="1"/>
+      <c r="DF5" s="1"/>
+      <c r="DG5" s="1"/>
+      <c r="DH5" s="1"/>
+      <c r="DI5" s="1"/>
+      <c r="DJ5" s="1"/>
+      <c r="DK5" s="1"/>
+      <c r="DL5" s="1"/>
+      <c r="DM5" s="1"/>
+      <c r="DN5" s="1"/>
+      <c r="DO5" s="1"/>
+      <c r="DP5" s="1"/>
+      <c r="DQ5" s="1"/>
+      <c r="DR5" s="1"/>
+      <c r="DS5" s="1"/>
+      <c r="DT5" s="1"/>
+      <c r="DU5" s="1"/>
+      <c r="DV5" s="1"/>
+      <c r="DW5" s="1"/>
+      <c r="DX5" s="1"/>
+      <c r="DY5" s="1"/>
+      <c r="DZ5" s="1"/>
+      <c r="EA5" s="1"/>
+      <c r="EB5" s="1"/>
+      <c r="EC5" s="1"/>
+      <c r="ED5" s="1"/>
+      <c r="EE5" s="1"/>
+      <c r="EF5" s="1"/>
+      <c r="EG5" s="1"/>
+      <c r="EH5" s="1"/>
+      <c r="EI5" s="1"/>
+      <c r="EJ5" s="1"/>
+      <c r="EK5" s="1"/>
+      <c r="EL5" s="1"/>
+      <c r="EM5" s="1"/>
+      <c r="EN5" s="1"/>
+      <c r="EO5" s="1"/>
+      <c r="EP5" s="1"/>
+      <c r="EQ5" s="1"/>
+      <c r="ER5" s="1"/>
     </row>
-    <row r="6" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -2058,8 +2320,86 @@
       <c r="BX6" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="BY6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BZ6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CA6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CB6" s="1"/>
+      <c r="CC6" s="1"/>
+      <c r="CD6" s="1"/>
+      <c r="CE6" s="1"/>
+      <c r="CF6" s="1"/>
+      <c r="CG6" s="1"/>
+      <c r="CH6" s="1"/>
+      <c r="CI6" s="1"/>
+      <c r="CJ6" s="1"/>
+      <c r="CK6" s="1"/>
+      <c r="CL6" s="1"/>
+      <c r="CM6" s="1"/>
+      <c r="CN6" s="1"/>
+      <c r="CO6" s="1"/>
+      <c r="CP6" s="1"/>
+      <c r="CQ6" s="1"/>
+      <c r="CR6" s="1"/>
+      <c r="CS6" s="1"/>
+      <c r="CT6" s="1"/>
+      <c r="CU6" s="1"/>
+      <c r="CV6" s="1"/>
+      <c r="CW6" s="1"/>
+      <c r="CX6" s="1"/>
+      <c r="CY6" s="1"/>
+      <c r="CZ6" s="1"/>
+      <c r="DA6" s="1"/>
+      <c r="DB6" s="1"/>
+      <c r="DC6" s="1"/>
+      <c r="DD6" s="1"/>
+      <c r="DE6" s="1"/>
+      <c r="DF6" s="1"/>
+      <c r="DG6" s="1"/>
+      <c r="DH6" s="1"/>
+      <c r="DI6" s="1"/>
+      <c r="DJ6" s="1"/>
+      <c r="DK6" s="1"/>
+      <c r="DL6" s="1"/>
+      <c r="DM6" s="1"/>
+      <c r="DN6" s="1"/>
+      <c r="DO6" s="1"/>
+      <c r="DP6" s="1"/>
+      <c r="DQ6" s="1"/>
+      <c r="DR6" s="1"/>
+      <c r="DS6" s="1"/>
+      <c r="DT6" s="1"/>
+      <c r="DU6" s="1"/>
+      <c r="DV6" s="1"/>
+      <c r="DW6" s="1"/>
+      <c r="DX6" s="1"/>
+      <c r="DY6" s="1"/>
+      <c r="DZ6" s="1"/>
+      <c r="EA6" s="1"/>
+      <c r="EB6" s="1"/>
+      <c r="EC6" s="1"/>
+      <c r="ED6" s="1"/>
+      <c r="EE6" s="1"/>
+      <c r="EF6" s="1"/>
+      <c r="EG6" s="1"/>
+      <c r="EH6" s="1"/>
+      <c r="EI6" s="1"/>
+      <c r="EJ6" s="1"/>
+      <c r="EK6" s="1"/>
+      <c r="EL6" s="1"/>
+      <c r="EM6" s="1"/>
+      <c r="EN6" s="1"/>
+      <c r="EO6" s="1"/>
+      <c r="EP6" s="1"/>
+      <c r="EQ6" s="1"/>
+      <c r="ER6" s="1"/>
     </row>
-    <row r="7" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2280,8 +2620,86 @@
       <c r="BX7" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="BY7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BZ7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CA7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CB7" s="1"/>
+      <c r="CC7" s="1"/>
+      <c r="CD7" s="1"/>
+      <c r="CE7" s="1"/>
+      <c r="CF7" s="1"/>
+      <c r="CG7" s="1"/>
+      <c r="CH7" s="1"/>
+      <c r="CI7" s="1"/>
+      <c r="CJ7" s="1"/>
+      <c r="CK7" s="1"/>
+      <c r="CL7" s="1"/>
+      <c r="CM7" s="1"/>
+      <c r="CN7" s="1"/>
+      <c r="CO7" s="1"/>
+      <c r="CP7" s="1"/>
+      <c r="CQ7" s="1"/>
+      <c r="CR7" s="1"/>
+      <c r="CS7" s="1"/>
+      <c r="CT7" s="1"/>
+      <c r="CU7" s="1"/>
+      <c r="CV7" s="1"/>
+      <c r="CW7" s="1"/>
+      <c r="CX7" s="1"/>
+      <c r="CY7" s="1"/>
+      <c r="CZ7" s="1"/>
+      <c r="DA7" s="1"/>
+      <c r="DB7" s="1"/>
+      <c r="DC7" s="1"/>
+      <c r="DD7" s="1"/>
+      <c r="DE7" s="1"/>
+      <c r="DF7" s="1"/>
+      <c r="DG7" s="1"/>
+      <c r="DH7" s="1"/>
+      <c r="DI7" s="1"/>
+      <c r="DJ7" s="1"/>
+      <c r="DK7" s="1"/>
+      <c r="DL7" s="1"/>
+      <c r="DM7" s="1"/>
+      <c r="DN7" s="1"/>
+      <c r="DO7" s="1"/>
+      <c r="DP7" s="1"/>
+      <c r="DQ7" s="1"/>
+      <c r="DR7" s="1"/>
+      <c r="DS7" s="1"/>
+      <c r="DT7" s="1"/>
+      <c r="DU7" s="1"/>
+      <c r="DV7" s="1"/>
+      <c r="DW7" s="1"/>
+      <c r="DX7" s="1"/>
+      <c r="DY7" s="1"/>
+      <c r="DZ7" s="1"/>
+      <c r="EA7" s="1"/>
+      <c r="EB7" s="1"/>
+      <c r="EC7" s="1"/>
+      <c r="ED7" s="1"/>
+      <c r="EE7" s="1"/>
+      <c r="EF7" s="1"/>
+      <c r="EG7" s="1"/>
+      <c r="EH7" s="1"/>
+      <c r="EI7" s="1"/>
+      <c r="EJ7" s="1"/>
+      <c r="EK7" s="1"/>
+      <c r="EL7" s="1"/>
+      <c r="EM7" s="1"/>
+      <c r="EN7" s="1"/>
+      <c r="EO7" s="1"/>
+      <c r="EP7" s="1"/>
+      <c r="EQ7" s="1"/>
+      <c r="ER7" s="1"/>
     </row>
-    <row r="8" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -2502,8 +2920,86 @@
       <c r="BX8" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="BY8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BZ8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CA8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CB8" s="1"/>
+      <c r="CC8" s="1"/>
+      <c r="CD8" s="1"/>
+      <c r="CE8" s="1"/>
+      <c r="CF8" s="1"/>
+      <c r="CG8" s="1"/>
+      <c r="CH8" s="1"/>
+      <c r="CI8" s="1"/>
+      <c r="CJ8" s="1"/>
+      <c r="CK8" s="1"/>
+      <c r="CL8" s="1"/>
+      <c r="CM8" s="1"/>
+      <c r="CN8" s="1"/>
+      <c r="CO8" s="1"/>
+      <c r="CP8" s="1"/>
+      <c r="CQ8" s="1"/>
+      <c r="CR8" s="1"/>
+      <c r="CS8" s="1"/>
+      <c r="CT8" s="1"/>
+      <c r="CU8" s="1"/>
+      <c r="CV8" s="1"/>
+      <c r="CW8" s="1"/>
+      <c r="CX8" s="1"/>
+      <c r="CY8" s="1"/>
+      <c r="CZ8" s="1"/>
+      <c r="DA8" s="1"/>
+      <c r="DB8" s="1"/>
+      <c r="DC8" s="1"/>
+      <c r="DD8" s="1"/>
+      <c r="DE8" s="1"/>
+      <c r="DF8" s="1"/>
+      <c r="DG8" s="1"/>
+      <c r="DH8" s="1"/>
+      <c r="DI8" s="1"/>
+      <c r="DJ8" s="1"/>
+      <c r="DK8" s="1"/>
+      <c r="DL8" s="1"/>
+      <c r="DM8" s="1"/>
+      <c r="DN8" s="1"/>
+      <c r="DO8" s="1"/>
+      <c r="DP8" s="1"/>
+      <c r="DQ8" s="1"/>
+      <c r="DR8" s="1"/>
+      <c r="DS8" s="1"/>
+      <c r="DT8" s="1"/>
+      <c r="DU8" s="1"/>
+      <c r="DV8" s="1"/>
+      <c r="DW8" s="1"/>
+      <c r="DX8" s="1"/>
+      <c r="DY8" s="1"/>
+      <c r="DZ8" s="1"/>
+      <c r="EA8" s="1"/>
+      <c r="EB8" s="1"/>
+      <c r="EC8" s="1"/>
+      <c r="ED8" s="1"/>
+      <c r="EE8" s="1"/>
+      <c r="EF8" s="1"/>
+      <c r="EG8" s="1"/>
+      <c r="EH8" s="1"/>
+      <c r="EI8" s="1"/>
+      <c r="EJ8" s="1"/>
+      <c r="EK8" s="1"/>
+      <c r="EL8" s="1"/>
+      <c r="EM8" s="1"/>
+      <c r="EN8" s="1"/>
+      <c r="EO8" s="1"/>
+      <c r="EP8" s="1"/>
+      <c r="EQ8" s="1"/>
+      <c r="ER8" s="1"/>
     </row>
-    <row r="9" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2724,8 +3220,86 @@
       <c r="BX9" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="BY9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BZ9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CA9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CB9" s="1"/>
+      <c r="CC9" s="1"/>
+      <c r="CD9" s="1"/>
+      <c r="CE9" s="1"/>
+      <c r="CF9" s="1"/>
+      <c r="CG9" s="1"/>
+      <c r="CH9" s="1"/>
+      <c r="CI9" s="1"/>
+      <c r="CJ9" s="1"/>
+      <c r="CK9" s="1"/>
+      <c r="CL9" s="1"/>
+      <c r="CM9" s="1"/>
+      <c r="CN9" s="1"/>
+      <c r="CO9" s="1"/>
+      <c r="CP9" s="1"/>
+      <c r="CQ9" s="1"/>
+      <c r="CR9" s="1"/>
+      <c r="CS9" s="1"/>
+      <c r="CT9" s="1"/>
+      <c r="CU9" s="1"/>
+      <c r="CV9" s="1"/>
+      <c r="CW9" s="1"/>
+      <c r="CX9" s="1"/>
+      <c r="CY9" s="1"/>
+      <c r="CZ9" s="1"/>
+      <c r="DA9" s="1"/>
+      <c r="DB9" s="1"/>
+      <c r="DC9" s="1"/>
+      <c r="DD9" s="1"/>
+      <c r="DE9" s="1"/>
+      <c r="DF9" s="1"/>
+      <c r="DG9" s="1"/>
+      <c r="DH9" s="1"/>
+      <c r="DI9" s="1"/>
+      <c r="DJ9" s="1"/>
+      <c r="DK9" s="1"/>
+      <c r="DL9" s="1"/>
+      <c r="DM9" s="1"/>
+      <c r="DN9" s="1"/>
+      <c r="DO9" s="1"/>
+      <c r="DP9" s="1"/>
+      <c r="DQ9" s="1"/>
+      <c r="DR9" s="1"/>
+      <c r="DS9" s="1"/>
+      <c r="DT9" s="1"/>
+      <c r="DU9" s="1"/>
+      <c r="DV9" s="1"/>
+      <c r="DW9" s="1"/>
+      <c r="DX9" s="1"/>
+      <c r="DY9" s="1"/>
+      <c r="DZ9" s="1"/>
+      <c r="EA9" s="1"/>
+      <c r="EB9" s="1"/>
+      <c r="EC9" s="1"/>
+      <c r="ED9" s="1"/>
+      <c r="EE9" s="1"/>
+      <c r="EF9" s="1"/>
+      <c r="EG9" s="1"/>
+      <c r="EH9" s="1"/>
+      <c r="EI9" s="1"/>
+      <c r="EJ9" s="1"/>
+      <c r="EK9" s="1"/>
+      <c r="EL9" s="1"/>
+      <c r="EM9" s="1"/>
+      <c r="EN9" s="1"/>
+      <c r="EO9" s="1"/>
+      <c r="EP9" s="1"/>
+      <c r="EQ9" s="1"/>
+      <c r="ER9" s="1"/>
     </row>
-    <row r="10" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:148" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -2938,14 +3512,92 @@
       <c r="BV10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="BW10" s="4" t="s">
+      <c r="BW10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="BX10" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="BY10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BZ10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CA10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CB10" s="1"/>
+      <c r="CC10" s="1"/>
+      <c r="CD10" s="1"/>
+      <c r="CE10" s="1"/>
+      <c r="CF10" s="1"/>
+      <c r="CG10" s="1"/>
+      <c r="CH10" s="1"/>
+      <c r="CI10" s="1"/>
+      <c r="CJ10" s="1"/>
+      <c r="CK10" s="1"/>
+      <c r="CL10" s="1"/>
+      <c r="CM10" s="1"/>
+      <c r="CN10" s="1"/>
+      <c r="CO10" s="1"/>
+      <c r="CP10" s="1"/>
+      <c r="CQ10" s="1"/>
+      <c r="CR10" s="1"/>
+      <c r="CS10" s="1"/>
+      <c r="CT10" s="1"/>
+      <c r="CU10" s="1"/>
+      <c r="CV10" s="1"/>
+      <c r="CW10" s="1"/>
+      <c r="CX10" s="1"/>
+      <c r="CY10" s="1"/>
+      <c r="CZ10" s="1"/>
+      <c r="DA10" s="1"/>
+      <c r="DB10" s="1"/>
+      <c r="DC10" s="1"/>
+      <c r="DD10" s="1"/>
+      <c r="DE10" s="1"/>
+      <c r="DF10" s="1"/>
+      <c r="DG10" s="1"/>
+      <c r="DH10" s="1"/>
+      <c r="DI10" s="1"/>
+      <c r="DJ10" s="1"/>
+      <c r="DK10" s="1"/>
+      <c r="DL10" s="1"/>
+      <c r="DM10" s="1"/>
+      <c r="DN10" s="1"/>
+      <c r="DO10" s="1"/>
+      <c r="DP10" s="1"/>
+      <c r="DQ10" s="1"/>
+      <c r="DR10" s="1"/>
+      <c r="DS10" s="1"/>
+      <c r="DT10" s="1"/>
+      <c r="DU10" s="1"/>
+      <c r="DV10" s="1"/>
+      <c r="DW10" s="1"/>
+      <c r="DX10" s="1"/>
+      <c r="DY10" s="1"/>
+      <c r="DZ10" s="1"/>
+      <c r="EA10" s="1"/>
+      <c r="EB10" s="1"/>
+      <c r="EC10" s="1"/>
+      <c r="ED10" s="1"/>
+      <c r="EE10" s="1"/>
+      <c r="EF10" s="1"/>
+      <c r="EG10" s="1"/>
+      <c r="EH10" s="1"/>
+      <c r="EI10" s="1"/>
+      <c r="EJ10" s="1"/>
+      <c r="EK10" s="1"/>
+      <c r="EL10" s="1"/>
+      <c r="EM10" s="1"/>
+      <c r="EN10" s="1"/>
+      <c r="EO10" s="1"/>
+      <c r="EP10" s="1"/>
+      <c r="EQ10" s="1"/>
+      <c r="ER10" s="1"/>
     </row>
-    <row r="11" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:148" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -3142,7 +3794,7 @@
       <c r="BP11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="BQ11" s="4" t="s">
+      <c r="BQ11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="BR11" s="1" t="s">
@@ -3166,8 +3818,86 @@
       <c r="BX11" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="BY11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BZ11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CA11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CB11" s="1"/>
+      <c r="CC11" s="1"/>
+      <c r="CD11" s="1"/>
+      <c r="CE11" s="1"/>
+      <c r="CF11" s="1"/>
+      <c r="CG11" s="1"/>
+      <c r="CH11" s="1"/>
+      <c r="CI11" s="1"/>
+      <c r="CJ11" s="1"/>
+      <c r="CK11" s="1"/>
+      <c r="CL11" s="1"/>
+      <c r="CM11" s="1"/>
+      <c r="CN11" s="1"/>
+      <c r="CO11" s="1"/>
+      <c r="CP11" s="1"/>
+      <c r="CQ11" s="1"/>
+      <c r="CR11" s="1"/>
+      <c r="CS11" s="1"/>
+      <c r="CT11" s="1"/>
+      <c r="CU11" s="1"/>
+      <c r="CV11" s="1"/>
+      <c r="CW11" s="1"/>
+      <c r="CX11" s="1"/>
+      <c r="CY11" s="1"/>
+      <c r="CZ11" s="1"/>
+      <c r="DA11" s="1"/>
+      <c r="DB11" s="1"/>
+      <c r="DC11" s="1"/>
+      <c r="DD11" s="1"/>
+      <c r="DE11" s="1"/>
+      <c r="DF11" s="1"/>
+      <c r="DG11" s="1"/>
+      <c r="DH11" s="1"/>
+      <c r="DI11" s="1"/>
+      <c r="DJ11" s="1"/>
+      <c r="DK11" s="1"/>
+      <c r="DL11" s="1"/>
+      <c r="DM11" s="1"/>
+      <c r="DN11" s="1"/>
+      <c r="DO11" s="1"/>
+      <c r="DP11" s="1"/>
+      <c r="DQ11" s="1"/>
+      <c r="DR11" s="1"/>
+      <c r="DS11" s="1"/>
+      <c r="DT11" s="1"/>
+      <c r="DU11" s="1"/>
+      <c r="DV11" s="1"/>
+      <c r="DW11" s="1"/>
+      <c r="DX11" s="1"/>
+      <c r="DY11" s="1"/>
+      <c r="DZ11" s="1"/>
+      <c r="EA11" s="1"/>
+      <c r="EB11" s="1"/>
+      <c r="EC11" s="1"/>
+      <c r="ED11" s="1"/>
+      <c r="EE11" s="1"/>
+      <c r="EF11" s="1"/>
+      <c r="EG11" s="1"/>
+      <c r="EH11" s="1"/>
+      <c r="EI11" s="1"/>
+      <c r="EJ11" s="1"/>
+      <c r="EK11" s="1"/>
+      <c r="EL11" s="1"/>
+      <c r="EM11" s="1"/>
+      <c r="EN11" s="1"/>
+      <c r="EO11" s="1"/>
+      <c r="EP11" s="1"/>
+      <c r="EQ11" s="1"/>
+      <c r="ER11" s="1"/>
     </row>
-    <row r="12" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -3388,8 +4118,86 @@
       <c r="BX12" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="BY12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BZ12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CA12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CB12" s="1"/>
+      <c r="CC12" s="1"/>
+      <c r="CD12" s="1"/>
+      <c r="CE12" s="1"/>
+      <c r="CF12" s="1"/>
+      <c r="CG12" s="1"/>
+      <c r="CH12" s="1"/>
+      <c r="CI12" s="1"/>
+      <c r="CJ12" s="1"/>
+      <c r="CK12" s="1"/>
+      <c r="CL12" s="1"/>
+      <c r="CM12" s="1"/>
+      <c r="CN12" s="1"/>
+      <c r="CO12" s="1"/>
+      <c r="CP12" s="1"/>
+      <c r="CQ12" s="1"/>
+      <c r="CR12" s="1"/>
+      <c r="CS12" s="1"/>
+      <c r="CT12" s="1"/>
+      <c r="CU12" s="1"/>
+      <c r="CV12" s="1"/>
+      <c r="CW12" s="1"/>
+      <c r="CX12" s="1"/>
+      <c r="CY12" s="1"/>
+      <c r="CZ12" s="1"/>
+      <c r="DA12" s="1"/>
+      <c r="DB12" s="1"/>
+      <c r="DC12" s="1"/>
+      <c r="DD12" s="1"/>
+      <c r="DE12" s="1"/>
+      <c r="DF12" s="1"/>
+      <c r="DG12" s="1"/>
+      <c r="DH12" s="1"/>
+      <c r="DI12" s="1"/>
+      <c r="DJ12" s="1"/>
+      <c r="DK12" s="1"/>
+      <c r="DL12" s="1"/>
+      <c r="DM12" s="1"/>
+      <c r="DN12" s="1"/>
+      <c r="DO12" s="1"/>
+      <c r="DP12" s="1"/>
+      <c r="DQ12" s="1"/>
+      <c r="DR12" s="1"/>
+      <c r="DS12" s="1"/>
+      <c r="DT12" s="1"/>
+      <c r="DU12" s="1"/>
+      <c r="DV12" s="1"/>
+      <c r="DW12" s="1"/>
+      <c r="DX12" s="1"/>
+      <c r="DY12" s="1"/>
+      <c r="DZ12" s="1"/>
+      <c r="EA12" s="1"/>
+      <c r="EB12" s="1"/>
+      <c r="EC12" s="1"/>
+      <c r="ED12" s="1"/>
+      <c r="EE12" s="1"/>
+      <c r="EF12" s="1"/>
+      <c r="EG12" s="1"/>
+      <c r="EH12" s="1"/>
+      <c r="EI12" s="1"/>
+      <c r="EJ12" s="1"/>
+      <c r="EK12" s="1"/>
+      <c r="EL12" s="1"/>
+      <c r="EM12" s="1"/>
+      <c r="EN12" s="1"/>
+      <c r="EO12" s="1"/>
+      <c r="EP12" s="1"/>
+      <c r="EQ12" s="1"/>
+      <c r="ER12" s="1"/>
     </row>
-    <row r="13" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -3610,8 +4418,86 @@
       <c r="BX13" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="BY13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BZ13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CA13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CB13" s="1"/>
+      <c r="CC13" s="1"/>
+      <c r="CD13" s="1"/>
+      <c r="CE13" s="1"/>
+      <c r="CF13" s="1"/>
+      <c r="CG13" s="1"/>
+      <c r="CH13" s="1"/>
+      <c r="CI13" s="1"/>
+      <c r="CJ13" s="1"/>
+      <c r="CK13" s="1"/>
+      <c r="CL13" s="1"/>
+      <c r="CM13" s="1"/>
+      <c r="CN13" s="1"/>
+      <c r="CO13" s="1"/>
+      <c r="CP13" s="1"/>
+      <c r="CQ13" s="1"/>
+      <c r="CR13" s="1"/>
+      <c r="CS13" s="1"/>
+      <c r="CT13" s="1"/>
+      <c r="CU13" s="1"/>
+      <c r="CV13" s="1"/>
+      <c r="CW13" s="1"/>
+      <c r="CX13" s="1"/>
+      <c r="CY13" s="1"/>
+      <c r="CZ13" s="1"/>
+      <c r="DA13" s="1"/>
+      <c r="DB13" s="1"/>
+      <c r="DC13" s="1"/>
+      <c r="DD13" s="1"/>
+      <c r="DE13" s="1"/>
+      <c r="DF13" s="1"/>
+      <c r="DG13" s="1"/>
+      <c r="DH13" s="1"/>
+      <c r="DI13" s="1"/>
+      <c r="DJ13" s="1"/>
+      <c r="DK13" s="1"/>
+      <c r="DL13" s="1"/>
+      <c r="DM13" s="1"/>
+      <c r="DN13" s="1"/>
+      <c r="DO13" s="1"/>
+      <c r="DP13" s="1"/>
+      <c r="DQ13" s="1"/>
+      <c r="DR13" s="1"/>
+      <c r="DS13" s="1"/>
+      <c r="DT13" s="1"/>
+      <c r="DU13" s="1"/>
+      <c r="DV13" s="1"/>
+      <c r="DW13" s="1"/>
+      <c r="DX13" s="1"/>
+      <c r="DY13" s="1"/>
+      <c r="DZ13" s="1"/>
+      <c r="EA13" s="1"/>
+      <c r="EB13" s="1"/>
+      <c r="EC13" s="1"/>
+      <c r="ED13" s="1"/>
+      <c r="EE13" s="1"/>
+      <c r="EF13" s="1"/>
+      <c r="EG13" s="1"/>
+      <c r="EH13" s="1"/>
+      <c r="EI13" s="1"/>
+      <c r="EJ13" s="1"/>
+      <c r="EK13" s="1"/>
+      <c r="EL13" s="1"/>
+      <c r="EM13" s="1"/>
+      <c r="EN13" s="1"/>
+      <c r="EO13" s="1"/>
+      <c r="EP13" s="1"/>
+      <c r="EQ13" s="1"/>
+      <c r="ER13" s="1"/>
     </row>
-    <row r="14" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -3832,8 +4718,86 @@
       <c r="BX14" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="BY14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BZ14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CA14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CB14" s="1"/>
+      <c r="CC14" s="1"/>
+      <c r="CD14" s="1"/>
+      <c r="CE14" s="1"/>
+      <c r="CF14" s="1"/>
+      <c r="CG14" s="1"/>
+      <c r="CH14" s="1"/>
+      <c r="CI14" s="1"/>
+      <c r="CJ14" s="1"/>
+      <c r="CK14" s="1"/>
+      <c r="CL14" s="1"/>
+      <c r="CM14" s="1"/>
+      <c r="CN14" s="1"/>
+      <c r="CO14" s="1"/>
+      <c r="CP14" s="1"/>
+      <c r="CQ14" s="1"/>
+      <c r="CR14" s="1"/>
+      <c r="CS14" s="1"/>
+      <c r="CT14" s="1"/>
+      <c r="CU14" s="1"/>
+      <c r="CV14" s="1"/>
+      <c r="CW14" s="1"/>
+      <c r="CX14" s="1"/>
+      <c r="CY14" s="1"/>
+      <c r="CZ14" s="1"/>
+      <c r="DA14" s="1"/>
+      <c r="DB14" s="1"/>
+      <c r="DC14" s="1"/>
+      <c r="DD14" s="1"/>
+      <c r="DE14" s="1"/>
+      <c r="DF14" s="1"/>
+      <c r="DG14" s="1"/>
+      <c r="DH14" s="1"/>
+      <c r="DI14" s="1"/>
+      <c r="DJ14" s="1"/>
+      <c r="DK14" s="1"/>
+      <c r="DL14" s="1"/>
+      <c r="DM14" s="1"/>
+      <c r="DN14" s="1"/>
+      <c r="DO14" s="1"/>
+      <c r="DP14" s="1"/>
+      <c r="DQ14" s="1"/>
+      <c r="DR14" s="1"/>
+      <c r="DS14" s="1"/>
+      <c r="DT14" s="1"/>
+      <c r="DU14" s="1"/>
+      <c r="DV14" s="1"/>
+      <c r="DW14" s="1"/>
+      <c r="DX14" s="1"/>
+      <c r="DY14" s="1"/>
+      <c r="DZ14" s="1"/>
+      <c r="EA14" s="1"/>
+      <c r="EB14" s="1"/>
+      <c r="EC14" s="1"/>
+      <c r="ED14" s="1"/>
+      <c r="EE14" s="1"/>
+      <c r="EF14" s="1"/>
+      <c r="EG14" s="1"/>
+      <c r="EH14" s="1"/>
+      <c r="EI14" s="1"/>
+      <c r="EJ14" s="1"/>
+      <c r="EK14" s="1"/>
+      <c r="EL14" s="1"/>
+      <c r="EM14" s="1"/>
+      <c r="EN14" s="1"/>
+      <c r="EO14" s="1"/>
+      <c r="EP14" s="1"/>
+      <c r="EQ14" s="1"/>
+      <c r="ER14" s="1"/>
     </row>
-    <row r="15" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -4054,8 +5018,86 @@
       <c r="BX15" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="BY15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BZ15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CA15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CB15" s="1"/>
+      <c r="CC15" s="1"/>
+      <c r="CD15" s="1"/>
+      <c r="CE15" s="1"/>
+      <c r="CF15" s="1"/>
+      <c r="CG15" s="1"/>
+      <c r="CH15" s="1"/>
+      <c r="CI15" s="1"/>
+      <c r="CJ15" s="1"/>
+      <c r="CK15" s="1"/>
+      <c r="CL15" s="1"/>
+      <c r="CM15" s="1"/>
+      <c r="CN15" s="1"/>
+      <c r="CO15" s="1"/>
+      <c r="CP15" s="1"/>
+      <c r="CQ15" s="1"/>
+      <c r="CR15" s="1"/>
+      <c r="CS15" s="1"/>
+      <c r="CT15" s="1"/>
+      <c r="CU15" s="1"/>
+      <c r="CV15" s="1"/>
+      <c r="CW15" s="1"/>
+      <c r="CX15" s="1"/>
+      <c r="CY15" s="1"/>
+      <c r="CZ15" s="1"/>
+      <c r="DA15" s="1"/>
+      <c r="DB15" s="1"/>
+      <c r="DC15" s="1"/>
+      <c r="DD15" s="1"/>
+      <c r="DE15" s="1"/>
+      <c r="DF15" s="1"/>
+      <c r="DG15" s="1"/>
+      <c r="DH15" s="1"/>
+      <c r="DI15" s="1"/>
+      <c r="DJ15" s="1"/>
+      <c r="DK15" s="1"/>
+      <c r="DL15" s="1"/>
+      <c r="DM15" s="1"/>
+      <c r="DN15" s="1"/>
+      <c r="DO15" s="1"/>
+      <c r="DP15" s="1"/>
+      <c r="DQ15" s="1"/>
+      <c r="DR15" s="1"/>
+      <c r="DS15" s="1"/>
+      <c r="DT15" s="1"/>
+      <c r="DU15" s="1"/>
+      <c r="DV15" s="1"/>
+      <c r="DW15" s="1"/>
+      <c r="DX15" s="1"/>
+      <c r="DY15" s="1"/>
+      <c r="DZ15" s="1"/>
+      <c r="EA15" s="1"/>
+      <c r="EB15" s="1"/>
+      <c r="EC15" s="1"/>
+      <c r="ED15" s="1"/>
+      <c r="EE15" s="1"/>
+      <c r="EF15" s="1"/>
+      <c r="EG15" s="1"/>
+      <c r="EH15" s="1"/>
+      <c r="EI15" s="1"/>
+      <c r="EJ15" s="1"/>
+      <c r="EK15" s="1"/>
+      <c r="EL15" s="1"/>
+      <c r="EM15" s="1"/>
+      <c r="EN15" s="1"/>
+      <c r="EO15" s="1"/>
+      <c r="EP15" s="1"/>
+      <c r="EQ15" s="1"/>
+      <c r="ER15" s="1"/>
     </row>
-    <row r="16" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -4276,8 +5318,86 @@
       <c r="BX16" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="BY16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BZ16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CA16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CB16" s="1"/>
+      <c r="CC16" s="1"/>
+      <c r="CD16" s="1"/>
+      <c r="CE16" s="1"/>
+      <c r="CF16" s="1"/>
+      <c r="CG16" s="1"/>
+      <c r="CH16" s="1"/>
+      <c r="CI16" s="1"/>
+      <c r="CJ16" s="1"/>
+      <c r="CK16" s="1"/>
+      <c r="CL16" s="1"/>
+      <c r="CM16" s="1"/>
+      <c r="CN16" s="1"/>
+      <c r="CO16" s="1"/>
+      <c r="CP16" s="1"/>
+      <c r="CQ16" s="1"/>
+      <c r="CR16" s="1"/>
+      <c r="CS16" s="1"/>
+      <c r="CT16" s="1"/>
+      <c r="CU16" s="1"/>
+      <c r="CV16" s="1"/>
+      <c r="CW16" s="1"/>
+      <c r="CX16" s="1"/>
+      <c r="CY16" s="1"/>
+      <c r="CZ16" s="1"/>
+      <c r="DA16" s="1"/>
+      <c r="DB16" s="1"/>
+      <c r="DC16" s="1"/>
+      <c r="DD16" s="1"/>
+      <c r="DE16" s="1"/>
+      <c r="DF16" s="1"/>
+      <c r="DG16" s="1"/>
+      <c r="DH16" s="1"/>
+      <c r="DI16" s="1"/>
+      <c r="DJ16" s="1"/>
+      <c r="DK16" s="1"/>
+      <c r="DL16" s="1"/>
+      <c r="DM16" s="1"/>
+      <c r="DN16" s="1"/>
+      <c r="DO16" s="1"/>
+      <c r="DP16" s="1"/>
+      <c r="DQ16" s="1"/>
+      <c r="DR16" s="1"/>
+      <c r="DS16" s="1"/>
+      <c r="DT16" s="1"/>
+      <c r="DU16" s="1"/>
+      <c r="DV16" s="1"/>
+      <c r="DW16" s="1"/>
+      <c r="DX16" s="1"/>
+      <c r="DY16" s="1"/>
+      <c r="DZ16" s="1"/>
+      <c r="EA16" s="1"/>
+      <c r="EB16" s="1"/>
+      <c r="EC16" s="1"/>
+      <c r="ED16" s="1"/>
+      <c r="EE16" s="1"/>
+      <c r="EF16" s="1"/>
+      <c r="EG16" s="1"/>
+      <c r="EH16" s="1"/>
+      <c r="EI16" s="1"/>
+      <c r="EJ16" s="1"/>
+      <c r="EK16" s="1"/>
+      <c r="EL16" s="1"/>
+      <c r="EM16" s="1"/>
+      <c r="EN16" s="1"/>
+      <c r="EO16" s="1"/>
+      <c r="EP16" s="1"/>
+      <c r="EQ16" s="1"/>
+      <c r="ER16" s="1"/>
     </row>
-    <row r="17" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -4498,8 +5618,86 @@
       <c r="BX17" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="BY17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BZ17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CA17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CB17" s="1"/>
+      <c r="CC17" s="1"/>
+      <c r="CD17" s="1"/>
+      <c r="CE17" s="1"/>
+      <c r="CF17" s="1"/>
+      <c r="CG17" s="1"/>
+      <c r="CH17" s="1"/>
+      <c r="CI17" s="1"/>
+      <c r="CJ17" s="1"/>
+      <c r="CK17" s="1"/>
+      <c r="CL17" s="1"/>
+      <c r="CM17" s="1"/>
+      <c r="CN17" s="1"/>
+      <c r="CO17" s="1"/>
+      <c r="CP17" s="1"/>
+      <c r="CQ17" s="1"/>
+      <c r="CR17" s="1"/>
+      <c r="CS17" s="1"/>
+      <c r="CT17" s="1"/>
+      <c r="CU17" s="1"/>
+      <c r="CV17" s="1"/>
+      <c r="CW17" s="1"/>
+      <c r="CX17" s="1"/>
+      <c r="CY17" s="1"/>
+      <c r="CZ17" s="1"/>
+      <c r="DA17" s="1"/>
+      <c r="DB17" s="1"/>
+      <c r="DC17" s="1"/>
+      <c r="DD17" s="1"/>
+      <c r="DE17" s="1"/>
+      <c r="DF17" s="1"/>
+      <c r="DG17" s="1"/>
+      <c r="DH17" s="1"/>
+      <c r="DI17" s="1"/>
+      <c r="DJ17" s="1"/>
+      <c r="DK17" s="1"/>
+      <c r="DL17" s="1"/>
+      <c r="DM17" s="1"/>
+      <c r="DN17" s="1"/>
+      <c r="DO17" s="1"/>
+      <c r="DP17" s="1"/>
+      <c r="DQ17" s="1"/>
+      <c r="DR17" s="1"/>
+      <c r="DS17" s="1"/>
+      <c r="DT17" s="1"/>
+      <c r="DU17" s="1"/>
+      <c r="DV17" s="1"/>
+      <c r="DW17" s="1"/>
+      <c r="DX17" s="1"/>
+      <c r="DY17" s="1"/>
+      <c r="DZ17" s="1"/>
+      <c r="EA17" s="1"/>
+      <c r="EB17" s="1"/>
+      <c r="EC17" s="1"/>
+      <c r="ED17" s="1"/>
+      <c r="EE17" s="1"/>
+      <c r="EF17" s="1"/>
+      <c r="EG17" s="1"/>
+      <c r="EH17" s="1"/>
+      <c r="EI17" s="1"/>
+      <c r="EJ17" s="1"/>
+      <c r="EK17" s="1"/>
+      <c r="EL17" s="1"/>
+      <c r="EM17" s="1"/>
+      <c r="EN17" s="1"/>
+      <c r="EO17" s="1"/>
+      <c r="EP17" s="1"/>
+      <c r="EQ17" s="1"/>
+      <c r="ER17" s="1"/>
     </row>
-    <row r="18" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:148" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -4720,8 +5918,86 @@
       <c r="BX18" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="BY18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BZ18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CA18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CB18" s="1"/>
+      <c r="CC18" s="1"/>
+      <c r="CD18" s="1"/>
+      <c r="CE18" s="1"/>
+      <c r="CF18" s="1"/>
+      <c r="CG18" s="1"/>
+      <c r="CH18" s="1"/>
+      <c r="CI18" s="1"/>
+      <c r="CJ18" s="1"/>
+      <c r="CK18" s="1"/>
+      <c r="CL18" s="1"/>
+      <c r="CM18" s="1"/>
+      <c r="CN18" s="1"/>
+      <c r="CO18" s="1"/>
+      <c r="CP18" s="1"/>
+      <c r="CQ18" s="1"/>
+      <c r="CR18" s="1"/>
+      <c r="CS18" s="1"/>
+      <c r="CT18" s="1"/>
+      <c r="CU18" s="1"/>
+      <c r="CV18" s="1"/>
+      <c r="CW18" s="1"/>
+      <c r="CX18" s="1"/>
+      <c r="CY18" s="1"/>
+      <c r="CZ18" s="1"/>
+      <c r="DA18" s="1"/>
+      <c r="DB18" s="1"/>
+      <c r="DC18" s="1"/>
+      <c r="DD18" s="1"/>
+      <c r="DE18" s="1"/>
+      <c r="DF18" s="1"/>
+      <c r="DG18" s="1"/>
+      <c r="DH18" s="1"/>
+      <c r="DI18" s="1"/>
+      <c r="DJ18" s="1"/>
+      <c r="DK18" s="1"/>
+      <c r="DL18" s="1"/>
+      <c r="DM18" s="1"/>
+      <c r="DN18" s="1"/>
+      <c r="DO18" s="1"/>
+      <c r="DP18" s="1"/>
+      <c r="DQ18" s="1"/>
+      <c r="DR18" s="1"/>
+      <c r="DS18" s="1"/>
+      <c r="DT18" s="1"/>
+      <c r="DU18" s="1"/>
+      <c r="DV18" s="1"/>
+      <c r="DW18" s="1"/>
+      <c r="DX18" s="1"/>
+      <c r="DY18" s="1"/>
+      <c r="DZ18" s="1"/>
+      <c r="EA18" s="1"/>
+      <c r="EB18" s="1"/>
+      <c r="EC18" s="1"/>
+      <c r="ED18" s="1"/>
+      <c r="EE18" s="1"/>
+      <c r="EF18" s="1"/>
+      <c r="EG18" s="1"/>
+      <c r="EH18" s="1"/>
+      <c r="EI18" s="1"/>
+      <c r="EJ18" s="1"/>
+      <c r="EK18" s="1"/>
+      <c r="EL18" s="1"/>
+      <c r="EM18" s="1"/>
+      <c r="EN18" s="1"/>
+      <c r="EO18" s="1"/>
+      <c r="EP18" s="1"/>
+      <c r="EQ18" s="1"/>
+      <c r="ER18" s="1"/>
     </row>
-    <row r="19" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -4942,8 +6218,86 @@
       <c r="BX19" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="BY19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BZ19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CA19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CB19" s="1"/>
+      <c r="CC19" s="1"/>
+      <c r="CD19" s="1"/>
+      <c r="CE19" s="1"/>
+      <c r="CF19" s="1"/>
+      <c r="CG19" s="1"/>
+      <c r="CH19" s="1"/>
+      <c r="CI19" s="1"/>
+      <c r="CJ19" s="1"/>
+      <c r="CK19" s="1"/>
+      <c r="CL19" s="1"/>
+      <c r="CM19" s="1"/>
+      <c r="CN19" s="1"/>
+      <c r="CO19" s="1"/>
+      <c r="CP19" s="1"/>
+      <c r="CQ19" s="1"/>
+      <c r="CR19" s="1"/>
+      <c r="CS19" s="1"/>
+      <c r="CT19" s="1"/>
+      <c r="CU19" s="1"/>
+      <c r="CV19" s="1"/>
+      <c r="CW19" s="1"/>
+      <c r="CX19" s="1"/>
+      <c r="CY19" s="1"/>
+      <c r="CZ19" s="1"/>
+      <c r="DA19" s="1"/>
+      <c r="DB19" s="1"/>
+      <c r="DC19" s="1"/>
+      <c r="DD19" s="1"/>
+      <c r="DE19" s="1"/>
+      <c r="DF19" s="1"/>
+      <c r="DG19" s="1"/>
+      <c r="DH19" s="1"/>
+      <c r="DI19" s="1"/>
+      <c r="DJ19" s="1"/>
+      <c r="DK19" s="1"/>
+      <c r="DL19" s="1"/>
+      <c r="DM19" s="1"/>
+      <c r="DN19" s="1"/>
+      <c r="DO19" s="1"/>
+      <c r="DP19" s="1"/>
+      <c r="DQ19" s="1"/>
+      <c r="DR19" s="1"/>
+      <c r="DS19" s="1"/>
+      <c r="DT19" s="1"/>
+      <c r="DU19" s="1"/>
+      <c r="DV19" s="1"/>
+      <c r="DW19" s="1"/>
+      <c r="DX19" s="1"/>
+      <c r="DY19" s="1"/>
+      <c r="DZ19" s="1"/>
+      <c r="EA19" s="1"/>
+      <c r="EB19" s="1"/>
+      <c r="EC19" s="1"/>
+      <c r="ED19" s="1"/>
+      <c r="EE19" s="1"/>
+      <c r="EF19" s="1"/>
+      <c r="EG19" s="1"/>
+      <c r="EH19" s="1"/>
+      <c r="EI19" s="1"/>
+      <c r="EJ19" s="1"/>
+      <c r="EK19" s="1"/>
+      <c r="EL19" s="1"/>
+      <c r="EM19" s="1"/>
+      <c r="EN19" s="1"/>
+      <c r="EO19" s="1"/>
+      <c r="EP19" s="1"/>
+      <c r="EQ19" s="1"/>
+      <c r="ER19" s="1"/>
     </row>
-    <row r="20" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -5164,8 +6518,86 @@
       <c r="BX20" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="BY20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BZ20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CA20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CB20" s="1"/>
+      <c r="CC20" s="1"/>
+      <c r="CD20" s="1"/>
+      <c r="CE20" s="1"/>
+      <c r="CF20" s="1"/>
+      <c r="CG20" s="1"/>
+      <c r="CH20" s="1"/>
+      <c r="CI20" s="1"/>
+      <c r="CJ20" s="1"/>
+      <c r="CK20" s="1"/>
+      <c r="CL20" s="1"/>
+      <c r="CM20" s="1"/>
+      <c r="CN20" s="1"/>
+      <c r="CO20" s="1"/>
+      <c r="CP20" s="1"/>
+      <c r="CQ20" s="1"/>
+      <c r="CR20" s="1"/>
+      <c r="CS20" s="1"/>
+      <c r="CT20" s="1"/>
+      <c r="CU20" s="1"/>
+      <c r="CV20" s="1"/>
+      <c r="CW20" s="1"/>
+      <c r="CX20" s="1"/>
+      <c r="CY20" s="1"/>
+      <c r="CZ20" s="1"/>
+      <c r="DA20" s="1"/>
+      <c r="DB20" s="1"/>
+      <c r="DC20" s="1"/>
+      <c r="DD20" s="1"/>
+      <c r="DE20" s="1"/>
+      <c r="DF20" s="1"/>
+      <c r="DG20" s="1"/>
+      <c r="DH20" s="1"/>
+      <c r="DI20" s="1"/>
+      <c r="DJ20" s="1"/>
+      <c r="DK20" s="1"/>
+      <c r="DL20" s="1"/>
+      <c r="DM20" s="1"/>
+      <c r="DN20" s="1"/>
+      <c r="DO20" s="1"/>
+      <c r="DP20" s="1"/>
+      <c r="DQ20" s="1"/>
+      <c r="DR20" s="1"/>
+      <c r="DS20" s="1"/>
+      <c r="DT20" s="1"/>
+      <c r="DU20" s="1"/>
+      <c r="DV20" s="1"/>
+      <c r="DW20" s="1"/>
+      <c r="DX20" s="1"/>
+      <c r="DY20" s="1"/>
+      <c r="DZ20" s="1"/>
+      <c r="EA20" s="1"/>
+      <c r="EB20" s="1"/>
+      <c r="EC20" s="1"/>
+      <c r="ED20" s="1"/>
+      <c r="EE20" s="1"/>
+      <c r="EF20" s="1"/>
+      <c r="EG20" s="1"/>
+      <c r="EH20" s="1"/>
+      <c r="EI20" s="1"/>
+      <c r="EJ20" s="1"/>
+      <c r="EK20" s="1"/>
+      <c r="EL20" s="1"/>
+      <c r="EM20" s="1"/>
+      <c r="EN20" s="1"/>
+      <c r="EO20" s="1"/>
+      <c r="EP20" s="1"/>
+      <c r="EQ20" s="1"/>
+      <c r="ER20" s="1"/>
     </row>
-    <row r="21" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -5386,8 +6818,86 @@
       <c r="BX21" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="BY21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BZ21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CA21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CB21" s="1"/>
+      <c r="CC21" s="1"/>
+      <c r="CD21" s="1"/>
+      <c r="CE21" s="1"/>
+      <c r="CF21" s="1"/>
+      <c r="CG21" s="1"/>
+      <c r="CH21" s="1"/>
+      <c r="CI21" s="1"/>
+      <c r="CJ21" s="1"/>
+      <c r="CK21" s="1"/>
+      <c r="CL21" s="1"/>
+      <c r="CM21" s="1"/>
+      <c r="CN21" s="1"/>
+      <c r="CO21" s="1"/>
+      <c r="CP21" s="1"/>
+      <c r="CQ21" s="1"/>
+      <c r="CR21" s="1"/>
+      <c r="CS21" s="1"/>
+      <c r="CT21" s="1"/>
+      <c r="CU21" s="1"/>
+      <c r="CV21" s="1"/>
+      <c r="CW21" s="1"/>
+      <c r="CX21" s="1"/>
+      <c r="CY21" s="1"/>
+      <c r="CZ21" s="1"/>
+      <c r="DA21" s="1"/>
+      <c r="DB21" s="1"/>
+      <c r="DC21" s="1"/>
+      <c r="DD21" s="1"/>
+      <c r="DE21" s="1"/>
+      <c r="DF21" s="1"/>
+      <c r="DG21" s="1"/>
+      <c r="DH21" s="1"/>
+      <c r="DI21" s="1"/>
+      <c r="DJ21" s="1"/>
+      <c r="DK21" s="1"/>
+      <c r="DL21" s="1"/>
+      <c r="DM21" s="1"/>
+      <c r="DN21" s="1"/>
+      <c r="DO21" s="1"/>
+      <c r="DP21" s="1"/>
+      <c r="DQ21" s="1"/>
+      <c r="DR21" s="1"/>
+      <c r="DS21" s="1"/>
+      <c r="DT21" s="1"/>
+      <c r="DU21" s="1"/>
+      <c r="DV21" s="1"/>
+      <c r="DW21" s="1"/>
+      <c r="DX21" s="1"/>
+      <c r="DY21" s="1"/>
+      <c r="DZ21" s="1"/>
+      <c r="EA21" s="1"/>
+      <c r="EB21" s="1"/>
+      <c r="EC21" s="1"/>
+      <c r="ED21" s="1"/>
+      <c r="EE21" s="1"/>
+      <c r="EF21" s="1"/>
+      <c r="EG21" s="1"/>
+      <c r="EH21" s="1"/>
+      <c r="EI21" s="1"/>
+      <c r="EJ21" s="1"/>
+      <c r="EK21" s="1"/>
+      <c r="EL21" s="1"/>
+      <c r="EM21" s="1"/>
+      <c r="EN21" s="1"/>
+      <c r="EO21" s="1"/>
+      <c r="EP21" s="1"/>
+      <c r="EQ21" s="1"/>
+      <c r="ER21" s="1"/>
     </row>
-    <row r="22" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:148" x14ac:dyDescent="0.25">
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
@@ -5417,7 +6927,7 @@
       <c r="AO22" s="6"/>
       <c r="AP22" s="6"/>
     </row>
-    <row r="28" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:148" x14ac:dyDescent="0.25">
       <c r="BF28" s="5"/>
     </row>
   </sheetData>
@@ -5432,7 +6942,7 @@
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:ANI2 AJ22:CQ1048576 CS22:ANI1048576 A23:AI1048576">
+  <conditionalFormatting sqref="AJ22:CQ1048576 CS22:ANI1048576 A23:AI1048576 C1:ANI2">
     <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/3des/frequencia.xlsx
+++ b/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDEEF460-857D-40C3-AD47-28B58AA5B3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488BB5CD-1B8A-4B3A-BBE7-9FA1E1246402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,19 @@
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -26,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="33">
   <si>
     <t>Alunos</t>
   </si>
@@ -134,7 +145,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mmm"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -166,6 +177,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -184,10 +202,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -212,9 +231,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -643,10 +666,10 @@
   <dimension ref="A1:ER28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BN3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="BW3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BZ21" sqref="BZ21"/>
+      <selection pane="bottomRight" activeCell="CD6" sqref="CD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,7 +710,9 @@
     <col min="74" max="75" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="76" max="76" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="77" max="78" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="79" max="81" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="82" max="83" width="6.7109375" customWidth="1"/>
     <col min="84" max="84" width="7.42578125" customWidth="1"/>
     <col min="85" max="88" width="6.7109375" customWidth="1"/>
@@ -1429,10 +1454,12 @@
       <c r="CA3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CB3" s="1"/>
+      <c r="CB3" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CC3" s="1"/>
       <c r="CD3" s="1"/>
-      <c r="CE3" s="1"/>
+      <c r="CE3" s="12"/>
       <c r="CF3" s="1"/>
       <c r="CG3" s="1"/>
       <c r="CH3" s="1"/>
@@ -1729,10 +1756,12 @@
       <c r="CA4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CB4" s="1"/>
+      <c r="CB4" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="CC4" s="1"/>
       <c r="CD4" s="1"/>
-      <c r="CE4" s="1"/>
+      <c r="CE4" s="12"/>
       <c r="CF4" s="1"/>
       <c r="CG4" s="1"/>
       <c r="CH4" s="1"/>
@@ -2029,10 +2058,12 @@
       <c r="CA5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CB5" s="1"/>
+      <c r="CB5" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CC5" s="1"/>
       <c r="CD5" s="1"/>
-      <c r="CE5" s="1"/>
+      <c r="CE5" s="12"/>
       <c r="CF5" s="1"/>
       <c r="CG5" s="1"/>
       <c r="CH5" s="1"/>
@@ -2329,10 +2360,12 @@
       <c r="CA6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CB6" s="1"/>
+      <c r="CB6" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CC6" s="1"/>
       <c r="CD6" s="1"/>
-      <c r="CE6" s="1"/>
+      <c r="CE6" s="12"/>
       <c r="CF6" s="1"/>
       <c r="CG6" s="1"/>
       <c r="CH6" s="1"/>
@@ -2629,10 +2662,12 @@
       <c r="CA7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CB7" s="1"/>
+      <c r="CB7" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CC7" s="1"/>
       <c r="CD7" s="1"/>
-      <c r="CE7" s="1"/>
+      <c r="CE7" s="12"/>
       <c r="CF7" s="1"/>
       <c r="CG7" s="1"/>
       <c r="CH7" s="1"/>
@@ -2929,10 +2964,12 @@
       <c r="CA8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CB8" s="1"/>
+      <c r="CB8" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CC8" s="1"/>
       <c r="CD8" s="1"/>
-      <c r="CE8" s="1"/>
+      <c r="CE8" s="12"/>
       <c r="CF8" s="1"/>
       <c r="CG8" s="1"/>
       <c r="CH8" s="1"/>
@@ -3229,10 +3266,12 @@
       <c r="CA9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CB9" s="1"/>
+      <c r="CB9" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="CC9" s="1"/>
       <c r="CD9" s="1"/>
-      <c r="CE9" s="1"/>
+      <c r="CE9" s="12"/>
       <c r="CF9" s="1"/>
       <c r="CG9" s="1"/>
       <c r="CH9" s="1"/>
@@ -3527,10 +3566,12 @@
       <c r="CA10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CB10" s="1"/>
+      <c r="CB10" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="CC10" s="1"/>
       <c r="CD10" s="1"/>
-      <c r="CE10" s="1"/>
+      <c r="CE10" s="12"/>
       <c r="CF10" s="1"/>
       <c r="CG10" s="1"/>
       <c r="CH10" s="1"/>
@@ -3827,10 +3868,12 @@
       <c r="CA11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CB11" s="1"/>
+      <c r="CB11" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CC11" s="1"/>
       <c r="CD11" s="1"/>
-      <c r="CE11" s="1"/>
+      <c r="CE11" s="12"/>
       <c r="CF11" s="1"/>
       <c r="CG11" s="1"/>
       <c r="CH11" s="1"/>
@@ -4127,10 +4170,12 @@
       <c r="CA12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CB12" s="1"/>
+      <c r="CB12" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CC12" s="1"/>
       <c r="CD12" s="1"/>
-      <c r="CE12" s="1"/>
+      <c r="CE12" s="12"/>
       <c r="CF12" s="1"/>
       <c r="CG12" s="1"/>
       <c r="CH12" s="1"/>
@@ -4427,10 +4472,12 @@
       <c r="CA13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CB13" s="1"/>
+      <c r="CB13" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CC13" s="1"/>
       <c r="CD13" s="1"/>
-      <c r="CE13" s="1"/>
+      <c r="CE13" s="12"/>
       <c r="CF13" s="1"/>
       <c r="CG13" s="1"/>
       <c r="CH13" s="1"/>
@@ -4727,10 +4774,12 @@
       <c r="CA14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CB14" s="1"/>
+      <c r="CB14" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CC14" s="1"/>
       <c r="CD14" s="1"/>
-      <c r="CE14" s="1"/>
+      <c r="CE14" s="12"/>
       <c r="CF14" s="1"/>
       <c r="CG14" s="1"/>
       <c r="CH14" s="1"/>
@@ -5027,10 +5076,12 @@
       <c r="CA15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CB15" s="1"/>
+      <c r="CB15" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CC15" s="1"/>
       <c r="CD15" s="1"/>
-      <c r="CE15" s="1"/>
+      <c r="CE15" s="12"/>
       <c r="CF15" s="1"/>
       <c r="CG15" s="1"/>
       <c r="CH15" s="1"/>
@@ -5327,10 +5378,12 @@
       <c r="CA16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CB16" s="1"/>
+      <c r="CB16" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="CC16" s="1"/>
       <c r="CD16" s="1"/>
-      <c r="CE16" s="1"/>
+      <c r="CE16" s="12"/>
       <c r="CF16" s="1"/>
       <c r="CG16" s="1"/>
       <c r="CH16" s="1"/>
@@ -5627,10 +5680,12 @@
       <c r="CA17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CB17" s="1"/>
+      <c r="CB17" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="CC17" s="1"/>
       <c r="CD17" s="1"/>
-      <c r="CE17" s="1"/>
+      <c r="CE17" s="12"/>
       <c r="CF17" s="1"/>
       <c r="CG17" s="1"/>
       <c r="CH17" s="1"/>
@@ -5927,10 +5982,12 @@
       <c r="CA18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CB18" s="1"/>
+      <c r="CB18" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CC18" s="1"/>
       <c r="CD18" s="1"/>
-      <c r="CE18" s="1"/>
+      <c r="CE18" s="12"/>
       <c r="CF18" s="1"/>
       <c r="CG18" s="1"/>
       <c r="CH18" s="1"/>
@@ -6227,10 +6284,12 @@
       <c r="CA19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CB19" s="1"/>
+      <c r="CB19" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CC19" s="1"/>
       <c r="CD19" s="1"/>
-      <c r="CE19" s="1"/>
+      <c r="CE19" s="12"/>
       <c r="CF19" s="1"/>
       <c r="CG19" s="1"/>
       <c r="CH19" s="1"/>
@@ -6527,10 +6586,12 @@
       <c r="CA20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CB20" s="1"/>
+      <c r="CB20" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CC20" s="1"/>
       <c r="CD20" s="1"/>
-      <c r="CE20" s="1"/>
+      <c r="CE20" s="12"/>
       <c r="CF20" s="1"/>
       <c r="CG20" s="1"/>
       <c r="CH20" s="1"/>
@@ -6827,10 +6888,12 @@
       <c r="CA21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CB21" s="1"/>
+      <c r="CB21" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CC21" s="1"/>
       <c r="CD21" s="1"/>
-      <c r="CE21" s="1"/>
+      <c r="CE21" s="12"/>
       <c r="CF21" s="1"/>
       <c r="CG21" s="1"/>
       <c r="CH21" s="1"/>
@@ -6942,7 +7005,7 @@
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ22:CQ1048576 CS22:ANI1048576 A23:AI1048576 C1:ANI2">
+  <conditionalFormatting sqref="C1:ANI2 AJ22:CQ1048576 CS22:ANI1048576 A23:AI1048576">
     <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/3des/frequencia.xlsx
+++ b/3des/frequencia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488BB5CD-1B8A-4B3A-BBE7-9FA1E1246402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D028C7E8-481D-4CF7-9C98-F61134804921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,6 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -37,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="36">
   <si>
     <t>Alunos</t>
   </si>
@@ -137,6 +126,15 @@
   <si>
     <t>q</t>
   </si>
+  <si>
+    <t>Presença</t>
+  </si>
+  <si>
+    <t>Falta</t>
+  </si>
+  <si>
+    <t>Freq</t>
+  </si>
 </sst>
 </file>
 
@@ -206,7 +204,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -228,18 +226,89 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -663,20 +732,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:ER28"/>
+  <dimension ref="A1:EN45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BW3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CD6" sqref="CD6"/>
+      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.7109375" customWidth="1"/>
     <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
@@ -692,55 +763,53 @@
     <col min="33" max="34" width="7" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="36" max="37" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="40" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="45" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="50" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="53" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="55" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="58" max="60" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="62" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="65" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="66" max="68" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="69" max="70" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="71" max="73" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="74" max="75" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="77" max="78" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="82" max="83" width="6.7109375" customWidth="1"/>
-    <col min="84" max="84" width="7.42578125" customWidth="1"/>
-    <col min="85" max="88" width="6.7109375" customWidth="1"/>
-    <col min="89" max="89" width="7.42578125" customWidth="1"/>
-    <col min="90" max="90" width="7.7109375" customWidth="1"/>
-    <col min="91" max="93" width="6.7109375" customWidth="1"/>
-    <col min="94" max="94" width="7.42578125" customWidth="1"/>
-    <col min="95" max="95" width="6.7109375" customWidth="1"/>
-    <col min="96" max="96" width="7.7109375" customWidth="1"/>
-    <col min="97" max="98" width="6.7109375" customWidth="1"/>
-    <col min="99" max="99" width="7.42578125" customWidth="1"/>
-    <col min="100" max="100" width="6.7109375" customWidth="1"/>
-    <col min="101" max="103" width="7.140625" customWidth="1"/>
-    <col min="104" max="104" width="7.42578125" customWidth="1"/>
-    <col min="105" max="108" width="7.140625" customWidth="1"/>
-    <col min="109" max="109" width="7.42578125" customWidth="1"/>
-    <col min="110" max="113" width="7.140625" customWidth="1"/>
-    <col min="114" max="114" width="7.42578125" customWidth="1"/>
-    <col min="115" max="118" width="7.140625" customWidth="1"/>
-    <col min="119" max="119" width="7.42578125" customWidth="1"/>
-    <col min="120" max="120" width="6.7109375" customWidth="1"/>
+    <col min="38" max="38" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="41" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="46" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="49" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="51" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="53" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="56" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="58" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="63" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="6.85546875" customWidth="1"/>
+    <col min="65" max="66" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="69" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="70" max="71" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="73" max="74" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="75" max="77" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="78" max="79" width="6.7109375" customWidth="1"/>
+    <col min="80" max="80" width="7.42578125" customWidth="1"/>
+    <col min="81" max="84" width="6.7109375" customWidth="1"/>
+    <col min="85" max="85" width="7.42578125" customWidth="1"/>
+    <col min="86" max="86" width="7.7109375" customWidth="1"/>
+    <col min="87" max="89" width="6.7109375" customWidth="1"/>
+    <col min="90" max="90" width="7.42578125" customWidth="1"/>
+    <col min="91" max="91" width="6.7109375" customWidth="1"/>
+    <col min="92" max="92" width="7.7109375" customWidth="1"/>
+    <col min="93" max="94" width="6.7109375" customWidth="1"/>
+    <col min="95" max="95" width="7.42578125" customWidth="1"/>
+    <col min="96" max="96" width="6.7109375" customWidth="1"/>
+    <col min="97" max="99" width="7.140625" customWidth="1"/>
+    <col min="100" max="100" width="7.42578125" customWidth="1"/>
+    <col min="101" max="104" width="7.140625" customWidth="1"/>
+    <col min="105" max="105" width="7.42578125" customWidth="1"/>
+    <col min="106" max="109" width="7.140625" customWidth="1"/>
+    <col min="110" max="110" width="7.42578125" customWidth="1"/>
+    <col min="111" max="114" width="7.140625" customWidth="1"/>
+    <col min="115" max="115" width="7.42578125" customWidth="1"/>
+    <col min="116" max="116" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:144" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="12"/>
       <c r="C1" s="2">
         <v>45126</v>
       </c>
@@ -850,136 +919,124 @@
         <v>45175</v>
       </c>
       <c r="AM1" s="2">
-        <v>45176</v>
+        <v>45182</v>
       </c>
       <c r="AN1" s="2">
-        <v>45177</v>
+        <v>45183</v>
       </c>
       <c r="AO1" s="2">
-        <v>45180</v>
+        <v>45184</v>
       </c>
       <c r="AP1" s="2">
-        <v>45181</v>
+        <v>45187</v>
       </c>
       <c r="AQ1" s="2">
-        <v>45182</v>
+        <v>45188</v>
       </c>
       <c r="AR1" s="2">
-        <v>45183</v>
+        <v>45189</v>
       </c>
       <c r="AS1" s="2">
-        <v>45184</v>
+        <v>45190</v>
       </c>
       <c r="AT1" s="2">
-        <v>45187</v>
+        <v>45191</v>
       </c>
       <c r="AU1" s="2">
-        <v>45188</v>
+        <v>45192</v>
       </c>
       <c r="AV1" s="2">
-        <v>45189</v>
+        <v>45195</v>
       </c>
       <c r="AW1" s="2">
-        <v>45190</v>
+        <v>45196</v>
       </c>
       <c r="AX1" s="2">
-        <v>45191</v>
+        <v>45197</v>
       </c>
       <c r="AY1" s="2">
-        <v>45192</v>
+        <v>45198</v>
       </c>
       <c r="AZ1" s="2">
-        <v>45195</v>
+        <v>45201</v>
       </c>
       <c r="BA1" s="2">
-        <v>45196</v>
+        <v>45202</v>
       </c>
       <c r="BB1" s="2">
-        <v>45197</v>
+        <v>45203</v>
       </c>
       <c r="BC1" s="2">
-        <v>45198</v>
+        <v>45204</v>
       </c>
       <c r="BD1" s="2">
-        <v>45201</v>
-      </c>
-      <c r="BE1" s="2">
-        <v>45202</v>
-      </c>
-      <c r="BF1" s="2">
-        <v>45203</v>
-      </c>
-      <c r="BG1" s="2">
-        <v>45204</v>
-      </c>
-      <c r="BH1" s="2">
         <v>45205</v>
       </c>
+      <c r="BE1" s="9">
+        <v>45208</v>
+      </c>
+      <c r="BF1" s="9">
+        <v>45209</v>
+      </c>
+      <c r="BG1" s="9">
+        <v>45210</v>
+      </c>
+      <c r="BH1" s="9">
+        <v>45215</v>
+      </c>
       <c r="BI1" s="9">
-        <v>45208</v>
+        <v>45216</v>
       </c>
       <c r="BJ1" s="9">
-        <v>45209</v>
+        <v>45217</v>
       </c>
       <c r="BK1" s="9">
-        <v>45210</v>
+        <v>45218</v>
       </c>
       <c r="BL1" s="9">
-        <v>45215</v>
-      </c>
-      <c r="BM1" s="9">
-        <v>45216</v>
-      </c>
-      <c r="BN1" s="9">
-        <v>45217</v>
-      </c>
-      <c r="BO1" s="9">
-        <v>45218</v>
-      </c>
-      <c r="BP1" s="9">
         <v>45219</v>
       </c>
+      <c r="BM1" s="10">
+        <v>45222</v>
+      </c>
+      <c r="BN1" s="10">
+        <v>45223</v>
+      </c>
+      <c r="BO1" s="10">
+        <v>45224</v>
+      </c>
+      <c r="BP1" s="10">
+        <v>45225</v>
+      </c>
       <c r="BQ1" s="10">
-        <v>45222</v>
+        <v>45226</v>
       </c>
       <c r="BR1" s="10">
-        <v>45223</v>
+        <v>45229</v>
       </c>
       <c r="BS1" s="10">
-        <v>45224</v>
+        <v>45230</v>
       </c>
       <c r="BT1" s="10">
-        <v>45225</v>
+        <v>45231</v>
       </c>
       <c r="BU1" s="10">
-        <v>45226</v>
+        <v>45236</v>
       </c>
       <c r="BV1" s="10">
-        <v>45229</v>
+        <v>45237</v>
       </c>
       <c r="BW1" s="10">
-        <v>45230</v>
+        <v>45238</v>
       </c>
       <c r="BX1" s="10">
-        <v>45231</v>
+        <v>45239</v>
       </c>
       <c r="BY1" s="10">
-        <v>45236</v>
-      </c>
-      <c r="BZ1" s="10">
-        <v>45237</v>
-      </c>
-      <c r="CA1" s="10">
-        <v>45238</v>
-      </c>
-      <c r="CB1" s="10">
-        <v>45239</v>
-      </c>
-      <c r="CC1" s="10">
         <v>45240</v>
       </c>
     </row>
-    <row r="2" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1101,13 +1158,13 @@
         <v>3</v>
       </c>
       <c r="AO2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP2" t="s">
         <v>4</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>5</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>3</v>
       </c>
       <c r="AR2" t="s">
         <v>3</v>
@@ -1116,22 +1173,22 @@
         <v>3</v>
       </c>
       <c r="AT2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU2" t="s">
         <v>4</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AV2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW2" t="s">
         <v>5</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>3</v>
       </c>
       <c r="AX2" t="s">
         <v>3</v>
       </c>
       <c r="AY2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ2" t="s">
         <v>4</v>
@@ -1146,37 +1203,37 @@
         <v>3</v>
       </c>
       <c r="BD2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE2" t="s">
         <v>4</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BF2" t="s">
         <v>5</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>3</v>
       </c>
       <c r="BG2" t="s">
         <v>3</v>
       </c>
       <c r="BH2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BJ2" t="s">
         <v>3</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>5</v>
       </c>
       <c r="BK2" t="s">
         <v>3</v>
       </c>
       <c r="BL2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BM2" t="s">
         <v>5</v>
       </c>
       <c r="BN2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BO2" t="s">
         <v>3</v>
@@ -1185,46 +1242,34 @@
         <v>3</v>
       </c>
       <c r="BQ2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BR2" t="s">
         <v>4</v>
       </c>
       <c r="BS2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BT2" t="s">
         <v>3</v>
       </c>
       <c r="BU2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BW2" t="s">
         <v>3</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>5</v>
       </c>
       <c r="BX2" t="s">
         <v>3</v>
       </c>
       <c r="BY2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>5</v>
-      </c>
-      <c r="CA2" t="s">
         <v>3</v>
       </c>
-      <c r="CB2" t="s">
-        <v>3</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="3" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1339,15 +1384,23 @@
       <c r="AL3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AM3" s="6"/>
-      <c r="AN3" s="6"/>
-      <c r="AO3" s="6"/>
-      <c r="AP3" s="6"/>
+      <c r="AM3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP3" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AQ3" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR3" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS3" s="6" t="s">
         <v>8</v>
@@ -1362,10 +1415,10 @@
         <v>8</v>
       </c>
       <c r="AW3" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX3" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY3" s="6" t="s">
         <v>8</v>
@@ -1374,19 +1427,19 @@
         <v>8</v>
       </c>
       <c r="BA3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="BB3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="BC3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BD3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BE3" s="6" t="s">
-        <v>8</v>
+        <v>8</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="BF3" s="1" t="s">
         <v>8</v>
@@ -1395,19 +1448,19 @@
         <v>8</v>
       </c>
       <c r="BH3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BI3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BJ3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BK3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BM3" s="1" t="s">
         <v>8</v>
@@ -1416,10 +1469,10 @@
         <v>8</v>
       </c>
       <c r="BO3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BP3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BQ3" s="1" t="s">
         <v>8</v>
@@ -1437,29 +1490,21 @@
         <v>8</v>
       </c>
       <c r="BV3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BW3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BX3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="BY3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="BZ3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CA3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CB3" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="BY3" s="1"/>
+      <c r="BZ3" s="1"/>
+      <c r="CA3" s="11"/>
+      <c r="CB3" s="1"/>
       <c r="CC3" s="1"/>
       <c r="CD3" s="1"/>
-      <c r="CE3" s="12"/>
+      <c r="CE3" s="1"/>
       <c r="CF3" s="1"/>
       <c r="CG3" s="1"/>
       <c r="CH3" s="1"/>
@@ -1521,12 +1566,8 @@
       <c r="EL3" s="1"/>
       <c r="EM3" s="1"/>
       <c r="EN3" s="1"/>
-      <c r="EO3" s="1"/>
-      <c r="EP3" s="1"/>
-      <c r="EQ3" s="1"/>
-      <c r="ER3" s="1"/>
     </row>
-    <row r="4" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1641,15 +1682,23 @@
       <c r="AL4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AM4" s="6"/>
-      <c r="AN4" s="6"/>
-      <c r="AO4" s="6"/>
-      <c r="AP4" s="6"/>
+      <c r="AM4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP4" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AQ4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="AR4" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS4" s="6" t="s">
         <v>8</v>
@@ -1678,16 +1727,16 @@
       <c r="BA4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BB4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BC4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BD4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BE4" s="6" t="s">
+      <c r="BB4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BE4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BF4" s="1" t="s">
@@ -1697,7 +1746,7 @@
         <v>7</v>
       </c>
       <c r="BH4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BI4" s="1" t="s">
         <v>8</v>
@@ -1724,19 +1773,19 @@
         <v>8</v>
       </c>
       <c r="BQ4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BR4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BS4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BT4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BU4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BV4" s="1" t="s">
         <v>8</v>
@@ -1747,21 +1796,13 @@
       <c r="BX4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="BY4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="BZ4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CA4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CB4" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="BY4" s="1"/>
+      <c r="BZ4" s="1"/>
+      <c r="CA4" s="11"/>
+      <c r="CB4" s="1"/>
       <c r="CC4" s="1"/>
       <c r="CD4" s="1"/>
-      <c r="CE4" s="12"/>
+      <c r="CE4" s="1"/>
       <c r="CF4" s="1"/>
       <c r="CG4" s="1"/>
       <c r="CH4" s="1"/>
@@ -1823,12 +1864,8 @@
       <c r="EL4" s="1"/>
       <c r="EM4" s="1"/>
       <c r="EN4" s="1"/>
-      <c r="EO4" s="1"/>
-      <c r="EP4" s="1"/>
-      <c r="EQ4" s="1"/>
-      <c r="ER4" s="1"/>
     </row>
-    <row r="5" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1943,12 +1980,20 @@
       <c r="AL5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AM5" s="6"/>
-      <c r="AN5" s="6"/>
-      <c r="AO5" s="6"/>
-      <c r="AP5" s="6"/>
+      <c r="AM5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP5" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AQ5" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR5" s="6" t="s">
         <v>8</v>
@@ -1957,10 +2002,10 @@
         <v>7</v>
       </c>
       <c r="AT5" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU5" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV5" s="6" t="s">
         <v>8</v>
@@ -1978,55 +2023,55 @@
         <v>8</v>
       </c>
       <c r="BA5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="BB5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BC5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BD5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BE5" s="6" t="s">
-        <v>8</v>
+        <v>8</v>
+      </c>
+      <c r="BB5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BC5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BE5" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="BF5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="BG5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BH5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BI5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BJ5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BK5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BL5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BM5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BN5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BO5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BP5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BQ5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BR5" s="1" t="s">
         <v>7</v>
@@ -2035,35 +2080,27 @@
         <v>8</v>
       </c>
       <c r="BT5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BU5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BV5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="BW5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BX5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="BY5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="BZ5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CA5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CB5" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="BY5" s="1"/>
+      <c r="BZ5" s="1"/>
+      <c r="CA5" s="11"/>
+      <c r="CB5" s="1"/>
       <c r="CC5" s="1"/>
       <c r="CD5" s="1"/>
-      <c r="CE5" s="12"/>
+      <c r="CE5" s="1"/>
       <c r="CF5" s="1"/>
       <c r="CG5" s="1"/>
       <c r="CH5" s="1"/>
@@ -2125,12 +2162,8 @@
       <c r="EL5" s="1"/>
       <c r="EM5" s="1"/>
       <c r="EN5" s="1"/>
-      <c r="EO5" s="1"/>
-      <c r="EP5" s="1"/>
-      <c r="EQ5" s="1"/>
-      <c r="ER5" s="1"/>
     </row>
-    <row r="6" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -2245,10 +2278,18 @@
       <c r="AL6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AM6" s="6"/>
-      <c r="AN6" s="6"/>
-      <c r="AO6" s="6"/>
-      <c r="AP6" s="6"/>
+      <c r="AM6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP6" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AQ6" s="6" t="s">
         <v>8</v>
       </c>
@@ -2256,7 +2297,7 @@
         <v>8</v>
       </c>
       <c r="AS6" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT6" s="6" t="s">
         <v>8</v>
@@ -2282,16 +2323,16 @@
       <c r="BA6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BB6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BC6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BD6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BE6" s="6" t="s">
+      <c r="BB6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BF6" s="1" t="s">
@@ -2301,7 +2342,7 @@
         <v>8</v>
       </c>
       <c r="BH6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BI6" s="1" t="s">
         <v>8</v>
@@ -2313,7 +2354,7 @@
         <v>8</v>
       </c>
       <c r="BL6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BM6" s="1" t="s">
         <v>8</v>
@@ -2346,26 +2387,18 @@
         <v>8</v>
       </c>
       <c r="BW6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BX6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="BY6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="BZ6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CA6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CB6" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="BY6" s="1"/>
+      <c r="BZ6" s="1"/>
+      <c r="CA6" s="11"/>
+      <c r="CB6" s="1"/>
       <c r="CC6" s="1"/>
       <c r="CD6" s="1"/>
-      <c r="CE6" s="12"/>
+      <c r="CE6" s="1"/>
       <c r="CF6" s="1"/>
       <c r="CG6" s="1"/>
       <c r="CH6" s="1"/>
@@ -2427,12 +2460,8 @@
       <c r="EL6" s="1"/>
       <c r="EM6" s="1"/>
       <c r="EN6" s="1"/>
-      <c r="EO6" s="1"/>
-      <c r="EP6" s="1"/>
-      <c r="EQ6" s="1"/>
-      <c r="ER6" s="1"/>
     </row>
-    <row r="7" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2547,10 +2576,18 @@
       <c r="AL7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AM7" s="6"/>
-      <c r="AN7" s="6"/>
-      <c r="AO7" s="6"/>
-      <c r="AP7" s="6"/>
+      <c r="AM7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP7" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AQ7" s="6" t="s">
         <v>8</v>
       </c>
@@ -2567,7 +2604,7 @@
         <v>8</v>
       </c>
       <c r="AV7" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW7" s="6" t="s">
         <v>8</v>
@@ -2579,22 +2616,22 @@
         <v>8</v>
       </c>
       <c r="AZ7" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BB7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BC7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BD7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BE7" s="6" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="BB7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE7" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="BF7" s="1" t="s">
         <v>8</v>
@@ -2621,7 +2658,7 @@
         <v>8</v>
       </c>
       <c r="BN7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BO7" s="1" t="s">
         <v>8</v>
@@ -2630,7 +2667,7 @@
         <v>8</v>
       </c>
       <c r="BQ7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BR7" s="1" t="s">
         <v>7</v>
@@ -2639,35 +2676,27 @@
         <v>8</v>
       </c>
       <c r="BT7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BU7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BV7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BW7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BX7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="BY7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="BZ7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CA7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CB7" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="BY7" s="1"/>
+      <c r="BZ7" s="1"/>
+      <c r="CA7" s="11"/>
+      <c r="CB7" s="1"/>
       <c r="CC7" s="1"/>
       <c r="CD7" s="1"/>
-      <c r="CE7" s="12"/>
+      <c r="CE7" s="1"/>
       <c r="CF7" s="1"/>
       <c r="CG7" s="1"/>
       <c r="CH7" s="1"/>
@@ -2729,12 +2758,8 @@
       <c r="EL7" s="1"/>
       <c r="EM7" s="1"/>
       <c r="EN7" s="1"/>
-      <c r="EO7" s="1"/>
-      <c r="EP7" s="1"/>
-      <c r="EQ7" s="1"/>
-      <c r="ER7" s="1"/>
     </row>
-    <row r="8" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -2849,10 +2874,18 @@
       <c r="AL8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AM8" s="6"/>
-      <c r="AN8" s="6"/>
-      <c r="AO8" s="6"/>
-      <c r="AP8" s="6"/>
+      <c r="AM8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP8" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AQ8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2872,7 +2905,7 @@
         <v>8</v>
       </c>
       <c r="AW8" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX8" s="6" t="s">
         <v>8</v>
@@ -2886,20 +2919,20 @@
       <c r="BA8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="BB8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BC8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BD8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BE8" s="6" t="s">
-        <v>7</v>
+      <c r="BB8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE8" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="BF8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BG8" s="1" t="s">
         <v>8</v>
@@ -2911,7 +2944,7 @@
         <v>8</v>
       </c>
       <c r="BJ8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BK8" s="1" t="s">
         <v>8</v>
@@ -2926,7 +2959,7 @@
         <v>8</v>
       </c>
       <c r="BO8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BP8" s="1" t="s">
         <v>8</v>
@@ -2938,10 +2971,10 @@
         <v>8</v>
       </c>
       <c r="BS8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BT8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BU8" s="1" t="s">
         <v>8</v>
@@ -2950,26 +2983,18 @@
         <v>8</v>
       </c>
       <c r="BW8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BX8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="BY8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="BZ8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CA8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CB8" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="BY8" s="1"/>
+      <c r="BZ8" s="1"/>
+      <c r="CA8" s="11"/>
+      <c r="CB8" s="1"/>
       <c r="CC8" s="1"/>
       <c r="CD8" s="1"/>
-      <c r="CE8" s="12"/>
+      <c r="CE8" s="1"/>
       <c r="CF8" s="1"/>
       <c r="CG8" s="1"/>
       <c r="CH8" s="1"/>
@@ -3031,12 +3056,8 @@
       <c r="EL8" s="1"/>
       <c r="EM8" s="1"/>
       <c r="EN8" s="1"/>
-      <c r="EO8" s="1"/>
-      <c r="EP8" s="1"/>
-      <c r="EQ8" s="1"/>
-      <c r="ER8" s="1"/>
     </row>
-    <row r="9" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -3151,18 +3172,26 @@
       <c r="AL9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AM9" s="6"/>
-      <c r="AN9" s="6"/>
-      <c r="AO9" s="6"/>
-      <c r="AP9" s="6"/>
+      <c r="AM9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP9" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AQ9" s="6" t="s">
         <v>8</v>
       </c>
       <c r="AR9" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS9" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT9" s="6" t="s">
         <v>8</v>
@@ -3171,7 +3200,7 @@
         <v>8</v>
       </c>
       <c r="AV9" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW9" s="6" t="s">
         <v>7</v>
@@ -3183,25 +3212,25 @@
         <v>8</v>
       </c>
       <c r="AZ9" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="BB9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BC9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BD9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BE9" s="6" t="s">
+      <c r="BB9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BC9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="BF9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BG9" s="1" t="s">
         <v>8</v>
@@ -3210,13 +3239,13 @@
         <v>8</v>
       </c>
       <c r="BI9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BJ9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BK9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BL9" s="1" t="s">
         <v>8</v>
@@ -3225,10 +3254,10 @@
         <v>8</v>
       </c>
       <c r="BN9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BO9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BP9" s="1" t="s">
         <v>8</v>
@@ -3243,35 +3272,27 @@
         <v>8</v>
       </c>
       <c r="BT9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BU9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BV9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BW9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BX9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="BY9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="BZ9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CA9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CB9" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="BY9" s="1"/>
+      <c r="BZ9" s="1"/>
+      <c r="CA9" s="11"/>
+      <c r="CB9" s="1"/>
       <c r="CC9" s="1"/>
       <c r="CD9" s="1"/>
-      <c r="CE9" s="12"/>
+      <c r="CE9" s="1"/>
       <c r="CF9" s="1"/>
       <c r="CG9" s="1"/>
       <c r="CH9" s="1"/>
@@ -3333,12 +3354,8 @@
       <c r="EL9" s="1"/>
       <c r="EM9" s="1"/>
       <c r="EN9" s="1"/>
-      <c r="EO9" s="1"/>
-      <c r="EP9" s="1"/>
-      <c r="EQ9" s="1"/>
-      <c r="ER9" s="1"/>
     </row>
-    <row r="10" spans="1:148" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:144" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -3451,15 +3468,23 @@
       <c r="AL10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AM10" s="6"/>
-      <c r="AN10" s="6"/>
-      <c r="AO10" s="6"/>
-      <c r="AP10" s="6"/>
+      <c r="AM10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP10" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AQ10" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR10" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS10" s="6" t="s">
         <v>8</v>
@@ -3471,49 +3496,49 @@
         <v>7</v>
       </c>
       <c r="AV10" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="AX10" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY10" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ10" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA10" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BC10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BD10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BE10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="BF10" s="6" t="s">
-        <v>8</v>
+      <c r="BC10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BE10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BF10" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="BG10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BH10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BI10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BJ10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BK10" s="1" t="s">
         <v>7</v>
@@ -3525,7 +3550,7 @@
         <v>8</v>
       </c>
       <c r="BN10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BO10" s="1" t="s">
         <v>7</v>
@@ -3537,19 +3562,19 @@
         <v>8</v>
       </c>
       <c r="BR10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BS10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="BT10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BU10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BV10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BW10" s="1" t="s">
         <v>7</v>
@@ -3557,21 +3582,13 @@
       <c r="BX10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="BY10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="BZ10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CA10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CB10" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="BY10" s="1"/>
+      <c r="BZ10" s="1"/>
+      <c r="CA10" s="11"/>
+      <c r="CB10" s="1"/>
       <c r="CC10" s="1"/>
       <c r="CD10" s="1"/>
-      <c r="CE10" s="12"/>
+      <c r="CE10" s="1"/>
       <c r="CF10" s="1"/>
       <c r="CG10" s="1"/>
       <c r="CH10" s="1"/>
@@ -3633,12 +3650,8 @@
       <c r="EL10" s="1"/>
       <c r="EM10" s="1"/>
       <c r="EN10" s="1"/>
-      <c r="EO10" s="1"/>
-      <c r="EP10" s="1"/>
-      <c r="EQ10" s="1"/>
-      <c r="ER10" s="1"/>
     </row>
-    <row r="11" spans="1:148" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:144" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -3753,18 +3766,26 @@
       <c r="AL11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AM11" s="6"/>
-      <c r="AN11" s="6"/>
-      <c r="AO11" s="6"/>
-      <c r="AP11" s="6"/>
+      <c r="AM11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP11" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AQ11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="AR11" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS11" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT11" s="6" t="s">
         <v>8</v>
@@ -3776,7 +3797,7 @@
         <v>7</v>
       </c>
       <c r="AW11" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX11" s="6" t="s">
         <v>8</v>
@@ -3785,34 +3806,34 @@
         <v>7</v>
       </c>
       <c r="AZ11" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="BB11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BC11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="BD11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BE11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BF11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="BC11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BF11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="BG11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="BH11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BI11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BJ11" s="1" t="s">
         <v>7</v>
@@ -3842,38 +3863,30 @@
         <v>7</v>
       </c>
       <c r="BS11" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BT11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="BU11" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BV11" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BW11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BX11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="BY11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="BZ11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CA11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CB11" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="BY11" s="1"/>
+      <c r="BZ11" s="1"/>
+      <c r="CA11" s="11"/>
+      <c r="CB11" s="1"/>
       <c r="CC11" s="1"/>
       <c r="CD11" s="1"/>
-      <c r="CE11" s="12"/>
+      <c r="CE11" s="1"/>
       <c r="CF11" s="1"/>
       <c r="CG11" s="1"/>
       <c r="CH11" s="1"/>
@@ -3935,12 +3948,8 @@
       <c r="EL11" s="1"/>
       <c r="EM11" s="1"/>
       <c r="EN11" s="1"/>
-      <c r="EO11" s="1"/>
-      <c r="EP11" s="1"/>
-      <c r="EQ11" s="1"/>
-      <c r="ER11" s="1"/>
     </row>
-    <row r="12" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -4055,36 +4064,44 @@
       <c r="AL12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AM12" s="6"/>
-      <c r="AN12" s="6"/>
-      <c r="AO12" s="6"/>
-      <c r="AP12" s="6"/>
+      <c r="AM12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP12" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AQ12" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR12" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS12" s="6" t="s">
         <v>8</v>
       </c>
       <c r="AT12" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU12" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV12" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW12" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX12" s="6" t="s">
         <v>8</v>
       </c>
       <c r="AY12" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ12" s="6" t="s">
         <v>8</v>
@@ -4092,16 +4109,16 @@
       <c r="BA12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="BB12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BC12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="BD12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BE12" s="6" t="s">
+      <c r="BB12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BE12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="BF12" s="1" t="s">
@@ -4111,10 +4128,10 @@
         <v>8</v>
       </c>
       <c r="BH12" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BI12" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BJ12" s="1" t="s">
         <v>8</v>
@@ -4132,7 +4149,7 @@
         <v>8</v>
       </c>
       <c r="BO12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BP12" s="1" t="s">
         <v>8</v>
@@ -4156,26 +4173,18 @@
         <v>8</v>
       </c>
       <c r="BW12" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BX12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="BY12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="BZ12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CA12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CB12" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="BY12" s="1"/>
+      <c r="BZ12" s="1"/>
+      <c r="CA12" s="11"/>
+      <c r="CB12" s="1"/>
       <c r="CC12" s="1"/>
       <c r="CD12" s="1"/>
-      <c r="CE12" s="12"/>
+      <c r="CE12" s="1"/>
       <c r="CF12" s="1"/>
       <c r="CG12" s="1"/>
       <c r="CH12" s="1"/>
@@ -4237,12 +4246,8 @@
       <c r="EL12" s="1"/>
       <c r="EM12" s="1"/>
       <c r="EN12" s="1"/>
-      <c r="EO12" s="1"/>
-      <c r="EP12" s="1"/>
-      <c r="EQ12" s="1"/>
-      <c r="ER12" s="1"/>
     </row>
-    <row r="13" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -4357,10 +4362,18 @@
       <c r="AL13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AM13" s="6"/>
-      <c r="AN13" s="6"/>
-      <c r="AO13" s="6"/>
-      <c r="AP13" s="6"/>
+      <c r="AM13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP13" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AQ13" s="6" t="s">
         <v>8</v>
       </c>
@@ -4380,10 +4393,10 @@
         <v>8</v>
       </c>
       <c r="AW13" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX13" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY13" s="6" t="s">
         <v>8</v>
@@ -4392,19 +4405,19 @@
         <v>8</v>
       </c>
       <c r="BA13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="BB13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="BC13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BD13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BE13" s="6" t="s">
-        <v>8</v>
+        <v>8</v>
+      </c>
+      <c r="BB13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE13" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="BF13" s="1" t="s">
         <v>8</v>
@@ -4416,16 +4429,16 @@
         <v>8</v>
       </c>
       <c r="BI13" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BJ13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BK13" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BL13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BM13" s="1" t="s">
         <v>8</v>
@@ -4434,10 +4447,10 @@
         <v>8</v>
       </c>
       <c r="BO13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BP13" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BQ13" s="1" t="s">
         <v>8</v>
@@ -4446,38 +4459,30 @@
         <v>8</v>
       </c>
       <c r="BS13" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BT13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BU13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BV13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BW13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BX13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="BY13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="BZ13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CA13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CB13" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="BY13" s="1"/>
+      <c r="BZ13" s="1"/>
+      <c r="CA13" s="11"/>
+      <c r="CB13" s="1"/>
       <c r="CC13" s="1"/>
       <c r="CD13" s="1"/>
-      <c r="CE13" s="12"/>
+      <c r="CE13" s="1"/>
       <c r="CF13" s="1"/>
       <c r="CG13" s="1"/>
       <c r="CH13" s="1"/>
@@ -4539,12 +4544,8 @@
       <c r="EL13" s="1"/>
       <c r="EM13" s="1"/>
       <c r="EN13" s="1"/>
-      <c r="EO13" s="1"/>
-      <c r="EP13" s="1"/>
-      <c r="EQ13" s="1"/>
-      <c r="ER13" s="1"/>
     </row>
-    <row r="14" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -4659,10 +4660,18 @@
       <c r="AL14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AM14" s="6"/>
-      <c r="AN14" s="6"/>
-      <c r="AO14" s="6"/>
-      <c r="AP14" s="6"/>
+      <c r="AM14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP14" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AQ14" s="6" t="s">
         <v>8</v>
       </c>
@@ -4670,7 +4679,7 @@
         <v>8</v>
       </c>
       <c r="AS14" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT14" s="6" t="s">
         <v>8</v>
@@ -4682,7 +4691,7 @@
         <v>8</v>
       </c>
       <c r="AW14" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX14" s="6" t="s">
         <v>8</v>
@@ -4694,92 +4703,84 @@
         <v>8</v>
       </c>
       <c r="BA14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="BB14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BC14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BD14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BE14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BB14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BE14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BF14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BG14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="BH14" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BI14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BJ14" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BK14" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BL14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BM14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BN14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BO14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BP14" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BQ14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="BR14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BS14" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BT14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BU14" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BV14" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BW14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BX14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="BY14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="BZ14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CA14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CB14" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="BY14" s="1"/>
+      <c r="BZ14" s="1"/>
+      <c r="CA14" s="11"/>
+      <c r="CB14" s="1"/>
       <c r="CC14" s="1"/>
       <c r="CD14" s="1"/>
-      <c r="CE14" s="12"/>
+      <c r="CE14" s="1"/>
       <c r="CF14" s="1"/>
       <c r="CG14" s="1"/>
       <c r="CH14" s="1"/>
@@ -4841,12 +4842,8 @@
       <c r="EL14" s="1"/>
       <c r="EM14" s="1"/>
       <c r="EN14" s="1"/>
-      <c r="EO14" s="1"/>
-      <c r="EP14" s="1"/>
-      <c r="EQ14" s="1"/>
-      <c r="ER14" s="1"/>
     </row>
-    <row r="15" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -4961,12 +4958,20 @@
       <c r="AL15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AM15" s="6"/>
-      <c r="AN15" s="6"/>
-      <c r="AO15" s="6"/>
-      <c r="AP15" s="6"/>
+      <c r="AM15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP15" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AQ15" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR15" s="6" t="s">
         <v>8</v>
@@ -4975,16 +4980,16 @@
         <v>8</v>
       </c>
       <c r="AT15" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU15" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV15" s="6" t="s">
         <v>8</v>
       </c>
       <c r="AW15" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX15" s="6" t="s">
         <v>8</v>
@@ -4993,25 +4998,25 @@
         <v>8</v>
       </c>
       <c r="AZ15" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="BB15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BC15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BD15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="BE15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BB15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BC15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BF15" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BG15" s="1" t="s">
         <v>8</v>
@@ -5038,10 +5043,10 @@
         <v>8</v>
       </c>
       <c r="BO15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BP15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BQ15" s="1" t="s">
         <v>8</v>
@@ -5050,10 +5055,10 @@
         <v>8</v>
       </c>
       <c r="BS15" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BT15" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BU15" s="1" t="s">
         <v>8</v>
@@ -5062,26 +5067,18 @@
         <v>8</v>
       </c>
       <c r="BW15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BX15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="BY15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="BZ15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CA15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CB15" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="BY15" s="1"/>
+      <c r="BZ15" s="1"/>
+      <c r="CA15" s="11"/>
+      <c r="CB15" s="1"/>
       <c r="CC15" s="1"/>
       <c r="CD15" s="1"/>
-      <c r="CE15" s="12"/>
+      <c r="CE15" s="1"/>
       <c r="CF15" s="1"/>
       <c r="CG15" s="1"/>
       <c r="CH15" s="1"/>
@@ -5143,12 +5140,8 @@
       <c r="EL15" s="1"/>
       <c r="EM15" s="1"/>
       <c r="EN15" s="1"/>
-      <c r="EO15" s="1"/>
-      <c r="EP15" s="1"/>
-      <c r="EQ15" s="1"/>
-      <c r="ER15" s="1"/>
     </row>
-    <row r="16" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -5263,10 +5256,18 @@
       <c r="AL16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AM16" s="6"/>
-      <c r="AN16" s="6"/>
-      <c r="AO16" s="6"/>
-      <c r="AP16" s="6"/>
+      <c r="AM16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP16" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AQ16" s="6" t="s">
         <v>8</v>
       </c>
@@ -5274,7 +5275,7 @@
         <v>8</v>
       </c>
       <c r="AS16" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT16" s="6" t="s">
         <v>8</v>
@@ -5286,7 +5287,7 @@
         <v>8</v>
       </c>
       <c r="AW16" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX16" s="6" t="s">
         <v>8</v>
@@ -5295,21 +5296,21 @@
         <v>8</v>
       </c>
       <c r="AZ16" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BB16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BC16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BD16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="BE16" s="6" t="s">
+      <c r="BB16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BF16" s="1" t="s">
@@ -5325,7 +5326,7 @@
         <v>8</v>
       </c>
       <c r="BJ16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BK16" s="1" t="s">
         <v>8</v>
@@ -5337,7 +5338,7 @@
         <v>8</v>
       </c>
       <c r="BN16" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BO16" s="1" t="s">
         <v>8</v>
@@ -5352,7 +5353,7 @@
         <v>8</v>
       </c>
       <c r="BS16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BT16" s="1" t="s">
         <v>8</v>
@@ -5367,23 +5368,15 @@
         <v>7</v>
       </c>
       <c r="BX16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="BY16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="BZ16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CA16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CB16" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="BY16" s="1"/>
+      <c r="BZ16" s="1"/>
+      <c r="CA16" s="11"/>
+      <c r="CB16" s="1"/>
       <c r="CC16" s="1"/>
       <c r="CD16" s="1"/>
-      <c r="CE16" s="12"/>
+      <c r="CE16" s="1"/>
       <c r="CF16" s="1"/>
       <c r="CG16" s="1"/>
       <c r="CH16" s="1"/>
@@ -5445,12 +5438,8 @@
       <c r="EL16" s="1"/>
       <c r="EM16" s="1"/>
       <c r="EN16" s="1"/>
-      <c r="EO16" s="1"/>
-      <c r="EP16" s="1"/>
-      <c r="EQ16" s="1"/>
-      <c r="ER16" s="1"/>
     </row>
-    <row r="17" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -5565,12 +5554,20 @@
       <c r="AL17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AM17" s="6"/>
-      <c r="AN17" s="6"/>
-      <c r="AO17" s="6"/>
-      <c r="AP17" s="6"/>
+      <c r="AM17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP17" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AQ17" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR17" s="6" t="s">
         <v>7</v>
@@ -5591,28 +5588,28 @@
         <v>7</v>
       </c>
       <c r="AX17" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY17" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ17" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="BB17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BC17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BD17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BE17" s="6" t="s">
-        <v>8</v>
+        <v>8</v>
+      </c>
+      <c r="BB17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BC17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE17" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="BF17" s="1" t="s">
         <v>7</v>
@@ -5624,34 +5621,34 @@
         <v>8</v>
       </c>
       <c r="BI17" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BJ17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="BK17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BL17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BM17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BN17" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BO17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="BP17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BQ17" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BR17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BS17" s="1" t="s">
         <v>7</v>
@@ -5671,21 +5668,13 @@
       <c r="BX17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="BY17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="BZ17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CA17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CB17" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="BY17" s="1"/>
+      <c r="BZ17" s="1"/>
+      <c r="CA17" s="11"/>
+      <c r="CB17" s="1"/>
       <c r="CC17" s="1"/>
       <c r="CD17" s="1"/>
-      <c r="CE17" s="12"/>
+      <c r="CE17" s="1"/>
       <c r="CF17" s="1"/>
       <c r="CG17" s="1"/>
       <c r="CH17" s="1"/>
@@ -5747,12 +5736,8 @@
       <c r="EL17" s="1"/>
       <c r="EM17" s="1"/>
       <c r="EN17" s="1"/>
-      <c r="EO17" s="1"/>
-      <c r="EP17" s="1"/>
-      <c r="EQ17" s="1"/>
-      <c r="ER17" s="1"/>
     </row>
-    <row r="18" spans="1:148" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:144" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -5867,10 +5852,18 @@
       <c r="AL18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AM18" s="6"/>
-      <c r="AN18" s="6"/>
-      <c r="AO18" s="6"/>
-      <c r="AP18" s="6"/>
+      <c r="AM18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP18" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AQ18" s="6" t="s">
         <v>8</v>
       </c>
@@ -5916,16 +5909,16 @@
       <c r="BE18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BF18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BG18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BH18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BI18" s="6" t="s">
+      <c r="BF18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BG18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BH18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BI18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BJ18" s="1" t="s">
@@ -5935,7 +5928,7 @@
         <v>8</v>
       </c>
       <c r="BL18" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BM18" s="1" t="s">
         <v>8</v>
@@ -5973,21 +5966,13 @@
       <c r="BX18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="BY18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="BZ18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CA18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CB18" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="BY18" s="1"/>
+      <c r="BZ18" s="1"/>
+      <c r="CA18" s="11"/>
+      <c r="CB18" s="1"/>
       <c r="CC18" s="1"/>
       <c r="CD18" s="1"/>
-      <c r="CE18" s="12"/>
+      <c r="CE18" s="1"/>
       <c r="CF18" s="1"/>
       <c r="CG18" s="1"/>
       <c r="CH18" s="1"/>
@@ -6049,12 +6034,8 @@
       <c r="EL18" s="1"/>
       <c r="EM18" s="1"/>
       <c r="EN18" s="1"/>
-      <c r="EO18" s="1"/>
-      <c r="EP18" s="1"/>
-      <c r="EQ18" s="1"/>
-      <c r="ER18" s="1"/>
     </row>
-    <row r="19" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -6169,10 +6150,18 @@
       <c r="AL19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AM19" s="6"/>
-      <c r="AN19" s="6"/>
-      <c r="AO19" s="6"/>
-      <c r="AP19" s="6"/>
+      <c r="AM19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP19" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AQ19" s="6" t="s">
         <v>8</v>
       </c>
@@ -6212,16 +6201,16 @@
       <c r="BC19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BD19" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BE19" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BF19" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BG19" s="6" t="s">
+      <c r="BD19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BF19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BG19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BH19" s="1" t="s">
@@ -6246,7 +6235,7 @@
         <v>8</v>
       </c>
       <c r="BO19" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BP19" s="1" t="s">
         <v>8</v>
@@ -6258,7 +6247,7 @@
         <v>8</v>
       </c>
       <c r="BS19" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BT19" s="1" t="s">
         <v>8</v>
@@ -6275,21 +6264,13 @@
       <c r="BX19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="BY19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="BZ19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CA19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CB19" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="BY19" s="1"/>
+      <c r="BZ19" s="1"/>
+      <c r="CA19" s="11"/>
+      <c r="CB19" s="1"/>
       <c r="CC19" s="1"/>
       <c r="CD19" s="1"/>
-      <c r="CE19" s="12"/>
+      <c r="CE19" s="1"/>
       <c r="CF19" s="1"/>
       <c r="CG19" s="1"/>
       <c r="CH19" s="1"/>
@@ -6351,12 +6332,8 @@
       <c r="EL19" s="1"/>
       <c r="EM19" s="1"/>
       <c r="EN19" s="1"/>
-      <c r="EO19" s="1"/>
-      <c r="EP19" s="1"/>
-      <c r="EQ19" s="1"/>
-      <c r="ER19" s="1"/>
     </row>
-    <row r="20" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -6471,21 +6448,29 @@
       <c r="AL20" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AM20" s="6"/>
-      <c r="AN20" s="6"/>
-      <c r="AO20" s="6"/>
-      <c r="AP20" s="6"/>
+      <c r="AM20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP20" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AQ20" s="6" t="s">
         <v>7</v>
       </c>
       <c r="AR20" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS20" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT20" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU20" s="6" t="s">
         <v>7</v>
@@ -6500,7 +6485,7 @@
         <v>8</v>
       </c>
       <c r="AY20" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ20" s="6" t="s">
         <v>8</v>
@@ -6508,20 +6493,20 @@
       <c r="BA20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BB20" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BC20" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BD20" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BE20" s="6" t="s">
+      <c r="BB20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BC20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BE20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BF20" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BG20" s="1" t="s">
         <v>8</v>
@@ -6536,10 +6521,10 @@
         <v>8</v>
       </c>
       <c r="BK20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BL20" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BM20" s="1" t="s">
         <v>8</v>
@@ -6548,7 +6533,7 @@
         <v>8</v>
       </c>
       <c r="BO20" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BP20" s="1" t="s">
         <v>8</v>
@@ -6557,41 +6542,33 @@
         <v>8</v>
       </c>
       <c r="BR20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BS20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BT20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BU20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BV20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="BW20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BX20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="BY20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="BZ20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CA20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CB20" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="BY20" s="1"/>
+      <c r="BZ20" s="1"/>
+      <c r="CA20" s="11"/>
+      <c r="CB20" s="1"/>
       <c r="CC20" s="1"/>
       <c r="CD20" s="1"/>
-      <c r="CE20" s="12"/>
+      <c r="CE20" s="1"/>
       <c r="CF20" s="1"/>
       <c r="CG20" s="1"/>
       <c r="CH20" s="1"/>
@@ -6653,12 +6630,8 @@
       <c r="EL20" s="1"/>
       <c r="EM20" s="1"/>
       <c r="EN20" s="1"/>
-      <c r="EO20" s="1"/>
-      <c r="EP20" s="1"/>
-      <c r="EQ20" s="1"/>
-      <c r="ER20" s="1"/>
     </row>
-    <row r="21" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -6773,12 +6746,20 @@
       <c r="AL21" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AM21" s="6"/>
-      <c r="AN21" s="6"/>
-      <c r="AO21" s="6"/>
-      <c r="AP21" s="6"/>
+      <c r="AM21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP21" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AQ21" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR21" s="6" t="s">
         <v>8</v>
@@ -6790,64 +6771,64 @@
         <v>7</v>
       </c>
       <c r="AU21" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV21" s="6" t="s">
         <v>8</v>
       </c>
       <c r="AW21" s="6" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="AX21" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY21" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ21" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="BB21" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BC21" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BD21" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="BE21" s="6" t="s">
-        <v>8</v>
+        <v>8</v>
+      </c>
+      <c r="BB21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE21" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="BF21" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BG21" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BH21" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BI21" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BJ21" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BK21" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BL21" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BM21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BN21" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BO21" s="1" t="s">
         <v>8</v>
@@ -6856,44 +6837,36 @@
         <v>8</v>
       </c>
       <c r="BQ21" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BR21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="BS21" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BT21" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BU21" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BV21" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BW21" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BX21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="BY21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="BZ21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CA21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CB21" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="BY21" s="1"/>
+      <c r="BZ21" s="1"/>
+      <c r="CA21" s="11"/>
+      <c r="CB21" s="1"/>
       <c r="CC21" s="1"/>
       <c r="CD21" s="1"/>
-      <c r="CE21" s="12"/>
+      <c r="CE21" s="1"/>
       <c r="CF21" s="1"/>
       <c r="CG21" s="1"/>
       <c r="CH21" s="1"/>
@@ -6955,12 +6928,8 @@
       <c r="EL21" s="1"/>
       <c r="EM21" s="1"/>
       <c r="EN21" s="1"/>
-      <c r="EO21" s="1"/>
-      <c r="EP21" s="1"/>
-      <c r="EQ21" s="1"/>
-      <c r="ER21" s="1"/>
     </row>
-    <row r="22" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:144" x14ac:dyDescent="0.25">
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
@@ -6985,32 +6954,376 @@
       <c r="AG22" s="1"/>
       <c r="AH22" s="1"/>
       <c r="AI22" s="1"/>
-      <c r="AM22" s="6"/>
-      <c r="AN22" s="6"/>
-      <c r="AO22" s="6"/>
-      <c r="AP22" s="6"/>
     </row>
-    <row r="28" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="BF28" s="5"/>
+    <row r="26" spans="1:144" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:144" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <f>COUNTIF(C3:FB3,"F")</f>
+        <v>20</v>
+      </c>
+      <c r="D27">
+        <f>COUNTIF(C3:FB3,"P")</f>
+        <v>54</v>
+      </c>
+      <c r="E27" s="13">
+        <f>D27/(D27+C27)</f>
+        <v>0.72972972972972971</v>
+      </c>
+    </row>
+    <row r="28" spans="1:144" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <f>COUNTIF(C4:FB4,"F")</f>
+        <v>16</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ref="D28:D45" si="0">COUNTIF(C4:FB4,"P")</f>
+        <v>58</v>
+      </c>
+      <c r="E28" s="13">
+        <f t="shared" ref="E28:E45" si="1">D28/(D28+C28)</f>
+        <v>0.78378378378378377</v>
+      </c>
+      <c r="BB28" s="5"/>
+    </row>
+    <row r="29" spans="1:144" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <f>COUNTIF(C5:FB5,"F")</f>
+        <v>34</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="E29" s="13">
+        <f t="shared" si="1"/>
+        <v>0.54054054054054057</v>
+      </c>
+    </row>
+    <row r="30" spans="1:144" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <f>COUNTIF(C6:FB6,"F")</f>
+        <v>8</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="E30" s="13">
+        <f t="shared" si="1"/>
+        <v>0.89189189189189189</v>
+      </c>
+    </row>
+    <row r="31" spans="1:144" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <f>COUNTIF(C7:FB7,"F")</f>
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="E31" s="13">
+        <f t="shared" si="1"/>
+        <v>0.86486486486486491</v>
+      </c>
+    </row>
+    <row r="32" spans="1:144" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32">
+        <f>COUNTIF(C8:FB8,"F")</f>
+        <v>11</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="E32" s="13">
+        <f t="shared" si="1"/>
+        <v>0.85135135135135132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33">
+        <f>COUNTIF(C9:FB9,"F")</f>
+        <v>28</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="E33" s="13">
+        <f t="shared" si="1"/>
+        <v>0.6216216216216216</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34">
+        <f>COUNTIF(C10:FB10,"F")</f>
+        <v>33</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="E34" s="13">
+        <f t="shared" si="1"/>
+        <v>0.54794520547945202</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35">
+        <f>COUNTIF(C11:FB11,"F")</f>
+        <v>40</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="E35" s="13">
+        <f t="shared" si="1"/>
+        <v>0.45945945945945948</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36">
+        <f>COUNTIF(C12:FB12,"F")</f>
+        <v>17</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="E36" s="13">
+        <f t="shared" si="1"/>
+        <v>0.77027027027027029</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37">
+        <f>COUNTIF(C13:FB13,"F")</f>
+        <v>23</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="E37" s="13">
+        <f t="shared" si="1"/>
+        <v>0.68918918918918914</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38">
+        <f>COUNTIF(C14:FB14,"F")</f>
+        <v>19</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="E38" s="13">
+        <f t="shared" si="1"/>
+        <v>0.7432432432432432</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39">
+        <f>COUNTIF(C15:FB15,"F")</f>
+        <v>19</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="E39" s="13">
+        <f t="shared" si="1"/>
+        <v>0.7432432432432432</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40">
+        <f>COUNTIF(C16:FB16,"F")</f>
+        <v>15</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="E40" s="13">
+        <f t="shared" si="1"/>
+        <v>0.79729729729729726</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41">
+        <f>COUNTIF(C17:FB17,"F")</f>
+        <v>44</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E41" s="13">
+        <f t="shared" si="1"/>
+        <v>0.40540540540540543</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42">
+        <f>COUNTIF(C18:FB18,"F")</f>
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="E42" s="13">
+        <f t="shared" si="1"/>
+        <v>0.95945945945945943</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43">
+        <f>COUNTIF(C19:FB19,"F")</f>
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="E43" s="13">
+        <f t="shared" si="1"/>
+        <v>0.95945945945945943</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44">
+        <f>COUNTIF(C20:FB20,"F")</f>
+        <v>29</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="E44" s="13">
+        <f t="shared" si="1"/>
+        <v>0.60810810810810811</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45">
+        <f>COUNTIF(C21:FB21,"F")</f>
+        <v>21</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="E45" s="13">
+        <f t="shared" si="1"/>
+        <v>0.71232876712328763</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:B22 C3:H9 C10:G10 C11:H21 C22:AI22 G3:ANI21">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+  <conditionalFormatting sqref="A1:B22 C3:H9 C10:G10 C11:H21 C22:AI22 G3:ANE21 C1:ANE2 AJ22:CM1048576">
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:ANI2 AJ22:CQ1048576 CS22:ANI1048576 A23:AI1048576">
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
+  <conditionalFormatting sqref="CO22:ANE1048576 A23:AI26 A46:AI1048576 B27:AI45">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
       <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:A45">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:E45">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0.75</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
@@ -7155,10 +7468,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A21">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/3des/frequencia.xlsx
+++ b/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488BB5CD-1B8A-4B3A-BBE7-9FA1E1246402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4AC841-67A7-4F28-8E35-A6859123BFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="33">
   <si>
     <t>Alunos</t>
   </si>
@@ -228,10 +228,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -666,10 +666,10 @@
   <dimension ref="A1:ER28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BW3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="BM3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CD6" sqref="CD6"/>
+      <selection pane="bottomRight" activeCell="CC5" sqref="CC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,10 +737,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="12"/>
       <c r="C1" s="2">
         <v>45126</v>
       </c>
@@ -1457,9 +1457,11 @@
       <c r="CB3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CC3" s="1"/>
+      <c r="CC3" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CD3" s="1"/>
-      <c r="CE3" s="12"/>
+      <c r="CE3" s="11"/>
       <c r="CF3" s="1"/>
       <c r="CG3" s="1"/>
       <c r="CH3" s="1"/>
@@ -1759,9 +1761,11 @@
       <c r="CB4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CC4" s="1"/>
+      <c r="CC4" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="CD4" s="1"/>
-      <c r="CE4" s="12"/>
+      <c r="CE4" s="11"/>
       <c r="CF4" s="1"/>
       <c r="CG4" s="1"/>
       <c r="CH4" s="1"/>
@@ -2061,9 +2065,11 @@
       <c r="CB5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CC5" s="1"/>
+      <c r="CC5" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="CD5" s="1"/>
-      <c r="CE5" s="12"/>
+      <c r="CE5" s="11"/>
       <c r="CF5" s="1"/>
       <c r="CG5" s="1"/>
       <c r="CH5" s="1"/>
@@ -2363,9 +2369,11 @@
       <c r="CB6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CC6" s="1"/>
+      <c r="CC6" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CD6" s="1"/>
-      <c r="CE6" s="12"/>
+      <c r="CE6" s="11"/>
       <c r="CF6" s="1"/>
       <c r="CG6" s="1"/>
       <c r="CH6" s="1"/>
@@ -2665,9 +2673,11 @@
       <c r="CB7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CC7" s="1"/>
+      <c r="CC7" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CD7" s="1"/>
-      <c r="CE7" s="12"/>
+      <c r="CE7" s="11"/>
       <c r="CF7" s="1"/>
       <c r="CG7" s="1"/>
       <c r="CH7" s="1"/>
@@ -2967,9 +2977,11 @@
       <c r="CB8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CC8" s="1"/>
+      <c r="CC8" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CD8" s="1"/>
-      <c r="CE8" s="12"/>
+      <c r="CE8" s="11"/>
       <c r="CF8" s="1"/>
       <c r="CG8" s="1"/>
       <c r="CH8" s="1"/>
@@ -3269,9 +3281,11 @@
       <c r="CB9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CC9" s="1"/>
+      <c r="CC9" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="CD9" s="1"/>
-      <c r="CE9" s="12"/>
+      <c r="CE9" s="11"/>
       <c r="CF9" s="1"/>
       <c r="CG9" s="1"/>
       <c r="CH9" s="1"/>
@@ -3569,9 +3583,11 @@
       <c r="CB10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CC10" s="1"/>
+      <c r="CC10" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CD10" s="1"/>
-      <c r="CE10" s="12"/>
+      <c r="CE10" s="11"/>
       <c r="CF10" s="1"/>
       <c r="CG10" s="1"/>
       <c r="CH10" s="1"/>
@@ -3871,9 +3887,11 @@
       <c r="CB11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CC11" s="1"/>
+      <c r="CC11" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="CD11" s="1"/>
-      <c r="CE11" s="12"/>
+      <c r="CE11" s="11"/>
       <c r="CF11" s="1"/>
       <c r="CG11" s="1"/>
       <c r="CH11" s="1"/>
@@ -4173,9 +4191,11 @@
       <c r="CB12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CC12" s="1"/>
+      <c r="CC12" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CD12" s="1"/>
-      <c r="CE12" s="12"/>
+      <c r="CE12" s="11"/>
       <c r="CF12" s="1"/>
       <c r="CG12" s="1"/>
       <c r="CH12" s="1"/>
@@ -4475,9 +4495,11 @@
       <c r="CB13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CC13" s="1"/>
+      <c r="CC13" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CD13" s="1"/>
-      <c r="CE13" s="12"/>
+      <c r="CE13" s="11"/>
       <c r="CF13" s="1"/>
       <c r="CG13" s="1"/>
       <c r="CH13" s="1"/>
@@ -4777,9 +4799,11 @@
       <c r="CB14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CC14" s="1"/>
+      <c r="CC14" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="CD14" s="1"/>
-      <c r="CE14" s="12"/>
+      <c r="CE14" s="11"/>
       <c r="CF14" s="1"/>
       <c r="CG14" s="1"/>
       <c r="CH14" s="1"/>
@@ -5079,9 +5103,11 @@
       <c r="CB15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CC15" s="1"/>
+      <c r="CC15" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CD15" s="1"/>
-      <c r="CE15" s="12"/>
+      <c r="CE15" s="11"/>
       <c r="CF15" s="1"/>
       <c r="CG15" s="1"/>
       <c r="CH15" s="1"/>
@@ -5381,9 +5407,11 @@
       <c r="CB16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CC16" s="1"/>
+      <c r="CC16" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CD16" s="1"/>
-      <c r="CE16" s="12"/>
+      <c r="CE16" s="11"/>
       <c r="CF16" s="1"/>
       <c r="CG16" s="1"/>
       <c r="CH16" s="1"/>
@@ -5683,9 +5711,11 @@
       <c r="CB17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CC17" s="1"/>
+      <c r="CC17" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="CD17" s="1"/>
-      <c r="CE17" s="12"/>
+      <c r="CE17" s="11"/>
       <c r="CF17" s="1"/>
       <c r="CG17" s="1"/>
       <c r="CH17" s="1"/>
@@ -5985,9 +6015,11 @@
       <c r="CB18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CC18" s="1"/>
+      <c r="CC18" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CD18" s="1"/>
-      <c r="CE18" s="12"/>
+      <c r="CE18" s="11"/>
       <c r="CF18" s="1"/>
       <c r="CG18" s="1"/>
       <c r="CH18" s="1"/>
@@ -6287,9 +6319,11 @@
       <c r="CB19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CC19" s="1"/>
+      <c r="CC19" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CD19" s="1"/>
-      <c r="CE19" s="12"/>
+      <c r="CE19" s="11"/>
       <c r="CF19" s="1"/>
       <c r="CG19" s="1"/>
       <c r="CH19" s="1"/>
@@ -6589,9 +6623,11 @@
       <c r="CB20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CC20" s="1"/>
+      <c r="CC20" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CD20" s="1"/>
-      <c r="CE20" s="12"/>
+      <c r="CE20" s="11"/>
       <c r="CF20" s="1"/>
       <c r="CG20" s="1"/>
       <c r="CH20" s="1"/>
@@ -6891,9 +6927,11 @@
       <c r="CB21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CC21" s="1"/>
+      <c r="CC21" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="CD21" s="1"/>
-      <c r="CE21" s="12"/>
+      <c r="CE21" s="11"/>
       <c r="CF21" s="1"/>
       <c r="CG21" s="1"/>
       <c r="CH21" s="1"/>
@@ -6997,7 +7035,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:B22 C3:H9 C10:G10 C11:H21 C22:AI22 G3:ANI21">
+  <conditionalFormatting sqref="A1:B22 C3:H9 G3:ANI21 C10:G10 C11:H21 C22:AI22">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/3des/frequencia.xlsx
+++ b/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4AC841-67A7-4F28-8E35-A6859123BFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9C8B33-D6CF-4BEC-853B-C993EE432B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="33">
   <si>
     <t>Alunos</t>
   </si>
@@ -663,13 +663,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:ER28"/>
+  <dimension ref="A1:EQ28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="BM3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CC5" sqref="CC5"/>
+      <selection pane="bottomRight" activeCell="CF1" sqref="CF1:CG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,33 +710,31 @@
     <col min="74" max="75" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="76" max="76" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="77" max="78" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="82" max="83" width="6.7109375" customWidth="1"/>
-    <col min="84" max="84" width="7.42578125" customWidth="1"/>
-    <col min="85" max="88" width="6.7109375" customWidth="1"/>
-    <col min="89" max="89" width="7.42578125" customWidth="1"/>
-    <col min="90" max="90" width="7.7109375" customWidth="1"/>
-    <col min="91" max="93" width="6.7109375" customWidth="1"/>
-    <col min="94" max="94" width="7.42578125" customWidth="1"/>
-    <col min="95" max="95" width="6.7109375" customWidth="1"/>
-    <col min="96" max="96" width="7.7109375" customWidth="1"/>
-    <col min="97" max="98" width="6.7109375" customWidth="1"/>
-    <col min="99" max="99" width="7.42578125" customWidth="1"/>
-    <col min="100" max="100" width="6.7109375" customWidth="1"/>
-    <col min="101" max="103" width="7.140625" customWidth="1"/>
-    <col min="104" max="104" width="7.42578125" customWidth="1"/>
-    <col min="105" max="108" width="7.140625" customWidth="1"/>
-    <col min="109" max="109" width="7.42578125" customWidth="1"/>
-    <col min="110" max="113" width="7.140625" customWidth="1"/>
-    <col min="114" max="114" width="7.42578125" customWidth="1"/>
-    <col min="115" max="118" width="7.140625" customWidth="1"/>
-    <col min="119" max="119" width="7.42578125" customWidth="1"/>
-    <col min="120" max="120" width="6.7109375" customWidth="1"/>
+    <col min="79" max="81" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="82" max="83" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="84" max="85" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="86" max="87" width="6.7109375" customWidth="1"/>
+    <col min="88" max="88" width="7.42578125" customWidth="1"/>
+    <col min="89" max="89" width="7.7109375" customWidth="1"/>
+    <col min="90" max="92" width="6.7109375" customWidth="1"/>
+    <col min="93" max="93" width="7.42578125" customWidth="1"/>
+    <col min="94" max="94" width="6.7109375" customWidth="1"/>
+    <col min="95" max="95" width="7.7109375" customWidth="1"/>
+    <col min="96" max="97" width="6.7109375" customWidth="1"/>
+    <col min="98" max="98" width="7.42578125" customWidth="1"/>
+    <col min="99" max="99" width="6.7109375" customWidth="1"/>
+    <col min="100" max="102" width="7.140625" customWidth="1"/>
+    <col min="103" max="103" width="7.42578125" customWidth="1"/>
+    <col min="104" max="107" width="7.140625" customWidth="1"/>
+    <col min="108" max="108" width="7.42578125" customWidth="1"/>
+    <col min="109" max="112" width="7.140625" customWidth="1"/>
+    <col min="113" max="113" width="7.42578125" customWidth="1"/>
+    <col min="114" max="117" width="7.140625" customWidth="1"/>
+    <col min="118" max="118" width="7.42578125" customWidth="1"/>
+    <col min="119" max="119" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -978,8 +976,20 @@
       <c r="CC1" s="10">
         <v>45240</v>
       </c>
+      <c r="CD1" s="10">
+        <v>45243</v>
+      </c>
+      <c r="CE1" s="10">
+        <v>45244</v>
+      </c>
+      <c r="CF1" s="10">
+        <v>45246</v>
+      </c>
+      <c r="CG1" s="10">
+        <v>45247</v>
+      </c>
     </row>
-    <row r="2" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1223,8 +1233,20 @@
       <c r="CC2" t="s">
         <v>3</v>
       </c>
+      <c r="CD2" t="s">
+        <v>4</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>5</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>3</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1460,7 +1482,9 @@
       <c r="CC3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CD3" s="1"/>
+      <c r="CD3" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CE3" s="11"/>
       <c r="CF3" s="1"/>
       <c r="CG3" s="1"/>
@@ -1526,9 +1550,8 @@
       <c r="EO3" s="1"/>
       <c r="EP3" s="1"/>
       <c r="EQ3" s="1"/>
-      <c r="ER3" s="1"/>
     </row>
-    <row r="4" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1764,7 +1787,9 @@
       <c r="CC4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CD4" s="1"/>
+      <c r="CD4" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CE4" s="11"/>
       <c r="CF4" s="1"/>
       <c r="CG4" s="1"/>
@@ -1830,9 +1855,8 @@
       <c r="EO4" s="1"/>
       <c r="EP4" s="1"/>
       <c r="EQ4" s="1"/>
-      <c r="ER4" s="1"/>
     </row>
-    <row r="5" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2068,7 +2092,9 @@
       <c r="CC5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CD5" s="1"/>
+      <c r="CD5" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="CE5" s="11"/>
       <c r="CF5" s="1"/>
       <c r="CG5" s="1"/>
@@ -2134,9 +2160,8 @@
       <c r="EO5" s="1"/>
       <c r="EP5" s="1"/>
       <c r="EQ5" s="1"/>
-      <c r="ER5" s="1"/>
     </row>
-    <row r="6" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -2372,7 +2397,9 @@
       <c r="CC6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CD6" s="1"/>
+      <c r="CD6" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CE6" s="11"/>
       <c r="CF6" s="1"/>
       <c r="CG6" s="1"/>
@@ -2438,9 +2465,8 @@
       <c r="EO6" s="1"/>
       <c r="EP6" s="1"/>
       <c r="EQ6" s="1"/>
-      <c r="ER6" s="1"/>
     </row>
-    <row r="7" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2676,7 +2702,9 @@
       <c r="CC7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CD7" s="1"/>
+      <c r="CD7" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="CE7" s="11"/>
       <c r="CF7" s="1"/>
       <c r="CG7" s="1"/>
@@ -2742,9 +2770,8 @@
       <c r="EO7" s="1"/>
       <c r="EP7" s="1"/>
       <c r="EQ7" s="1"/>
-      <c r="ER7" s="1"/>
     </row>
-    <row r="8" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -2980,7 +3007,9 @@
       <c r="CC8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CD8" s="1"/>
+      <c r="CD8" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CE8" s="11"/>
       <c r="CF8" s="1"/>
       <c r="CG8" s="1"/>
@@ -3046,9 +3075,8 @@
       <c r="EO8" s="1"/>
       <c r="EP8" s="1"/>
       <c r="EQ8" s="1"/>
-      <c r="ER8" s="1"/>
     </row>
-    <row r="9" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -3284,7 +3312,9 @@
       <c r="CC9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CD9" s="1"/>
+      <c r="CD9" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CE9" s="11"/>
       <c r="CF9" s="1"/>
       <c r="CG9" s="1"/>
@@ -3350,9 +3380,8 @@
       <c r="EO9" s="1"/>
       <c r="EP9" s="1"/>
       <c r="EQ9" s="1"/>
-      <c r="ER9" s="1"/>
     </row>
-    <row r="10" spans="1:148" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:147" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -3586,7 +3615,9 @@
       <c r="CC10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CD10" s="1"/>
+      <c r="CD10" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CE10" s="11"/>
       <c r="CF10" s="1"/>
       <c r="CG10" s="1"/>
@@ -3652,9 +3683,8 @@
       <c r="EO10" s="1"/>
       <c r="EP10" s="1"/>
       <c r="EQ10" s="1"/>
-      <c r="ER10" s="1"/>
     </row>
-    <row r="11" spans="1:148" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:147" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -3890,7 +3920,9 @@
       <c r="CC11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CD11" s="1"/>
+      <c r="CD11" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="CE11" s="11"/>
       <c r="CF11" s="1"/>
       <c r="CG11" s="1"/>
@@ -3956,9 +3988,8 @@
       <c r="EO11" s="1"/>
       <c r="EP11" s="1"/>
       <c r="EQ11" s="1"/>
-      <c r="ER11" s="1"/>
     </row>
-    <row r="12" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -4194,7 +4225,9 @@
       <c r="CC12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CD12" s="1"/>
+      <c r="CD12" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CE12" s="11"/>
       <c r="CF12" s="1"/>
       <c r="CG12" s="1"/>
@@ -4260,9 +4293,8 @@
       <c r="EO12" s="1"/>
       <c r="EP12" s="1"/>
       <c r="EQ12" s="1"/>
-      <c r="ER12" s="1"/>
     </row>
-    <row r="13" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -4498,7 +4530,9 @@
       <c r="CC13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CD13" s="1"/>
+      <c r="CD13" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CE13" s="11"/>
       <c r="CF13" s="1"/>
       <c r="CG13" s="1"/>
@@ -4564,9 +4598,8 @@
       <c r="EO13" s="1"/>
       <c r="EP13" s="1"/>
       <c r="EQ13" s="1"/>
-      <c r="ER13" s="1"/>
     </row>
-    <row r="14" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -4802,7 +4835,9 @@
       <c r="CC14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CD14" s="1"/>
+      <c r="CD14" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CE14" s="11"/>
       <c r="CF14" s="1"/>
       <c r="CG14" s="1"/>
@@ -4868,9 +4903,8 @@
       <c r="EO14" s="1"/>
       <c r="EP14" s="1"/>
       <c r="EQ14" s="1"/>
-      <c r="ER14" s="1"/>
     </row>
-    <row r="15" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -5106,7 +5140,9 @@
       <c r="CC15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CD15" s="1"/>
+      <c r="CD15" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="CE15" s="11"/>
       <c r="CF15" s="1"/>
       <c r="CG15" s="1"/>
@@ -5172,9 +5208,8 @@
       <c r="EO15" s="1"/>
       <c r="EP15" s="1"/>
       <c r="EQ15" s="1"/>
-      <c r="ER15" s="1"/>
     </row>
-    <row r="16" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -5410,7 +5445,9 @@
       <c r="CC16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CD16" s="1"/>
+      <c r="CD16" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="CE16" s="11"/>
       <c r="CF16" s="1"/>
       <c r="CG16" s="1"/>
@@ -5476,9 +5513,8 @@
       <c r="EO16" s="1"/>
       <c r="EP16" s="1"/>
       <c r="EQ16" s="1"/>
-      <c r="ER16" s="1"/>
     </row>
-    <row r="17" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -5714,7 +5750,9 @@
       <c r="CC17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CD17" s="1"/>
+      <c r="CD17" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CE17" s="11"/>
       <c r="CF17" s="1"/>
       <c r="CG17" s="1"/>
@@ -5780,9 +5818,8 @@
       <c r="EO17" s="1"/>
       <c r="EP17" s="1"/>
       <c r="EQ17" s="1"/>
-      <c r="ER17" s="1"/>
     </row>
-    <row r="18" spans="1:148" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:147" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -6018,7 +6055,9 @@
       <c r="CC18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CD18" s="1"/>
+      <c r="CD18" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CE18" s="11"/>
       <c r="CF18" s="1"/>
       <c r="CG18" s="1"/>
@@ -6084,9 +6123,8 @@
       <c r="EO18" s="1"/>
       <c r="EP18" s="1"/>
       <c r="EQ18" s="1"/>
-      <c r="ER18" s="1"/>
     </row>
-    <row r="19" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -6322,7 +6360,9 @@
       <c r="CC19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CD19" s="1"/>
+      <c r="CD19" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CE19" s="11"/>
       <c r="CF19" s="1"/>
       <c r="CG19" s="1"/>
@@ -6388,9 +6428,8 @@
       <c r="EO19" s="1"/>
       <c r="EP19" s="1"/>
       <c r="EQ19" s="1"/>
-      <c r="ER19" s="1"/>
     </row>
-    <row r="20" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -6626,7 +6665,9 @@
       <c r="CC20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CD20" s="1"/>
+      <c r="CD20" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CE20" s="11"/>
       <c r="CF20" s="1"/>
       <c r="CG20" s="1"/>
@@ -6692,9 +6733,8 @@
       <c r="EO20" s="1"/>
       <c r="EP20" s="1"/>
       <c r="EQ20" s="1"/>
-      <c r="ER20" s="1"/>
     </row>
-    <row r="21" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -6930,7 +6970,9 @@
       <c r="CC21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CD21" s="1"/>
+      <c r="CD21" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="CE21" s="11"/>
       <c r="CF21" s="1"/>
       <c r="CG21" s="1"/>
@@ -6996,9 +7038,8 @@
       <c r="EO21" s="1"/>
       <c r="EP21" s="1"/>
       <c r="EQ21" s="1"/>
-      <c r="ER21" s="1"/>
     </row>
-    <row r="22" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:147" x14ac:dyDescent="0.25">
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
@@ -7028,14 +7069,14 @@
       <c r="AO22" s="6"/>
       <c r="AP22" s="6"/>
     </row>
-    <row r="28" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:147" x14ac:dyDescent="0.25">
       <c r="BF28" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:B22 C3:H9 G3:ANI21 C10:G10 C11:H21 C22:AI22">
+  <conditionalFormatting sqref="A1:B22 C3:H9 G3:ANH21 C10:G10 C11:H21 C22:AI22 AJ22:CP1048576 C1:ANH2">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
@@ -7043,7 +7084,7 @@
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:ANI2 AJ22:CQ1048576 CS22:ANI1048576 A23:AI1048576">
+  <conditionalFormatting sqref="CR22:ANH1048576 A23:AI1048576">
     <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/3des/frequencia.xlsx
+++ b/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9C8B33-D6CF-4BEC-853B-C993EE432B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04874F67-DE66-4BEA-B3EE-88A4B8CE7FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1596" uniqueCount="35">
   <si>
     <t>Alunos</t>
   </si>
@@ -137,6 +137,12 @@
   <si>
     <t>q</t>
   </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>FREQUÊNCIA</t>
+  </si>
 </sst>
 </file>
 
@@ -145,7 +151,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mmm"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -184,6 +190,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -206,7 +219,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -234,12 +247,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -663,341 +751,343 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:EQ28"/>
+  <dimension ref="A1:ER42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BM3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="BW3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CF1" sqref="CF1:CG1"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.7109375" customWidth="1"/>
-    <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="7" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="30" width="7" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="7" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="40" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="45" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="50" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="53" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="55" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="58" max="60" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="62" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="65" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="66" max="68" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="69" max="70" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="71" max="73" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="74" max="75" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="77" max="78" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="79" max="81" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="82" max="83" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="84" max="85" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="86" max="87" width="6.7109375" customWidth="1"/>
-    <col min="88" max="88" width="7.42578125" customWidth="1"/>
-    <col min="89" max="89" width="7.7109375" customWidth="1"/>
-    <col min="90" max="92" width="6.7109375" customWidth="1"/>
-    <col min="93" max="93" width="7.42578125" customWidth="1"/>
-    <col min="94" max="94" width="6.7109375" customWidth="1"/>
-    <col min="95" max="95" width="7.7109375" customWidth="1"/>
-    <col min="96" max="97" width="6.7109375" customWidth="1"/>
-    <col min="98" max="98" width="7.42578125" customWidth="1"/>
-    <col min="99" max="99" width="6.7109375" customWidth="1"/>
-    <col min="100" max="102" width="7.140625" customWidth="1"/>
-    <col min="103" max="103" width="7.42578125" customWidth="1"/>
-    <col min="104" max="107" width="7.140625" customWidth="1"/>
-    <col min="108" max="108" width="7.42578125" customWidth="1"/>
-    <col min="109" max="112" width="7.140625" customWidth="1"/>
-    <col min="113" max="113" width="7.42578125" customWidth="1"/>
-    <col min="114" max="117" width="7.140625" customWidth="1"/>
-    <col min="118" max="118" width="7.42578125" customWidth="1"/>
-    <col min="119" max="119" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="7" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="7" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="41" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="46" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="48" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="51" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="54" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="56" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="58" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="61" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="63" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="65" max="66" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="67" max="69" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="70" max="71" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="72" max="74" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="75" max="76" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="78" max="79" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="80" max="82" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="83" max="84" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="85" max="86" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="87" max="88" width="6.7109375" customWidth="1"/>
+    <col min="89" max="89" width="7.42578125" customWidth="1"/>
+    <col min="90" max="90" width="7.7109375" customWidth="1"/>
+    <col min="91" max="93" width="6.7109375" customWidth="1"/>
+    <col min="94" max="94" width="7.42578125" customWidth="1"/>
+    <col min="95" max="95" width="6.7109375" customWidth="1"/>
+    <col min="96" max="96" width="7.7109375" customWidth="1"/>
+    <col min="97" max="98" width="6.7109375" customWidth="1"/>
+    <col min="99" max="99" width="7.42578125" customWidth="1"/>
+    <col min="100" max="100" width="6.7109375" customWidth="1"/>
+    <col min="101" max="103" width="7.140625" customWidth="1"/>
+    <col min="104" max="104" width="7.42578125" customWidth="1"/>
+    <col min="105" max="108" width="7.140625" customWidth="1"/>
+    <col min="109" max="109" width="7.42578125" customWidth="1"/>
+    <col min="110" max="113" width="7.140625" customWidth="1"/>
+    <col min="114" max="114" width="7.42578125" customWidth="1"/>
+    <col min="115" max="118" width="7.140625" customWidth="1"/>
+    <col min="119" max="119" width="7.42578125" customWidth="1"/>
+    <col min="120" max="120" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="12"/>
-      <c r="C1" s="2">
+      <c r="C1" s="12"/>
+      <c r="D1" s="2">
         <v>45126</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>45127</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>45128</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>45131</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>45132</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>45133</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J1" s="2">
         <v>45134</v>
       </c>
-      <c r="J1" s="2">
+      <c r="K1" s="2">
         <v>45135</v>
       </c>
-      <c r="K1" s="2">
+      <c r="L1" s="2">
         <v>45138</v>
       </c>
-      <c r="L1" s="2">
+      <c r="M1" s="2">
         <v>45139</v>
       </c>
-      <c r="M1" s="2">
+      <c r="N1" s="2">
         <v>45140</v>
       </c>
-      <c r="N1" s="2">
+      <c r="O1" s="2">
         <v>45141</v>
       </c>
-      <c r="O1" s="2">
+      <c r="P1" s="2">
         <v>45142</v>
       </c>
-      <c r="P1" s="2">
+      <c r="Q1" s="2">
         <v>45145</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="R1" s="2">
         <v>45146</v>
       </c>
-      <c r="R1" s="2">
+      <c r="S1" s="2">
         <v>45147</v>
       </c>
-      <c r="S1" s="2">
+      <c r="T1" s="2">
         <v>45148</v>
       </c>
-      <c r="T1" s="2">
+      <c r="U1" s="2">
         <v>45149</v>
       </c>
-      <c r="U1" s="2">
+      <c r="V1" s="2">
         <v>45152</v>
       </c>
-      <c r="V1" s="2">
+      <c r="W1" s="2">
         <v>45153</v>
       </c>
-      <c r="W1" s="2">
+      <c r="X1" s="2">
         <v>45154</v>
       </c>
-      <c r="X1" s="2">
+      <c r="Y1" s="2">
         <v>45155</v>
       </c>
-      <c r="Y1" s="2">
+      <c r="Z1" s="2">
         <v>45156</v>
       </c>
-      <c r="Z1" s="2">
+      <c r="AA1" s="2">
         <v>45159</v>
       </c>
-      <c r="AA1" s="2">
+      <c r="AB1" s="2">
         <v>45160</v>
       </c>
-      <c r="AB1" s="2">
+      <c r="AC1" s="2">
         <v>45161</v>
       </c>
-      <c r="AC1" s="2">
+      <c r="AD1" s="2">
         <v>45162</v>
       </c>
-      <c r="AD1" s="2">
+      <c r="AE1" s="2">
         <v>45163</v>
       </c>
-      <c r="AE1" s="2">
+      <c r="AF1" s="2">
         <v>45166</v>
       </c>
-      <c r="AF1" s="2">
+      <c r="AG1" s="2">
         <v>45167</v>
       </c>
-      <c r="AG1" s="2">
+      <c r="AH1" s="2">
         <v>45168</v>
       </c>
-      <c r="AH1" s="2">
+      <c r="AI1" s="2">
         <v>45169</v>
       </c>
-      <c r="AI1" s="2">
+      <c r="AJ1" s="2">
         <v>45170</v>
       </c>
-      <c r="AJ1" s="2">
+      <c r="AK1" s="2">
         <v>45173</v>
       </c>
-      <c r="AK1" s="2">
+      <c r="AL1" s="2">
         <v>45174</v>
       </c>
-      <c r="AL1" s="2">
+      <c r="AM1" s="2">
         <v>45175</v>
       </c>
-      <c r="AM1" s="2">
+      <c r="AN1" s="2">
         <v>45176</v>
       </c>
-      <c r="AN1" s="2">
+      <c r="AO1" s="2">
         <v>45177</v>
       </c>
-      <c r="AO1" s="2">
+      <c r="AP1" s="2">
         <v>45180</v>
       </c>
-      <c r="AP1" s="2">
+      <c r="AQ1" s="2">
         <v>45181</v>
       </c>
-      <c r="AQ1" s="2">
+      <c r="AR1" s="2">
         <v>45182</v>
       </c>
-      <c r="AR1" s="2">
+      <c r="AS1" s="2">
         <v>45183</v>
       </c>
-      <c r="AS1" s="2">
+      <c r="AT1" s="2">
         <v>45184</v>
       </c>
-      <c r="AT1" s="2">
+      <c r="AU1" s="2">
         <v>45187</v>
       </c>
-      <c r="AU1" s="2">
+      <c r="AV1" s="2">
         <v>45188</v>
       </c>
-      <c r="AV1" s="2">
+      <c r="AW1" s="2">
         <v>45189</v>
       </c>
-      <c r="AW1" s="2">
+      <c r="AX1" s="2">
         <v>45190</v>
       </c>
-      <c r="AX1" s="2">
+      <c r="AY1" s="2">
         <v>45191</v>
       </c>
-      <c r="AY1" s="2">
+      <c r="AZ1" s="2">
         <v>45192</v>
       </c>
-      <c r="AZ1" s="2">
+      <c r="BA1" s="2">
         <v>45195</v>
       </c>
-      <c r="BA1" s="2">
+      <c r="BB1" s="2">
         <v>45196</v>
       </c>
-      <c r="BB1" s="2">
+      <c r="BC1" s="2">
         <v>45197</v>
       </c>
-      <c r="BC1" s="2">
+      <c r="BD1" s="2">
         <v>45198</v>
       </c>
-      <c r="BD1" s="2">
+      <c r="BE1" s="2">
         <v>45201</v>
       </c>
-      <c r="BE1" s="2">
+      <c r="BF1" s="2">
         <v>45202</v>
       </c>
-      <c r="BF1" s="2">
+      <c r="BG1" s="2">
         <v>45203</v>
       </c>
-      <c r="BG1" s="2">
+      <c r="BH1" s="2">
         <v>45204</v>
       </c>
-      <c r="BH1" s="2">
+      <c r="BI1" s="2">
         <v>45205</v>
       </c>
-      <c r="BI1" s="9">
+      <c r="BJ1" s="9">
         <v>45208</v>
       </c>
-      <c r="BJ1" s="9">
+      <c r="BK1" s="9">
         <v>45209</v>
       </c>
-      <c r="BK1" s="9">
+      <c r="BL1" s="9">
         <v>45210</v>
       </c>
-      <c r="BL1" s="9">
+      <c r="BM1" s="9">
         <v>45215</v>
       </c>
-      <c r="BM1" s="9">
+      <c r="BN1" s="9">
         <v>45216</v>
       </c>
-      <c r="BN1" s="9">
+      <c r="BO1" s="9">
         <v>45217</v>
       </c>
-      <c r="BO1" s="9">
+      <c r="BP1" s="9">
         <v>45218</v>
       </c>
-      <c r="BP1" s="9">
+      <c r="BQ1" s="9">
         <v>45219</v>
       </c>
-      <c r="BQ1" s="10">
+      <c r="BR1" s="10">
         <v>45222</v>
       </c>
-      <c r="BR1" s="10">
+      <c r="BS1" s="10">
         <v>45223</v>
       </c>
-      <c r="BS1" s="10">
+      <c r="BT1" s="10">
         <v>45224</v>
       </c>
-      <c r="BT1" s="10">
+      <c r="BU1" s="10">
         <v>45225</v>
       </c>
-      <c r="BU1" s="10">
+      <c r="BV1" s="10">
         <v>45226</v>
       </c>
-      <c r="BV1" s="10">
+      <c r="BW1" s="10">
         <v>45229</v>
       </c>
-      <c r="BW1" s="10">
+      <c r="BX1" s="10">
         <v>45230</v>
       </c>
-      <c r="BX1" s="10">
+      <c r="BY1" s="10">
         <v>45231</v>
       </c>
-      <c r="BY1" s="10">
+      <c r="BZ1" s="10">
         <v>45236</v>
       </c>
-      <c r="BZ1" s="10">
+      <c r="CA1" s="10">
         <v>45237</v>
       </c>
-      <c r="CA1" s="10">
+      <c r="CB1" s="10">
         <v>45238</v>
       </c>
-      <c r="CB1" s="10">
+      <c r="CC1" s="10">
         <v>45239</v>
       </c>
-      <c r="CC1" s="10">
+      <c r="CD1" s="10">
         <v>45240</v>
       </c>
-      <c r="CD1" s="10">
+      <c r="CE1" s="10">
         <v>45243</v>
       </c>
-      <c r="CE1" s="10">
+      <c r="CF1" s="10">
         <v>45244</v>
       </c>
-      <c r="CF1" s="10">
+      <c r="CG1" s="10">
         <v>45246</v>
       </c>
-      <c r="CG1" s="10">
+      <c r="CH1" s="10">
         <v>45247</v>
       </c>
     </row>
-    <row r="2" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -1006,13 +1096,13 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>3</v>
       </c>
       <c r="I2" t="s">
         <v>3</v>
@@ -1021,13 +1111,13 @@
         <v>3</v>
       </c>
       <c r="K2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" t="s">
         <v>4</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>5</v>
-      </c>
-      <c r="M2" t="s">
-        <v>3</v>
       </c>
       <c r="N2" t="s">
         <v>3</v>
@@ -1036,13 +1126,13 @@
         <v>3</v>
       </c>
       <c r="P2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>5</v>
-      </c>
-      <c r="R2" t="s">
-        <v>3</v>
       </c>
       <c r="S2" t="s">
         <v>3</v>
@@ -1051,13 +1141,13 @@
         <v>3</v>
       </c>
       <c r="U2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V2" t="s">
         <v>4</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>5</v>
-      </c>
-      <c r="W2" t="s">
-        <v>3</v>
       </c>
       <c r="X2" t="s">
         <v>3</v>
@@ -1066,13 +1156,13 @@
         <v>3</v>
       </c>
       <c r="Z2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA2" t="s">
         <v>4</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>5</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>3</v>
       </c>
       <c r="AC2" t="s">
         <v>3</v>
@@ -1081,13 +1171,13 @@
         <v>3</v>
       </c>
       <c r="AE2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF2" t="s">
         <v>4</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>5</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>3</v>
       </c>
       <c r="AH2" t="s">
         <v>3</v>
@@ -1096,13 +1186,13 @@
         <v>3</v>
       </c>
       <c r="AJ2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK2" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>5</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>3</v>
       </c>
       <c r="AM2" t="s">
         <v>3</v>
@@ -1111,13 +1201,13 @@
         <v>3</v>
       </c>
       <c r="AO2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP2" t="s">
         <v>4</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>5</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>3</v>
       </c>
       <c r="AR2" t="s">
         <v>3</v>
@@ -1126,13 +1216,13 @@
         <v>3</v>
       </c>
       <c r="AT2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU2" t="s">
         <v>4</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AV2" t="s">
         <v>5</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>3</v>
       </c>
       <c r="AW2" t="s">
         <v>3</v>
@@ -1141,28 +1231,28 @@
         <v>3</v>
       </c>
       <c r="AY2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ2" t="s">
         <v>4</v>
       </c>
       <c r="BA2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB2" t="s">
         <v>5</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>3</v>
       </c>
       <c r="BC2" t="s">
         <v>3</v>
       </c>
       <c r="BD2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE2" t="s">
         <v>4</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BF2" t="s">
         <v>5</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>3</v>
       </c>
       <c r="BG2" t="s">
         <v>3</v>
@@ -1171,22 +1261,22 @@
         <v>3</v>
       </c>
       <c r="BI2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ2" t="s">
         <v>4</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BK2" t="s">
         <v>5</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BL2" t="s">
         <v>3</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BM2" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BN2" t="s">
         <v>5</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>3</v>
       </c>
       <c r="BO2" t="s">
         <v>3</v>
@@ -1195,13 +1285,13 @@
         <v>3</v>
       </c>
       <c r="BQ2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR2" t="s">
         <v>5</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="BS2" t="s">
         <v>4</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>3</v>
       </c>
       <c r="BT2" t="s">
         <v>3</v>
@@ -1210,22 +1300,22 @@
         <v>3</v>
       </c>
       <c r="BV2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BW2" t="s">
         <v>4</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="BX2" t="s">
         <v>5</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="BY2" t="s">
         <v>3</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="BZ2" t="s">
         <v>4</v>
       </c>
-      <c r="BZ2" t="s">
+      <c r="CA2" t="s">
         <v>5</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>3</v>
       </c>
       <c r="CB2" t="s">
         <v>3</v>
@@ -1234,28 +1324,32 @@
         <v>3</v>
       </c>
       <c r="CD2" t="s">
+        <v>3</v>
+      </c>
+      <c r="CE2" t="s">
         <v>4</v>
       </c>
-      <c r="CE2" t="s">
+      <c r="CF2" t="s">
         <v>5</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>3</v>
       </c>
       <c r="CG2" t="s">
         <v>3</v>
       </c>
+      <c r="CH2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="13">
+        <f>B24/(B24+C24)</f>
+        <v>0.7466666666666667</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
@@ -1266,7 +1360,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>8</v>
@@ -1284,10 +1378,10 @@
         <v>8</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>8</v>
@@ -1341,38 +1435,38 @@
         <v>8</v>
       </c>
       <c r="AF3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="AH3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AI3" s="6" t="s">
-        <v>8</v>
+      <c r="AI3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="AJ3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="AK3" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AM3" s="6"/>
+      <c r="AM3" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AN3" s="6"/>
       <c r="AO3" s="6"/>
       <c r="AP3" s="6"/>
-      <c r="AQ3" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="AQ3" s="6"/>
       <c r="AR3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="AS3" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT3" s="6" t="s">
         <v>8</v>
@@ -1396,13 +1490,13 @@
         <v>8</v>
       </c>
       <c r="BA3" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="BC3" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD3" s="6" t="s">
         <v>8</v>
@@ -1410,20 +1504,20 @@
       <c r="BE3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BF3" s="1" t="s">
+      <c r="BF3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="BG3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BH3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BI3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="BJ3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BK3" s="1" t="s">
         <v>8</v>
@@ -1438,13 +1532,13 @@
         <v>8</v>
       </c>
       <c r="BO3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BP3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="BQ3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BR3" s="1" t="s">
         <v>8</v>
@@ -1471,13 +1565,13 @@
         <v>8</v>
       </c>
       <c r="BZ3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CA3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="CB3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CC3" s="1" t="s">
         <v>8</v>
@@ -1485,8 +1579,10 @@
       <c r="CD3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CE3" s="11"/>
-      <c r="CF3" s="1"/>
+      <c r="CE3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CF3" s="11"/>
       <c r="CG3" s="1"/>
       <c r="CH3" s="1"/>
       <c r="CI3" s="1"/>
@@ -1550,28 +1646,30 @@
       <c r="EO3" s="1"/>
       <c r="EP3" s="1"/>
       <c r="EQ3" s="1"/>
+      <c r="ER3" s="1"/>
     </row>
-    <row r="4" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="13">
+        <f>B25/(B25+C25)</f>
+        <v>0.78666666666666663</v>
+      </c>
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="D4" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>8</v>
@@ -1589,10 +1687,10 @@
         <v>8</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O4" s="6" t="s">
         <v>8</v>
@@ -1610,7 +1708,7 @@
         <v>8</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U4" s="6" t="s">
         <v>7</v>
@@ -1619,7 +1717,7 @@
         <v>7</v>
       </c>
       <c r="W4" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X4" s="6" t="s">
         <v>8</v>
@@ -1648,13 +1746,13 @@
       <c r="AF4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AG4" s="1" t="s">
+      <c r="AG4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="AH4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AI4" s="6" t="s">
+      <c r="AI4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AJ4" s="6" t="s">
@@ -1664,20 +1762,20 @@
         <v>8</v>
       </c>
       <c r="AL4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="AM4" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="AM4" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AN4" s="6"/>
       <c r="AO4" s="6"/>
       <c r="AP4" s="6"/>
-      <c r="AQ4" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="AQ4" s="6"/>
       <c r="AR4" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS4" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT4" s="6" t="s">
         <v>8</v>
@@ -1715,26 +1813,26 @@
       <c r="BE4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BF4" s="1" t="s">
+      <c r="BF4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="BG4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BH4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="BI4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BJ4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BK4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BM4" s="1" t="s">
         <v>8</v>
@@ -1743,10 +1841,10 @@
         <v>8</v>
       </c>
       <c r="BO4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BP4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BQ4" s="1" t="s">
         <v>8</v>
@@ -1755,25 +1853,25 @@
         <v>8</v>
       </c>
       <c r="BS4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BT4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BU4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BV4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BW4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BX4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BY4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BZ4" s="1" t="s">
         <v>8</v>
@@ -1782,16 +1880,18 @@
         <v>8</v>
       </c>
       <c r="CB4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CC4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="CD4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CE4" s="11"/>
-      <c r="CF4" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="CE4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CF4" s="11"/>
       <c r="CG4" s="1"/>
       <c r="CH4" s="1"/>
       <c r="CI4" s="1"/>
@@ -1855,17 +1955,19 @@
       <c r="EO4" s="1"/>
       <c r="EP4" s="1"/>
       <c r="EQ4" s="1"/>
+      <c r="ER4" s="1"/>
     </row>
-    <row r="5" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="13">
+        <f>B26/(B26+C26)</f>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="C5">
         <v>3</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="D5" s="6" t="s">
         <v>7</v>
       </c>
@@ -1876,7 +1978,7 @@
         <v>7</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>8</v>
@@ -1894,10 +1996,10 @@
         <v>8</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O5" s="6" t="s">
         <v>8</v>
@@ -1912,13 +2014,13 @@
         <v>8</v>
       </c>
       <c r="S5" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="U5" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V5" s="6" t="s">
         <v>8</v>
@@ -1927,25 +2029,25 @@
         <v>8</v>
       </c>
       <c r="X5" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y5" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="AA5" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="AC5" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD5" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE5" s="6" t="s">
         <v>7</v>
@@ -1953,36 +2055,36 @@
       <c r="AF5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AG5" s="1" t="s">
-        <v>8</v>
+      <c r="AG5" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI5" s="6" t="s">
-        <v>8</v>
+        <v>8</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="AJ5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="AK5" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AM5" s="6"/>
+      <c r="AM5" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AN5" s="6"/>
       <c r="AO5" s="6"/>
       <c r="AP5" s="6"/>
-      <c r="AQ5" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="AQ5" s="6"/>
       <c r="AR5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="AS5" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT5" s="6" t="s">
         <v>7</v>
@@ -1991,13 +2093,13 @@
         <v>7</v>
       </c>
       <c r="AV5" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW5" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX5" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY5" s="6" t="s">
         <v>8</v>
@@ -2006,10 +2108,10 @@
         <v>8</v>
       </c>
       <c r="BA5" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB5" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC5" s="6" t="s">
         <v>8</v>
@@ -2020,8 +2122,8 @@
       <c r="BE5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BF5" s="1" t="s">
-        <v>7</v>
+      <c r="BF5" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="BG5" s="1" t="s">
         <v>7</v>
@@ -2036,7 +2138,7 @@
         <v>7</v>
       </c>
       <c r="BK5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BL5" s="1" t="s">
         <v>8</v>
@@ -2048,55 +2150,57 @@
         <v>8</v>
       </c>
       <c r="BO5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BP5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="BQ5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BR5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BS5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BT5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BU5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BV5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="BW5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BX5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BY5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BZ5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CA5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="CB5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CC5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CD5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CE5" s="11"/>
-      <c r="CF5" s="1"/>
+      <c r="CE5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CF5" s="11"/>
       <c r="CG5" s="1"/>
       <c r="CH5" s="1"/>
       <c r="CI5" s="1"/>
@@ -2160,28 +2264,30 @@
       <c r="EO5" s="1"/>
       <c r="EP5" s="1"/>
       <c r="EQ5" s="1"/>
+      <c r="ER5" s="1"/>
     </row>
-    <row r="6" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>8</v>
+      <c r="B6" s="13">
+        <f>B27/(B27+C27)</f>
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>8</v>
@@ -2199,10 +2305,10 @@
         <v>8</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O6" s="6" t="s">
         <v>8</v>
@@ -2250,21 +2356,21 @@
         <v>8</v>
       </c>
       <c r="AD6" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE6" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AG6" s="1" t="s">
+      <c r="AG6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="AH6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AI6" s="6" t="s">
+      <c r="AI6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AJ6" s="6" t="s">
@@ -2274,23 +2380,23 @@
         <v>8</v>
       </c>
       <c r="AL6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="AM6" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="AM6" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AN6" s="6"/>
       <c r="AO6" s="6"/>
       <c r="AP6" s="6"/>
-      <c r="AQ6" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="AQ6" s="6"/>
       <c r="AR6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="AS6" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT6" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU6" s="6" t="s">
         <v>8</v>
@@ -2325,7 +2431,7 @@
       <c r="BE6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BF6" s="1" t="s">
+      <c r="BF6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="BG6" s="1" t="s">
@@ -2344,10 +2450,10 @@
         <v>8</v>
       </c>
       <c r="BL6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BM6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BN6" s="1" t="s">
         <v>8</v>
@@ -2389,10 +2495,10 @@
         <v>8</v>
       </c>
       <c r="CA6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CB6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CC6" s="1" t="s">
         <v>8</v>
@@ -2400,8 +2506,10 @@
       <c r="CD6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CE6" s="11"/>
-      <c r="CF6" s="1"/>
+      <c r="CE6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CF6" s="11"/>
       <c r="CG6" s="1"/>
       <c r="CH6" s="1"/>
       <c r="CI6" s="1"/>
@@ -2465,16 +2573,18 @@
       <c r="EO6" s="1"/>
       <c r="EP6" s="1"/>
       <c r="EQ6" s="1"/>
+      <c r="ER6" s="1"/>
     </row>
-    <row r="7" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>8</v>
+      <c r="B7" s="13">
+        <f>B28/(B28+C28)</f>
+        <v>0.85526315789473684</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>8</v>
@@ -2483,10 +2593,10 @@
         <v>8</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>8</v>
@@ -2504,10 +2614,10 @@
         <v>8</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>8</v>
@@ -2563,13 +2673,13 @@
       <c r="AF7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AG7" s="1" t="s">
+      <c r="AG7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="AH7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AI7" s="6" t="s">
+      <c r="AI7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AJ7" s="6" t="s">
@@ -2579,15 +2689,15 @@
         <v>8</v>
       </c>
       <c r="AL7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="AM7" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="AM7" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AN7" s="6"/>
       <c r="AO7" s="6"/>
       <c r="AP7" s="6"/>
-      <c r="AQ7" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="AQ7" s="6"/>
       <c r="AR7" s="6" t="s">
         <v>8</v>
       </c>
@@ -2613,10 +2723,10 @@
         <v>8</v>
       </c>
       <c r="AZ7" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA7" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB7" s="6" t="s">
         <v>8</v>
@@ -2628,10 +2738,10 @@
         <v>8</v>
       </c>
       <c r="BE7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="BF7" s="1" t="s">
-        <v>8</v>
+        <v>8</v>
+      </c>
+      <c r="BF7" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="BG7" s="1" t="s">
         <v>8</v>
@@ -2667,46 +2777,48 @@
         <v>8</v>
       </c>
       <c r="BR7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BS7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BT7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BU7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BV7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="BW7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BX7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BY7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BZ7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="CA7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CB7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CC7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="CD7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CE7" s="11"/>
-      <c r="CF7" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="CE7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CF7" s="11"/>
       <c r="CG7" s="1"/>
       <c r="CH7" s="1"/>
       <c r="CI7" s="1"/>
@@ -2770,16 +2882,18 @@
       <c r="EO7" s="1"/>
       <c r="EP7" s="1"/>
       <c r="EQ7" s="1"/>
+      <c r="ER7" s="1"/>
     </row>
-    <row r="8" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>8</v>
+      <c r="B8" s="13">
+        <f>B29/(B29+C29)</f>
+        <v>0.85526315789473684</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>8</v>
@@ -2788,10 +2902,10 @@
         <v>8</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>8</v>
@@ -2809,10 +2923,10 @@
         <v>8</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O8" s="6" t="s">
         <v>8</v>
@@ -2857,10 +2971,10 @@
         <v>8</v>
       </c>
       <c r="AC8" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD8" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE8" s="6" t="s">
         <v>8</v>
@@ -2868,31 +2982,31 @@
       <c r="AF8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AG8" s="1" t="s">
+      <c r="AG8" s="6" t="s">
         <v>8</v>
       </c>
       <c r="AH8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AI8" s="6" t="s">
+      <c r="AI8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AJ8" s="6" t="s">
         <v>8</v>
       </c>
       <c r="AK8" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AM8" s="6"/>
+      <c r="AM8" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AN8" s="6"/>
       <c r="AO8" s="6"/>
       <c r="AP8" s="6"/>
-      <c r="AQ8" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="AQ8" s="6"/>
       <c r="AR8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2921,10 +3035,10 @@
         <v>8</v>
       </c>
       <c r="BA8" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB8" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC8" s="6" t="s">
         <v>8</v>
@@ -2933,10 +3047,10 @@
         <v>8</v>
       </c>
       <c r="BE8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="BF8" s="1" t="s">
-        <v>8</v>
+        <v>8</v>
+      </c>
+      <c r="BF8" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="BG8" s="1" t="s">
         <v>8</v>
@@ -2948,10 +3062,10 @@
         <v>8</v>
       </c>
       <c r="BJ8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BK8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BL8" s="1" t="s">
         <v>8</v>
@@ -2975,10 +3089,10 @@
         <v>8</v>
       </c>
       <c r="BS8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BT8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BU8" s="1" t="s">
         <v>8</v>
@@ -2990,19 +3104,19 @@
         <v>8</v>
       </c>
       <c r="BX8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BY8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BZ8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="CA8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CB8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CC8" s="1" t="s">
         <v>8</v>
@@ -3010,8 +3124,10 @@
       <c r="CD8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CE8" s="11"/>
-      <c r="CF8" s="1"/>
+      <c r="CE8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CF8" s="11"/>
       <c r="CG8" s="1"/>
       <c r="CH8" s="1"/>
       <c r="CI8" s="1"/>
@@ -3075,15 +3191,17 @@
       <c r="EO8" s="1"/>
       <c r="EP8" s="1"/>
       <c r="EQ8" s="1"/>
+      <c r="ER8" s="1"/>
     </row>
-    <row r="9" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="13">
+        <f>B30/(B30+C30)</f>
+        <v>0.62666666666666671</v>
+      </c>
+      <c r="C9">
         <v>7</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -3102,7 +3220,7 @@
         <v>7</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>8</v>
@@ -3114,10 +3232,10 @@
         <v>8</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O9" s="6" t="s">
         <v>8</v>
@@ -3132,40 +3250,40 @@
         <v>8</v>
       </c>
       <c r="S9" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="U9" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V9" s="6" t="s">
         <v>8</v>
       </c>
       <c r="W9" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X9" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y9" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z9" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA9" s="6" t="s">
         <v>8</v>
       </c>
       <c r="AB9" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="AD9" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE9" s="6" t="s">
         <v>8</v>
@@ -3173,14 +3291,14 @@
       <c r="AF9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AG9" s="1" t="s">
-        <v>7</v>
+      <c r="AG9" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="AH9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AI9" s="6" t="s">
-        <v>8</v>
+      <c r="AI9" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="AJ9" s="6" t="s">
         <v>8</v>
@@ -3191,18 +3309,18 @@
       <c r="AL9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AM9" s="6"/>
+      <c r="AM9" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AN9" s="6"/>
       <c r="AO9" s="6"/>
       <c r="AP9" s="6"/>
-      <c r="AQ9" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="AQ9" s="6"/>
       <c r="AR9" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS9" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT9" s="6" t="s">
         <v>8</v>
@@ -3214,22 +3332,22 @@
         <v>8</v>
       </c>
       <c r="AW9" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX9" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY9" s="6" t="s">
         <v>8</v>
       </c>
       <c r="AZ9" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="BB9" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC9" s="6" t="s">
         <v>8</v>
@@ -3238,22 +3356,22 @@
         <v>8</v>
       </c>
       <c r="BE9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="BF9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BF9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="BG9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BH9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BI9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BJ9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BK9" s="1" t="s">
         <v>8</v>
@@ -3268,19 +3386,19 @@
         <v>8</v>
       </c>
       <c r="BO9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BP9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BQ9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BR9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BS9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BT9" s="1" t="s">
         <v>8</v>
@@ -3289,22 +3407,22 @@
         <v>8</v>
       </c>
       <c r="BV9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BW9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BX9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BY9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BZ9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="CA9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CB9" s="1" t="s">
         <v>7</v>
@@ -3313,10 +3431,12 @@
         <v>7</v>
       </c>
       <c r="CD9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CE9" s="11"/>
-      <c r="CF9" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="CE9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CF9" s="11"/>
       <c r="CG9" s="1"/>
       <c r="CH9" s="1"/>
       <c r="CI9" s="1"/>
@@ -3380,19 +3500,21 @@
       <c r="EO9" s="1"/>
       <c r="EP9" s="1"/>
       <c r="EQ9" s="1"/>
+      <c r="ER9" s="1"/>
     </row>
-    <row r="10" spans="1:147" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:148" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="13">
+        <f>B31/(B31+C31)</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C10">
         <v>8</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>7</v>
@@ -3400,13 +3522,13 @@
       <c r="F10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="G10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="6"/>
       <c r="J10" s="6" t="s">
         <v>8</v>
       </c>
@@ -3417,25 +3539,25 @@
         <v>8</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="S10" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T10" s="6" t="s">
         <v>7</v>
@@ -3444,34 +3566,34 @@
         <v>7</v>
       </c>
       <c r="V10" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W10" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X10" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y10" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z10" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="AB10" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC10" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="AE10" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF10" s="6" t="s">
         <v>7</v>
@@ -3479,48 +3601,48 @@
       <c r="AG10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AH10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI10" s="6" t="s">
+      <c r="AH10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AJ10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="AK10" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM10" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="AM10" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AN10" s="6"/>
       <c r="AO10" s="6"/>
       <c r="AP10" s="6"/>
-      <c r="AQ10" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="AQ10" s="6"/>
       <c r="AR10" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS10" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT10" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="AV10" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="AX10" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY10" s="6" t="s">
         <v>7</v>
@@ -3529,7 +3651,7 @@
         <v>7</v>
       </c>
       <c r="BA10" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB10" s="6" t="s">
         <v>8</v>
@@ -3541,28 +3663,28 @@
         <v>8</v>
       </c>
       <c r="BE10" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BF10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BG10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BG10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="BH10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BI10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BJ10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BK10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="BL10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BM10" s="1" t="s">
         <v>8</v>
@@ -3571,22 +3693,22 @@
         <v>8</v>
       </c>
       <c r="BO10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BP10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BQ10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BR10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BS10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="BT10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BU10" s="1" t="s">
         <v>8</v>
@@ -3595,16 +3717,16 @@
         <v>8</v>
       </c>
       <c r="BW10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BX10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="BY10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BZ10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CA10" s="1" t="s">
         <v>7</v>
@@ -3613,13 +3735,15 @@
         <v>7</v>
       </c>
       <c r="CC10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CD10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CE10" s="11"/>
-      <c r="CF10" s="1"/>
+      <c r="CE10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CF10" s="11"/>
       <c r="CG10" s="1"/>
       <c r="CH10" s="1"/>
       <c r="CI10" s="1"/>
@@ -3683,16 +3807,18 @@
       <c r="EO10" s="1"/>
       <c r="EP10" s="1"/>
       <c r="EQ10" s="1"/>
+      <c r="ER10" s="1"/>
     </row>
-    <row r="11" spans="1:147" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:148" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>7</v>
+      <c r="B11" s="13">
+        <f>B32/(B32+C32)</f>
+        <v>0.45333333333333331</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>7</v>
@@ -3703,11 +3829,11 @@
       <c r="F11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="7" t="s">
         <v>7</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>8</v>
@@ -3722,72 +3848,72 @@
         <v>8</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="T11" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U11" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V11" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W11" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X11" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="Z11" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA11" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="AC11" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="AE11" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF11" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AJ11" s="6" t="s">
@@ -3797,17 +3923,17 @@
         <v>8</v>
       </c>
       <c r="AL11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="AM11" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="AM11" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AN11" s="6"/>
       <c r="AO11" s="6"/>
       <c r="AP11" s="6"/>
-      <c r="AQ11" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="AQ11" s="6"/>
       <c r="AR11" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS11" s="6" t="s">
         <v>8</v>
@@ -3816,7 +3942,7 @@
         <v>8</v>
       </c>
       <c r="AU11" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV11" s="6" t="s">
         <v>7</v>
@@ -3825,43 +3951,43 @@
         <v>7</v>
       </c>
       <c r="AX11" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY11" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="BA11" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="BC11" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD11" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BE11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="BF11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="BG11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BG11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="BH11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BI11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BJ11" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BK11" s="1" t="s">
         <v>7</v>
@@ -3900,31 +4026,33 @@
         <v>7</v>
       </c>
       <c r="BW11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BX11" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BY11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BZ11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="CA11" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CB11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CC11" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CD11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CE11" s="11"/>
-      <c r="CF11" s="1"/>
+      <c r="CE11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CF11" s="11"/>
       <c r="CG11" s="1"/>
       <c r="CH11" s="1"/>
       <c r="CI11" s="1"/>
@@ -3988,28 +4116,30 @@
       <c r="EO11" s="1"/>
       <c r="EP11" s="1"/>
       <c r="EQ11" s="1"/>
+      <c r="ER11" s="1"/>
     </row>
-    <row r="12" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>8</v>
+      <c r="B12" s="13">
+        <f>B33/(B33+C33)</f>
+        <v>0.77631578947368418</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>8</v>
@@ -4045,10 +4175,10 @@
         <v>8</v>
       </c>
       <c r="S12" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T12" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U12" s="6" t="s">
         <v>8</v>
@@ -4069,30 +4199,30 @@
         <v>8</v>
       </c>
       <c r="AA12" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB12" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC12" s="6" t="s">
         <v>8</v>
       </c>
       <c r="AD12" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE12" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AG12" s="1" t="s">
-        <v>7</v>
+      <c r="AG12" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="AH12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AJ12" s="6" t="s">
@@ -4102,15 +4232,15 @@
         <v>8</v>
       </c>
       <c r="AL12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="AM12" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="AM12" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AN12" s="6"/>
       <c r="AO12" s="6"/>
       <c r="AP12" s="6"/>
-      <c r="AQ12" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="AQ12" s="6"/>
       <c r="AR12" s="6" t="s">
         <v>8</v>
       </c>
@@ -4118,7 +4248,7 @@
         <v>8</v>
       </c>
       <c r="AT12" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU12" s="6" t="s">
         <v>7</v>
@@ -4127,7 +4257,7 @@
         <v>7</v>
       </c>
       <c r="AW12" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX12" s="6" t="s">
         <v>8</v>
@@ -4139,34 +4269,34 @@
         <v>8</v>
       </c>
       <c r="BA12" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB12" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC12" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD12" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BE12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="BF12" s="1" t="s">
-        <v>8</v>
+        <v>8</v>
+      </c>
+      <c r="BF12" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="BG12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BH12" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BI12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="BJ12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BK12" s="1" t="s">
         <v>8</v>
@@ -4193,10 +4323,10 @@
         <v>8</v>
       </c>
       <c r="BS12" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BT12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BU12" s="1" t="s">
         <v>8</v>
@@ -4205,10 +4335,10 @@
         <v>8</v>
       </c>
       <c r="BW12" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BX12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BY12" s="1" t="s">
         <v>8</v>
@@ -4228,8 +4358,10 @@
       <c r="CD12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CE12" s="11"/>
-      <c r="CF12" s="1"/>
+      <c r="CE12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CF12" s="11"/>
       <c r="CG12" s="1"/>
       <c r="CH12" s="1"/>
       <c r="CI12" s="1"/>
@@ -4293,16 +4425,18 @@
       <c r="EO12" s="1"/>
       <c r="EP12" s="1"/>
       <c r="EQ12" s="1"/>
+      <c r="ER12" s="1"/>
     </row>
-    <row r="13" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13">
-        <v>13</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>7</v>
+      <c r="B13" s="13">
+        <f>B34/(B34+C34)</f>
+        <v>0.70666666666666667</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>7</v>
@@ -4317,7 +4451,7 @@
         <v>7</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>8</v>
@@ -4332,10 +4466,10 @@
         <v>8</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O13" s="6" t="s">
         <v>8</v>
@@ -4350,7 +4484,7 @@
         <v>8</v>
       </c>
       <c r="S13" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T13" s="6" t="s">
         <v>7</v>
@@ -4359,16 +4493,16 @@
         <v>7</v>
       </c>
       <c r="V13" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W13" s="6" t="s">
         <v>8</v>
       </c>
       <c r="X13" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y13" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z13" s="6" t="s">
         <v>8</v>
@@ -4389,33 +4523,33 @@
         <v>8</v>
       </c>
       <c r="AF13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG13" s="1" t="s">
-        <v>8</v>
+        <v>8</v>
+      </c>
+      <c r="AG13" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="AH13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AI13" s="6" t="s">
-        <v>7</v>
+      <c r="AI13" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="AJ13" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK13" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM13" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="AM13" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AN13" s="6"/>
       <c r="AO13" s="6"/>
       <c r="AP13" s="6"/>
-      <c r="AQ13" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="AQ13" s="6"/>
       <c r="AR13" s="6" t="s">
         <v>8</v>
       </c>
@@ -4444,13 +4578,13 @@
         <v>8</v>
       </c>
       <c r="BA13" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB13" s="6" t="s">
         <v>7</v>
       </c>
       <c r="BC13" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD13" s="6" t="s">
         <v>8</v>
@@ -4458,26 +4592,26 @@
       <c r="BE13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BF13" s="1" t="s">
+      <c r="BF13" s="6" t="s">
         <v>8</v>
       </c>
       <c r="BG13" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BH13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BI13" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BJ13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BK13" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BL13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BM13" s="1" t="s">
         <v>8</v>
@@ -4489,19 +4623,19 @@
         <v>8</v>
       </c>
       <c r="BP13" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BQ13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BR13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BS13" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BT13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BU13" s="1" t="s">
         <v>8</v>
@@ -4513,19 +4647,19 @@
         <v>8</v>
       </c>
       <c r="BX13" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BY13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BZ13" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CA13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="CB13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CC13" s="1" t="s">
         <v>8</v>
@@ -4533,8 +4667,10 @@
       <c r="CD13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CE13" s="11"/>
-      <c r="CF13" s="1"/>
+      <c r="CE13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CF13" s="11"/>
       <c r="CG13" s="1"/>
       <c r="CH13" s="1"/>
       <c r="CI13" s="1"/>
@@ -4598,16 +4734,18 @@
       <c r="EO13" s="1"/>
       <c r="EP13" s="1"/>
       <c r="EQ13" s="1"/>
+      <c r="ER13" s="1"/>
     </row>
-    <row r="14" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B14">
-        <v>14</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>8</v>
+      <c r="B14" s="13">
+        <f>B35/(B35+C35)</f>
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>8</v>
@@ -4616,7 +4754,7 @@
         <v>8</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>7</v>
@@ -4625,7 +4763,7 @@
         <v>7</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>8</v>
@@ -4637,10 +4775,10 @@
         <v>8</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O14" s="6" t="s">
         <v>8</v>
@@ -4667,10 +4805,10 @@
         <v>8</v>
       </c>
       <c r="W14" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X14" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y14" s="6" t="s">
         <v>8</v>
@@ -4694,15 +4832,15 @@
         <v>8</v>
       </c>
       <c r="AF14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG14" s="1" t="s">
-        <v>8</v>
+        <v>8</v>
+      </c>
+      <c r="AG14" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="AH14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AI14" s="6" t="s">
+      <c r="AI14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AJ14" s="6" t="s">
@@ -4714,21 +4852,21 @@
       <c r="AL14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AM14" s="6"/>
+      <c r="AM14" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AN14" s="6"/>
       <c r="AO14" s="6"/>
       <c r="AP14" s="6"/>
-      <c r="AQ14" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="AQ14" s="6"/>
       <c r="AR14" s="6" t="s">
         <v>8</v>
       </c>
       <c r="AS14" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT14" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU14" s="6" t="s">
         <v>8</v>
@@ -4749,10 +4887,10 @@
         <v>8</v>
       </c>
       <c r="BA14" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB14" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC14" s="6" t="s">
         <v>8</v>
@@ -4763,26 +4901,26 @@
       <c r="BE14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BF14" s="1" t="s">
+      <c r="BF14" s="6" t="s">
         <v>8</v>
       </c>
       <c r="BG14" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BH14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="BI14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BJ14" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BK14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="BL14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BM14" s="1" t="s">
         <v>8</v>
@@ -4794,52 +4932,54 @@
         <v>8</v>
       </c>
       <c r="BP14" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BQ14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="BR14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BS14" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BT14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BU14" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BV14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="BW14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BX14" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BY14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BZ14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="CA14" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CB14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CC14" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CD14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CE14" s="11"/>
-      <c r="CF14" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="CE14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CF14" s="11"/>
       <c r="CG14" s="1"/>
       <c r="CH14" s="1"/>
       <c r="CI14" s="1"/>
@@ -4903,16 +5043,18 @@
       <c r="EO14" s="1"/>
       <c r="EP14" s="1"/>
       <c r="EQ14" s="1"/>
+      <c r="ER14" s="1"/>
     </row>
-    <row r="15" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="B15">
-        <v>15</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>7</v>
+      <c r="B15" s="13">
+        <f>B36/(B36+C36)</f>
+        <v>0.7466666666666667</v>
+      </c>
+      <c r="C15">
+        <v>13</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>7</v>
@@ -4927,7 +5069,7 @@
         <v>7</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>8</v>
@@ -4942,10 +5084,10 @@
         <v>8</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O15" s="6" t="s">
         <v>8</v>
@@ -4954,10 +5096,10 @@
         <v>8</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S15" s="6" t="s">
         <v>8</v>
@@ -4966,10 +5108,10 @@
         <v>8</v>
       </c>
       <c r="U15" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V15" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W15" s="6" t="s">
         <v>8</v>
@@ -5001,31 +5143,31 @@
       <c r="AF15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AG15" s="1" t="s">
+      <c r="AG15" s="6" t="s">
         <v>8</v>
       </c>
       <c r="AH15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI15" s="6" t="s">
-        <v>8</v>
+        <v>8</v>
+      </c>
+      <c r="AI15" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="AJ15" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK15" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="AM15" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="AM15" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AN15" s="6"/>
       <c r="AO15" s="6"/>
       <c r="AP15" s="6"/>
-      <c r="AQ15" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="AQ15" s="6"/>
       <c r="AR15" s="6" t="s">
         <v>8</v>
       </c>
@@ -5033,13 +5175,13 @@
         <v>8</v>
       </c>
       <c r="AT15" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU15" s="6" t="s">
         <v>7</v>
       </c>
       <c r="AV15" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW15" s="6" t="s">
         <v>8</v>
@@ -5054,25 +5196,25 @@
         <v>8</v>
       </c>
       <c r="BA15" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB15" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC15" s="6" t="s">
         <v>8</v>
       </c>
       <c r="BD15" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BE15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BF15" s="1" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="BF15" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="BG15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BH15" s="1" t="s">
         <v>8</v>
@@ -5108,13 +5250,13 @@
         <v>8</v>
       </c>
       <c r="BS15" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BT15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="BU15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BV15" s="1" t="s">
         <v>8</v>
@@ -5132,19 +5274,21 @@
         <v>8</v>
       </c>
       <c r="CA15" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CB15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CC15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="CD15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CE15" s="11"/>
-      <c r="CF15" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="CE15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CF15" s="11"/>
       <c r="CG15" s="1"/>
       <c r="CH15" s="1"/>
       <c r="CI15" s="1"/>
@@ -5208,16 +5352,18 @@
       <c r="EO15" s="1"/>
       <c r="EP15" s="1"/>
       <c r="EQ15" s="1"/>
+      <c r="ER15" s="1"/>
     </row>
-    <row r="16" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="B16">
-        <v>16</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>7</v>
+      <c r="B16" s="13">
+        <f>B37/(B37+C37)</f>
+        <v>0.8</v>
+      </c>
+      <c r="C16">
+        <v>14</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>7</v>
@@ -5229,13 +5375,13 @@
         <v>7</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>8</v>
@@ -5247,10 +5393,10 @@
         <v>8</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O16" s="6" t="s">
         <v>8</v>
@@ -5295,42 +5441,42 @@
         <v>8</v>
       </c>
       <c r="AC16" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD16" s="6" t="s">
         <v>7</v>
       </c>
       <c r="AE16" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AG16" s="1" t="s">
+      <c r="AG16" s="6" t="s">
         <v>8</v>
       </c>
       <c r="AH16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AI16" s="6" t="s">
+      <c r="AI16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AJ16" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK16" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AM16" s="6"/>
+      <c r="AM16" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AN16" s="6"/>
       <c r="AO16" s="6"/>
       <c r="AP16" s="6"/>
-      <c r="AQ16" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="AQ16" s="6"/>
       <c r="AR16" s="6" t="s">
         <v>8</v>
       </c>
@@ -5347,10 +5493,10 @@
         <v>8</v>
       </c>
       <c r="AW16" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX16" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY16" s="6" t="s">
         <v>8</v>
@@ -5368,12 +5514,12 @@
         <v>8</v>
       </c>
       <c r="BD16" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BE16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BF16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF16" s="6" t="s">
         <v>8</v>
       </c>
       <c r="BG16" s="1" t="s">
@@ -5398,10 +5544,10 @@
         <v>8</v>
       </c>
       <c r="BN16" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BO16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BP16" s="1" t="s">
         <v>8</v>
@@ -5425,10 +5571,10 @@
         <v>8</v>
       </c>
       <c r="BW16" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BX16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BY16" s="1" t="s">
         <v>8</v>
@@ -5437,19 +5583,21 @@
         <v>8</v>
       </c>
       <c r="CA16" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CB16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="CC16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CD16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CE16" s="11"/>
-      <c r="CF16" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="CE16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CF16" s="11"/>
       <c r="CG16" s="1"/>
       <c r="CH16" s="1"/>
       <c r="CI16" s="1"/>
@@ -5513,28 +5661,30 @@
       <c r="EO16" s="1"/>
       <c r="EP16" s="1"/>
       <c r="EQ16" s="1"/>
+      <c r="ER16" s="1"/>
     </row>
-    <row r="17" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="B17">
-        <v>17</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>8</v>
+      <c r="B17" s="13">
+        <f>B38/(B38+C38)</f>
+        <v>0.40789473684210525</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>8</v>
@@ -5552,10 +5702,10 @@
         <v>8</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O17" s="6" t="s">
         <v>8</v>
@@ -5564,22 +5714,22 @@
         <v>8</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R17" s="6" t="s">
         <v>7</v>
       </c>
       <c r="S17" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T17" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U17" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V17" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W17" s="6" t="s">
         <v>7</v>
@@ -5591,33 +5741,33 @@
         <v>7</v>
       </c>
       <c r="Z17" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA17" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB17" s="6" t="s">
         <v>7</v>
       </c>
       <c r="AC17" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD17" s="6" t="s">
         <v>8</v>
       </c>
       <c r="AE17" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AG17" s="1" t="s">
+      <c r="AG17" s="6" t="s">
         <v>7</v>
       </c>
       <c r="AH17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AI17" s="6" t="s">
+      <c r="AI17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="AJ17" s="6" t="s">
@@ -5629,15 +5779,15 @@
       <c r="AL17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AM17" s="6"/>
+      <c r="AM17" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AN17" s="6"/>
       <c r="AO17" s="6"/>
       <c r="AP17" s="6"/>
-      <c r="AQ17" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="AQ17" s="6"/>
       <c r="AR17" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS17" s="6" t="s">
         <v>7</v>
@@ -5667,7 +5817,7 @@
         <v>7</v>
       </c>
       <c r="BB17" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC17" s="6" t="s">
         <v>8</v>
@@ -5678,23 +5828,23 @@
       <c r="BE17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BF17" s="1" t="s">
-        <v>7</v>
+      <c r="BF17" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="BG17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BH17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BI17" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BJ17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="BK17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BL17" s="1" t="s">
         <v>8</v>
@@ -5703,31 +5853,31 @@
         <v>8</v>
       </c>
       <c r="BN17" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BO17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="BP17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BQ17" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BR17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BS17" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BT17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="BU17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BV17" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BW17" s="1" t="s">
         <v>7</v>
@@ -5736,10 +5886,10 @@
         <v>7</v>
       </c>
       <c r="BY17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BZ17" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CA17" s="1" t="s">
         <v>7</v>
@@ -5751,10 +5901,12 @@
         <v>7</v>
       </c>
       <c r="CD17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CE17" s="11"/>
-      <c r="CF17" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="CE17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CF17" s="11"/>
       <c r="CG17" s="1"/>
       <c r="CH17" s="1"/>
       <c r="CI17" s="1"/>
@@ -5818,16 +5970,18 @@
       <c r="EO17" s="1"/>
       <c r="EP17" s="1"/>
       <c r="EQ17" s="1"/>
+      <c r="ER17" s="1"/>
     </row>
-    <row r="18" spans="1:147" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:148" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="B18">
-        <v>18</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>8</v>
+      <c r="B18" s="13">
+        <f>B39/(B39+C39)</f>
+        <v>0.96052631578947367</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>8</v>
@@ -5836,10 +5990,10 @@
         <v>8</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>8</v>
@@ -5857,10 +6011,10 @@
         <v>8</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O18" s="6" t="s">
         <v>8</v>
@@ -5934,13 +6088,13 @@
       <c r="AL18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AM18" s="6"/>
+      <c r="AM18" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AN18" s="6"/>
       <c r="AO18" s="6"/>
       <c r="AP18" s="6"/>
-      <c r="AQ18" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="AQ18" s="6"/>
       <c r="AR18" s="6" t="s">
         <v>8</v>
       </c>
@@ -5995,17 +6149,17 @@
       <c r="BI18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BJ18" s="1" t="s">
+      <c r="BJ18" s="6" t="s">
         <v>8</v>
       </c>
       <c r="BK18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BL18" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BM18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BN18" s="1" t="s">
         <v>8</v>
@@ -6058,8 +6212,10 @@
       <c r="CD18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CE18" s="11"/>
-      <c r="CF18" s="1"/>
+      <c r="CE18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CF18" s="11"/>
       <c r="CG18" s="1"/>
       <c r="CH18" s="1"/>
       <c r="CI18" s="1"/>
@@ -6123,16 +6279,18 @@
       <c r="EO18" s="1"/>
       <c r="EP18" s="1"/>
       <c r="EQ18" s="1"/>
+      <c r="ER18" s="1"/>
     </row>
-    <row r="19" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
-      <c r="B19">
-        <v>19</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>8</v>
+      <c r="B19" s="13">
+        <f>B40/(B40+C40)</f>
+        <v>0.96052631578947367</v>
+      </c>
+      <c r="C19">
+        <v>17</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>8</v>
@@ -6141,10 +6299,10 @@
         <v>8</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>8</v>
@@ -6162,10 +6320,10 @@
         <v>8</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O19" s="6" t="s">
         <v>8</v>
@@ -6239,13 +6397,13 @@
       <c r="AL19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AM19" s="6"/>
+      <c r="AM19" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AN19" s="6"/>
       <c r="AO19" s="6"/>
       <c r="AP19" s="6"/>
-      <c r="AQ19" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="AQ19" s="6"/>
       <c r="AR19" s="6" t="s">
         <v>8</v>
       </c>
@@ -6294,7 +6452,7 @@
       <c r="BG19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BH19" s="1" t="s">
+      <c r="BH19" s="6" t="s">
         <v>8</v>
       </c>
       <c r="BI19" s="1" t="s">
@@ -6328,10 +6486,10 @@
         <v>8</v>
       </c>
       <c r="BS19" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BT19" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BU19" s="1" t="s">
         <v>8</v>
@@ -6363,8 +6521,10 @@
       <c r="CD19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CE19" s="11"/>
-      <c r="CF19" s="1"/>
+      <c r="CE19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CF19" s="11"/>
       <c r="CG19" s="1"/>
       <c r="CH19" s="1"/>
       <c r="CI19" s="1"/>
@@ -6428,16 +6588,18 @@
       <c r="EO19" s="1"/>
       <c r="EP19" s="1"/>
       <c r="EQ19" s="1"/>
+      <c r="ER19" s="1"/>
     </row>
-    <row r="20" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
-      <c r="B20">
-        <v>20</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>8</v>
+      <c r="B20" s="13">
+        <f>B41/(B41+C41)</f>
+        <v>0.61842105263157898</v>
+      </c>
+      <c r="C20">
+        <v>18</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>8</v>
@@ -6446,7 +6608,7 @@
         <v>8</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>7</v>
@@ -6455,7 +6617,7 @@
         <v>7</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>8</v>
@@ -6467,10 +6629,10 @@
         <v>8</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O20" s="6" t="s">
         <v>8</v>
@@ -6479,7 +6641,7 @@
         <v>8</v>
       </c>
       <c r="Q20" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R20" s="6" t="s">
         <v>7</v>
@@ -6488,28 +6650,28 @@
         <v>7</v>
       </c>
       <c r="T20" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U20" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V20" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W20" s="6" t="s">
         <v>8</v>
       </c>
       <c r="X20" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y20" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z20" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA20" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB20" s="6" t="s">
         <v>8</v>
@@ -6521,36 +6683,36 @@
         <v>8</v>
       </c>
       <c r="AE20" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF20" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG20" s="6" t="s">
         <v>8</v>
       </c>
       <c r="AH20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI20" s="6" t="s">
-        <v>8</v>
+        <v>8</v>
+      </c>
+      <c r="AI20" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="AJ20" s="6" t="s">
         <v>8</v>
       </c>
       <c r="AK20" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL20" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AM20" s="6"/>
+      <c r="AM20" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AN20" s="6"/>
       <c r="AO20" s="6"/>
       <c r="AP20" s="6"/>
-      <c r="AQ20" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="AQ20" s="6"/>
       <c r="AR20" s="6" t="s">
         <v>7</v>
       </c>
@@ -6564,7 +6726,7 @@
         <v>7</v>
       </c>
       <c r="AV20" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW20" s="6" t="s">
         <v>8</v>
@@ -6573,10 +6735,10 @@
         <v>8</v>
       </c>
       <c r="AY20" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ20" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA20" s="6" t="s">
         <v>8</v>
@@ -6593,17 +6755,17 @@
       <c r="BE20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BF20" s="1" t="s">
-        <v>7</v>
+      <c r="BF20" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="BG20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BH20" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BI20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BJ20" s="1" t="s">
         <v>8</v>
@@ -6612,19 +6774,19 @@
         <v>8</v>
       </c>
       <c r="BL20" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BM20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BN20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BO20" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BP20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BQ20" s="1" t="s">
         <v>8</v>
@@ -6642,13 +6804,13 @@
         <v>8</v>
       </c>
       <c r="BV20" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BW20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BX20" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BY20" s="1" t="s">
         <v>7</v>
@@ -6660,7 +6822,7 @@
         <v>7</v>
       </c>
       <c r="CB20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CC20" s="1" t="s">
         <v>8</v>
@@ -6668,8 +6830,10 @@
       <c r="CD20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CE20" s="11"/>
-      <c r="CF20" s="1"/>
+      <c r="CE20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CF20" s="11"/>
       <c r="CG20" s="1"/>
       <c r="CH20" s="1"/>
       <c r="CI20" s="1"/>
@@ -6733,28 +6897,30 @@
       <c r="EO20" s="1"/>
       <c r="EP20" s="1"/>
       <c r="EQ20" s="1"/>
+      <c r="ER20" s="1"/>
     </row>
-    <row r="21" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
-      <c r="B21">
-        <v>21</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>8</v>
+      <c r="B21" s="13">
+        <f>B42/(B42+C42)</f>
+        <v>0.69333333333333336</v>
+      </c>
+      <c r="C21">
+        <v>19</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>8</v>
@@ -6772,10 +6938,10 @@
         <v>8</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O21" s="6" t="s">
         <v>8</v>
@@ -6802,10 +6968,10 @@
         <v>8</v>
       </c>
       <c r="W21" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X21" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y21" s="6" t="s">
         <v>8</v>
@@ -6831,48 +6997,48 @@
       <c r="AF21" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AG21" s="1" t="s">
+      <c r="AG21" s="6" t="s">
         <v>8</v>
       </c>
       <c r="AH21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AI21" s="6" t="s">
+      <c r="AI21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AJ21" s="6" t="s">
         <v>8</v>
       </c>
       <c r="AK21" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL21" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM21" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="AM21" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AN21" s="6"/>
       <c r="AO21" s="6"/>
       <c r="AP21" s="6"/>
-      <c r="AQ21" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="AQ21" s="6"/>
       <c r="AR21" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS21" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT21" s="6" t="s">
         <v>7</v>
       </c>
       <c r="AU21" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV21" s="6" t="s">
         <v>8</v>
       </c>
       <c r="AW21" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX21" s="6" t="s">
         <v>7</v>
@@ -6881,24 +7047,24 @@
         <v>7</v>
       </c>
       <c r="AZ21" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BB21" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="BB21" s="6" t="s">
-        <v>8</v>
-      </c>
       <c r="BC21" s="6" t="s">
         <v>8</v>
       </c>
       <c r="BD21" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BE21" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BF21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF21" s="6" t="s">
         <v>8</v>
       </c>
       <c r="BG21" s="1" t="s">
@@ -6908,7 +7074,7 @@
         <v>8</v>
       </c>
       <c r="BI21" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BJ21" s="1" t="s">
         <v>7</v>
@@ -6920,7 +7086,7 @@
         <v>7</v>
       </c>
       <c r="BM21" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BN21" s="1" t="s">
         <v>8</v>
@@ -6935,16 +7101,16 @@
         <v>8</v>
       </c>
       <c r="BR21" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BS21" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BT21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BU21" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BV21" s="1" t="s">
         <v>7</v>
@@ -6956,7 +7122,7 @@
         <v>7</v>
       </c>
       <c r="BY21" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BZ21" s="1" t="s">
         <v>8</v>
@@ -6968,13 +7134,15 @@
         <v>8</v>
       </c>
       <c r="CC21" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CD21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CE21" s="11"/>
-      <c r="CF21" s="1"/>
+      <c r="CE21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CF21" s="11"/>
       <c r="CG21" s="1"/>
       <c r="CH21" s="1"/>
       <c r="CI21" s="1"/>
@@ -7038,13 +7206,13 @@
       <c r="EO21" s="1"/>
       <c r="EP21" s="1"/>
       <c r="EQ21" s="1"/>
+      <c r="ER21" s="1"/>
     </row>
-    <row r="22" spans="1:147" x14ac:dyDescent="0.25">
-      <c r="L22" s="6"/>
+    <row r="22" spans="1:148" x14ac:dyDescent="0.25">
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
-      <c r="P22" s="1"/>
+      <c r="P22" s="6"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -7064,32 +7232,302 @@
       <c r="AG22" s="1"/>
       <c r="AH22" s="1"/>
       <c r="AI22" s="1"/>
-      <c r="AM22" s="6"/>
+      <c r="AJ22" s="1"/>
       <c r="AN22" s="6"/>
       <c r="AO22" s="6"/>
       <c r="AP22" s="6"/>
+      <c r="AQ22" s="6"/>
     </row>
-    <row r="28" spans="1:147" x14ac:dyDescent="0.25">
-      <c r="BF28" s="5"/>
+    <row r="23" spans="1:148" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:148" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <f>COUNTIF(D3:EF3,B$23)</f>
+        <v>56</v>
+      </c>
+      <c r="C24">
+        <f>COUNTIF(E3:EG3,C$23)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:148" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <f>COUNTIF(D4:EF4,B$23)</f>
+        <v>59</v>
+      </c>
+      <c r="C25">
+        <f>COUNTIF(E4:EG4,C$23)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:148" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <f>COUNTIF(D5:EF5,B$23)</f>
+        <v>40</v>
+      </c>
+      <c r="C26">
+        <f>COUNTIF(E5:EG5,C$23)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:148" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27">
+        <f>COUNTIF(D6:EF6,B$23)</f>
+        <v>68</v>
+      </c>
+      <c r="C27">
+        <f>COUNTIF(E6:EG6,C$23)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:148" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28">
+        <f>COUNTIF(D7:EF7,B$23)</f>
+        <v>65</v>
+      </c>
+      <c r="C28">
+        <f>COUNTIF(E7:EG7,C$23)</f>
+        <v>11</v>
+      </c>
+      <c r="BG28" s="5"/>
+    </row>
+    <row r="29" spans="1:148" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29">
+        <f>COUNTIF(D8:EF8,B$23)</f>
+        <v>65</v>
+      </c>
+      <c r="C29">
+        <f>COUNTIF(E8:EG8,C$23)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:148" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30">
+        <f>COUNTIF(D9:EF9,B$23)</f>
+        <v>47</v>
+      </c>
+      <c r="C30">
+        <f>COUNTIF(E9:EG9,C$23)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:148" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31">
+        <f>COUNTIF(D10:EF10,B$23)</f>
+        <v>42</v>
+      </c>
+      <c r="C31">
+        <f>COUNTIF(E10:EG10,C$23)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:148" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32">
+        <f>COUNTIF(D11:EF11,B$23)</f>
+        <v>34</v>
+      </c>
+      <c r="C32">
+        <f>COUNTIF(E11:EG11,C$23)</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33">
+        <f>COUNTIF(D12:EF12,B$23)</f>
+        <v>59</v>
+      </c>
+      <c r="C33">
+        <f>COUNTIF(E12:EG12,C$23)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34">
+        <f>COUNTIF(D13:EF13,B$23)</f>
+        <v>53</v>
+      </c>
+      <c r="C34">
+        <f>COUNTIF(E13:EG13,C$23)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35">
+        <f>COUNTIF(D14:EF14,B$23)</f>
+        <v>56</v>
+      </c>
+      <c r="C35">
+        <f>COUNTIF(E14:EG14,C$23)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36">
+        <f>COUNTIF(D15:EF15,B$23)</f>
+        <v>56</v>
+      </c>
+      <c r="C36">
+        <f>COUNTIF(E15:EG15,C$23)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37">
+        <f>COUNTIF(D16:EF16,B$23)</f>
+        <v>60</v>
+      </c>
+      <c r="C37">
+        <f>COUNTIF(E16:EG16,C$23)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38">
+        <f>COUNTIF(D17:EF17,B$23)</f>
+        <v>31</v>
+      </c>
+      <c r="C38">
+        <f>COUNTIF(E17:EG17,C$23)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39">
+        <f>COUNTIF(D18:EF18,B$23)</f>
+        <v>73</v>
+      </c>
+      <c r="C39">
+        <f>COUNTIF(E18:EG18,C$23)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40">
+        <f>COUNTIF(D19:EF19,B$23)</f>
+        <v>73</v>
+      </c>
+      <c r="C40">
+        <f>COUNTIF(E19:EG19,C$23)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41">
+        <f>COUNTIF(D20:EF20,B$23)</f>
+        <v>47</v>
+      </c>
+      <c r="C41">
+        <f>COUNTIF(E20:EG20,C$23)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42">
+        <f>COUNTIF(D21:EF21,B$23)</f>
+        <v>52</v>
+      </c>
+      <c r="C42">
+        <f>COUNTIF(E21:EG21,C$23)</f>
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:B22 C3:H9 G3:ANH21 C10:G10 C11:H21 C22:AI22 AJ22:CP1048576 C1:ANH2">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+  <conditionalFormatting sqref="D1:ANI2 D3:I9 H3:ANI21 D10:H10 D11:I21 D22:AJ22 AK22:CQ1048576 B24:C42 G23:AJ42 A1:C23">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CR22:ANH1048576 A23:AI1048576">
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
+  <conditionalFormatting sqref="CS22:ANI1048576 A43:AJ1048576">
+    <cfRule type="cellIs" dxfId="6" priority="11" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="12" operator="equal">
       <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24:C42">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B21">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+      <formula>0.75</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>

--- a/3des/frequencia.xlsx
+++ b/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04874F67-DE66-4BEA-B3EE-88A4B8CE7FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9135236-F749-4D7E-834C-166C00D1E9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1596" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="35">
   <si>
     <t>Alunos</t>
   </si>
@@ -244,45 +244,20 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -327,26 +302,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -757,7 +712,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="BW3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="CF22" sqref="CF22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,11 +779,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
       <c r="D1" s="2">
         <v>45126</v>
       </c>
@@ -1083,7 +1038,7 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1343,9 +1298,9 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="13">
-        <f>B24/(B24+C24)</f>
-        <v>0.7466666666666667</v>
+      <c r="B3" s="12">
+        <f t="shared" ref="B3:B21" si="0">B24/(B24+C24)</f>
+        <v>0.75</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1582,7 +1537,9 @@
       <c r="CE3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CF3" s="11"/>
+      <c r="CF3" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="CG3" s="1"/>
       <c r="CH3" s="1"/>
       <c r="CI3" s="1"/>
@@ -1652,9 +1609,9 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="13">
-        <f>B25/(B25+C25)</f>
-        <v>0.78666666666666663</v>
+      <c r="B4" s="12">
+        <f t="shared" si="0"/>
+        <v>0.78947368421052633</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1891,7 +1848,9 @@
       <c r="CE4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CF4" s="11"/>
+      <c r="CF4" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="CG4" s="1"/>
       <c r="CH4" s="1"/>
       <c r="CI4" s="1"/>
@@ -1961,9 +1920,9 @@
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="13">
-        <f>B26/(B26+C26)</f>
-        <v>0.53333333333333333</v>
+      <c r="B5" s="12">
+        <f t="shared" si="0"/>
+        <v>0.53947368421052633</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -2200,7 +2159,9 @@
       <c r="CE5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CF5" s="11"/>
+      <c r="CF5" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="CG5" s="1"/>
       <c r="CH5" s="1"/>
       <c r="CI5" s="1"/>
@@ -2270,9 +2231,9 @@
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="13">
-        <f>B27/(B27+C27)</f>
-        <v>0.89473684210526316</v>
+      <c r="B6" s="12">
+        <f t="shared" si="0"/>
+        <v>0.89610389610389607</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -2509,7 +2470,9 @@
       <c r="CE6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CF6" s="11"/>
+      <c r="CF6" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="CG6" s="1"/>
       <c r="CH6" s="1"/>
       <c r="CI6" s="1"/>
@@ -2579,9 +2542,9 @@
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="13">
-        <f>B28/(B28+C28)</f>
-        <v>0.85526315789473684</v>
+      <c r="B7" s="12">
+        <f t="shared" si="0"/>
+        <v>0.8571428571428571</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -2818,7 +2781,9 @@
       <c r="CE7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CF7" s="11"/>
+      <c r="CF7" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="CG7" s="1"/>
       <c r="CH7" s="1"/>
       <c r="CI7" s="1"/>
@@ -2888,9 +2853,9 @@
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="13">
-        <f>B29/(B29+C29)</f>
-        <v>0.85526315789473684</v>
+      <c r="B8" s="12">
+        <f t="shared" si="0"/>
+        <v>0.8571428571428571</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -3127,7 +3092,9 @@
       <c r="CE8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CF8" s="11"/>
+      <c r="CF8" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="CG8" s="1"/>
       <c r="CH8" s="1"/>
       <c r="CI8" s="1"/>
@@ -3197,9 +3164,9 @@
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="13">
-        <f>B30/(B30+C30)</f>
-        <v>0.62666666666666671</v>
+      <c r="B9" s="12">
+        <f t="shared" si="0"/>
+        <v>0.63157894736842102</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -3436,7 +3403,9 @@
       <c r="CE9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CF9" s="11"/>
+      <c r="CF9" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="CG9" s="1"/>
       <c r="CH9" s="1"/>
       <c r="CI9" s="1"/>
@@ -3506,9 +3475,9 @@
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="13">
-        <f>B31/(B31+C31)</f>
-        <v>0.56000000000000005</v>
+      <c r="B10" s="12">
+        <f t="shared" si="0"/>
+        <v>0.55263157894736847</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -3743,7 +3712,9 @@
       <c r="CE10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CF10" s="11"/>
+      <c r="CF10" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="CG10" s="1"/>
       <c r="CH10" s="1"/>
       <c r="CI10" s="1"/>
@@ -3813,9 +3784,9 @@
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="13">
-        <f>B32/(B32+C32)</f>
-        <v>0.45333333333333331</v>
+      <c r="B11" s="12">
+        <f t="shared" si="0"/>
+        <v>0.46052631578947367</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -4052,7 +4023,9 @@
       <c r="CE11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CF11" s="11"/>
+      <c r="CF11" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="CG11" s="1"/>
       <c r="CH11" s="1"/>
       <c r="CI11" s="1"/>
@@ -4122,9 +4095,9 @@
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="13">
-        <f>B33/(B33+C33)</f>
-        <v>0.77631578947368418</v>
+      <c r="B12" s="12">
+        <f t="shared" si="0"/>
+        <v>0.76623376623376627</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -4361,7 +4334,9 @@
       <c r="CE12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CF12" s="11"/>
+      <c r="CF12" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="CG12" s="1"/>
       <c r="CH12" s="1"/>
       <c r="CI12" s="1"/>
@@ -4431,9 +4406,9 @@
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="13">
-        <f>B34/(B34+C34)</f>
-        <v>0.70666666666666667</v>
+      <c r="B13" s="12">
+        <f t="shared" si="0"/>
+        <v>0.71052631578947367</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -4670,7 +4645,9 @@
       <c r="CE13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CF13" s="11"/>
+      <c r="CF13" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="CG13" s="1"/>
       <c r="CH13" s="1"/>
       <c r="CI13" s="1"/>
@@ -4740,9 +4717,9 @@
       <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="13">
-        <f>B35/(B35+C35)</f>
-        <v>0.73684210526315785</v>
+      <c r="B14" s="12">
+        <f t="shared" si="0"/>
+        <v>0.72727272727272729</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -4979,7 +4956,9 @@
       <c r="CE14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CF14" s="11"/>
+      <c r="CF14" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="CG14" s="1"/>
       <c r="CH14" s="1"/>
       <c r="CI14" s="1"/>
@@ -5049,9 +5028,9 @@
       <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="13">
-        <f>B36/(B36+C36)</f>
-        <v>0.7466666666666667</v>
+      <c r="B15" s="12">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
       </c>
       <c r="C15">
         <v>13</v>
@@ -5288,7 +5267,9 @@
       <c r="CE15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CF15" s="11"/>
+      <c r="CF15" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="CG15" s="1"/>
       <c r="CH15" s="1"/>
       <c r="CI15" s="1"/>
@@ -5358,9 +5339,9 @@
       <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="13">
-        <f>B37/(B37+C37)</f>
-        <v>0.8</v>
+      <c r="B16" s="12">
+        <f t="shared" si="0"/>
+        <v>0.80263157894736847</v>
       </c>
       <c r="C16">
         <v>14</v>
@@ -5597,7 +5578,9 @@
       <c r="CE16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CF16" s="11"/>
+      <c r="CF16" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="CG16" s="1"/>
       <c r="CH16" s="1"/>
       <c r="CI16" s="1"/>
@@ -5667,9 +5650,9 @@
       <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="13">
-        <f>B38/(B38+C38)</f>
-        <v>0.40789473684210525</v>
+      <c r="B17" s="12">
+        <f t="shared" si="0"/>
+        <v>0.40259740259740262</v>
       </c>
       <c r="C17">
         <v>15</v>
@@ -5906,7 +5889,9 @@
       <c r="CE17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CF17" s="11"/>
+      <c r="CF17" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="CG17" s="1"/>
       <c r="CH17" s="1"/>
       <c r="CI17" s="1"/>
@@ -5976,9 +5961,9 @@
       <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="13">
-        <f>B39/(B39+C39)</f>
-        <v>0.96052631578947367</v>
+      <c r="B18" s="12">
+        <f t="shared" si="0"/>
+        <v>0.96103896103896103</v>
       </c>
       <c r="C18">
         <v>16</v>
@@ -6215,7 +6200,9 @@
       <c r="CE18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CF18" s="11"/>
+      <c r="CF18" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="CG18" s="1"/>
       <c r="CH18" s="1"/>
       <c r="CI18" s="1"/>
@@ -6285,9 +6272,9 @@
       <c r="A19" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="13">
-        <f>B40/(B40+C40)</f>
-        <v>0.96052631578947367</v>
+      <c r="B19" s="12">
+        <f t="shared" si="0"/>
+        <v>0.96103896103896103</v>
       </c>
       <c r="C19">
         <v>17</v>
@@ -6524,7 +6511,9 @@
       <c r="CE19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CF19" s="11"/>
+      <c r="CF19" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="CG19" s="1"/>
       <c r="CH19" s="1"/>
       <c r="CI19" s="1"/>
@@ -6594,9 +6583,9 @@
       <c r="A20" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="13">
-        <f>B41/(B41+C41)</f>
-        <v>0.61842105263157898</v>
+      <c r="B20" s="12">
+        <f t="shared" si="0"/>
+        <v>0.61038961038961037</v>
       </c>
       <c r="C20">
         <v>18</v>
@@ -6833,7 +6822,9 @@
       <c r="CE20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CF20" s="11"/>
+      <c r="CF20" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="CG20" s="1"/>
       <c r="CH20" s="1"/>
       <c r="CI20" s="1"/>
@@ -6903,9 +6894,9 @@
       <c r="A21" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="13">
-        <f>B42/(B42+C42)</f>
-        <v>0.69333333333333336</v>
+      <c r="B21" s="12">
+        <f t="shared" si="0"/>
+        <v>0.68421052631578949</v>
       </c>
       <c r="C21">
         <v>19</v>
@@ -7142,7 +7133,9 @@
       <c r="CE21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CF21" s="11"/>
+      <c r="CF21" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="CG21" s="1"/>
       <c r="CH21" s="1"/>
       <c r="CI21" s="1"/>
@@ -7239,13 +7232,13 @@
       <c r="AQ22" s="6"/>
     </row>
     <row r="23" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="15" t="s">
+      <c r="B23" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="14" t="s">
         <v>7</v>
       </c>
     </row>
@@ -7254,11 +7247,11 @@
         <v>6</v>
       </c>
       <c r="B24">
-        <f>COUNTIF(D3:EF3,B$23)</f>
-        <v>56</v>
+        <f t="shared" ref="B24:B42" si="1">COUNTIF(D3:EF3,B$23)</f>
+        <v>57</v>
       </c>
       <c r="C24">
-        <f>COUNTIF(E3:EG3,C$23)</f>
+        <f t="shared" ref="C24:C42" si="2">COUNTIF(E3:EG3,C$23)</f>
         <v>19</v>
       </c>
     </row>
@@ -7267,11 +7260,11 @@
         <v>9</v>
       </c>
       <c r="B25">
-        <f>COUNTIF(D4:EF4,B$23)</f>
-        <v>59</v>
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
       <c r="C25">
-        <f>COUNTIF(E4:EG4,C$23)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
     </row>
@@ -7280,11 +7273,11 @@
         <v>10</v>
       </c>
       <c r="B26">
-        <f>COUNTIF(D5:EF5,B$23)</f>
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>41</v>
       </c>
       <c r="C26">
-        <f>COUNTIF(E5:EG5,C$23)</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
     </row>
@@ -7293,11 +7286,11 @@
         <v>11</v>
       </c>
       <c r="B27">
-        <f>COUNTIF(D6:EF6,B$23)</f>
-        <v>68</v>
+        <f t="shared" si="1"/>
+        <v>69</v>
       </c>
       <c r="C27">
-        <f>COUNTIF(E6:EG6,C$23)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
@@ -7306,11 +7299,11 @@
         <v>12</v>
       </c>
       <c r="B28">
-        <f>COUNTIF(D7:EF7,B$23)</f>
-        <v>65</v>
+        <f t="shared" si="1"/>
+        <v>66</v>
       </c>
       <c r="C28">
-        <f>COUNTIF(E7:EG7,C$23)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="BG28" s="5"/>
@@ -7320,11 +7313,11 @@
         <v>13</v>
       </c>
       <c r="B29">
-        <f>COUNTIF(D8:EF8,B$23)</f>
-        <v>65</v>
+        <f t="shared" si="1"/>
+        <v>66</v>
       </c>
       <c r="C29">
-        <f>COUNTIF(E8:EG8,C$23)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
     </row>
@@ -7333,11 +7326,11 @@
         <v>14</v>
       </c>
       <c r="B30">
-        <f>COUNTIF(D9:EF9,B$23)</f>
-        <v>47</v>
+        <f t="shared" si="1"/>
+        <v>48</v>
       </c>
       <c r="C30">
-        <f>COUNTIF(E9:EG9,C$23)</f>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
     </row>
@@ -7346,12 +7339,12 @@
         <v>15</v>
       </c>
       <c r="B31">
-        <f>COUNTIF(D10:EF10,B$23)</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="C31">
-        <f>COUNTIF(E10:EG10,C$23)</f>
-        <v>33</v>
+        <f t="shared" si="2"/>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:148" x14ac:dyDescent="0.25">
@@ -7359,11 +7352,11 @@
         <v>16</v>
       </c>
       <c r="B32">
-        <f>COUNTIF(D11:EF11,B$23)</f>
-        <v>34</v>
+        <f t="shared" si="1"/>
+        <v>35</v>
       </c>
       <c r="C32">
-        <f>COUNTIF(E11:EG11,C$23)</f>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
     </row>
@@ -7372,12 +7365,12 @@
         <v>17</v>
       </c>
       <c r="B33">
-        <f>COUNTIF(D12:EF12,B$23)</f>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="C33">
-        <f>COUNTIF(E12:EG12,C$23)</f>
-        <v>17</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -7385,11 +7378,11 @@
         <v>19</v>
       </c>
       <c r="B34">
-        <f>COUNTIF(D13:EF13,B$23)</f>
-        <v>53</v>
+        <f t="shared" si="1"/>
+        <v>54</v>
       </c>
       <c r="C34">
-        <f>COUNTIF(E13:EG13,C$23)</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
     </row>
@@ -7398,12 +7391,12 @@
         <v>20</v>
       </c>
       <c r="B35">
-        <f>COUNTIF(D14:EF14,B$23)</f>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="C35">
-        <f>COUNTIF(E14:EG14,C$23)</f>
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -7411,11 +7404,11 @@
         <v>21</v>
       </c>
       <c r="B36">
-        <f>COUNTIF(D15:EF15,B$23)</f>
-        <v>56</v>
+        <f t="shared" si="1"/>
+        <v>57</v>
       </c>
       <c r="C36">
-        <f>COUNTIF(E15:EG15,C$23)</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
     </row>
@@ -7424,11 +7417,11 @@
         <v>22</v>
       </c>
       <c r="B37">
-        <f>COUNTIF(D16:EF16,B$23)</f>
-        <v>60</v>
+        <f t="shared" si="1"/>
+        <v>61</v>
       </c>
       <c r="C37">
-        <f>COUNTIF(E16:EG16,C$23)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
     </row>
@@ -7437,12 +7430,12 @@
         <v>23</v>
       </c>
       <c r="B38">
-        <f>COUNTIF(D17:EF17,B$23)</f>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="C38">
-        <f>COUNTIF(E17:EG17,C$23)</f>
-        <v>45</v>
+        <f t="shared" si="2"/>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -7450,11 +7443,11 @@
         <v>24</v>
       </c>
       <c r="B39">
-        <f>COUNTIF(D18:EF18,B$23)</f>
-        <v>73</v>
+        <f t="shared" si="1"/>
+        <v>74</v>
       </c>
       <c r="C39">
-        <f>COUNTIF(E18:EG18,C$23)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -7463,11 +7456,11 @@
         <v>25</v>
       </c>
       <c r="B40">
-        <f>COUNTIF(D19:EF19,B$23)</f>
-        <v>73</v>
+        <f t="shared" si="1"/>
+        <v>74</v>
       </c>
       <c r="C40">
-        <f>COUNTIF(E19:EG19,C$23)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -7476,12 +7469,12 @@
         <v>26</v>
       </c>
       <c r="B41">
-        <f>COUNTIF(D20:EF20,B$23)</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="C41">
-        <f>COUNTIF(E20:EG20,C$23)</f>
-        <v>29</v>
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -7489,45 +7482,45 @@
         <v>27</v>
       </c>
       <c r="B42">
-        <f>COUNTIF(D21:EF21,B$23)</f>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="C42">
-        <f>COUNTIF(E21:EG21,C$23)</f>
-        <v>23</v>
+        <f t="shared" si="2"/>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D1:ANI2 D3:I9 H3:ANI21 D10:H10 D11:I21 D22:AJ22 AK22:CQ1048576 B24:C42 G23:AJ42 A1:C23">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+  <conditionalFormatting sqref="A1:C42">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B21">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
+      <formula>0.75</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:ANI2 D3:I9 H3:ANI21 D10:H10 D11:I21 D22:AJ22 AK22:CQ1048576 G23:AJ42 B24:C42">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CS22:ANI1048576 A43:AJ1048576">
-    <cfRule type="cellIs" dxfId="6" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="11" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="12" operator="equal">
       <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A24:C42">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B21">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
-      <formula>0.75</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>

--- a/3des/frequencia.xlsx
+++ b/3des/frequencia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9135236-F749-4D7E-834C-166C00D1E9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF817B5B-BDE0-4E3B-889D-FED587648D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,6 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -37,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="35">
   <si>
     <t>Alunos</t>
   </si>
@@ -712,7 +701,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="BW3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CF22" sqref="CF22"/>
+      <selection pane="bottomRight" activeCell="CJ20" sqref="CJ20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,10 +745,7 @@
     <col min="78" max="79" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="80" max="82" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="83" max="84" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="85" max="86" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="87" max="88" width="6.7109375" customWidth="1"/>
-    <col min="89" max="89" width="7.42578125" customWidth="1"/>
-    <col min="90" max="90" width="7.7109375" customWidth="1"/>
+    <col min="85" max="90" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="91" max="93" width="6.7109375" customWidth="1"/>
     <col min="94" max="94" width="7.42578125" customWidth="1"/>
     <col min="95" max="95" width="6.7109375" customWidth="1"/>
@@ -1033,6 +1019,18 @@
       <c r="CH1" s="10">
         <v>45247</v>
       </c>
+      <c r="CI1" s="10">
+        <v>45251</v>
+      </c>
+      <c r="CJ1" s="10">
+        <v>45252</v>
+      </c>
+      <c r="CK1" s="10">
+        <v>45253</v>
+      </c>
+      <c r="CL1" s="10">
+        <v>45254</v>
+      </c>
     </row>
     <row r="2" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1293,6 +1291,18 @@
       <c r="CH2" t="s">
         <v>3</v>
       </c>
+      <c r="CI2" t="s">
+        <v>5</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>3</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>3</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1300,7 +1310,7 @@
       </c>
       <c r="B3" s="12">
         <f t="shared" ref="B3:B21" si="0">B24/(B24+C24)</f>
-        <v>0.75</v>
+        <v>0.75324675324675328</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1543,7 +1553,9 @@
       <c r="CG3" s="1"/>
       <c r="CH3" s="1"/>
       <c r="CI3" s="1"/>
-      <c r="CJ3" s="1"/>
+      <c r="CJ3" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CK3" s="1"/>
       <c r="CL3" s="1"/>
       <c r="CM3" s="1"/>
@@ -1611,7 +1623,7 @@
       </c>
       <c r="B4" s="12">
         <f t="shared" si="0"/>
-        <v>0.78947368421052633</v>
+        <v>0.77922077922077926</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1854,7 +1866,9 @@
       <c r="CG4" s="1"/>
       <c r="CH4" s="1"/>
       <c r="CI4" s="1"/>
-      <c r="CJ4" s="1"/>
+      <c r="CJ4" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="CK4" s="1"/>
       <c r="CL4" s="1"/>
       <c r="CM4" s="1"/>
@@ -1922,7 +1936,7 @@
       </c>
       <c r="B5" s="12">
         <f t="shared" si="0"/>
-        <v>0.53947368421052633</v>
+        <v>0.53246753246753242</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -2165,7 +2179,9 @@
       <c r="CG5" s="1"/>
       <c r="CH5" s="1"/>
       <c r="CI5" s="1"/>
-      <c r="CJ5" s="1"/>
+      <c r="CJ5" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="CK5" s="1"/>
       <c r="CL5" s="1"/>
       <c r="CM5" s="1"/>
@@ -2233,7 +2249,7 @@
       </c>
       <c r="B6" s="12">
         <f t="shared" si="0"/>
-        <v>0.89610389610389607</v>
+        <v>0.88461538461538458</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -2476,7 +2492,9 @@
       <c r="CG6" s="1"/>
       <c r="CH6" s="1"/>
       <c r="CI6" s="1"/>
-      <c r="CJ6" s="1"/>
+      <c r="CJ6" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="CK6" s="1"/>
       <c r="CL6" s="1"/>
       <c r="CM6" s="1"/>
@@ -2544,7 +2562,7 @@
       </c>
       <c r="B7" s="12">
         <f t="shared" si="0"/>
-        <v>0.8571428571428571</v>
+        <v>0.84615384615384615</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -2787,7 +2805,9 @@
       <c r="CG7" s="1"/>
       <c r="CH7" s="1"/>
       <c r="CI7" s="1"/>
-      <c r="CJ7" s="1"/>
+      <c r="CJ7" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="CK7" s="1"/>
       <c r="CL7" s="1"/>
       <c r="CM7" s="1"/>
@@ -2855,7 +2875,7 @@
       </c>
       <c r="B8" s="12">
         <f t="shared" si="0"/>
-        <v>0.8571428571428571</v>
+        <v>0.84615384615384615</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -3098,7 +3118,9 @@
       <c r="CG8" s="1"/>
       <c r="CH8" s="1"/>
       <c r="CI8" s="1"/>
-      <c r="CJ8" s="1"/>
+      <c r="CJ8" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="CK8" s="1"/>
       <c r="CL8" s="1"/>
       <c r="CM8" s="1"/>
@@ -3166,7 +3188,7 @@
       </c>
       <c r="B9" s="12">
         <f t="shared" si="0"/>
-        <v>0.63157894736842102</v>
+        <v>0.62337662337662336</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -3409,7 +3431,9 @@
       <c r="CG9" s="1"/>
       <c r="CH9" s="1"/>
       <c r="CI9" s="1"/>
-      <c r="CJ9" s="1"/>
+      <c r="CJ9" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="CK9" s="1"/>
       <c r="CL9" s="1"/>
       <c r="CM9" s="1"/>
@@ -3477,7 +3501,7 @@
       </c>
       <c r="B10" s="12">
         <f t="shared" si="0"/>
-        <v>0.55263157894736847</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -3718,7 +3742,9 @@
       <c r="CG10" s="1"/>
       <c r="CH10" s="1"/>
       <c r="CI10" s="1"/>
-      <c r="CJ10" s="1"/>
+      <c r="CJ10" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="CK10" s="1"/>
       <c r="CL10" s="1"/>
       <c r="CM10" s="1"/>
@@ -3786,7 +3812,7 @@
       </c>
       <c r="B11" s="12">
         <f t="shared" si="0"/>
-        <v>0.46052631578947367</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -4029,7 +4055,9 @@
       <c r="CG11" s="1"/>
       <c r="CH11" s="1"/>
       <c r="CI11" s="1"/>
-      <c r="CJ11" s="1"/>
+      <c r="CJ11" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="CK11" s="1"/>
       <c r="CL11" s="1"/>
       <c r="CM11" s="1"/>
@@ -4097,7 +4125,7 @@
       </c>
       <c r="B12" s="12">
         <f t="shared" si="0"/>
-        <v>0.76623376623376627</v>
+        <v>0.76923076923076927</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -4340,7 +4368,9 @@
       <c r="CG12" s="1"/>
       <c r="CH12" s="1"/>
       <c r="CI12" s="1"/>
-      <c r="CJ12" s="1"/>
+      <c r="CJ12" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CK12" s="1"/>
       <c r="CL12" s="1"/>
       <c r="CM12" s="1"/>
@@ -4408,7 +4438,7 @@
       </c>
       <c r="B13" s="12">
         <f t="shared" si="0"/>
-        <v>0.71052631578947367</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -4651,7 +4681,9 @@
       <c r="CG13" s="1"/>
       <c r="CH13" s="1"/>
       <c r="CI13" s="1"/>
-      <c r="CJ13" s="1"/>
+      <c r="CJ13" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CK13" s="1"/>
       <c r="CL13" s="1"/>
       <c r="CM13" s="1"/>
@@ -4719,7 +4751,7 @@
       </c>
       <c r="B14" s="12">
         <f t="shared" si="0"/>
-        <v>0.72727272727272729</v>
+        <v>0.71794871794871795</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -4962,7 +4994,9 @@
       <c r="CG14" s="1"/>
       <c r="CH14" s="1"/>
       <c r="CI14" s="1"/>
-      <c r="CJ14" s="1"/>
+      <c r="CJ14" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="CK14" s="1"/>
       <c r="CL14" s="1"/>
       <c r="CM14" s="1"/>
@@ -5030,7 +5064,7 @@
       </c>
       <c r="B15" s="12">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.75324675324675328</v>
       </c>
       <c r="C15">
         <v>13</v>
@@ -5273,7 +5307,9 @@
       <c r="CG15" s="1"/>
       <c r="CH15" s="1"/>
       <c r="CI15" s="1"/>
-      <c r="CJ15" s="1"/>
+      <c r="CJ15" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CK15" s="1"/>
       <c r="CL15" s="1"/>
       <c r="CM15" s="1"/>
@@ -5341,7 +5377,7 @@
       </c>
       <c r="B16" s="12">
         <f t="shared" si="0"/>
-        <v>0.80263157894736847</v>
+        <v>0.79220779220779225</v>
       </c>
       <c r="C16">
         <v>14</v>
@@ -5584,7 +5620,9 @@
       <c r="CG16" s="1"/>
       <c r="CH16" s="1"/>
       <c r="CI16" s="1"/>
-      <c r="CJ16" s="1"/>
+      <c r="CJ16" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="CK16" s="1"/>
       <c r="CL16" s="1"/>
       <c r="CM16" s="1"/>
@@ -5652,7 +5690,7 @@
       </c>
       <c r="B17" s="12">
         <f t="shared" si="0"/>
-        <v>0.40259740259740262</v>
+        <v>0.39743589743589741</v>
       </c>
       <c r="C17">
         <v>15</v>
@@ -5895,7 +5933,9 @@
       <c r="CG17" s="1"/>
       <c r="CH17" s="1"/>
       <c r="CI17" s="1"/>
-      <c r="CJ17" s="1"/>
+      <c r="CJ17" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="CK17" s="1"/>
       <c r="CL17" s="1"/>
       <c r="CM17" s="1"/>
@@ -5963,7 +6003,7 @@
       </c>
       <c r="B18" s="12">
         <f t="shared" si="0"/>
-        <v>0.96103896103896103</v>
+        <v>0.96153846153846156</v>
       </c>
       <c r="C18">
         <v>16</v>
@@ -6206,7 +6246,9 @@
       <c r="CG18" s="1"/>
       <c r="CH18" s="1"/>
       <c r="CI18" s="1"/>
-      <c r="CJ18" s="1"/>
+      <c r="CJ18" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CK18" s="1"/>
       <c r="CL18" s="1"/>
       <c r="CM18" s="1"/>
@@ -6274,7 +6316,7 @@
       </c>
       <c r="B19" s="12">
         <f t="shared" si="0"/>
-        <v>0.96103896103896103</v>
+        <v>0.96153846153846156</v>
       </c>
       <c r="C19">
         <v>17</v>
@@ -6517,7 +6559,9 @@
       <c r="CG19" s="1"/>
       <c r="CH19" s="1"/>
       <c r="CI19" s="1"/>
-      <c r="CJ19" s="1"/>
+      <c r="CJ19" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CK19" s="1"/>
       <c r="CL19" s="1"/>
       <c r="CM19" s="1"/>
@@ -6585,7 +6629,7 @@
       </c>
       <c r="B20" s="12">
         <f t="shared" si="0"/>
-        <v>0.61038961038961037</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="C20">
         <v>18</v>
@@ -6828,7 +6872,9 @@
       <c r="CG20" s="1"/>
       <c r="CH20" s="1"/>
       <c r="CI20" s="1"/>
-      <c r="CJ20" s="1"/>
+      <c r="CJ20" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CK20" s="1"/>
       <c r="CL20" s="1"/>
       <c r="CM20" s="1"/>
@@ -6896,7 +6942,7 @@
       </c>
       <c r="B21" s="12">
         <f t="shared" si="0"/>
-        <v>0.68421052631578949</v>
+        <v>0.67532467532467533</v>
       </c>
       <c r="C21">
         <v>19</v>
@@ -7139,7 +7185,9 @@
       <c r="CG21" s="1"/>
       <c r="CH21" s="1"/>
       <c r="CI21" s="1"/>
-      <c r="CJ21" s="1"/>
+      <c r="CJ21" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="CK21" s="1"/>
       <c r="CL21" s="1"/>
       <c r="CM21" s="1"/>
@@ -7248,7 +7296,7 @@
       </c>
       <c r="B24">
         <f t="shared" ref="B24:B42" si="1">COUNTIF(D3:EF3,B$23)</f>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C24">
         <f t="shared" ref="C24:C42" si="2">COUNTIF(E3:EG3,C$23)</f>
@@ -7265,7 +7313,7 @@
       </c>
       <c r="C25">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:148" x14ac:dyDescent="0.25">
@@ -7278,7 +7326,7 @@
       </c>
       <c r="C26">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:148" x14ac:dyDescent="0.25">
@@ -7291,7 +7339,7 @@
       </c>
       <c r="C27">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:148" x14ac:dyDescent="0.25">
@@ -7304,7 +7352,7 @@
       </c>
       <c r="C28">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BG28" s="5"/>
     </row>
@@ -7318,7 +7366,7 @@
       </c>
       <c r="C29">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:148" x14ac:dyDescent="0.25">
@@ -7331,7 +7379,7 @@
       </c>
       <c r="C30">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:148" x14ac:dyDescent="0.25">
@@ -7344,7 +7392,7 @@
       </c>
       <c r="C31">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:148" x14ac:dyDescent="0.25">
@@ -7357,7 +7405,7 @@
       </c>
       <c r="C32">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -7366,7 +7414,7 @@
       </c>
       <c r="B33">
         <f t="shared" si="1"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C33">
         <f t="shared" si="2"/>
@@ -7379,7 +7427,7 @@
       </c>
       <c r="B34">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C34">
         <f t="shared" si="2"/>
@@ -7396,7 +7444,7 @@
       </c>
       <c r="C35">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -7405,7 +7453,7 @@
       </c>
       <c r="B36">
         <f t="shared" si="1"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C36">
         <f t="shared" si="2"/>
@@ -7422,7 +7470,7 @@
       </c>
       <c r="C37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -7435,7 +7483,7 @@
       </c>
       <c r="C38">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -7444,7 +7492,7 @@
       </c>
       <c r="B39">
         <f t="shared" si="1"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C39">
         <f t="shared" si="2"/>
@@ -7457,7 +7505,7 @@
       </c>
       <c r="B40">
         <f t="shared" si="1"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C40">
         <f t="shared" si="2"/>
@@ -7470,7 +7518,7 @@
       </c>
       <c r="B41">
         <f t="shared" si="1"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C41">
         <f t="shared" si="2"/>
@@ -7487,14 +7535,14 @@
       </c>
       <c r="C42">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:C42">
+  <conditionalFormatting sqref="A1:C42 D1:ANI1 CN2:ANI2 D2:CL2">
     <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
@@ -7507,7 +7555,7 @@
       <formula>0.75</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:ANI2 D3:I9 H3:ANI21 D10:H10 D11:I21 D22:AJ22 AK22:CQ1048576 G23:AJ42 B24:C42">
+  <conditionalFormatting sqref="D3:I9 H3:ANI21 D10:H10 D11:I21 D22:AJ22 AK22:CQ1048576 G23:AJ42 B24:C42">
     <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/3des/frequencia.xlsx
+++ b/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF817B5B-BDE0-4E3B-889D-FED587648D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A60595E-4994-48F1-8474-CF3B176FC646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="35">
   <si>
     <t>Alunos</t>
   </si>
@@ -296,16 +296,16 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -701,7 +701,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="BW3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CJ20" sqref="CJ20"/>
+      <selection pane="bottomRight" activeCell="CL8" sqref="CL8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,10 +745,12 @@
     <col min="78" max="79" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="80" max="82" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="83" max="84" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="85" max="90" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="91" max="93" width="6.7109375" customWidth="1"/>
-    <col min="94" max="94" width="7.42578125" customWidth="1"/>
-    <col min="95" max="95" width="6.7109375" customWidth="1"/>
+    <col min="85" max="86" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="88" max="90" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="91" max="92" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="93" max="94" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="7" bestFit="1" customWidth="1"/>
     <col min="96" max="96" width="7.7109375" customWidth="1"/>
     <col min="97" max="98" width="6.7109375" customWidth="1"/>
     <col min="99" max="99" width="7.42578125" customWidth="1"/>
@@ -1031,6 +1033,21 @@
       <c r="CL1" s="10">
         <v>45254</v>
       </c>
+      <c r="CM1" s="10">
+        <v>45257</v>
+      </c>
+      <c r="CN1" s="10">
+        <v>45258</v>
+      </c>
+      <c r="CO1" s="10">
+        <v>45259</v>
+      </c>
+      <c r="CP1" s="10">
+        <v>45260</v>
+      </c>
+      <c r="CQ1" s="10">
+        <v>45261</v>
+      </c>
     </row>
     <row r="2" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1303,6 +1320,21 @@
       <c r="CL2" t="s">
         <v>3</v>
       </c>
+      <c r="CM2" t="s">
+        <v>4</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>5</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>3</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1310,7 +1342,7 @@
       </c>
       <c r="B3" s="12">
         <f t="shared" ref="B3:B21" si="0">B24/(B24+C24)</f>
-        <v>0.75324675324675328</v>
+        <v>0.76543209876543206</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1550,13 +1582,21 @@
       <c r="CF3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="CG3" s="1"/>
-      <c r="CH3" s="1"/>
-      <c r="CI3" s="1"/>
+      <c r="CG3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CH3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI3" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="CJ3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CK3" s="1"/>
+      <c r="CK3" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CL3" s="1"/>
       <c r="CM3" s="1"/>
       <c r="CN3" s="1"/>
@@ -1623,7 +1663,7 @@
       </c>
       <c r="B4" s="12">
         <f t="shared" si="0"/>
-        <v>0.77922077922077926</v>
+        <v>0.79012345679012341</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1863,13 +1903,21 @@
       <c r="CF4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="CG4" s="1"/>
-      <c r="CH4" s="1"/>
-      <c r="CI4" s="1"/>
+      <c r="CG4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CH4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI4" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="CJ4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CK4" s="1"/>
+      <c r="CK4" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CL4" s="1"/>
       <c r="CM4" s="1"/>
       <c r="CN4" s="1"/>
@@ -1936,7 +1984,7 @@
       </c>
       <c r="B5" s="12">
         <f t="shared" si="0"/>
-        <v>0.53246753246753242</v>
+        <v>0.54320987654320985</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -2176,13 +2224,21 @@
       <c r="CF5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="CG5" s="1"/>
-      <c r="CH5" s="1"/>
-      <c r="CI5" s="1"/>
+      <c r="CG5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CH5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI5" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="CJ5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CK5" s="1"/>
+      <c r="CK5" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="CL5" s="1"/>
       <c r="CM5" s="1"/>
       <c r="CN5" s="1"/>
@@ -2249,7 +2305,7 @@
       </c>
       <c r="B6" s="12">
         <f t="shared" si="0"/>
-        <v>0.88461538461538458</v>
+        <v>0.8902439024390244</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -2489,13 +2545,21 @@
       <c r="CF6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="CG6" s="1"/>
-      <c r="CH6" s="1"/>
-      <c r="CI6" s="1"/>
+      <c r="CG6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CH6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI6" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="CJ6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CK6" s="1"/>
+      <c r="CK6" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CL6" s="1"/>
       <c r="CM6" s="1"/>
       <c r="CN6" s="1"/>
@@ -2562,7 +2626,7 @@
       </c>
       <c r="B7" s="12">
         <f t="shared" si="0"/>
-        <v>0.84615384615384615</v>
+        <v>0.85365853658536583</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -2802,13 +2866,21 @@
       <c r="CF7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="CG7" s="1"/>
-      <c r="CH7" s="1"/>
-      <c r="CI7" s="1"/>
+      <c r="CG7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CH7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI7" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="CJ7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CK7" s="1"/>
+      <c r="CK7" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CL7" s="1"/>
       <c r="CM7" s="1"/>
       <c r="CN7" s="1"/>
@@ -2875,7 +2947,7 @@
       </c>
       <c r="B8" s="12">
         <f t="shared" si="0"/>
-        <v>0.84615384615384615</v>
+        <v>0.85365853658536583</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -3115,13 +3187,21 @@
       <c r="CF8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="CG8" s="1"/>
-      <c r="CH8" s="1"/>
-      <c r="CI8" s="1"/>
+      <c r="CG8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CH8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI8" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="CJ8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CK8" s="1"/>
+      <c r="CK8" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CL8" s="1"/>
       <c r="CM8" s="1"/>
       <c r="CN8" s="1"/>
@@ -3188,7 +3268,7 @@
       </c>
       <c r="B9" s="12">
         <f t="shared" si="0"/>
-        <v>0.62337662337662336</v>
+        <v>0.64197530864197527</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -3428,13 +3508,21 @@
       <c r="CF9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="CG9" s="1"/>
-      <c r="CH9" s="1"/>
-      <c r="CI9" s="1"/>
+      <c r="CG9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CH9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI9" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="CJ9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CK9" s="1"/>
+      <c r="CK9" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CL9" s="1"/>
       <c r="CM9" s="1"/>
       <c r="CN9" s="1"/>
@@ -3501,7 +3589,7 @@
       </c>
       <c r="B10" s="12">
         <f t="shared" si="0"/>
-        <v>0.54545454545454541</v>
+        <v>0.5679012345679012</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -3739,13 +3827,21 @@
       <c r="CF10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="CG10" s="1"/>
-      <c r="CH10" s="1"/>
-      <c r="CI10" s="1"/>
+      <c r="CG10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CH10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI10" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="CJ10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CK10" s="1"/>
+      <c r="CK10" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CL10" s="1"/>
       <c r="CM10" s="1"/>
       <c r="CN10" s="1"/>
@@ -3812,7 +3908,7 @@
       </c>
       <c r="B11" s="12">
         <f t="shared" si="0"/>
-        <v>0.45454545454545453</v>
+        <v>0.43209876543209874</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -4052,13 +4148,21 @@
       <c r="CF11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="CG11" s="1"/>
-      <c r="CH11" s="1"/>
-      <c r="CI11" s="1"/>
+      <c r="CG11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="CH11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI11" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="CJ11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CK11" s="1"/>
+      <c r="CK11" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="CL11" s="1"/>
       <c r="CM11" s="1"/>
       <c r="CN11" s="1"/>
@@ -4125,7 +4229,7 @@
       </c>
       <c r="B12" s="12">
         <f t="shared" si="0"/>
-        <v>0.76923076923076927</v>
+        <v>0.78048780487804881</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -4365,13 +4469,21 @@
       <c r="CF12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="CG12" s="1"/>
-      <c r="CH12" s="1"/>
-      <c r="CI12" s="1"/>
+      <c r="CG12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CH12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI12" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="CJ12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CK12" s="1"/>
+      <c r="CK12" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CL12" s="1"/>
       <c r="CM12" s="1"/>
       <c r="CN12" s="1"/>
@@ -4438,7 +4550,7 @@
       </c>
       <c r="B13" s="12">
         <f t="shared" si="0"/>
-        <v>0.7142857142857143</v>
+        <v>0.72839506172839508</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -4678,13 +4790,21 @@
       <c r="CF13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="CG13" s="1"/>
-      <c r="CH13" s="1"/>
-      <c r="CI13" s="1"/>
+      <c r="CG13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CH13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI13" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="CJ13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CK13" s="1"/>
+      <c r="CK13" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CL13" s="1"/>
       <c r="CM13" s="1"/>
       <c r="CN13" s="1"/>
@@ -4751,7 +4871,7 @@
       </c>
       <c r="B14" s="12">
         <f t="shared" si="0"/>
-        <v>0.71794871794871795</v>
+        <v>0.71951219512195119</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -4991,13 +5111,21 @@
       <c r="CF14" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="CG14" s="1"/>
-      <c r="CH14" s="1"/>
-      <c r="CI14" s="1"/>
+      <c r="CG14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CH14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI14" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="CJ14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CK14" s="1"/>
+      <c r="CK14" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="CL14" s="1"/>
       <c r="CM14" s="1"/>
       <c r="CN14" s="1"/>
@@ -5064,7 +5192,7 @@
       </c>
       <c r="B15" s="12">
         <f t="shared" si="0"/>
-        <v>0.75324675324675328</v>
+        <v>0.76543209876543206</v>
       </c>
       <c r="C15">
         <v>13</v>
@@ -5304,13 +5432,21 @@
       <c r="CF15" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="CG15" s="1"/>
-      <c r="CH15" s="1"/>
-      <c r="CI15" s="1"/>
+      <c r="CG15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CH15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI15" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="CJ15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CK15" s="1"/>
+      <c r="CK15" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CL15" s="1"/>
       <c r="CM15" s="1"/>
       <c r="CN15" s="1"/>
@@ -5377,7 +5513,7 @@
       </c>
       <c r="B16" s="12">
         <f t="shared" si="0"/>
-        <v>0.79220779220779225</v>
+        <v>0.79012345679012341</v>
       </c>
       <c r="C16">
         <v>14</v>
@@ -5617,13 +5753,21 @@
       <c r="CF16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="CG16" s="1"/>
-      <c r="CH16" s="1"/>
-      <c r="CI16" s="1"/>
+      <c r="CG16" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CH16" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI16" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="CJ16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CK16" s="1"/>
+      <c r="CK16" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="CL16" s="1"/>
       <c r="CM16" s="1"/>
       <c r="CN16" s="1"/>
@@ -5690,7 +5834,7 @@
       </c>
       <c r="B17" s="12">
         <f t="shared" si="0"/>
-        <v>0.39743589743589741</v>
+        <v>0.41463414634146339</v>
       </c>
       <c r="C17">
         <v>15</v>
@@ -5930,13 +6074,21 @@
       <c r="CF17" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="CG17" s="1"/>
-      <c r="CH17" s="1"/>
-      <c r="CI17" s="1"/>
+      <c r="CG17" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CH17" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI17" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="CJ17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CK17" s="1"/>
+      <c r="CK17" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="CL17" s="1"/>
       <c r="CM17" s="1"/>
       <c r="CN17" s="1"/>
@@ -6003,7 +6155,7 @@
       </c>
       <c r="B18" s="12">
         <f t="shared" si="0"/>
-        <v>0.96153846153846156</v>
+        <v>0.96341463414634143</v>
       </c>
       <c r="C18">
         <v>16</v>
@@ -6243,13 +6395,21 @@
       <c r="CF18" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="CG18" s="1"/>
-      <c r="CH18" s="1"/>
-      <c r="CI18" s="1"/>
+      <c r="CG18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CH18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI18" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="CJ18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CK18" s="1"/>
+      <c r="CK18" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CL18" s="1"/>
       <c r="CM18" s="1"/>
       <c r="CN18" s="1"/>
@@ -6316,7 +6476,7 @@
       </c>
       <c r="B19" s="12">
         <f t="shared" si="0"/>
-        <v>0.96153846153846156</v>
+        <v>0.96341463414634143</v>
       </c>
       <c r="C19">
         <v>17</v>
@@ -6556,13 +6716,21 @@
       <c r="CF19" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="CG19" s="1"/>
-      <c r="CH19" s="1"/>
-      <c r="CI19" s="1"/>
+      <c r="CG19" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CH19" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI19" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="CJ19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CK19" s="1"/>
+      <c r="CK19" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CL19" s="1"/>
       <c r="CM19" s="1"/>
       <c r="CN19" s="1"/>
@@ -6629,7 +6797,7 @@
       </c>
       <c r="B20" s="12">
         <f t="shared" si="0"/>
-        <v>0.61538461538461542</v>
+        <v>0.63414634146341464</v>
       </c>
       <c r="C20">
         <v>18</v>
@@ -6869,13 +7037,21 @@
       <c r="CF20" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="CG20" s="1"/>
-      <c r="CH20" s="1"/>
-      <c r="CI20" s="1"/>
+      <c r="CG20" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CH20" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI20" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="CJ20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CK20" s="1"/>
+      <c r="CK20" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CL20" s="1"/>
       <c r="CM20" s="1"/>
       <c r="CN20" s="1"/>
@@ -6942,7 +7118,7 @@
       </c>
       <c r="B21" s="12">
         <f t="shared" si="0"/>
-        <v>0.67532467532467533</v>
+        <v>0.69135802469135799</v>
       </c>
       <c r="C21">
         <v>19</v>
@@ -7182,13 +7358,21 @@
       <c r="CF21" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="CG21" s="1"/>
-      <c r="CH21" s="1"/>
-      <c r="CI21" s="1"/>
+      <c r="CG21" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CH21" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI21" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="CJ21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CK21" s="1"/>
+      <c r="CK21" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CL21" s="1"/>
       <c r="CM21" s="1"/>
       <c r="CN21" s="1"/>
@@ -7296,7 +7480,7 @@
       </c>
       <c r="B24">
         <f t="shared" ref="B24:B42" si="1">COUNTIF(D3:EF3,B$23)</f>
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C24">
         <f t="shared" ref="C24:C42" si="2">COUNTIF(E3:EG3,C$23)</f>
@@ -7309,7 +7493,7 @@
       </c>
       <c r="B25">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C25">
         <f t="shared" si="2"/>
@@ -7322,11 +7506,11 @@
       </c>
       <c r="B26">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C26">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:148" x14ac:dyDescent="0.25">
@@ -7335,7 +7519,7 @@
       </c>
       <c r="B27">
         <f t="shared" si="1"/>
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C27">
         <f t="shared" si="2"/>
@@ -7348,7 +7532,7 @@
       </c>
       <c r="B28">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C28">
         <f t="shared" si="2"/>
@@ -7362,7 +7546,7 @@
       </c>
       <c r="B29">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C29">
         <f t="shared" si="2"/>
@@ -7375,7 +7559,7 @@
       </c>
       <c r="B30">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C30">
         <f t="shared" si="2"/>
@@ -7388,7 +7572,7 @@
       </c>
       <c r="B31">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C31">
         <f t="shared" si="2"/>
@@ -7405,7 +7589,7 @@
       </c>
       <c r="C32">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -7414,7 +7598,7 @@
       </c>
       <c r="B33">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C33">
         <f t="shared" si="2"/>
@@ -7427,7 +7611,7 @@
       </c>
       <c r="B34">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C34">
         <f t="shared" si="2"/>
@@ -7440,11 +7624,11 @@
       </c>
       <c r="B35">
         <f t="shared" si="1"/>
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C35">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -7453,7 +7637,7 @@
       </c>
       <c r="B36">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C36">
         <f t="shared" si="2"/>
@@ -7466,11 +7650,11 @@
       </c>
       <c r="B37">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -7479,11 +7663,11 @@
       </c>
       <c r="B38">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C38">
         <f t="shared" si="2"/>
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -7492,7 +7676,7 @@
       </c>
       <c r="B39">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C39">
         <f t="shared" si="2"/>
@@ -7505,7 +7689,7 @@
       </c>
       <c r="B40">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C40">
         <f t="shared" si="2"/>
@@ -7518,7 +7702,7 @@
       </c>
       <c r="B41">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C41">
         <f t="shared" si="2"/>
@@ -7531,7 +7715,7 @@
       </c>
       <c r="B42">
         <f t="shared" si="1"/>
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C42">
         <f t="shared" si="2"/>
@@ -7542,24 +7726,24 @@
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:C42 D1:ANI1 CN2:ANI2 D2:CL2">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+  <conditionalFormatting sqref="B3:B21">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
+      <formula>0.75</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:I9 D10:H10 D11:I21 D22:AJ22 AK22:CQ1048576 G23:AJ42 B24:C42 H3:ANI21">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B21">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
-      <formula>0.75</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:I9 H3:ANI21 D10:H10 D11:I21 D22:AJ22 AK22:CQ1048576 G23:AJ42 B24:C42">
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+  <conditionalFormatting sqref="A1:C42 D1:ANI2">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/3des/frequencia.xlsx
+++ b/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A60595E-4994-48F1-8474-CF3B176FC646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642FB45D-922E-4771-B7BF-7BF7A3657033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -701,7 +701,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="BW3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CL8" sqref="CL8"/>
+      <selection pane="bottomRight" activeCell="CK17" sqref="CK17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1984,7 +1984,7 @@
       </c>
       <c r="B5" s="12">
         <f t="shared" si="0"/>
-        <v>0.54320987654320985</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -2237,7 +2237,7 @@
         <v>7</v>
       </c>
       <c r="CK5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CL5" s="1"/>
       <c r="CM5" s="1"/>
@@ -5513,7 +5513,7 @@
       </c>
       <c r="B16" s="12">
         <f t="shared" si="0"/>
-        <v>0.79012345679012341</v>
+        <v>0.80246913580246915</v>
       </c>
       <c r="C16">
         <v>14</v>
@@ -5766,7 +5766,7 @@
         <v>7</v>
       </c>
       <c r="CK16" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CL16" s="1"/>
       <c r="CM16" s="1"/>
@@ -7506,11 +7506,11 @@
       </c>
       <c r="B26">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C26">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:148" x14ac:dyDescent="0.25">
@@ -7650,11 +7650,11 @@
       </c>
       <c r="B37">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C37">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -7731,7 +7731,7 @@
       <formula>0.75</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:I9 D10:H10 D11:I21 D22:AJ22 AK22:CQ1048576 G23:AJ42 B24:C42 H3:ANI21">
+  <conditionalFormatting sqref="D3:I9 H3:ANI21 D10:H10 D11:I21 D22:AJ22 AK22:CQ1048576 G23:AJ42 B24:C42">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"F"</formula>
     </cfRule>
@@ -7739,7 +7739,7 @@
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:C42 D1:ANI2">
+  <conditionalFormatting sqref="D1:ANI2 A1:C42">
     <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/3des/frequencia.xlsx
+++ b/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642FB45D-922E-4771-B7BF-7BF7A3657033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE06241-05B7-4AE4-BE43-2F3650F50CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="35">
   <si>
     <t>Alunos</t>
   </si>
@@ -208,7 +208,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -220,9 +220,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -695,13 +692,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:ER42"/>
+  <dimension ref="A1:EN42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="BW3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="BR3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CK17" sqref="CK17"/>
+      <selection pane="bottomRight" activeCell="CE11" sqref="CE11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,53 +722,52 @@
     <col min="34" max="35" width="7" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="37" max="38" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="41" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="46" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="48" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="51" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="54" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="56" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="58" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="61" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="63" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="65" max="66" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="67" max="69" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="70" max="71" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="72" max="74" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="75" max="76" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="78" max="79" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="80" max="82" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="83" max="84" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="85" max="86" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="88" max="90" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="91" max="92" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="93" max="94" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="7" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="7.7109375" customWidth="1"/>
-    <col min="97" max="98" width="6.7109375" customWidth="1"/>
-    <col min="99" max="99" width="7.42578125" customWidth="1"/>
-    <col min="100" max="100" width="6.7109375" customWidth="1"/>
-    <col min="101" max="103" width="7.140625" customWidth="1"/>
-    <col min="104" max="104" width="7.42578125" customWidth="1"/>
-    <col min="105" max="108" width="7.140625" customWidth="1"/>
-    <col min="109" max="109" width="7.42578125" customWidth="1"/>
-    <col min="110" max="113" width="7.140625" customWidth="1"/>
-    <col min="114" max="114" width="7.42578125" customWidth="1"/>
-    <col min="115" max="118" width="7.140625" customWidth="1"/>
-    <col min="119" max="119" width="7.42578125" customWidth="1"/>
-    <col min="120" max="120" width="6.7109375" customWidth="1"/>
+    <col min="39" max="39" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="42" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="47" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="50" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="54" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="57" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="59" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="62" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="65" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="66" max="67" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="68" max="70" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="71" max="72" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="74" max="75" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="76" max="78" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="79" max="80" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="81" max="82" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="84" max="86" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="87" max="88" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="89" max="90" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="7" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="7.7109375" customWidth="1"/>
+    <col min="93" max="94" width="6.7109375" customWidth="1"/>
+    <col min="95" max="95" width="7.42578125" customWidth="1"/>
+    <col min="96" max="96" width="6.7109375" customWidth="1"/>
+    <col min="97" max="99" width="7.140625" customWidth="1"/>
+    <col min="100" max="100" width="7.42578125" customWidth="1"/>
+    <col min="101" max="104" width="7.140625" customWidth="1"/>
+    <col min="105" max="105" width="7.42578125" customWidth="1"/>
+    <col min="106" max="109" width="7.140625" customWidth="1"/>
+    <col min="110" max="110" width="7.42578125" customWidth="1"/>
+    <col min="111" max="114" width="7.140625" customWidth="1"/>
+    <col min="115" max="115" width="7.42578125" customWidth="1"/>
+    <col min="116" max="116" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:144" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
       <c r="D1" s="2">
         <v>45126</v>
       </c>
@@ -881,179 +877,167 @@
         <v>45175</v>
       </c>
       <c r="AN1" s="2">
-        <v>45176</v>
+        <v>45182</v>
       </c>
       <c r="AO1" s="2">
-        <v>45177</v>
+        <v>45183</v>
       </c>
       <c r="AP1" s="2">
-        <v>45180</v>
+        <v>45184</v>
       </c>
       <c r="AQ1" s="2">
-        <v>45181</v>
+        <v>45187</v>
       </c>
       <c r="AR1" s="2">
-        <v>45182</v>
+        <v>45188</v>
       </c>
       <c r="AS1" s="2">
-        <v>45183</v>
+        <v>45189</v>
       </c>
       <c r="AT1" s="2">
-        <v>45184</v>
+        <v>45190</v>
       </c>
       <c r="AU1" s="2">
-        <v>45187</v>
+        <v>45191</v>
       </c>
       <c r="AV1" s="2">
-        <v>45188</v>
+        <v>45192</v>
       </c>
       <c r="AW1" s="2">
-        <v>45189</v>
+        <v>45195</v>
       </c>
       <c r="AX1" s="2">
-        <v>45190</v>
+        <v>45196</v>
       </c>
       <c r="AY1" s="2">
-        <v>45191</v>
+        <v>45197</v>
       </c>
       <c r="AZ1" s="2">
-        <v>45192</v>
+        <v>45198</v>
       </c>
       <c r="BA1" s="2">
-        <v>45195</v>
+        <v>45201</v>
       </c>
       <c r="BB1" s="2">
-        <v>45196</v>
+        <v>45202</v>
       </c>
       <c r="BC1" s="2">
-        <v>45197</v>
+        <v>45203</v>
       </c>
       <c r="BD1" s="2">
-        <v>45198</v>
+        <v>45204</v>
       </c>
       <c r="BE1" s="2">
-        <v>45201</v>
-      </c>
-      <c r="BF1" s="2">
-        <v>45202</v>
-      </c>
-      <c r="BG1" s="2">
-        <v>45203</v>
-      </c>
-      <c r="BH1" s="2">
-        <v>45204</v>
-      </c>
-      <c r="BI1" s="2">
         <v>45205</v>
       </c>
-      <c r="BJ1" s="9">
+      <c r="BF1" s="8">
         <v>45208</v>
       </c>
-      <c r="BK1" s="9">
+      <c r="BG1" s="8">
         <v>45209</v>
       </c>
-      <c r="BL1" s="9">
+      <c r="BH1" s="8">
         <v>45210</v>
       </c>
-      <c r="BM1" s="9">
+      <c r="BI1" s="8">
         <v>45215</v>
       </c>
+      <c r="BJ1" s="8">
+        <v>45216</v>
+      </c>
+      <c r="BK1" s="8">
+        <v>45217</v>
+      </c>
+      <c r="BL1" s="8">
+        <v>45218</v>
+      </c>
+      <c r="BM1" s="8">
+        <v>45219</v>
+      </c>
       <c r="BN1" s="9">
-        <v>45216</v>
+        <v>45222</v>
       </c>
       <c r="BO1" s="9">
-        <v>45217</v>
+        <v>45223</v>
       </c>
       <c r="BP1" s="9">
-        <v>45218</v>
+        <v>45224</v>
       </c>
       <c r="BQ1" s="9">
-        <v>45219</v>
-      </c>
-      <c r="BR1" s="10">
-        <v>45222</v>
-      </c>
-      <c r="BS1" s="10">
-        <v>45223</v>
-      </c>
-      <c r="BT1" s="10">
-        <v>45224</v>
-      </c>
-      <c r="BU1" s="10">
         <v>45225</v>
       </c>
-      <c r="BV1" s="10">
+      <c r="BR1" s="9">
         <v>45226</v>
       </c>
-      <c r="BW1" s="10">
+      <c r="BS1" s="9">
         <v>45229</v>
       </c>
-      <c r="BX1" s="10">
+      <c r="BT1" s="9">
         <v>45230</v>
       </c>
-      <c r="BY1" s="10">
+      <c r="BU1" s="9">
         <v>45231</v>
       </c>
-      <c r="BZ1" s="10">
+      <c r="BV1" s="9">
         <v>45236</v>
       </c>
-      <c r="CA1" s="10">
+      <c r="BW1" s="9">
         <v>45237</v>
       </c>
-      <c r="CB1" s="10">
+      <c r="BX1" s="9">
         <v>45238</v>
       </c>
-      <c r="CC1" s="10">
+      <c r="BY1" s="9">
         <v>45239</v>
       </c>
-      <c r="CD1" s="10">
+      <c r="BZ1" s="9">
         <v>45240</v>
       </c>
-      <c r="CE1" s="10">
+      <c r="CA1" s="9">
         <v>45243</v>
       </c>
-      <c r="CF1" s="10">
+      <c r="CB1" s="9">
         <v>45244</v>
       </c>
-      <c r="CG1" s="10">
+      <c r="CC1" s="9">
         <v>45246</v>
       </c>
-      <c r="CH1" s="10">
+      <c r="CD1" s="9">
         <v>45247</v>
       </c>
-      <c r="CI1" s="10">
+      <c r="CE1" s="9">
         <v>45251</v>
       </c>
-      <c r="CJ1" s="10">
+      <c r="CF1" s="9">
         <v>45252</v>
       </c>
-      <c r="CK1" s="10">
+      <c r="CG1" s="9">
         <v>45253</v>
       </c>
-      <c r="CL1" s="10">
+      <c r="CH1" s="9">
         <v>45254</v>
       </c>
-      <c r="CM1" s="10">
+      <c r="CI1" s="9">
         <v>45257</v>
       </c>
-      <c r="CN1" s="10">
+      <c r="CJ1" s="9">
         <v>45258</v>
       </c>
-      <c r="CO1" s="10">
+      <c r="CK1" s="9">
         <v>45259</v>
       </c>
-      <c r="CP1" s="10">
+      <c r="CL1" s="9">
         <v>45260</v>
       </c>
-      <c r="CQ1" s="10">
+      <c r="CM1" s="9">
         <v>45261</v>
       </c>
     </row>
-    <row r="2" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1174,13 +1158,13 @@
         <v>3</v>
       </c>
       <c r="AP2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ2" t="s">
         <v>4</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
         <v>5</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>3</v>
       </c>
       <c r="AS2" t="s">
         <v>3</v>
@@ -1189,22 +1173,22 @@
         <v>3</v>
       </c>
       <c r="AU2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV2" t="s">
         <v>4</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AW2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AX2" t="s">
         <v>5</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>3</v>
       </c>
       <c r="AY2" t="s">
         <v>3</v>
       </c>
       <c r="AZ2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA2" t="s">
         <v>4</v>
@@ -1219,37 +1203,37 @@
         <v>3</v>
       </c>
       <c r="BE2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF2" t="s">
         <v>4</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BG2" t="s">
         <v>5</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>3</v>
       </c>
       <c r="BH2" t="s">
         <v>3</v>
       </c>
       <c r="BI2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BK2" t="s">
         <v>3</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>5</v>
       </c>
       <c r="BL2" t="s">
         <v>3</v>
       </c>
       <c r="BM2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BN2" t="s">
         <v>5</v>
       </c>
       <c r="BO2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BP2" t="s">
         <v>3</v>
@@ -1258,37 +1242,37 @@
         <v>3</v>
       </c>
       <c r="BR2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BS2" t="s">
         <v>4</v>
       </c>
       <c r="BT2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BU2" t="s">
         <v>3</v>
       </c>
       <c r="BV2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BX2" t="s">
         <v>3</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>5</v>
       </c>
       <c r="BY2" t="s">
         <v>3</v>
       </c>
       <c r="BZ2" t="s">
+        <v>3</v>
+      </c>
+      <c r="CA2" t="s">
         <v>4</v>
       </c>
-      <c r="CA2" t="s">
+      <c r="CB2" t="s">
         <v>5</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>3</v>
       </c>
       <c r="CC2" t="s">
         <v>3</v>
@@ -1297,10 +1281,10 @@
         <v>3</v>
       </c>
       <c r="CE2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CF2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CG2" t="s">
         <v>3</v>
@@ -1309,10 +1293,10 @@
         <v>3</v>
       </c>
       <c r="CI2" t="s">
+        <v>4</v>
+      </c>
+      <c r="CJ2" t="s">
         <v>5</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>3</v>
       </c>
       <c r="CK2" t="s">
         <v>3</v>
@@ -1321,26 +1305,14 @@
         <v>3</v>
       </c>
       <c r="CM2" t="s">
-        <v>4</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>5</v>
-      </c>
-      <c r="CO2" t="s">
         <v>3</v>
       </c>
-      <c r="CP2" t="s">
-        <v>3</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="3" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <f t="shared" ref="B3:B21" si="0">B24/(B24+C24)</f>
         <v>0.76543209876543206</v>
       </c>
@@ -1455,15 +1427,23 @@
       <c r="AM3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AN3" s="6"/>
-      <c r="AO3" s="6"/>
-      <c r="AP3" s="6"/>
-      <c r="AQ3" s="6"/>
+      <c r="AN3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ3" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AR3" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS3" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT3" s="6" t="s">
         <v>8</v>
@@ -1478,10 +1458,10 @@
         <v>8</v>
       </c>
       <c r="AX3" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY3" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ3" s="6" t="s">
         <v>8</v>
@@ -1490,19 +1470,19 @@
         <v>8</v>
       </c>
       <c r="BB3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="BC3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="BD3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BE3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BF3" s="6" t="s">
-        <v>8</v>
+        <v>8</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="BG3" s="1" t="s">
         <v>8</v>
@@ -1511,19 +1491,19 @@
         <v>8</v>
       </c>
       <c r="BI3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BJ3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BK3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BM3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BN3" s="1" t="s">
         <v>8</v>
@@ -1532,10 +1512,10 @@
         <v>8</v>
       </c>
       <c r="BP3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BQ3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BR3" s="1" t="s">
         <v>8</v>
@@ -1553,10 +1533,10 @@
         <v>8</v>
       </c>
       <c r="BW3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BX3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BY3" s="1" t="s">
         <v>8</v>
@@ -1565,38 +1545,30 @@
         <v>8</v>
       </c>
       <c r="CA3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CB3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CC3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CD3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CE3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CF3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CG3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CH3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CI3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CJ3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CK3" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="CB3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CC3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CD3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CE3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CF3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CG3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CH3" s="1"/>
+      <c r="CI3" s="1"/>
+      <c r="CJ3" s="1"/>
+      <c r="CK3" s="1"/>
       <c r="CL3" s="1"/>
       <c r="CM3" s="1"/>
       <c r="CN3" s="1"/>
@@ -1652,16 +1624,12 @@
       <c r="EL3" s="1"/>
       <c r="EM3" s="1"/>
       <c r="EN3" s="1"/>
-      <c r="EO3" s="1"/>
-      <c r="EP3" s="1"/>
-      <c r="EQ3" s="1"/>
-      <c r="ER3" s="1"/>
     </row>
-    <row r="4" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="11">
         <f t="shared" si="0"/>
         <v>0.79012345679012341</v>
       </c>
@@ -1776,15 +1744,23 @@
       <c r="AM4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AN4" s="6"/>
-      <c r="AO4" s="6"/>
-      <c r="AP4" s="6"/>
-      <c r="AQ4" s="6"/>
+      <c r="AN4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ4" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AR4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="AS4" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT4" s="6" t="s">
         <v>8</v>
@@ -1813,16 +1789,16 @@
       <c r="BB4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BC4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BD4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BE4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BF4" s="6" t="s">
+      <c r="BC4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BE4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BG4" s="1" t="s">
@@ -1832,7 +1808,7 @@
         <v>7</v>
       </c>
       <c r="BI4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BJ4" s="1" t="s">
         <v>8</v>
@@ -1859,19 +1835,19 @@
         <v>8</v>
       </c>
       <c r="BR4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BS4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BT4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BU4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BV4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BW4" s="1" t="s">
         <v>8</v>
@@ -1883,41 +1859,33 @@
         <v>7</v>
       </c>
       <c r="BZ4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CA4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CB4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CC4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CD4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CE4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CF4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CG4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CH4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CI4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CJ4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CK4" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="CB4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CC4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CD4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CE4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CF4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CH4" s="1"/>
+      <c r="CI4" s="1"/>
+      <c r="CJ4" s="1"/>
+      <c r="CK4" s="1"/>
       <c r="CL4" s="1"/>
       <c r="CM4" s="1"/>
       <c r="CN4" s="1"/>
@@ -1973,16 +1941,12 @@
       <c r="EL4" s="1"/>
       <c r="EM4" s="1"/>
       <c r="EN4" s="1"/>
-      <c r="EO4" s="1"/>
-      <c r="EP4" s="1"/>
-      <c r="EQ4" s="1"/>
-      <c r="ER4" s="1"/>
     </row>
-    <row r="5" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <f t="shared" si="0"/>
         <v>0.55555555555555558</v>
       </c>
@@ -2097,12 +2061,20 @@
       <c r="AM5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AN5" s="6"/>
-      <c r="AO5" s="6"/>
-      <c r="AP5" s="6"/>
-      <c r="AQ5" s="6"/>
+      <c r="AN5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ5" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AR5" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS5" s="6" t="s">
         <v>8</v>
@@ -2111,10 +2083,10 @@
         <v>7</v>
       </c>
       <c r="AU5" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV5" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW5" s="6" t="s">
         <v>8</v>
@@ -2132,55 +2104,55 @@
         <v>8</v>
       </c>
       <c r="BB5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="BC5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BD5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BE5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BF5" s="6" t="s">
-        <v>8</v>
+        <v>8</v>
+      </c>
+      <c r="BC5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BE5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF5" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="BG5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="BH5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BI5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BJ5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BK5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BL5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BM5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BN5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BO5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BP5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BQ5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BR5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BS5" s="1" t="s">
         <v>7</v>
@@ -2189,56 +2161,48 @@
         <v>8</v>
       </c>
       <c r="BU5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BV5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BW5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="BX5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BY5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BZ5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CA5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CB5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CC5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CD5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CE5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CF5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CG5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CH5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CI5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CJ5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CK5" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="CB5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CC5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CD5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CE5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CF5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CH5" s="1"/>
+      <c r="CI5" s="1"/>
+      <c r="CJ5" s="1"/>
+      <c r="CK5" s="1"/>
       <c r="CL5" s="1"/>
       <c r="CM5" s="1"/>
       <c r="CN5" s="1"/>
@@ -2294,16 +2258,12 @@
       <c r="EL5" s="1"/>
       <c r="EM5" s="1"/>
       <c r="EN5" s="1"/>
-      <c r="EO5" s="1"/>
-      <c r="EP5" s="1"/>
-      <c r="EQ5" s="1"/>
-      <c r="ER5" s="1"/>
     </row>
-    <row r="6" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <f t="shared" si="0"/>
         <v>0.8902439024390244</v>
       </c>
@@ -2418,10 +2378,18 @@
       <c r="AM6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AN6" s="6"/>
-      <c r="AO6" s="6"/>
-      <c r="AP6" s="6"/>
-      <c r="AQ6" s="6"/>
+      <c r="AN6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ6" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AR6" s="6" t="s">
         <v>8</v>
       </c>
@@ -2429,7 +2397,7 @@
         <v>8</v>
       </c>
       <c r="AT6" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU6" s="6" t="s">
         <v>8</v>
@@ -2455,16 +2423,16 @@
       <c r="BB6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BC6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BD6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BE6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BF6" s="6" t="s">
+      <c r="BC6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BF6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BG6" s="1" t="s">
@@ -2474,7 +2442,7 @@
         <v>8</v>
       </c>
       <c r="BI6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BJ6" s="1" t="s">
         <v>8</v>
@@ -2486,7 +2454,7 @@
         <v>8</v>
       </c>
       <c r="BM6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BN6" s="1" t="s">
         <v>8</v>
@@ -2519,7 +2487,7 @@
         <v>8</v>
       </c>
       <c r="BX6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BY6" s="1" t="s">
         <v>8</v>
@@ -2530,36 +2498,28 @@
       <c r="CA6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CB6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CC6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CD6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CE6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CF6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CG6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CH6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CI6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CJ6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CK6" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="CB6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CC6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CD6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CE6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CF6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CH6" s="1"/>
+      <c r="CI6" s="1"/>
+      <c r="CJ6" s="1"/>
+      <c r="CK6" s="1"/>
       <c r="CL6" s="1"/>
       <c r="CM6" s="1"/>
       <c r="CN6" s="1"/>
@@ -2615,16 +2575,12 @@
       <c r="EL6" s="1"/>
       <c r="EM6" s="1"/>
       <c r="EN6" s="1"/>
-      <c r="EO6" s="1"/>
-      <c r="EP6" s="1"/>
-      <c r="EQ6" s="1"/>
-      <c r="ER6" s="1"/>
     </row>
-    <row r="7" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <f t="shared" si="0"/>
         <v>0.85365853658536583</v>
       </c>
@@ -2739,10 +2695,18 @@
       <c r="AM7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AN7" s="6"/>
-      <c r="AO7" s="6"/>
-      <c r="AP7" s="6"/>
-      <c r="AQ7" s="6"/>
+      <c r="AN7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ7" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AR7" s="6" t="s">
         <v>8</v>
       </c>
@@ -2759,7 +2723,7 @@
         <v>8</v>
       </c>
       <c r="AW7" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX7" s="6" t="s">
         <v>8</v>
@@ -2771,22 +2735,22 @@
         <v>8</v>
       </c>
       <c r="BA7" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BC7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BD7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BE7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BF7" s="6" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="BC7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BF7" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="BG7" s="1" t="s">
         <v>8</v>
@@ -2813,7 +2777,7 @@
         <v>8</v>
       </c>
       <c r="BO7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BP7" s="1" t="s">
         <v>8</v>
@@ -2822,7 +2786,7 @@
         <v>8</v>
       </c>
       <c r="BR7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BS7" s="1" t="s">
         <v>7</v>
@@ -2831,56 +2795,48 @@
         <v>8</v>
       </c>
       <c r="BU7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BV7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BW7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BX7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BY7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BZ7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="CA7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CB7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CC7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CD7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CE7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CF7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CG7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CH7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CI7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CJ7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CK7" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="CB7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CC7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CD7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CE7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CF7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CH7" s="1"/>
+      <c r="CI7" s="1"/>
+      <c r="CJ7" s="1"/>
+      <c r="CK7" s="1"/>
       <c r="CL7" s="1"/>
       <c r="CM7" s="1"/>
       <c r="CN7" s="1"/>
@@ -2936,16 +2892,12 @@
       <c r="EL7" s="1"/>
       <c r="EM7" s="1"/>
       <c r="EN7" s="1"/>
-      <c r="EO7" s="1"/>
-      <c r="EP7" s="1"/>
-      <c r="EQ7" s="1"/>
-      <c r="ER7" s="1"/>
     </row>
-    <row r="8" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <f t="shared" si="0"/>
         <v>0.85365853658536583</v>
       </c>
@@ -3060,10 +3012,18 @@
       <c r="AM8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AN8" s="6"/>
-      <c r="AO8" s="6"/>
-      <c r="AP8" s="6"/>
-      <c r="AQ8" s="6"/>
+      <c r="AN8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ8" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AR8" s="6" t="s">
         <v>8</v>
       </c>
@@ -3083,7 +3043,7 @@
         <v>8</v>
       </c>
       <c r="AX8" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY8" s="6" t="s">
         <v>8</v>
@@ -3097,20 +3057,20 @@
       <c r="BB8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="BC8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BD8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BE8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BF8" s="6" t="s">
-        <v>7</v>
+      <c r="BC8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BF8" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="BG8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BH8" s="1" t="s">
         <v>8</v>
@@ -3122,7 +3082,7 @@
         <v>8</v>
       </c>
       <c r="BK8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BL8" s="1" t="s">
         <v>8</v>
@@ -3137,7 +3097,7 @@
         <v>8</v>
       </c>
       <c r="BP8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BQ8" s="1" t="s">
         <v>8</v>
@@ -3149,10 +3109,10 @@
         <v>8</v>
       </c>
       <c r="BT8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BU8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BV8" s="1" t="s">
         <v>8</v>
@@ -3161,10 +3121,10 @@
         <v>8</v>
       </c>
       <c r="BX8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BY8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BZ8" s="1" t="s">
         <v>8</v>
@@ -3172,36 +3132,28 @@
       <c r="CA8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CB8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CC8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CD8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CE8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CF8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CG8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CH8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CI8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CJ8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CK8" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="CB8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CC8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CD8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CE8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CF8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CH8" s="1"/>
+      <c r="CI8" s="1"/>
+      <c r="CJ8" s="1"/>
+      <c r="CK8" s="1"/>
       <c r="CL8" s="1"/>
       <c r="CM8" s="1"/>
       <c r="CN8" s="1"/>
@@ -3257,16 +3209,12 @@
       <c r="EL8" s="1"/>
       <c r="EM8" s="1"/>
       <c r="EN8" s="1"/>
-      <c r="EO8" s="1"/>
-      <c r="EP8" s="1"/>
-      <c r="EQ8" s="1"/>
-      <c r="ER8" s="1"/>
     </row>
-    <row r="9" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <f t="shared" si="0"/>
         <v>0.64197530864197527</v>
       </c>
@@ -3381,18 +3329,26 @@
       <c r="AM9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AN9" s="6"/>
-      <c r="AO9" s="6"/>
-      <c r="AP9" s="6"/>
-      <c r="AQ9" s="6"/>
+      <c r="AN9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ9" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AR9" s="6" t="s">
         <v>8</v>
       </c>
       <c r="AS9" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT9" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU9" s="6" t="s">
         <v>8</v>
@@ -3401,7 +3357,7 @@
         <v>8</v>
       </c>
       <c r="AW9" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX9" s="6" t="s">
         <v>7</v>
@@ -3413,25 +3369,25 @@
         <v>8</v>
       </c>
       <c r="BA9" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="BC9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BD9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BE9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BF9" s="6" t="s">
+      <c r="BC9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BF9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="BG9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BH9" s="1" t="s">
         <v>8</v>
@@ -3440,13 +3396,13 @@
         <v>8</v>
       </c>
       <c r="BJ9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BK9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BL9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BM9" s="1" t="s">
         <v>8</v>
@@ -3455,10 +3411,10 @@
         <v>8</v>
       </c>
       <c r="BO9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BP9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BQ9" s="1" t="s">
         <v>8</v>
@@ -3473,56 +3429,48 @@
         <v>8</v>
       </c>
       <c r="BU9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BV9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BW9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BX9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BY9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="BZ9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CA9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CB9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CC9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CD9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CE9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CF9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CG9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CH9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CI9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CJ9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CK9" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="CB9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CC9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CD9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CE9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CF9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CH9" s="1"/>
+      <c r="CI9" s="1"/>
+      <c r="CJ9" s="1"/>
+      <c r="CK9" s="1"/>
       <c r="CL9" s="1"/>
       <c r="CM9" s="1"/>
       <c r="CN9" s="1"/>
@@ -3578,32 +3526,28 @@
       <c r="EL9" s="1"/>
       <c r="EM9" s="1"/>
       <c r="EN9" s="1"/>
-      <c r="EO9" s="1"/>
-      <c r="EP9" s="1"/>
-      <c r="EQ9" s="1"/>
-      <c r="ER9" s="1"/>
     </row>
-    <row r="10" spans="1:148" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:144" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <f t="shared" si="0"/>
         <v>0.5679012345679012</v>
       </c>
       <c r="C10">
         <v>8</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="D10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H10" s="6" t="s">
@@ -3700,15 +3644,23 @@
       <c r="AM10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AN10" s="6"/>
-      <c r="AO10" s="6"/>
-      <c r="AP10" s="6"/>
-      <c r="AQ10" s="6"/>
+      <c r="AN10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ10" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AR10" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS10" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT10" s="6" t="s">
         <v>8</v>
@@ -3720,49 +3672,49 @@
         <v>7</v>
       </c>
       <c r="AW10" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="AY10" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ10" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA10" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB10" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BD10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BE10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BF10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="BG10" s="6" t="s">
-        <v>8</v>
+      <c r="BD10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BG10" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="BH10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BI10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BJ10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BK10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BL10" s="1" t="s">
         <v>7</v>
@@ -3774,7 +3726,7 @@
         <v>8</v>
       </c>
       <c r="BO10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BP10" s="1" t="s">
         <v>7</v>
@@ -3786,19 +3738,19 @@
         <v>8</v>
       </c>
       <c r="BS10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BT10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="BU10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BV10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BW10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BX10" s="1" t="s">
         <v>7</v>
@@ -3810,38 +3762,30 @@
         <v>8</v>
       </c>
       <c r="CA10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CB10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CC10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CD10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CE10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CF10" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="CG10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CH10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CI10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CJ10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CK10" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="CB10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CD10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CE10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CF10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CH10" s="1"/>
+      <c r="CI10" s="1"/>
+      <c r="CJ10" s="1"/>
+      <c r="CK10" s="1"/>
       <c r="CL10" s="1"/>
       <c r="CM10" s="1"/>
       <c r="CN10" s="1"/>
@@ -3897,32 +3841,28 @@
       <c r="EL10" s="1"/>
       <c r="EM10" s="1"/>
       <c r="EN10" s="1"/>
-      <c r="EO10" s="1"/>
-      <c r="EP10" s="1"/>
-      <c r="EQ10" s="1"/>
-      <c r="ER10" s="1"/>
     </row>
-    <row r="11" spans="1:148" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:144" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="11">
         <f t="shared" si="0"/>
-        <v>0.43209876543209874</v>
+        <v>0.54320987654320985</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="D11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H11" s="6" t="s">
@@ -4021,18 +3961,26 @@
       <c r="AM11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AN11" s="6"/>
-      <c r="AO11" s="6"/>
-      <c r="AP11" s="6"/>
-      <c r="AQ11" s="6"/>
+      <c r="AN11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ11" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AR11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="AS11" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT11" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU11" s="6" t="s">
         <v>8</v>
@@ -4044,7 +3992,7 @@
         <v>7</v>
       </c>
       <c r="AX11" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY11" s="6" t="s">
         <v>8</v>
@@ -4053,7 +4001,7 @@
         <v>7</v>
       </c>
       <c r="BA11" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB11" s="6" t="s">
         <v>8</v>
@@ -4061,26 +4009,26 @@
       <c r="BC11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BD11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="BE11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BF11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BG11" s="6" t="s">
+      <c r="BD11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BF11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BG11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="BH11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="BI11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BJ11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BK11" s="1" t="s">
         <v>7</v>
@@ -4107,62 +4055,54 @@
         <v>7</v>
       </c>
       <c r="BS11" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BT11" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BU11" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BV11" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BW11" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BX11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BY11" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BZ11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CA11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CB11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CC11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CD11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CE11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CF11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CG11" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="CH11" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="CI11" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="CJ11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CK11" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="CB11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CC11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CD11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CE11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="CF11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CH11" s="1"/>
+      <c r="CI11" s="1"/>
+      <c r="CJ11" s="1"/>
+      <c r="CK11" s="1"/>
       <c r="CL11" s="1"/>
       <c r="CM11" s="1"/>
       <c r="CN11" s="1"/>
@@ -4218,16 +4158,12 @@
       <c r="EL11" s="1"/>
       <c r="EM11" s="1"/>
       <c r="EN11" s="1"/>
-      <c r="EO11" s="1"/>
-      <c r="EP11" s="1"/>
-      <c r="EQ11" s="1"/>
-      <c r="ER11" s="1"/>
     </row>
-    <row r="12" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="11">
         <f t="shared" si="0"/>
         <v>0.78048780487804881</v>
       </c>
@@ -4342,36 +4278,44 @@
       <c r="AM12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AN12" s="6"/>
-      <c r="AO12" s="6"/>
-      <c r="AP12" s="6"/>
-      <c r="AQ12" s="6"/>
+      <c r="AN12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ12" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AR12" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS12" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT12" s="6" t="s">
         <v>8</v>
       </c>
       <c r="AU12" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV12" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW12" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX12" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY12" s="6" t="s">
         <v>8</v>
       </c>
       <c r="AZ12" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA12" s="6" t="s">
         <v>8</v>
@@ -4379,16 +4323,16 @@
       <c r="BB12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="BC12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BD12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="BE12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BF12" s="6" t="s">
+      <c r="BC12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="BG12" s="1" t="s">
@@ -4398,10 +4342,10 @@
         <v>8</v>
       </c>
       <c r="BI12" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BJ12" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BK12" s="1" t="s">
         <v>8</v>
@@ -4419,7 +4363,7 @@
         <v>8</v>
       </c>
       <c r="BP12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BQ12" s="1" t="s">
         <v>8</v>
@@ -4443,7 +4387,7 @@
         <v>8</v>
       </c>
       <c r="BX12" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BY12" s="1" t="s">
         <v>8</v>
@@ -4454,36 +4398,28 @@
       <c r="CA12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CB12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CC12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CD12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CE12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CF12" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="CG12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CH12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CI12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CJ12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CK12" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="CB12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CD12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CE12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CF12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CG12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CH12" s="1"/>
+      <c r="CI12" s="1"/>
+      <c r="CJ12" s="1"/>
+      <c r="CK12" s="1"/>
       <c r="CL12" s="1"/>
       <c r="CM12" s="1"/>
       <c r="CN12" s="1"/>
@@ -4539,16 +4475,12 @@
       <c r="EL12" s="1"/>
       <c r="EM12" s="1"/>
       <c r="EN12" s="1"/>
-      <c r="EO12" s="1"/>
-      <c r="EP12" s="1"/>
-      <c r="EQ12" s="1"/>
-      <c r="ER12" s="1"/>
     </row>
-    <row r="13" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <f t="shared" si="0"/>
         <v>0.72839506172839508</v>
       </c>
@@ -4663,10 +4595,18 @@
       <c r="AM13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AN13" s="6"/>
-      <c r="AO13" s="6"/>
-      <c r="AP13" s="6"/>
-      <c r="AQ13" s="6"/>
+      <c r="AN13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ13" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AR13" s="6" t="s">
         <v>8</v>
       </c>
@@ -4686,10 +4626,10 @@
         <v>8</v>
       </c>
       <c r="AX13" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY13" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ13" s="6" t="s">
         <v>8</v>
@@ -4698,19 +4638,19 @@
         <v>8</v>
       </c>
       <c r="BB13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="BC13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="BD13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BE13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BF13" s="6" t="s">
-        <v>8</v>
+        <v>8</v>
+      </c>
+      <c r="BC13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BE13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BF13" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="BG13" s="1" t="s">
         <v>8</v>
@@ -4722,16 +4662,16 @@
         <v>8</v>
       </c>
       <c r="BJ13" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BK13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BL13" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BM13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BN13" s="1" t="s">
         <v>8</v>
@@ -4740,10 +4680,10 @@
         <v>8</v>
       </c>
       <c r="BP13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BQ13" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BR13" s="1" t="s">
         <v>8</v>
@@ -4752,59 +4692,51 @@
         <v>8</v>
       </c>
       <c r="BT13" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BU13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BV13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BW13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BX13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BY13" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BZ13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="CA13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CB13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CC13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CD13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CE13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CF13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CG13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CH13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CI13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CJ13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CK13" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="CB13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CC13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CD13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CE13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CF13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CG13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CH13" s="1"/>
+      <c r="CI13" s="1"/>
+      <c r="CJ13" s="1"/>
+      <c r="CK13" s="1"/>
       <c r="CL13" s="1"/>
       <c r="CM13" s="1"/>
       <c r="CN13" s="1"/>
@@ -4860,16 +4792,12 @@
       <c r="EL13" s="1"/>
       <c r="EM13" s="1"/>
       <c r="EN13" s="1"/>
-      <c r="EO13" s="1"/>
-      <c r="EP13" s="1"/>
-      <c r="EQ13" s="1"/>
-      <c r="ER13" s="1"/>
     </row>
-    <row r="14" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="11">
         <f t="shared" si="0"/>
         <v>0.71951219512195119</v>
       </c>
@@ -4984,10 +4912,18 @@
       <c r="AM14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AN14" s="6"/>
-      <c r="AO14" s="6"/>
-      <c r="AP14" s="6"/>
-      <c r="AQ14" s="6"/>
+      <c r="AN14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ14" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AR14" s="6" t="s">
         <v>8</v>
       </c>
@@ -4995,7 +4931,7 @@
         <v>8</v>
       </c>
       <c r="AT14" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU14" s="6" t="s">
         <v>8</v>
@@ -5007,7 +4943,7 @@
         <v>8</v>
       </c>
       <c r="AX14" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY14" s="6" t="s">
         <v>8</v>
@@ -5019,113 +4955,105 @@
         <v>8</v>
       </c>
       <c r="BB14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="BC14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BD14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BE14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BF14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BE14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BG14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BH14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="BI14" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BJ14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BK14" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BL14" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BM14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BN14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BO14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BP14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BQ14" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BR14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="BS14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BT14" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BU14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BV14" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BW14" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BX14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BY14" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BZ14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CA14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CB14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CC14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CD14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CE14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CF14" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="CG14" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CH14" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CI14" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CJ14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CK14" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="CB14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CD14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CE14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CF14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CH14" s="1"/>
+      <c r="CI14" s="1"/>
+      <c r="CJ14" s="1"/>
+      <c r="CK14" s="1"/>
       <c r="CL14" s="1"/>
       <c r="CM14" s="1"/>
       <c r="CN14" s="1"/>
@@ -5181,16 +5109,12 @@
       <c r="EL14" s="1"/>
       <c r="EM14" s="1"/>
       <c r="EN14" s="1"/>
-      <c r="EO14" s="1"/>
-      <c r="EP14" s="1"/>
-      <c r="EQ14" s="1"/>
-      <c r="ER14" s="1"/>
     </row>
-    <row r="15" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="11">
         <f t="shared" si="0"/>
         <v>0.76543209876543206</v>
       </c>
@@ -5305,12 +5229,20 @@
       <c r="AM15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AN15" s="6"/>
-      <c r="AO15" s="6"/>
-      <c r="AP15" s="6"/>
-      <c r="AQ15" s="6"/>
+      <c r="AN15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ15" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AR15" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS15" s="6" t="s">
         <v>8</v>
@@ -5319,16 +5251,16 @@
         <v>8</v>
       </c>
       <c r="AU15" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV15" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW15" s="6" t="s">
         <v>8</v>
       </c>
       <c r="AX15" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY15" s="6" t="s">
         <v>8</v>
@@ -5337,25 +5269,25 @@
         <v>8</v>
       </c>
       <c r="BA15" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="BC15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BD15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BE15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="BF15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BF15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BG15" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BH15" s="1" t="s">
         <v>8</v>
@@ -5382,10 +5314,10 @@
         <v>8</v>
       </c>
       <c r="BP15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BQ15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BR15" s="1" t="s">
         <v>8</v>
@@ -5394,10 +5326,10 @@
         <v>8</v>
       </c>
       <c r="BT15" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BU15" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BV15" s="1" t="s">
         <v>8</v>
@@ -5406,7 +5338,7 @@
         <v>8</v>
       </c>
       <c r="BX15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BY15" s="1" t="s">
         <v>8</v>
@@ -5415,38 +5347,30 @@
         <v>8</v>
       </c>
       <c r="CA15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CB15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CC15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CD15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CE15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CF15" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CG15" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CH15" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CI15" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CJ15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CK15" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="CB15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CC15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CD15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CE15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CF15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CG15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CH15" s="1"/>
+      <c r="CI15" s="1"/>
+      <c r="CJ15" s="1"/>
+      <c r="CK15" s="1"/>
       <c r="CL15" s="1"/>
       <c r="CM15" s="1"/>
       <c r="CN15" s="1"/>
@@ -5502,16 +5426,12 @@
       <c r="EL15" s="1"/>
       <c r="EM15" s="1"/>
       <c r="EN15" s="1"/>
-      <c r="EO15" s="1"/>
-      <c r="EP15" s="1"/>
-      <c r="EQ15" s="1"/>
-      <c r="ER15" s="1"/>
     </row>
-    <row r="16" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="11">
         <f t="shared" si="0"/>
         <v>0.80246913580246915</v>
       </c>
@@ -5626,10 +5546,18 @@
       <c r="AM16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AN16" s="6"/>
-      <c r="AO16" s="6"/>
-      <c r="AP16" s="6"/>
-      <c r="AQ16" s="6"/>
+      <c r="AN16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ16" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AR16" s="6" t="s">
         <v>8</v>
       </c>
@@ -5637,7 +5565,7 @@
         <v>8</v>
       </c>
       <c r="AT16" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU16" s="6" t="s">
         <v>8</v>
@@ -5649,7 +5577,7 @@
         <v>8</v>
       </c>
       <c r="AX16" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY16" s="6" t="s">
         <v>8</v>
@@ -5658,21 +5586,21 @@
         <v>8</v>
       </c>
       <c r="BA16" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BC16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BD16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BE16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="BF16" s="6" t="s">
+      <c r="BC16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BF16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BG16" s="1" t="s">
@@ -5688,7 +5616,7 @@
         <v>8</v>
       </c>
       <c r="BK16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BL16" s="1" t="s">
         <v>8</v>
@@ -5700,7 +5628,7 @@
         <v>8</v>
       </c>
       <c r="BO16" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BP16" s="1" t="s">
         <v>8</v>
@@ -5715,7 +5643,7 @@
         <v>8</v>
       </c>
       <c r="BT16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BU16" s="1" t="s">
         <v>8</v>
@@ -5730,44 +5658,36 @@
         <v>7</v>
       </c>
       <c r="BY16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BZ16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="CA16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CB16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CC16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CD16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CE16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CF16" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CG16" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CH16" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CI16" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CJ16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CK16" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="CB16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CC16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CD16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CE16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CF16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CH16" s="1"/>
+      <c r="CI16" s="1"/>
+      <c r="CJ16" s="1"/>
+      <c r="CK16" s="1"/>
       <c r="CL16" s="1"/>
       <c r="CM16" s="1"/>
       <c r="CN16" s="1"/>
@@ -5823,16 +5743,12 @@
       <c r="EL16" s="1"/>
       <c r="EM16" s="1"/>
       <c r="EN16" s="1"/>
-      <c r="EO16" s="1"/>
-      <c r="EP16" s="1"/>
-      <c r="EQ16" s="1"/>
-      <c r="ER16" s="1"/>
     </row>
-    <row r="17" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="11">
         <f t="shared" si="0"/>
         <v>0.41463414634146339</v>
       </c>
@@ -5947,12 +5863,20 @@
       <c r="AM17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AN17" s="6"/>
-      <c r="AO17" s="6"/>
-      <c r="AP17" s="6"/>
-      <c r="AQ17" s="6"/>
+      <c r="AN17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ17" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AR17" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS17" s="6" t="s">
         <v>7</v>
@@ -5973,28 +5897,28 @@
         <v>7</v>
       </c>
       <c r="AY17" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ17" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA17" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="BC17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BD17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BE17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BF17" s="6" t="s">
-        <v>8</v>
+        <v>8</v>
+      </c>
+      <c r="BC17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BF17" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="BG17" s="1" t="s">
         <v>7</v>
@@ -6006,34 +5930,34 @@
         <v>8</v>
       </c>
       <c r="BJ17" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BK17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="BL17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BM17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BN17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BO17" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BP17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="BQ17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BR17" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BS17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BT17" s="1" t="s">
         <v>7</v>
@@ -6054,41 +5978,33 @@
         <v>7</v>
       </c>
       <c r="BZ17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CA17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CB17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CC17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CD17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CE17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CF17" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="CG17" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CH17" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CI17" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CJ17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CK17" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="CB17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CD17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CE17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CF17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CH17" s="1"/>
+      <c r="CI17" s="1"/>
+      <c r="CJ17" s="1"/>
+      <c r="CK17" s="1"/>
       <c r="CL17" s="1"/>
       <c r="CM17" s="1"/>
       <c r="CN17" s="1"/>
@@ -6144,16 +6060,12 @@
       <c r="EL17" s="1"/>
       <c r="EM17" s="1"/>
       <c r="EN17" s="1"/>
-      <c r="EO17" s="1"/>
-      <c r="EP17" s="1"/>
-      <c r="EQ17" s="1"/>
-      <c r="ER17" s="1"/>
     </row>
-    <row r="18" spans="1:148" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:144" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="11">
         <f t="shared" si="0"/>
         <v>0.96341463414634143</v>
       </c>
@@ -6268,10 +6180,18 @@
       <c r="AM18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AN18" s="6"/>
-      <c r="AO18" s="6"/>
-      <c r="AP18" s="6"/>
-      <c r="AQ18" s="6"/>
+      <c r="AN18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ18" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AR18" s="6" t="s">
         <v>8</v>
       </c>
@@ -6317,16 +6237,16 @@
       <c r="BF18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BG18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BH18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BI18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BJ18" s="6" t="s">
+      <c r="BG18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BH18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BI18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BJ18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BK18" s="1" t="s">
@@ -6336,7 +6256,7 @@
         <v>8</v>
       </c>
       <c r="BM18" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BN18" s="1" t="s">
         <v>8</v>
@@ -6380,36 +6300,28 @@
       <c r="CA18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CB18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CC18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CD18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CE18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CF18" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CG18" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CH18" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CI18" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CJ18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CK18" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="CB18" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CC18" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CD18" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CE18" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CF18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CG18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CH18" s="1"/>
+      <c r="CI18" s="1"/>
+      <c r="CJ18" s="1"/>
+      <c r="CK18" s="1"/>
       <c r="CL18" s="1"/>
       <c r="CM18" s="1"/>
       <c r="CN18" s="1"/>
@@ -6465,16 +6377,12 @@
       <c r="EL18" s="1"/>
       <c r="EM18" s="1"/>
       <c r="EN18" s="1"/>
-      <c r="EO18" s="1"/>
-      <c r="EP18" s="1"/>
-      <c r="EQ18" s="1"/>
-      <c r="ER18" s="1"/>
     </row>
-    <row r="19" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="11">
         <f t="shared" si="0"/>
         <v>0.96341463414634143</v>
       </c>
@@ -6589,10 +6497,18 @@
       <c r="AM19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AN19" s="6"/>
-      <c r="AO19" s="6"/>
-      <c r="AP19" s="6"/>
-      <c r="AQ19" s="6"/>
+      <c r="AN19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ19" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AR19" s="6" t="s">
         <v>8</v>
       </c>
@@ -6632,16 +6548,16 @@
       <c r="BD19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BE19" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BF19" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BG19" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BH19" s="6" t="s">
+      <c r="BE19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BF19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BG19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BH19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BI19" s="1" t="s">
@@ -6666,7 +6582,7 @@
         <v>8</v>
       </c>
       <c r="BP19" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BQ19" s="1" t="s">
         <v>8</v>
@@ -6678,7 +6594,7 @@
         <v>8</v>
       </c>
       <c r="BT19" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BU19" s="1" t="s">
         <v>8</v>
@@ -6701,36 +6617,28 @@
       <c r="CA19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CB19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CC19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CD19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CE19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CF19" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CG19" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CH19" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CI19" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CJ19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CK19" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="CB19" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CC19" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CD19" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CE19" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CF19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CG19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CH19" s="1"/>
+      <c r="CI19" s="1"/>
+      <c r="CJ19" s="1"/>
+      <c r="CK19" s="1"/>
       <c r="CL19" s="1"/>
       <c r="CM19" s="1"/>
       <c r="CN19" s="1"/>
@@ -6786,16 +6694,12 @@
       <c r="EL19" s="1"/>
       <c r="EM19" s="1"/>
       <c r="EN19" s="1"/>
-      <c r="EO19" s="1"/>
-      <c r="EP19" s="1"/>
-      <c r="EQ19" s="1"/>
-      <c r="ER19" s="1"/>
     </row>
-    <row r="20" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="11">
         <f t="shared" si="0"/>
         <v>0.63414634146341464</v>
       </c>
@@ -6910,21 +6814,29 @@
       <c r="AM20" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AN20" s="6"/>
-      <c r="AO20" s="6"/>
-      <c r="AP20" s="6"/>
-      <c r="AQ20" s="6"/>
+      <c r="AN20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ20" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AR20" s="6" t="s">
         <v>7</v>
       </c>
       <c r="AS20" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT20" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU20" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV20" s="6" t="s">
         <v>7</v>
@@ -6939,7 +6851,7 @@
         <v>8</v>
       </c>
       <c r="AZ20" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA20" s="6" t="s">
         <v>8</v>
@@ -6947,20 +6859,20 @@
       <c r="BB20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BC20" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BD20" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BE20" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BF20" s="6" t="s">
+      <c r="BC20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BG20" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BH20" s="1" t="s">
         <v>8</v>
@@ -6975,10 +6887,10 @@
         <v>8</v>
       </c>
       <c r="BL20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BM20" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BN20" s="1" t="s">
         <v>8</v>
@@ -6987,7 +6899,7 @@
         <v>8</v>
       </c>
       <c r="BP20" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BQ20" s="1" t="s">
         <v>8</v>
@@ -6996,62 +6908,54 @@
         <v>8</v>
       </c>
       <c r="BS20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BT20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BU20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BV20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BW20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="BX20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BY20" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BZ20" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CA20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CB20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CC20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CD20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CE20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CF20" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="CG20" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CH20" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CI20" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CJ20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CK20" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="CB20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CD20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CE20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CF20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CG20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CH20" s="1"/>
+      <c r="CI20" s="1"/>
+      <c r="CJ20" s="1"/>
+      <c r="CK20" s="1"/>
       <c r="CL20" s="1"/>
       <c r="CM20" s="1"/>
       <c r="CN20" s="1"/>
@@ -7107,16 +7011,12 @@
       <c r="EL20" s="1"/>
       <c r="EM20" s="1"/>
       <c r="EN20" s="1"/>
-      <c r="EO20" s="1"/>
-      <c r="EP20" s="1"/>
-      <c r="EQ20" s="1"/>
-      <c r="ER20" s="1"/>
     </row>
-    <row r="21" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="11">
         <f t="shared" si="0"/>
         <v>0.69135802469135799</v>
       </c>
@@ -7231,12 +7131,20 @@
       <c r="AM21" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AN21" s="6"/>
-      <c r="AO21" s="6"/>
-      <c r="AP21" s="6"/>
-      <c r="AQ21" s="6"/>
+      <c r="AN21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ21" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AR21" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS21" s="6" t="s">
         <v>8</v>
@@ -7248,64 +7156,64 @@
         <v>7</v>
       </c>
       <c r="AV21" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW21" s="6" t="s">
         <v>8</v>
       </c>
       <c r="AX21" s="6" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="AY21" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ21" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA21" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="BC21" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BD21" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BE21" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="BF21" s="6" t="s">
-        <v>8</v>
+        <v>8</v>
+      </c>
+      <c r="BC21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BF21" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="BG21" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BH21" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BI21" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BJ21" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BK21" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BL21" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BM21" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BN21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BO21" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BP21" s="1" t="s">
         <v>8</v>
@@ -7314,65 +7222,57 @@
         <v>8</v>
       </c>
       <c r="BR21" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BS21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="BT21" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BU21" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BV21" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BW21" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BX21" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BY21" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BZ21" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CA21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CB21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CC21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CD21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CE21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CF21" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="CG21" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CH21" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CI21" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="CJ21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CK21" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="CB21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC21" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CD21" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CE21" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="CF21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CH21" s="1"/>
+      <c r="CI21" s="1"/>
+      <c r="CJ21" s="1"/>
+      <c r="CK21" s="1"/>
       <c r="CL21" s="1"/>
       <c r="CM21" s="1"/>
       <c r="CN21" s="1"/>
@@ -7428,12 +7328,8 @@
       <c r="EL21" s="1"/>
       <c r="EM21" s="1"/>
       <c r="EN21" s="1"/>
-      <c r="EO21" s="1"/>
-      <c r="EP21" s="1"/>
-      <c r="EQ21" s="1"/>
-      <c r="ER21" s="1"/>
     </row>
-    <row r="22" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:144" x14ac:dyDescent="0.25">
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
@@ -7458,138 +7354,134 @@
       <c r="AH22" s="1"/>
       <c r="AI22" s="1"/>
       <c r="AJ22" s="1"/>
-      <c r="AN22" s="6"/>
-      <c r="AO22" s="6"/>
-      <c r="AP22" s="6"/>
-      <c r="AQ22" s="6"/>
     </row>
-    <row r="23" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+    <row r="23" spans="1:144" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="14" t="s">
+      <c r="B23" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
       <c r="B24">
-        <f t="shared" ref="B24:B42" si="1">COUNTIF(D3:EF3,B$23)</f>
+        <f>COUNTIF(D3:EB3,B$23)</f>
         <v>62</v>
       </c>
       <c r="C24">
-        <f t="shared" ref="C24:C42" si="2">COUNTIF(E3:EG3,C$23)</f>
+        <f>COUNTIF(E3:EC3,C$23)</f>
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
       <c r="B25">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D4:EB4,B$23)</f>
         <v>64</v>
       </c>
       <c r="C25">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(E4:EC4,C$23)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>10</v>
       </c>
       <c r="B26">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D5:EB5,B$23)</f>
         <v>45</v>
       </c>
       <c r="C26">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(E5:EC5,C$23)</f>
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
       <c r="B27">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D6:EB6,B$23)</f>
         <v>73</v>
       </c>
       <c r="C27">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(E6:EC6,C$23)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
       <c r="B28">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D7:EB7,B$23)</f>
         <v>70</v>
       </c>
       <c r="C28">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(E7:EC7,C$23)</f>
         <v>12</v>
       </c>
-      <c r="BG28" s="5"/>
+      <c r="BC28" s="5"/>
     </row>
-    <row r="29" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>13</v>
       </c>
       <c r="B29">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D8:EB8,B$23)</f>
         <v>70</v>
       </c>
       <c r="C29">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(E8:EC8,C$23)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>14</v>
       </c>
       <c r="B30">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D9:EB9,B$23)</f>
         <v>52</v>
       </c>
       <c r="C30">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(E9:EC9,C$23)</f>
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>15</v>
       </c>
       <c r="B31">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D10:EB10,B$23)</f>
         <v>46</v>
       </c>
       <c r="C31">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(E10:EC10,C$23)</f>
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>16</v>
       </c>
       <c r="B32">
-        <f t="shared" si="1"/>
-        <v>35</v>
+        <f>COUNTIF(D11:EB11,B$23)</f>
+        <v>44</v>
       </c>
       <c r="C32">
-        <f t="shared" si="2"/>
-        <v>46</v>
+        <f>COUNTIF(E11:EC11,C$23)</f>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -7597,11 +7489,11 @@
         <v>17</v>
       </c>
       <c r="B33">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D12:EB12,B$23)</f>
         <v>64</v>
       </c>
       <c r="C33">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(E12:EC12,C$23)</f>
         <v>18</v>
       </c>
     </row>
@@ -7610,11 +7502,11 @@
         <v>19</v>
       </c>
       <c r="B34">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D13:EB13,B$23)</f>
         <v>59</v>
       </c>
       <c r="C34">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(E13:EC13,C$23)</f>
         <v>22</v>
       </c>
     </row>
@@ -7623,11 +7515,11 @@
         <v>20</v>
       </c>
       <c r="B35">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D14:EB14,B$23)</f>
         <v>59</v>
       </c>
       <c r="C35">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(E14:EC14,C$23)</f>
         <v>23</v>
       </c>
     </row>
@@ -7636,11 +7528,11 @@
         <v>21</v>
       </c>
       <c r="B36">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D15:EB15,B$23)</f>
         <v>62</v>
       </c>
       <c r="C36">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(E15:EC15,C$23)</f>
         <v>19</v>
       </c>
     </row>
@@ -7649,11 +7541,11 @@
         <v>22</v>
       </c>
       <c r="B37">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D16:EB16,B$23)</f>
         <v>65</v>
       </c>
       <c r="C37">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(E16:EC16,C$23)</f>
         <v>16</v>
       </c>
     </row>
@@ -7662,11 +7554,11 @@
         <v>23</v>
       </c>
       <c r="B38">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D17:EB17,B$23)</f>
         <v>34</v>
       </c>
       <c r="C38">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(E17:EC17,C$23)</f>
         <v>48</v>
       </c>
     </row>
@@ -7675,11 +7567,11 @@
         <v>24</v>
       </c>
       <c r="B39">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D18:EB18,B$23)</f>
         <v>79</v>
       </c>
       <c r="C39">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(E18:EC18,C$23)</f>
         <v>3</v>
       </c>
     </row>
@@ -7688,11 +7580,11 @@
         <v>25</v>
       </c>
       <c r="B40">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D19:EB19,B$23)</f>
         <v>79</v>
       </c>
       <c r="C40">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(E19:EC19,C$23)</f>
         <v>3</v>
       </c>
     </row>
@@ -7701,11 +7593,11 @@
         <v>26</v>
       </c>
       <c r="B41">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D20:EB20,B$23)</f>
         <v>52</v>
       </c>
       <c r="C41">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(E20:EC20,C$23)</f>
         <v>30</v>
       </c>
     </row>
@@ -7714,11 +7606,11 @@
         <v>27</v>
       </c>
       <c r="B42">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D21:EB21,B$23)</f>
         <v>56</v>
       </c>
       <c r="C42">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(E21:EC21,C$23)</f>
         <v>25</v>
       </c>
     </row>
@@ -7731,7 +7623,7 @@
       <formula>0.75</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:I9 H3:ANI21 D10:H10 D11:I21 D22:AJ22 AK22:CQ1048576 G23:AJ42 B24:C42">
+  <conditionalFormatting sqref="D22:AJ22 G23:AJ42 B24:C42 AK22:CM1048576 D1:ANE21">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"F"</formula>
     </cfRule>
@@ -7739,7 +7631,7 @@
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:ANI2 A1:C42">
+  <conditionalFormatting sqref="A1:C42">
     <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
@@ -7747,7 +7639,7 @@
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CS22:ANI1048576 A43:AJ1048576">
+  <conditionalFormatting sqref="CO22:ANE1048576 A43:AJ1048576">
     <cfRule type="cellIs" dxfId="3" priority="11" operator="equal">
       <formula>"F"</formula>
     </cfRule>
@@ -7893,7 +7785,7 @@
       <c r="A21" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="8"/>
+      <c r="B21" s="7"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A21">

--- a/3des/frequencia.xlsx
+++ b/3des/frequencia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE06241-05B7-4AE4-BE43-2F3650F50CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2EB775-4730-469B-AB52-1F7AE0A5757B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,17 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -26,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="35">
   <si>
     <t>Alunos</t>
   </si>
@@ -293,16 +304,16 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -698,7 +709,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="BR3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CE11" sqref="CE11"/>
+      <selection pane="bottomRight" activeCell="CF21" sqref="CF21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1314,7 +1325,7 @@
       </c>
       <c r="B3" s="11">
         <f t="shared" ref="B3:B21" si="0">B24/(B24+C24)</f>
-        <v>0.76543209876543206</v>
+        <v>0.77108433734939763</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1565,8 +1576,12 @@
       <c r="CG3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CH3" s="1"/>
-      <c r="CI3" s="1"/>
+      <c r="CH3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI3" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CJ3" s="1"/>
       <c r="CK3" s="1"/>
       <c r="CL3" s="1"/>
@@ -1631,7 +1646,7 @@
       </c>
       <c r="B4" s="11">
         <f t="shared" si="0"/>
-        <v>0.79012345679012341</v>
+        <v>0.79518072289156627</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1882,8 +1897,12 @@
       <c r="CG4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CH4" s="1"/>
-      <c r="CI4" s="1"/>
+      <c r="CH4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI4" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CJ4" s="1"/>
       <c r="CK4" s="1"/>
       <c r="CL4" s="1"/>
@@ -1948,7 +1967,7 @@
       </c>
       <c r="B5" s="11">
         <f t="shared" si="0"/>
-        <v>0.55555555555555558</v>
+        <v>0.55421686746987953</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -2199,8 +2218,12 @@
       <c r="CG5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CH5" s="1"/>
-      <c r="CI5" s="1"/>
+      <c r="CH5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI5" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="CJ5" s="1"/>
       <c r="CK5" s="1"/>
       <c r="CL5" s="1"/>
@@ -2265,7 +2288,7 @@
       </c>
       <c r="B6" s="11">
         <f t="shared" si="0"/>
-        <v>0.8902439024390244</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -2516,8 +2539,12 @@
       <c r="CG6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CH6" s="1"/>
-      <c r="CI6" s="1"/>
+      <c r="CH6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI6" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CJ6" s="1"/>
       <c r="CK6" s="1"/>
       <c r="CL6" s="1"/>
@@ -2582,7 +2609,7 @@
       </c>
       <c r="B7" s="11">
         <f t="shared" si="0"/>
-        <v>0.85365853658536583</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -2833,8 +2860,12 @@
       <c r="CG7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CH7" s="1"/>
-      <c r="CI7" s="1"/>
+      <c r="CH7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI7" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CJ7" s="1"/>
       <c r="CK7" s="1"/>
       <c r="CL7" s="1"/>
@@ -2899,7 +2930,7 @@
       </c>
       <c r="B8" s="11">
         <f t="shared" si="0"/>
-        <v>0.85365853658536583</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -3150,8 +3181,12 @@
       <c r="CG8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CH8" s="1"/>
-      <c r="CI8" s="1"/>
+      <c r="CH8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI8" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CJ8" s="1"/>
       <c r="CK8" s="1"/>
       <c r="CL8" s="1"/>
@@ -3216,7 +3251,7 @@
       </c>
       <c r="B9" s="11">
         <f t="shared" si="0"/>
-        <v>0.64197530864197527</v>
+        <v>0.6506024096385542</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -3467,8 +3502,12 @@
       <c r="CG9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CH9" s="1"/>
-      <c r="CI9" s="1"/>
+      <c r="CH9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI9" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CJ9" s="1"/>
       <c r="CK9" s="1"/>
       <c r="CL9" s="1"/>
@@ -3533,7 +3572,7 @@
       </c>
       <c r="B10" s="11">
         <f t="shared" si="0"/>
-        <v>0.5679012345679012</v>
+        <v>0.57831325301204817</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -3782,8 +3821,12 @@
       <c r="CG10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CH10" s="1"/>
-      <c r="CI10" s="1"/>
+      <c r="CH10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI10" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CJ10" s="1"/>
       <c r="CK10" s="1"/>
       <c r="CL10" s="1"/>
@@ -3848,7 +3891,7 @@
       </c>
       <c r="B11" s="11">
         <f t="shared" si="0"/>
-        <v>0.54320987654320985</v>
+        <v>0.55421686746987953</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -4099,8 +4142,12 @@
       <c r="CG11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CH11" s="1"/>
-      <c r="CI11" s="1"/>
+      <c r="CH11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI11" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CJ11" s="1"/>
       <c r="CK11" s="1"/>
       <c r="CL11" s="1"/>
@@ -4165,7 +4212,7 @@
       </c>
       <c r="B12" s="11">
         <f t="shared" si="0"/>
-        <v>0.78048780487804881</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -4416,8 +4463,12 @@
       <c r="CG12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CH12" s="1"/>
-      <c r="CI12" s="1"/>
+      <c r="CH12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI12" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CJ12" s="1"/>
       <c r="CK12" s="1"/>
       <c r="CL12" s="1"/>
@@ -4482,7 +4533,7 @@
       </c>
       <c r="B13" s="11">
         <f t="shared" si="0"/>
-        <v>0.72839506172839508</v>
+        <v>0.73493975903614461</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -4733,8 +4784,12 @@
       <c r="CG13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CH13" s="1"/>
-      <c r="CI13" s="1"/>
+      <c r="CH13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI13" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CJ13" s="1"/>
       <c r="CK13" s="1"/>
       <c r="CL13" s="1"/>
@@ -4799,7 +4854,7 @@
       </c>
       <c r="B14" s="11">
         <f t="shared" si="0"/>
-        <v>0.71951219512195119</v>
+        <v>0.72619047619047616</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -5050,8 +5105,12 @@
       <c r="CG14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CH14" s="1"/>
-      <c r="CI14" s="1"/>
+      <c r="CH14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI14" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CJ14" s="1"/>
       <c r="CK14" s="1"/>
       <c r="CL14" s="1"/>
@@ -5116,7 +5175,7 @@
       </c>
       <c r="B15" s="11">
         <f t="shared" si="0"/>
-        <v>0.76543209876543206</v>
+        <v>0.77108433734939763</v>
       </c>
       <c r="C15">
         <v>13</v>
@@ -5367,8 +5426,12 @@
       <c r="CG15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CH15" s="1"/>
-      <c r="CI15" s="1"/>
+      <c r="CH15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI15" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CJ15" s="1"/>
       <c r="CK15" s="1"/>
       <c r="CL15" s="1"/>
@@ -5433,7 +5496,7 @@
       </c>
       <c r="B16" s="11">
         <f t="shared" si="0"/>
-        <v>0.80246913580246915</v>
+        <v>0.79518072289156627</v>
       </c>
       <c r="C16">
         <v>14</v>
@@ -5684,8 +5747,12 @@
       <c r="CG16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CH16" s="1"/>
-      <c r="CI16" s="1"/>
+      <c r="CH16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI16" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="CJ16" s="1"/>
       <c r="CK16" s="1"/>
       <c r="CL16" s="1"/>
@@ -5750,7 +5817,7 @@
       </c>
       <c r="B17" s="11">
         <f t="shared" si="0"/>
-        <v>0.41463414634146339</v>
+        <v>0.40476190476190477</v>
       </c>
       <c r="C17">
         <v>15</v>
@@ -6001,8 +6068,12 @@
       <c r="CG17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CH17" s="1"/>
-      <c r="CI17" s="1"/>
+      <c r="CH17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI17" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="CJ17" s="1"/>
       <c r="CK17" s="1"/>
       <c r="CL17" s="1"/>
@@ -6067,7 +6138,7 @@
       </c>
       <c r="B18" s="11">
         <f t="shared" si="0"/>
-        <v>0.96341463414634143</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="C18">
         <v>16</v>
@@ -6318,8 +6389,12 @@
       <c r="CG18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CH18" s="1"/>
-      <c r="CI18" s="1"/>
+      <c r="CH18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI18" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CJ18" s="1"/>
       <c r="CK18" s="1"/>
       <c r="CL18" s="1"/>
@@ -6384,7 +6459,7 @@
       </c>
       <c r="B19" s="11">
         <f t="shared" si="0"/>
-        <v>0.96341463414634143</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="C19">
         <v>17</v>
@@ -6635,8 +6710,12 @@
       <c r="CG19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CH19" s="1"/>
-      <c r="CI19" s="1"/>
+      <c r="CH19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI19" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CJ19" s="1"/>
       <c r="CK19" s="1"/>
       <c r="CL19" s="1"/>
@@ -6701,7 +6780,7 @@
       </c>
       <c r="B20" s="11">
         <f t="shared" si="0"/>
-        <v>0.63414634146341464</v>
+        <v>0.63095238095238093</v>
       </c>
       <c r="C20">
         <v>18</v>
@@ -6952,8 +7031,12 @@
       <c r="CG20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CH20" s="1"/>
-      <c r="CI20" s="1"/>
+      <c r="CH20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI20" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="CJ20" s="1"/>
       <c r="CK20" s="1"/>
       <c r="CL20" s="1"/>
@@ -7018,7 +7101,7 @@
       </c>
       <c r="B21" s="11">
         <f t="shared" si="0"/>
-        <v>0.69135802469135799</v>
+        <v>0.6987951807228916</v>
       </c>
       <c r="C21">
         <v>19</v>
@@ -7269,8 +7352,12 @@
       <c r="CG21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CH21" s="1"/>
-      <c r="CI21" s="1"/>
+      <c r="CH21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CI21" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CJ21" s="1"/>
       <c r="CK21" s="1"/>
       <c r="CL21" s="1"/>
@@ -7371,11 +7458,11 @@
         <v>6</v>
       </c>
       <c r="B24">
-        <f>COUNTIF(D3:EB3,B$23)</f>
-        <v>62</v>
+        <f t="shared" ref="B24:B42" si="1">COUNTIF(D3:EB3,B$23)</f>
+        <v>64</v>
       </c>
       <c r="C24">
-        <f>COUNTIF(E3:EC3,C$23)</f>
+        <f t="shared" ref="C24:C42" si="2">COUNTIF(E3:EC3,C$23)</f>
         <v>19</v>
       </c>
     </row>
@@ -7384,11 +7471,11 @@
         <v>9</v>
       </c>
       <c r="B25">
-        <f>COUNTIF(D4:EB4,B$23)</f>
-        <v>64</v>
+        <f t="shared" si="1"/>
+        <v>66</v>
       </c>
       <c r="C25">
-        <f>COUNTIF(E4:EC4,C$23)</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
     </row>
@@ -7397,12 +7484,12 @@
         <v>10</v>
       </c>
       <c r="B26">
-        <f>COUNTIF(D5:EB5,B$23)</f>
-        <v>45</v>
+        <f t="shared" si="1"/>
+        <v>46</v>
       </c>
       <c r="C26">
-        <f>COUNTIF(E5:EC5,C$23)</f>
-        <v>36</v>
+        <f t="shared" si="2"/>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:144" x14ac:dyDescent="0.25">
@@ -7410,11 +7497,11 @@
         <v>11</v>
       </c>
       <c r="B27">
-        <f>COUNTIF(D6:EB6,B$23)</f>
-        <v>73</v>
+        <f t="shared" si="1"/>
+        <v>75</v>
       </c>
       <c r="C27">
-        <f>COUNTIF(E6:EC6,C$23)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -7423,11 +7510,11 @@
         <v>12</v>
       </c>
       <c r="B28">
-        <f>COUNTIF(D7:EB7,B$23)</f>
-        <v>70</v>
+        <f t="shared" si="1"/>
+        <v>72</v>
       </c>
       <c r="C28">
-        <f>COUNTIF(E7:EC7,C$23)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="BC28" s="5"/>
@@ -7437,11 +7524,11 @@
         <v>13</v>
       </c>
       <c r="B29">
-        <f>COUNTIF(D8:EB8,B$23)</f>
-        <v>70</v>
+        <f t="shared" si="1"/>
+        <v>72</v>
       </c>
       <c r="C29">
-        <f>COUNTIF(E8:EC8,C$23)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
@@ -7450,11 +7537,11 @@
         <v>14</v>
       </c>
       <c r="B30">
-        <f>COUNTIF(D9:EB9,B$23)</f>
-        <v>52</v>
+        <f t="shared" si="1"/>
+        <v>54</v>
       </c>
       <c r="C30">
-        <f>COUNTIF(E9:EC9,C$23)</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
     </row>
@@ -7463,11 +7550,11 @@
         <v>15</v>
       </c>
       <c r="B31">
-        <f>COUNTIF(D10:EB10,B$23)</f>
-        <v>46</v>
+        <f t="shared" si="1"/>
+        <v>48</v>
       </c>
       <c r="C31">
-        <f>COUNTIF(E10:EC10,C$23)</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
     </row>
@@ -7476,11 +7563,11 @@
         <v>16</v>
       </c>
       <c r="B32">
-        <f>COUNTIF(D11:EB11,B$23)</f>
-        <v>44</v>
+        <f t="shared" si="1"/>
+        <v>46</v>
       </c>
       <c r="C32">
-        <f>COUNTIF(E11:EC11,C$23)</f>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
     </row>
@@ -7489,11 +7576,11 @@
         <v>17</v>
       </c>
       <c r="B33">
-        <f>COUNTIF(D12:EB12,B$23)</f>
-        <v>64</v>
+        <f t="shared" si="1"/>
+        <v>66</v>
       </c>
       <c r="C33">
-        <f>COUNTIF(E12:EC12,C$23)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
     </row>
@@ -7502,11 +7589,11 @@
         <v>19</v>
       </c>
       <c r="B34">
-        <f>COUNTIF(D13:EB13,B$23)</f>
-        <v>59</v>
+        <f t="shared" si="1"/>
+        <v>61</v>
       </c>
       <c r="C34">
-        <f>COUNTIF(E13:EC13,C$23)</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
     </row>
@@ -7515,11 +7602,11 @@
         <v>20</v>
       </c>
       <c r="B35">
-        <f>COUNTIF(D14:EB14,B$23)</f>
-        <v>59</v>
+        <f t="shared" si="1"/>
+        <v>61</v>
       </c>
       <c r="C35">
-        <f>COUNTIF(E14:EC14,C$23)</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
     </row>
@@ -7528,11 +7615,11 @@
         <v>21</v>
       </c>
       <c r="B36">
-        <f>COUNTIF(D15:EB15,B$23)</f>
-        <v>62</v>
+        <f t="shared" si="1"/>
+        <v>64</v>
       </c>
       <c r="C36">
-        <f>COUNTIF(E15:EC15,C$23)</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
     </row>
@@ -7541,12 +7628,12 @@
         <v>22</v>
       </c>
       <c r="B37">
-        <f>COUNTIF(D16:EB16,B$23)</f>
-        <v>65</v>
+        <f t="shared" si="1"/>
+        <v>66</v>
       </c>
       <c r="C37">
-        <f>COUNTIF(E16:EC16,C$23)</f>
-        <v>16</v>
+        <f t="shared" si="2"/>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -7554,12 +7641,12 @@
         <v>23</v>
       </c>
       <c r="B38">
-        <f>COUNTIF(D17:EB17,B$23)</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="C38">
-        <f>COUNTIF(E17:EC17,C$23)</f>
-        <v>48</v>
+        <f t="shared" si="2"/>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -7567,11 +7654,11 @@
         <v>24</v>
       </c>
       <c r="B39">
-        <f>COUNTIF(D18:EB18,B$23)</f>
-        <v>79</v>
+        <f t="shared" si="1"/>
+        <v>81</v>
       </c>
       <c r="C39">
-        <f>COUNTIF(E18:EC18,C$23)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -7580,11 +7667,11 @@
         <v>25</v>
       </c>
       <c r="B40">
-        <f>COUNTIF(D19:EB19,B$23)</f>
-        <v>79</v>
+        <f t="shared" si="1"/>
+        <v>81</v>
       </c>
       <c r="C40">
-        <f>COUNTIF(E19:EC19,C$23)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -7593,12 +7680,12 @@
         <v>26</v>
       </c>
       <c r="B41">
-        <f>COUNTIF(D20:EB20,B$23)</f>
-        <v>52</v>
+        <f t="shared" si="1"/>
+        <v>53</v>
       </c>
       <c r="C41">
-        <f>COUNTIF(E20:EC20,C$23)</f>
-        <v>30</v>
+        <f t="shared" si="2"/>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -7606,11 +7693,11 @@
         <v>27</v>
       </c>
       <c r="B42">
-        <f>COUNTIF(D21:EB21,B$23)</f>
-        <v>56</v>
+        <f t="shared" si="1"/>
+        <v>58</v>
       </c>
       <c r="C42">
-        <f>COUNTIF(E21:EC21,C$23)</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
     </row>
@@ -7618,24 +7705,24 @@
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
+  <conditionalFormatting sqref="A1:C42">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B3:B21">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
       <formula>0.75</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22:AJ22 G23:AJ42 B24:C42 AK22:CM1048576 D1:ANE21">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+  <conditionalFormatting sqref="D1:ANE21 D22:AJ22 AK22:CM1048576 G23:AJ42 B24:C42">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:C42">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/3des/frequencia.xlsx
+++ b/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2EB775-4730-469B-AB52-1F7AE0A5757B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B300FDD1-5CAC-4C5E-A974-15D45C6E167C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="35">
   <si>
     <t>Alunos</t>
   </si>
@@ -709,7 +709,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="BR3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CF21" sqref="CF21"/>
+      <selection pane="bottomRight" activeCell="CK6" sqref="CK6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1325,7 +1325,7 @@
       </c>
       <c r="B3" s="11">
         <f t="shared" ref="B3:B21" si="0">B24/(B24+C24)</f>
-        <v>0.77108433734939763</v>
+        <v>0.77647058823529413</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1582,8 +1582,12 @@
       <c r="CI3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CJ3" s="1"/>
-      <c r="CK3" s="1"/>
+      <c r="CJ3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CK3" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CL3" s="1"/>
       <c r="CM3" s="1"/>
       <c r="CN3" s="1"/>
@@ -1646,7 +1650,7 @@
       </c>
       <c r="B4" s="11">
         <f t="shared" si="0"/>
-        <v>0.79518072289156627</v>
+        <v>0.8</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1903,8 +1907,12 @@
       <c r="CI4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CJ4" s="1"/>
-      <c r="CK4" s="1"/>
+      <c r="CJ4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CK4" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CL4" s="1"/>
       <c r="CM4" s="1"/>
       <c r="CN4" s="1"/>
@@ -1967,7 +1975,7 @@
       </c>
       <c r="B5" s="11">
         <f t="shared" si="0"/>
-        <v>0.55421686746987953</v>
+        <v>0.56470588235294117</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -2224,8 +2232,12 @@
       <c r="CI5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CJ5" s="1"/>
-      <c r="CK5" s="1"/>
+      <c r="CJ5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CK5" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CL5" s="1"/>
       <c r="CM5" s="1"/>
       <c r="CN5" s="1"/>
@@ -2288,7 +2300,7 @@
       </c>
       <c r="B6" s="11">
         <f t="shared" si="0"/>
-        <v>0.8928571428571429</v>
+        <v>0.89534883720930236</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -2545,8 +2557,12 @@
       <c r="CI6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CJ6" s="1"/>
-      <c r="CK6" s="1"/>
+      <c r="CJ6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CK6" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CL6" s="1"/>
       <c r="CM6" s="1"/>
       <c r="CN6" s="1"/>
@@ -2609,7 +2625,7 @@
       </c>
       <c r="B7" s="11">
         <f t="shared" si="0"/>
-        <v>0.8571428571428571</v>
+        <v>0.86046511627906974</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -2866,8 +2882,12 @@
       <c r="CI7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CJ7" s="1"/>
-      <c r="CK7" s="1"/>
+      <c r="CJ7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CK7" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CL7" s="1"/>
       <c r="CM7" s="1"/>
       <c r="CN7" s="1"/>
@@ -2930,7 +2950,7 @@
       </c>
       <c r="B8" s="11">
         <f t="shared" si="0"/>
-        <v>0.8571428571428571</v>
+        <v>0.86046511627906974</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -3187,8 +3207,12 @@
       <c r="CI8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CJ8" s="1"/>
-      <c r="CK8" s="1"/>
+      <c r="CJ8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CK8" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CL8" s="1"/>
       <c r="CM8" s="1"/>
       <c r="CN8" s="1"/>
@@ -3251,7 +3275,7 @@
       </c>
       <c r="B9" s="11">
         <f t="shared" si="0"/>
-        <v>0.6506024096385542</v>
+        <v>0.6588235294117647</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -3508,8 +3532,12 @@
       <c r="CI9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CJ9" s="1"/>
-      <c r="CK9" s="1"/>
+      <c r="CJ9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CK9" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CL9" s="1"/>
       <c r="CM9" s="1"/>
       <c r="CN9" s="1"/>
@@ -3572,7 +3600,7 @@
       </c>
       <c r="B10" s="11">
         <f t="shared" si="0"/>
-        <v>0.57831325301204817</v>
+        <v>0.58823529411764708</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -3827,8 +3855,12 @@
       <c r="CI10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CJ10" s="1"/>
-      <c r="CK10" s="1"/>
+      <c r="CJ10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CK10" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CL10" s="1"/>
       <c r="CM10" s="1"/>
       <c r="CN10" s="1"/>
@@ -3891,7 +3923,7 @@
       </c>
       <c r="B11" s="11">
         <f t="shared" si="0"/>
-        <v>0.55421686746987953</v>
+        <v>0.56470588235294117</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -4148,8 +4180,12 @@
       <c r="CI11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CJ11" s="1"/>
-      <c r="CK11" s="1"/>
+      <c r="CJ11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CK11" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CL11" s="1"/>
       <c r="CM11" s="1"/>
       <c r="CN11" s="1"/>
@@ -4212,7 +4248,7 @@
       </c>
       <c r="B12" s="11">
         <f t="shared" si="0"/>
-        <v>0.7857142857142857</v>
+        <v>0.79069767441860461</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -4469,8 +4505,12 @@
       <c r="CI12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CJ12" s="1"/>
-      <c r="CK12" s="1"/>
+      <c r="CJ12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CK12" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CL12" s="1"/>
       <c r="CM12" s="1"/>
       <c r="CN12" s="1"/>
@@ -4533,7 +4573,7 @@
       </c>
       <c r="B13" s="11">
         <f t="shared" si="0"/>
-        <v>0.73493975903614461</v>
+        <v>0.74117647058823533</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -4790,8 +4830,12 @@
       <c r="CI13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CJ13" s="1"/>
-      <c r="CK13" s="1"/>
+      <c r="CJ13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CK13" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CL13" s="1"/>
       <c r="CM13" s="1"/>
       <c r="CN13" s="1"/>
@@ -4854,7 +4898,7 @@
       </c>
       <c r="B14" s="11">
         <f t="shared" si="0"/>
-        <v>0.72619047619047616</v>
+        <v>0.73255813953488369</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -5111,8 +5155,12 @@
       <c r="CI14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CJ14" s="1"/>
-      <c r="CK14" s="1"/>
+      <c r="CJ14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CK14" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CL14" s="1"/>
       <c r="CM14" s="1"/>
       <c r="CN14" s="1"/>
@@ -5175,7 +5223,7 @@
       </c>
       <c r="B15" s="11">
         <f t="shared" si="0"/>
-        <v>0.77108433734939763</v>
+        <v>0.77647058823529413</v>
       </c>
       <c r="C15">
         <v>13</v>
@@ -5432,8 +5480,12 @@
       <c r="CI15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CJ15" s="1"/>
-      <c r="CK15" s="1"/>
+      <c r="CJ15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CK15" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CL15" s="1"/>
       <c r="CM15" s="1"/>
       <c r="CN15" s="1"/>
@@ -5496,7 +5548,7 @@
       </c>
       <c r="B16" s="11">
         <f t="shared" si="0"/>
-        <v>0.79518072289156627</v>
+        <v>0.78823529411764703</v>
       </c>
       <c r="C16">
         <v>14</v>
@@ -5753,8 +5805,12 @@
       <c r="CI16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CJ16" s="1"/>
-      <c r="CK16" s="1"/>
+      <c r="CJ16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CK16" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CL16" s="1"/>
       <c r="CM16" s="1"/>
       <c r="CN16" s="1"/>
@@ -5817,7 +5873,7 @@
       </c>
       <c r="B17" s="11">
         <f t="shared" si="0"/>
-        <v>0.40476190476190477</v>
+        <v>0.39534883720930231</v>
       </c>
       <c r="C17">
         <v>15</v>
@@ -6074,8 +6130,12 @@
       <c r="CI17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CJ17" s="1"/>
-      <c r="CK17" s="1"/>
+      <c r="CJ17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CK17" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="CL17" s="1"/>
       <c r="CM17" s="1"/>
       <c r="CN17" s="1"/>
@@ -6138,7 +6198,7 @@
       </c>
       <c r="B18" s="11">
         <f t="shared" si="0"/>
-        <v>0.9642857142857143</v>
+        <v>0.96511627906976749</v>
       </c>
       <c r="C18">
         <v>16</v>
@@ -6395,8 +6455,12 @@
       <c r="CI18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CJ18" s="1"/>
-      <c r="CK18" s="1"/>
+      <c r="CJ18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CK18" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CL18" s="1"/>
       <c r="CM18" s="1"/>
       <c r="CN18" s="1"/>
@@ -6459,7 +6523,7 @@
       </c>
       <c r="B19" s="11">
         <f t="shared" si="0"/>
-        <v>0.9642857142857143</v>
+        <v>0.96511627906976749</v>
       </c>
       <c r="C19">
         <v>17</v>
@@ -6716,8 +6780,12 @@
       <c r="CI19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CJ19" s="1"/>
-      <c r="CK19" s="1"/>
+      <c r="CJ19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CK19" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CL19" s="1"/>
       <c r="CM19" s="1"/>
       <c r="CN19" s="1"/>
@@ -6780,7 +6848,7 @@
       </c>
       <c r="B20" s="11">
         <f t="shared" si="0"/>
-        <v>0.63095238095238093</v>
+        <v>0.63953488372093026</v>
       </c>
       <c r="C20">
         <v>18</v>
@@ -7037,8 +7105,12 @@
       <c r="CI20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CJ20" s="1"/>
-      <c r="CK20" s="1"/>
+      <c r="CJ20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CK20" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CL20" s="1"/>
       <c r="CM20" s="1"/>
       <c r="CN20" s="1"/>
@@ -7101,7 +7173,7 @@
       </c>
       <c r="B21" s="11">
         <f t="shared" si="0"/>
-        <v>0.6987951807228916</v>
+        <v>0.70588235294117652</v>
       </c>
       <c r="C21">
         <v>19</v>
@@ -7358,8 +7430,12 @@
       <c r="CI21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CJ21" s="1"/>
-      <c r="CK21" s="1"/>
+      <c r="CJ21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CK21" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CL21" s="1"/>
       <c r="CM21" s="1"/>
       <c r="CN21" s="1"/>
@@ -7459,7 +7535,7 @@
       </c>
       <c r="B24">
         <f t="shared" ref="B24:B42" si="1">COUNTIF(D3:EB3,B$23)</f>
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C24">
         <f t="shared" ref="C24:C42" si="2">COUNTIF(E3:EC3,C$23)</f>
@@ -7472,7 +7548,7 @@
       </c>
       <c r="B25">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C25">
         <f t="shared" si="2"/>
@@ -7485,7 +7561,7 @@
       </c>
       <c r="B26">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C26">
         <f t="shared" si="2"/>
@@ -7498,7 +7574,7 @@
       </c>
       <c r="B27">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C27">
         <f t="shared" si="2"/>
@@ -7511,7 +7587,7 @@
       </c>
       <c r="B28">
         <f t="shared" si="1"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C28">
         <f t="shared" si="2"/>
@@ -7525,7 +7601,7 @@
       </c>
       <c r="B29">
         <f t="shared" si="1"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C29">
         <f t="shared" si="2"/>
@@ -7538,7 +7614,7 @@
       </c>
       <c r="B30">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C30">
         <f t="shared" si="2"/>
@@ -7551,7 +7627,7 @@
       </c>
       <c r="B31">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C31">
         <f t="shared" si="2"/>
@@ -7564,7 +7640,7 @@
       </c>
       <c r="B32">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C32">
         <f t="shared" si="2"/>
@@ -7577,7 +7653,7 @@
       </c>
       <c r="B33">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C33">
         <f t="shared" si="2"/>
@@ -7590,7 +7666,7 @@
       </c>
       <c r="B34">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C34">
         <f t="shared" si="2"/>
@@ -7603,7 +7679,7 @@
       </c>
       <c r="B35">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C35">
         <f t="shared" si="2"/>
@@ -7616,7 +7692,7 @@
       </c>
       <c r="B36">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C36">
         <f t="shared" si="2"/>
@@ -7629,11 +7705,11 @@
       </c>
       <c r="B37">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C37">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -7646,7 +7722,7 @@
       </c>
       <c r="C38">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -7655,7 +7731,7 @@
       </c>
       <c r="B39">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C39">
         <f t="shared" si="2"/>
@@ -7668,7 +7744,7 @@
       </c>
       <c r="B40">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C40">
         <f t="shared" si="2"/>
@@ -7681,7 +7757,7 @@
       </c>
       <c r="B41">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C41">
         <f t="shared" si="2"/>
@@ -7694,7 +7770,7 @@
       </c>
       <c r="B42">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C42">
         <f t="shared" si="2"/>

--- a/3des/frequencia.xlsx
+++ b/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B300FDD1-5CAC-4C5E-A974-15D45C6E167C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C89A0E-01B1-491C-86F7-FACE4CAEBEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1810" uniqueCount="35">
   <si>
     <t>Alunos</t>
   </si>
@@ -709,7 +709,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="BR3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CK6" sqref="CK6"/>
+      <selection pane="bottomRight" activeCell="CL4" sqref="CL4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1325,7 +1325,7 @@
       </c>
       <c r="B3" s="11">
         <f t="shared" ref="B3:B21" si="0">B24/(B24+C24)</f>
-        <v>0.77647058823529413</v>
+        <v>0.77906976744186052</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1588,7 +1588,9 @@
       <c r="CK3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CL3" s="1"/>
+      <c r="CL3" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CM3" s="1"/>
       <c r="CN3" s="1"/>
       <c r="CO3" s="1"/>
@@ -1650,7 +1652,7 @@
       </c>
       <c r="B4" s="11">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0.79069767441860461</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1913,7 +1915,9 @@
       <c r="CK4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CL4" s="1"/>
+      <c r="CL4" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="CM4" s="1"/>
       <c r="CN4" s="1"/>
       <c r="CO4" s="1"/>
@@ -1975,7 +1979,7 @@
       </c>
       <c r="B5" s="11">
         <f t="shared" si="0"/>
-        <v>0.56470588235294117</v>
+        <v>0.55813953488372092</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -2238,7 +2242,9 @@
       <c r="CK5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CL5" s="1"/>
+      <c r="CL5" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="CM5" s="1"/>
       <c r="CN5" s="1"/>
       <c r="CO5" s="1"/>
@@ -2300,7 +2306,7 @@
       </c>
       <c r="B6" s="11">
         <f t="shared" si="0"/>
-        <v>0.89534883720930236</v>
+        <v>0.88505747126436785</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -2563,7 +2569,9 @@
       <c r="CK6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CL6" s="1"/>
+      <c r="CL6" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="CM6" s="1"/>
       <c r="CN6" s="1"/>
       <c r="CO6" s="1"/>
@@ -2625,7 +2633,7 @@
       </c>
       <c r="B7" s="11">
         <f t="shared" si="0"/>
-        <v>0.86046511627906974</v>
+        <v>0.85057471264367812</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -2888,7 +2896,9 @@
       <c r="CK7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CL7" s="1"/>
+      <c r="CL7" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="CM7" s="1"/>
       <c r="CN7" s="1"/>
       <c r="CO7" s="1"/>
@@ -2950,7 +2960,7 @@
       </c>
       <c r="B8" s="11">
         <f t="shared" si="0"/>
-        <v>0.86046511627906974</v>
+        <v>0.85057471264367812</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -3213,7 +3223,9 @@
       <c r="CK8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CL8" s="1"/>
+      <c r="CL8" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="CM8" s="1"/>
       <c r="CN8" s="1"/>
       <c r="CO8" s="1"/>
@@ -3275,7 +3287,7 @@
       </c>
       <c r="B9" s="11">
         <f t="shared" si="0"/>
-        <v>0.6588235294117647</v>
+        <v>0.66279069767441856</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -3538,7 +3550,9 @@
       <c r="CK9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CL9" s="1"/>
+      <c r="CL9" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CM9" s="1"/>
       <c r="CN9" s="1"/>
       <c r="CO9" s="1"/>
@@ -3600,7 +3614,7 @@
       </c>
       <c r="B10" s="11">
         <f t="shared" si="0"/>
-        <v>0.58823529411764708</v>
+        <v>0.58139534883720934</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -3861,7 +3875,9 @@
       <c r="CK10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CL10" s="1"/>
+      <c r="CL10" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="CM10" s="1"/>
       <c r="CN10" s="1"/>
       <c r="CO10" s="1"/>
@@ -3923,7 +3939,7 @@
       </c>
       <c r="B11" s="11">
         <f t="shared" si="0"/>
-        <v>0.56470588235294117</v>
+        <v>0.55813953488372092</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -4186,7 +4202,9 @@
       <c r="CK11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CL11" s="1"/>
+      <c r="CL11" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="CM11" s="1"/>
       <c r="CN11" s="1"/>
       <c r="CO11" s="1"/>
@@ -4248,7 +4266,7 @@
       </c>
       <c r="B12" s="11">
         <f t="shared" si="0"/>
-        <v>0.79069767441860461</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -4511,7 +4529,9 @@
       <c r="CK12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CL12" s="1"/>
+      <c r="CL12" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CM12" s="1"/>
       <c r="CN12" s="1"/>
       <c r="CO12" s="1"/>
@@ -4573,7 +4593,7 @@
       </c>
       <c r="B13" s="11">
         <f t="shared" si="0"/>
-        <v>0.74117647058823533</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -4836,7 +4856,9 @@
       <c r="CK13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CL13" s="1"/>
+      <c r="CL13" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CM13" s="1"/>
       <c r="CN13" s="1"/>
       <c r="CO13" s="1"/>
@@ -4898,7 +4920,7 @@
       </c>
       <c r="B14" s="11">
         <f t="shared" si="0"/>
-        <v>0.73255813953488369</v>
+        <v>0.72413793103448276</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -5161,7 +5183,9 @@
       <c r="CK14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CL14" s="1"/>
+      <c r="CL14" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="CM14" s="1"/>
       <c r="CN14" s="1"/>
       <c r="CO14" s="1"/>
@@ -5223,7 +5247,7 @@
       </c>
       <c r="B15" s="11">
         <f t="shared" si="0"/>
-        <v>0.77647058823529413</v>
+        <v>0.77906976744186052</v>
       </c>
       <c r="C15">
         <v>13</v>
@@ -5486,7 +5510,9 @@
       <c r="CK15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CL15" s="1"/>
+      <c r="CL15" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CM15" s="1"/>
       <c r="CN15" s="1"/>
       <c r="CO15" s="1"/>
@@ -5548,7 +5574,7 @@
       </c>
       <c r="B16" s="11">
         <f t="shared" si="0"/>
-        <v>0.78823529411764703</v>
+        <v>0.77906976744186052</v>
       </c>
       <c r="C16">
         <v>14</v>
@@ -5811,7 +5837,9 @@
       <c r="CK16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CL16" s="1"/>
+      <c r="CL16" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="CM16" s="1"/>
       <c r="CN16" s="1"/>
       <c r="CO16" s="1"/>
@@ -5873,7 +5901,7 @@
       </c>
       <c r="B17" s="11">
         <f t="shared" si="0"/>
-        <v>0.39534883720930231</v>
+        <v>0.40229885057471265</v>
       </c>
       <c r="C17">
         <v>15</v>
@@ -6136,7 +6164,9 @@
       <c r="CK17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CL17" s="1"/>
+      <c r="CL17" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CM17" s="1"/>
       <c r="CN17" s="1"/>
       <c r="CO17" s="1"/>
@@ -6198,7 +6228,7 @@
       </c>
       <c r="B18" s="11">
         <f t="shared" si="0"/>
-        <v>0.96511627906976749</v>
+        <v>0.96551724137931039</v>
       </c>
       <c r="C18">
         <v>16</v>
@@ -6461,7 +6491,9 @@
       <c r="CK18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CL18" s="1"/>
+      <c r="CL18" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CM18" s="1"/>
       <c r="CN18" s="1"/>
       <c r="CO18" s="1"/>
@@ -6523,7 +6555,7 @@
       </c>
       <c r="B19" s="11">
         <f t="shared" si="0"/>
-        <v>0.96511627906976749</v>
+        <v>0.95402298850574707</v>
       </c>
       <c r="C19">
         <v>17</v>
@@ -6786,7 +6818,9 @@
       <c r="CK19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CL19" s="1"/>
+      <c r="CL19" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="CM19" s="1"/>
       <c r="CN19" s="1"/>
       <c r="CO19" s="1"/>
@@ -6848,7 +6882,7 @@
       </c>
       <c r="B20" s="11">
         <f t="shared" si="0"/>
-        <v>0.63953488372093026</v>
+        <v>0.64367816091954022</v>
       </c>
       <c r="C20">
         <v>18</v>
@@ -7111,7 +7145,9 @@
       <c r="CK20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CL20" s="1"/>
+      <c r="CL20" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CM20" s="1"/>
       <c r="CN20" s="1"/>
       <c r="CO20" s="1"/>
@@ -7173,7 +7209,7 @@
       </c>
       <c r="B21" s="11">
         <f t="shared" si="0"/>
-        <v>0.70588235294117652</v>
+        <v>0.70930232558139539</v>
       </c>
       <c r="C21">
         <v>19</v>
@@ -7436,7 +7472,9 @@
       <c r="CK21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CL21" s="1"/>
+      <c r="CL21" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CM21" s="1"/>
       <c r="CN21" s="1"/>
       <c r="CO21" s="1"/>
@@ -7535,7 +7573,7 @@
       </c>
       <c r="B24">
         <f t="shared" ref="B24:B42" si="1">COUNTIF(D3:EB3,B$23)</f>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C24">
         <f t="shared" ref="C24:C42" si="2">COUNTIF(E3:EC3,C$23)</f>
@@ -7552,7 +7590,7 @@
       </c>
       <c r="C25">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:144" x14ac:dyDescent="0.25">
@@ -7565,7 +7603,7 @@
       </c>
       <c r="C26">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:144" x14ac:dyDescent="0.25">
@@ -7578,7 +7616,7 @@
       </c>
       <c r="C27">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:144" x14ac:dyDescent="0.25">
@@ -7591,7 +7629,7 @@
       </c>
       <c r="C28">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC28" s="5"/>
     </row>
@@ -7605,7 +7643,7 @@
       </c>
       <c r="C29">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:144" x14ac:dyDescent="0.25">
@@ -7614,7 +7652,7 @@
       </c>
       <c r="B30">
         <f t="shared" si="1"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C30">
         <f t="shared" si="2"/>
@@ -7631,7 +7669,7 @@
       </c>
       <c r="C31">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:144" x14ac:dyDescent="0.25">
@@ -7644,7 +7682,7 @@
       </c>
       <c r="C32">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -7653,7 +7691,7 @@
       </c>
       <c r="B33">
         <f t="shared" si="1"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C33">
         <f t="shared" si="2"/>
@@ -7666,7 +7704,7 @@
       </c>
       <c r="B34">
         <f t="shared" si="1"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C34">
         <f t="shared" si="2"/>
@@ -7683,7 +7721,7 @@
       </c>
       <c r="C35">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -7692,7 +7730,7 @@
       </c>
       <c r="B36">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C36">
         <f t="shared" si="2"/>
@@ -7709,7 +7747,7 @@
       </c>
       <c r="C37">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -7718,7 +7756,7 @@
       </c>
       <c r="B38">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <f t="shared" si="2"/>
@@ -7731,7 +7769,7 @@
       </c>
       <c r="B39">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C39">
         <f t="shared" si="2"/>
@@ -7748,7 +7786,7 @@
       </c>
       <c r="C40">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -7757,7 +7795,7 @@
       </c>
       <c r="B41">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C41">
         <f t="shared" si="2"/>
@@ -7770,7 +7808,7 @@
       </c>
       <c r="B42">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C42">
         <f t="shared" si="2"/>

--- a/3des/frequencia.xlsx
+++ b/3des/frequencia.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1828" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1866" uniqueCount="35">
   <si>
     <t xml:space="preserve">Alunos</t>
   </si>
@@ -132,12 +132,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="d/mmm"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="167" formatCode="0%"/>
-    <numFmt numFmtId="168" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="0%"/>
+    <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -227,11 +226,11 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -256,10 +255,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -272,7 +267,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -280,7 +275,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -288,7 +283,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -452,7 +447,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="BR1" activeCellId="0" sqref="BR1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CO15" activeCellId="0" sqref="CO15"/>
+      <selection pane="bottomRight" activeCell="CO21" activeCellId="0" sqref="CO21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -502,7 +497,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="90" min="89" style="1" width="7.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="91" min="91" style="1" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="92" min="92" style="1" width="8.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="94" min="93" style="1" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="93" min="93" style="1" width="9.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="94" min="94" style="1" width="6.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="95" min="95" style="1" width="7.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="96" min="96" style="1" width="6.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="99" min="97" style="1" width="7.16"/>
@@ -789,16 +785,18 @@
       <c r="CN1" s="4" t="n">
         <v>45264</v>
       </c>
-      <c r="CO1" s="6"/>
+      <c r="CO1" s="4" t="n">
+        <v>45265</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1068,106 +1066,109 @@
       <c r="CN2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="CO2" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="10" t="n">
+      <c r="B3" s="9" t="n">
         <f aca="false">B24/(B24+C24)</f>
-        <v>0.770114942528736</v>
-      </c>
-      <c r="C3" s="9" t="n">
+        <v>0.764044943820225</v>
+      </c>
+      <c r="C3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="R3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="S3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="T3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="U3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="V3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="W3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="X3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG3" s="11" t="s">
+      <c r="D3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="W3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="X3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG3" s="10" t="s">
         <v>8</v>
       </c>
       <c r="AH3" s="2" t="s">
@@ -1176,61 +1177,61 @@
       <c r="AI3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AJ3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AN3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AO3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AP3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AS3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AU3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AX3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AY3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AZ3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB3" s="11" t="s">
+      <c r="AJ3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB3" s="10" t="s">
         <v>9</v>
       </c>
       <c r="BC3" s="2" t="s">
@@ -1308,16 +1309,16 @@
       <c r="CA3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="CB3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="CC3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="CD3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="CE3" s="12" t="s">
+      <c r="CB3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CC3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CD3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CE3" s="11" t="s">
         <v>9</v>
       </c>
       <c r="CF3" s="2" t="s">
@@ -1341,11 +1342,15 @@
       <c r="CL3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="CM3" s="2"/>
+      <c r="CM3" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="CN3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="CO3" s="2"/>
+      <c r="CO3" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="CP3" s="2"/>
       <c r="CQ3" s="2"/>
       <c r="CR3" s="2"/>
@@ -1399,104 +1404,104 @@
       <c r="EN3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="10" t="n">
+      <c r="B4" s="9" t="n">
         <f aca="false">B25/(B25+C25)</f>
-        <v>0.781609195402299</v>
-      </c>
-      <c r="C4" s="9" t="n">
+        <v>0.772727272727273</v>
+      </c>
+      <c r="C4" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="P4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="R4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="S4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="T4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="U4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="V4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="W4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="X4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG4" s="11" t="s">
+      <c r="D4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="U4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="V4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="W4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="X4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG4" s="10" t="s">
         <v>9</v>
       </c>
       <c r="AH4" s="2" t="s">
@@ -1505,61 +1510,61 @@
       <c r="AI4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AJ4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AN4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AP4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AS4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AU4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AX4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AY4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB4" s="11" t="s">
+      <c r="AJ4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB4" s="10" t="s">
         <v>9</v>
       </c>
       <c r="BC4" s="2" t="s">
@@ -1637,16 +1642,16 @@
       <c r="CA4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="CB4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="CC4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="CD4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="CE4" s="12" t="s">
+      <c r="CB4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CC4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CD4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CE4" s="11" t="s">
         <v>9</v>
       </c>
       <c r="CF4" s="2" t="s">
@@ -1674,7 +1679,9 @@
       <c r="CN4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="CO4" s="2"/>
+      <c r="CO4" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="CP4" s="2"/>
       <c r="CQ4" s="2"/>
       <c r="CR4" s="2"/>
@@ -1728,104 +1735,104 @@
       <c r="EN4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="10" t="n">
+      <c r="B5" s="9" t="n">
         <f aca="false">B26/(B26+C26)</f>
-        <v>0.551724137931035</v>
-      </c>
-      <c r="C5" s="9" t="n">
+        <v>0.550561797752809</v>
+      </c>
+      <c r="C5" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="P5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="R5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="S5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="T5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="U5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="V5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="W5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="X5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG5" s="11" t="s">
+      <c r="D5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="T5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="U5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="V5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="W5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="X5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG5" s="10" t="s">
         <v>8</v>
       </c>
       <c r="AH5" s="2" t="s">
@@ -1834,61 +1841,61 @@
       <c r="AI5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AJ5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AN5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AQ5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AR5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AS5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AU5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AX5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AY5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB5" s="11" t="s">
+      <c r="AJ5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB5" s="10" t="s">
         <v>9</v>
       </c>
       <c r="BC5" s="2" t="s">
@@ -1966,16 +1973,16 @@
       <c r="CA5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="CB5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="CC5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="CD5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="CE5" s="12" t="s">
+      <c r="CB5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CC5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CD5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CE5" s="11" t="s">
         <v>9</v>
       </c>
       <c r="CF5" s="2" t="s">
@@ -1999,11 +2006,15 @@
       <c r="CL5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="CM5" s="2"/>
+      <c r="CM5" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="CN5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="CO5" s="2"/>
+      <c r="CO5" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="CP5" s="2"/>
       <c r="CQ5" s="2"/>
       <c r="CR5" s="2"/>
@@ -2057,104 +2068,104 @@
       <c r="EN5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="10" t="n">
+      <c r="B6" s="9" t="n">
         <f aca="false">B27/(B27+C27)</f>
-        <v>0.886363636363636</v>
-      </c>
-      <c r="C6" s="9" t="n">
+        <v>0.877777777777778</v>
+      </c>
+      <c r="C6" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="N6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="P6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="R6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="S6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="T6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="U6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="V6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="W6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="X6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG6" s="11" t="s">
+      <c r="D6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="T6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="U6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="V6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="W6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="X6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG6" s="10" t="s">
         <v>9</v>
       </c>
       <c r="AH6" s="2" t="s">
@@ -2163,61 +2174,61 @@
       <c r="AI6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AJ6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AN6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AQ6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AS6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AU6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AX6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AY6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB6" s="11" t="s">
+      <c r="AJ6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB6" s="10" t="s">
         <v>9</v>
       </c>
       <c r="BC6" s="2" t="s">
@@ -2295,16 +2306,16 @@
       <c r="CA6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="CB6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="CC6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="CD6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="CE6" s="12" t="s">
+      <c r="CB6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CC6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CD6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CE6" s="11" t="s">
         <v>9</v>
       </c>
       <c r="CF6" s="2" t="s">
@@ -2328,11 +2339,15 @@
       <c r="CL6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="CM6" s="2"/>
+      <c r="CM6" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="CN6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="CO6" s="2"/>
+      <c r="CO6" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="CP6" s="2"/>
       <c r="CQ6" s="2"/>
       <c r="CR6" s="2"/>
@@ -2386,104 +2401,104 @@
       <c r="EN6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="10" t="n">
+      <c r="B7" s="9" t="n">
         <f aca="false">B28/(B28+C28)</f>
-        <v>0.852272727272727</v>
-      </c>
-      <c r="C7" s="9" t="n">
+        <v>0.855555555555556</v>
+      </c>
+      <c r="C7" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="N7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="O7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="P7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="R7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="S7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="T7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="U7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="V7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="W7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="X7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG7" s="11" t="s">
+      <c r="D7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="T7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="U7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="V7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="W7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="X7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG7" s="10" t="s">
         <v>9</v>
       </c>
       <c r="AH7" s="2" t="s">
@@ -2492,61 +2507,61 @@
       <c r="AI7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AJ7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AN7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AS7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AU7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AX7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AY7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB7" s="11" t="s">
+      <c r="AJ7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB7" s="10" t="s">
         <v>8</v>
       </c>
       <c r="BC7" s="2" t="s">
@@ -2624,16 +2639,16 @@
       <c r="CA7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="CB7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="CC7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="CD7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="CE7" s="12" t="s">
+      <c r="CB7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CC7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CD7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CE7" s="11" t="s">
         <v>9</v>
       </c>
       <c r="CF7" s="2" t="s">
@@ -2657,11 +2672,15 @@
       <c r="CL7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="CM7" s="2"/>
+      <c r="CM7" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="CN7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="CO7" s="2"/>
+      <c r="CO7" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="CP7" s="2"/>
       <c r="CQ7" s="2"/>
       <c r="CR7" s="2"/>
@@ -2715,104 +2734,104 @@
       <c r="EN7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="10" t="n">
+      <c r="B8" s="9" t="n">
         <f aca="false">B29/(B29+C29)</f>
-        <v>0.840909090909091</v>
-      </c>
-      <c r="C8" s="9" t="n">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C8" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="N8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="O8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="P8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="R8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="S8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="T8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="U8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="V8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="W8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="X8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG8" s="11" t="s">
+      <c r="D8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="S8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="T8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="U8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="V8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="W8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="X8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG8" s="10" t="s">
         <v>9</v>
       </c>
       <c r="AH8" s="2" t="s">
@@ -2821,61 +2840,61 @@
       <c r="AI8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AJ8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AN8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AS8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AU8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AX8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AY8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB8" s="11" t="s">
+      <c r="AJ8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB8" s="10" t="s">
         <v>8</v>
       </c>
       <c r="BC8" s="2" t="s">
@@ -2953,16 +2972,16 @@
       <c r="CA8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="CB8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="CC8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="CD8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="CE8" s="12" t="s">
+      <c r="CB8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CC8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CD8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CE8" s="11" t="s">
         <v>9</v>
       </c>
       <c r="CF8" s="2" t="s">
@@ -2986,11 +3005,15 @@
       <c r="CL8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="CM8" s="2"/>
+      <c r="CM8" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="CN8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="CO8" s="2"/>
+      <c r="CO8" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="CP8" s="2"/>
       <c r="CQ8" s="2"/>
       <c r="CR8" s="2"/>
@@ -3044,104 +3067,104 @@
       <c r="EN8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="10" t="n">
+      <c r="B9" s="9" t="n">
         <f aca="false">B30/(B30+C30)</f>
-        <v>0.655172413793103</v>
-      </c>
-      <c r="C9" s="9" t="n">
+        <v>0.651685393258427</v>
+      </c>
+      <c r="C9" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="N9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="O9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="P9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="R9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="S9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="T9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="U9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="V9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="W9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="X9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG9" s="11" t="s">
+      <c r="D9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="R9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="S9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="T9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="U9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="V9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="W9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="X9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG9" s="10" t="s">
         <v>9</v>
       </c>
       <c r="AH9" s="2" t="s">
@@ -3150,61 +3173,61 @@
       <c r="AI9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AJ9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AP9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AS9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AU9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AX9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AY9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB9" s="11" t="s">
+      <c r="AJ9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB9" s="10" t="s">
         <v>8</v>
       </c>
       <c r="BC9" s="2" t="s">
@@ -3282,16 +3305,16 @@
       <c r="CA9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="CB9" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="CC9" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="CD9" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="CE9" s="12" t="s">
+      <c r="CB9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CC9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CD9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CE9" s="11" t="s">
         <v>9</v>
       </c>
       <c r="CF9" s="2" t="s">
@@ -3315,11 +3338,15 @@
       <c r="CL9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="CM9" s="2"/>
+      <c r="CM9" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="CN9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="CO9" s="2"/>
+      <c r="CO9" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="CP9" s="2"/>
       <c r="CQ9" s="2"/>
       <c r="CR9" s="2"/>
@@ -3372,169 +3399,169 @@
       <c r="EM9" s="2"/>
       <c r="EN9" s="2"/>
     </row>
-    <row r="10" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="s">
+    <row r="10" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="10" t="n">
+      <c r="B10" s="9" t="n">
         <f aca="false">B31/(B31+C31)</f>
-        <v>0.581395348837209</v>
-      </c>
-      <c r="C10" s="13" t="n">
-        <v>8</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="N10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="O10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="P10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="R10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="S10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="T10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="U10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="V10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="W10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="X10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH10" s="11" t="s">
+        <v>0.568181818181818</v>
+      </c>
+      <c r="C10" s="12" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="P10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="R10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="S10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="T10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="U10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="V10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="W10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="X10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="AI10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AJ10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AP10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AR10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AS10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AU10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AV10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AW10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AX10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AY10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="BC10" s="11" t="s">
+      <c r="AJ10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AV10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AW10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC10" s="10" t="s">
         <v>9</v>
       </c>
       <c r="BD10" s="2" t="s">
@@ -3609,16 +3636,16 @@
       <c r="CA10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="CB10" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="CC10" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="CD10" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="CE10" s="12" t="s">
+      <c r="CB10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CC10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CD10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CE10" s="11" t="s">
         <v>9</v>
       </c>
       <c r="CF10" s="2" t="s">
@@ -3642,9 +3669,13 @@
       <c r="CL10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="CM10" s="2"/>
+      <c r="CM10" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="CN10" s="2"/>
-      <c r="CO10" s="2"/>
+      <c r="CO10" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="CP10" s="2"/>
       <c r="CQ10" s="2"/>
       <c r="CR10" s="2"/>
@@ -3697,171 +3728,171 @@
       <c r="EM10" s="2"/>
       <c r="EN10" s="2"/>
     </row>
-    <row r="11" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="s">
+    <row r="11" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="10" t="n">
+      <c r="B11" s="9" t="n">
         <f aca="false">B32/(B32+C32)</f>
-        <v>0.558139534883721</v>
-      </c>
-      <c r="C11" s="13" t="n">
-        <v>9</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="N11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="O11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="P11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="R11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="S11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="T11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="U11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="V11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="X11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH11" s="11" t="s">
+        <v>0.556818181818182</v>
+      </c>
+      <c r="C11" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="P11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="R11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="S11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="T11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="U11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="V11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="X11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH11" s="10" t="s">
         <v>9</v>
       </c>
       <c r="AI11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AJ11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AN11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AO11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AS11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AT11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AU11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AW11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AX11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AY11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="BA11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="BC11" s="11" t="s">
+      <c r="AJ11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AW11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BC11" s="10" t="s">
         <v>9</v>
       </c>
       <c r="BD11" s="2" t="s">
@@ -3936,16 +3967,16 @@
       <c r="CA11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="CB11" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="CC11" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="CD11" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="CE11" s="12" t="s">
+      <c r="CB11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CC11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CD11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CE11" s="11" t="s">
         <v>8</v>
       </c>
       <c r="CF11" s="2" t="s">
@@ -3969,9 +4000,13 @@
       <c r="CL11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="CM11" s="2"/>
+      <c r="CM11" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="CN11" s="2"/>
-      <c r="CO11" s="2"/>
+      <c r="CO11" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="CP11" s="2"/>
       <c r="CQ11" s="2"/>
       <c r="CR11" s="2"/>
@@ -4025,104 +4060,104 @@
       <c r="EN11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="10" t="n">
+      <c r="B12" s="9" t="n">
         <f aca="false">B33/(B33+C33)</f>
-        <v>0.784090909090909</v>
-      </c>
-      <c r="C12" s="9" t="n">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="C12" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="N12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="P12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="R12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="S12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="T12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="U12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="V12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="W12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="X12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG12" s="11" t="s">
+      <c r="D12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="P12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="R12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="S12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="T12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="V12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="W12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="X12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG12" s="10" t="s">
         <v>9</v>
       </c>
       <c r="AH12" s="2" t="s">
@@ -4131,61 +4166,61 @@
       <c r="AI12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AJ12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AN12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AR12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AS12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AT12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AU12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AX12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AY12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="BA12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB12" s="11" t="s">
+      <c r="AJ12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB12" s="10" t="s">
         <v>8</v>
       </c>
       <c r="BC12" s="2" t="s">
@@ -4263,16 +4298,16 @@
       <c r="CA12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="CB12" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="CC12" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="CD12" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="CE12" s="12" t="s">
+      <c r="CB12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CC12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CD12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CE12" s="11" t="s">
         <v>9</v>
       </c>
       <c r="CF12" s="2" t="s">
@@ -4296,11 +4331,15 @@
       <c r="CL12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="CM12" s="2"/>
+      <c r="CM12" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="CN12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="CO12" s="2"/>
+      <c r="CO12" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="CP12" s="2"/>
       <c r="CQ12" s="2"/>
       <c r="CR12" s="2"/>
@@ -4354,104 +4393,104 @@
       <c r="EN12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="10" t="n">
+      <c r="B13" s="9" t="n">
         <f aca="false">B34/(B34+C34)</f>
-        <v>0.735632183908046</v>
-      </c>
-      <c r="C13" s="9" t="n">
+        <v>0.741573033707865</v>
+      </c>
+      <c r="C13" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="N13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="O13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="P13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="R13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="S13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="T13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="U13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="V13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="W13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="X13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG13" s="11" t="s">
+      <c r="D13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="P13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="S13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="T13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="U13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="V13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="W13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="X13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG13" s="10" t="s">
         <v>8</v>
       </c>
       <c r="AH13" s="2" t="s">
@@ -4460,61 +4499,61 @@
       <c r="AI13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AJ13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AK13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AS13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AU13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AX13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AY13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AZ13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB13" s="11" t="s">
+      <c r="AJ13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB13" s="10" t="s">
         <v>9</v>
       </c>
       <c r="BC13" s="2" t="s">
@@ -4592,16 +4631,16 @@
       <c r="CA13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="CB13" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="CC13" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="CD13" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="CE13" s="12" t="s">
+      <c r="CB13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CC13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CD13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CE13" s="11" t="s">
         <v>9</v>
       </c>
       <c r="CF13" s="2" t="s">
@@ -4625,11 +4664,15 @@
       <c r="CL13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="CM13" s="2"/>
+      <c r="CM13" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="CN13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="CO13" s="2"/>
+      <c r="CO13" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="CP13" s="2"/>
       <c r="CQ13" s="2"/>
       <c r="CR13" s="2"/>
@@ -4683,104 +4726,104 @@
       <c r="EN13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="10" t="n">
+      <c r="B14" s="9" t="n">
         <f aca="false">B35/(B35+C35)</f>
-        <v>0.727272727272727</v>
-      </c>
-      <c r="C14" s="9" t="n">
+        <v>0.733333333333333</v>
+      </c>
+      <c r="C14" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="L14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="M14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="N14" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="O14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="P14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="R14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="S14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="T14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="U14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="V14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="W14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="X14" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG14" s="11" t="s">
+      <c r="D14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="P14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="R14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="S14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="T14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="U14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="V14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="W14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="X14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG14" s="10" t="s">
         <v>8</v>
       </c>
       <c r="AH14" s="2" t="s">
@@ -4789,61 +4832,61 @@
       <c r="AI14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AJ14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP14" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AQ14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AS14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AU14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AX14" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AY14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB14" s="11" t="s">
+      <c r="AJ14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB14" s="10" t="s">
         <v>9</v>
       </c>
       <c r="BC14" s="2" t="s">
@@ -4921,16 +4964,16 @@
       <c r="CA14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="CB14" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="CC14" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="CD14" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="CE14" s="12" t="s">
+      <c r="CB14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CC14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CD14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CE14" s="11" t="s">
         <v>9</v>
       </c>
       <c r="CF14" s="2" t="s">
@@ -4954,11 +4997,15 @@
       <c r="CL14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="CM14" s="2"/>
+      <c r="CM14" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="CN14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="CO14" s="2"/>
+      <c r="CO14" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="CP14" s="2"/>
       <c r="CQ14" s="2"/>
       <c r="CR14" s="2"/>
@@ -5012,104 +5059,104 @@
       <c r="EN14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="10" t="n">
+      <c r="B15" s="9" t="n">
         <f aca="false">B36/(B36+C36)</f>
-        <v>0.781609195402299</v>
-      </c>
-      <c r="C15" s="9" t="n">
+        <v>0.786516853932584</v>
+      </c>
+      <c r="C15" s="8" t="n">
         <v>13</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="L15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="M15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="N15" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="O15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="P15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="R15" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="S15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="T15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="U15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="V15" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="W15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="X15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG15" s="11" t="s">
+      <c r="D15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="P15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="R15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="S15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="T15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="U15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="V15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="W15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="X15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG15" s="10" t="s">
         <v>9</v>
       </c>
       <c r="AH15" s="2" t="s">
@@ -5118,61 +5165,61 @@
       <c r="AI15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AJ15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK15" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM15" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AN15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ15" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AR15" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AS15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AU15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AX15" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AY15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA15" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="BB15" s="11" t="s">
+      <c r="AJ15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="BB15" s="10" t="s">
         <v>9</v>
       </c>
       <c r="BC15" s="2" t="s">
@@ -5250,16 +5297,16 @@
       <c r="CA15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="CB15" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="CC15" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="CD15" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="CE15" s="12" t="s">
+      <c r="CB15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CC15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CD15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CE15" s="11" t="s">
         <v>9</v>
       </c>
       <c r="CF15" s="2" t="s">
@@ -5283,11 +5330,15 @@
       <c r="CL15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="CM15" s="2"/>
+      <c r="CM15" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="CN15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="CO15" s="2"/>
+      <c r="CO15" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="CP15" s="2"/>
       <c r="CQ15" s="2"/>
       <c r="CR15" s="2"/>
@@ -5341,104 +5392,104 @@
       <c r="EN15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="10" t="n">
+      <c r="B16" s="9" t="n">
         <f aca="false">B37/(B37+C37)</f>
-        <v>0.770114942528736</v>
-      </c>
-      <c r="C16" s="9" t="n">
+        <v>0.764044943820225</v>
+      </c>
+      <c r="C16" s="8" t="n">
         <v>14</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="L16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="M16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="N16" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="O16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="P16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="R16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="S16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="T16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="U16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="V16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="W16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="X16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD16" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE16" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG16" s="11" t="s">
+      <c r="D16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="P16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="R16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="S16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="T16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="U16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="V16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="W16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="X16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG16" s="10" t="s">
         <v>9</v>
       </c>
       <c r="AH16" s="2" t="s">
@@ -5447,61 +5498,61 @@
       <c r="AI16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AJ16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK16" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AS16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT16" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AU16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AX16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AY16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA16" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="BB16" s="11" t="s">
+      <c r="AJ16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="BB16" s="10" t="s">
         <v>9</v>
       </c>
       <c r="BC16" s="2" t="s">
@@ -5579,16 +5630,16 @@
       <c r="CA16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="CB16" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="CC16" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="CD16" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="CE16" s="12" t="s">
+      <c r="CB16" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CC16" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CD16" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CE16" s="11" t="s">
         <v>9</v>
       </c>
       <c r="CF16" s="2" t="s">
@@ -5612,11 +5663,15 @@
       <c r="CL16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="CM16" s="2"/>
+      <c r="CM16" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="CN16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="CO16" s="2"/>
+      <c r="CO16" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="CP16" s="2"/>
       <c r="CQ16" s="2"/>
       <c r="CR16" s="2"/>
@@ -5670,104 +5725,104 @@
       <c r="EN16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="10" t="n">
+      <c r="B17" s="9" t="n">
         <f aca="false">B38/(B38+C38)</f>
-        <v>0.409090909090909</v>
-      </c>
-      <c r="C17" s="9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C17" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="L17" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="M17" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="N17" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="O17" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="P17" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q17" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="R17" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="S17" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="T17" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="U17" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="V17" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="W17" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="X17" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y17" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z17" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA17" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB17" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC17" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD17" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE17" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF17" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG17" s="11" t="s">
+      <c r="D17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="P17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="R17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="S17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="T17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="U17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="V17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="W17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="X17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG17" s="10" t="s">
         <v>8</v>
       </c>
       <c r="AH17" s="2" t="s">
@@ -5776,61 +5831,61 @@
       <c r="AI17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AJ17" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AK17" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL17" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM17" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AN17" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO17" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AP17" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AQ17" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AR17" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AS17" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AT17" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AU17" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AV17" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AW17" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AX17" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AY17" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ17" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA17" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB17" s="11" t="s">
+      <c r="AJ17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AV17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AW17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB17" s="10" t="s">
         <v>9</v>
       </c>
       <c r="BC17" s="2" t="s">
@@ -5908,16 +5963,16 @@
       <c r="CA17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="CB17" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="CC17" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="CD17" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="CE17" s="12" t="s">
+      <c r="CB17" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CC17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CD17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CE17" s="11" t="s">
         <v>9</v>
       </c>
       <c r="CF17" s="2" t="s">
@@ -5941,11 +5996,15 @@
       <c r="CL17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="CM17" s="2"/>
+      <c r="CM17" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="CN17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="CO17" s="2"/>
+      <c r="CO17" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="CP17" s="2"/>
       <c r="CQ17" s="2"/>
       <c r="CR17" s="2"/>
@@ -5998,180 +6057,180 @@
       <c r="EM17" s="2"/>
       <c r="EN17" s="2"/>
     </row>
-    <row r="18" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="s">
+    <row r="18" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="10" t="n">
+      <c r="B18" s="9" t="n">
         <f aca="false">B39/(B39+C39)</f>
-        <v>0.965909090909091</v>
-      </c>
-      <c r="C18" s="13" t="n">
+        <v>0.966666666666667</v>
+      </c>
+      <c r="C18" s="12" t="n">
         <v>16</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="L18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="M18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="N18" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="O18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="P18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="R18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="S18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="T18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="U18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="V18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="W18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="X18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AS18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AU18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AX18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AY18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="BC18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="BD18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="BE18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="BF18" s="11" t="s">
+      <c r="D18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="P18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="R18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="S18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="T18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="U18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="V18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="W18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="X18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BC18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BE18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF18" s="10" t="s">
         <v>9</v>
       </c>
       <c r="BG18" s="2" t="s">
@@ -6237,16 +6296,16 @@
       <c r="CA18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="CB18" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="CC18" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="CD18" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="CE18" s="12" t="s">
+      <c r="CB18" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CC18" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CD18" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CE18" s="11" t="s">
         <v>9</v>
       </c>
       <c r="CF18" s="2" t="s">
@@ -6270,11 +6329,15 @@
       <c r="CL18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="CM18" s="2"/>
+      <c r="CM18" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="CN18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="CO18" s="2"/>
+      <c r="CO18" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="CP18" s="2"/>
       <c r="CQ18" s="2"/>
       <c r="CR18" s="2"/>
@@ -6328,173 +6391,173 @@
       <c r="EN18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="10" t="n">
+      <c r="B19" s="9" t="n">
         <f aca="false">B40/(B40+C40)</f>
-        <v>0.954545454545455</v>
-      </c>
-      <c r="C19" s="9" t="n">
+        <v>0.944444444444444</v>
+      </c>
+      <c r="C19" s="8" t="n">
         <v>17</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="L19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="M19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="N19" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="O19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="P19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="R19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="S19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="T19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="U19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="V19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="W19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="X19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AS19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AU19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AX19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AY19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="BC19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="BD19" s="11" t="s">
+      <c r="D19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="P19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="R19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="S19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="T19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="U19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="V19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="W19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="X19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BC19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD19" s="10" t="s">
         <v>9</v>
       </c>
       <c r="BE19" s="2" t="s">
@@ -6566,16 +6629,16 @@
       <c r="CA19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="CB19" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="CC19" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="CD19" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="CE19" s="12" t="s">
+      <c r="CB19" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CC19" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CD19" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CE19" s="11" t="s">
         <v>9</v>
       </c>
       <c r="CF19" s="2" t="s">
@@ -6599,11 +6662,15 @@
       <c r="CL19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="CM19" s="2"/>
+      <c r="CM19" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="CN19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="CO19" s="2"/>
+      <c r="CO19" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="CP19" s="2"/>
       <c r="CQ19" s="2"/>
       <c r="CR19" s="2"/>
@@ -6657,104 +6724,104 @@
       <c r="EN19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="10" t="n">
+      <c r="B20" s="9" t="n">
         <f aca="false">B41/(B41+C41)</f>
-        <v>0.636363636363636</v>
-      </c>
-      <c r="C20" s="9" t="n">
+        <v>0.644444444444445</v>
+      </c>
+      <c r="C20" s="8" t="n">
         <v>18</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="L20" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="M20" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="N20" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="O20" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="P20" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q20" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="R20" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="S20" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="T20" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="U20" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="V20" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="W20" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="X20" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y20" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z20" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA20" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB20" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC20" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD20" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE20" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF20" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG20" s="11" t="s">
+      <c r="D20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="P20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="R20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="S20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="T20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="U20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="V20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="W20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="X20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG20" s="10" t="s">
         <v>9</v>
       </c>
       <c r="AH20" s="2" t="s">
@@ -6763,61 +6830,61 @@
       <c r="AI20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AJ20" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK20" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL20" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM20" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AN20" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AO20" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AP20" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AQ20" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AR20" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AS20" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT20" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AU20" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV20" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AW20" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AX20" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AY20" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ20" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA20" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB20" s="11" t="s">
+      <c r="AJ20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AW20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB20" s="10" t="s">
         <v>9</v>
       </c>
       <c r="BC20" s="2" t="s">
@@ -6895,16 +6962,16 @@
       <c r="CA20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="CB20" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="CC20" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="CD20" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="CE20" s="12" t="s">
+      <c r="CB20" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CC20" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CD20" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CE20" s="11" t="s">
         <v>9</v>
       </c>
       <c r="CF20" s="2" t="s">
@@ -6928,11 +6995,15 @@
       <c r="CL20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="CM20" s="2"/>
+      <c r="CM20" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="CN20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="CO20" s="2"/>
+      <c r="CO20" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="CP20" s="2"/>
       <c r="CQ20" s="2"/>
       <c r="CR20" s="2"/>
@@ -6986,104 +7057,104 @@
       <c r="EN20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="10" t="n">
+      <c r="B21" s="9" t="n">
         <f aca="false">B42/(B42+C42)</f>
-        <v>0.701149425287356</v>
-      </c>
-      <c r="C21" s="9" t="n">
+        <v>0.696629213483146</v>
+      </c>
+      <c r="C21" s="8" t="n">
         <v>19</v>
       </c>
-      <c r="D21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="L21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="M21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="N21" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="O21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="P21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="R21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="S21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="T21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="U21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="V21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="W21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="X21" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG21" s="11" t="s">
+      <c r="D21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="P21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="R21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="S21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="T21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="U21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="V21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="W21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="X21" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG21" s="10" t="s">
         <v>9</v>
       </c>
       <c r="AH21" s="2" t="s">
@@ -7092,61 +7163,61 @@
       <c r="AI21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AJ21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL21" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN21" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AO21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP21" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AQ21" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AR21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AS21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT21" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AU21" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AV21" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AW21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AX21" s="11" t="s">
+      <c r="AJ21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL21" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN21" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP21" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ21" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT21" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU21" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AV21" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AW21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX21" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="AY21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA21" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="BB21" s="11" t="s">
+      <c r="AY21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA21" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="BB21" s="10" t="s">
         <v>9</v>
       </c>
       <c r="BC21" s="2" t="s">
@@ -7224,16 +7295,16 @@
       <c r="CA21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="CB21" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="CC21" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="CD21" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="CE21" s="12" t="s">
+      <c r="CB21" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CC21" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CD21" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="CE21" s="11" t="s">
         <v>9</v>
       </c>
       <c r="CF21" s="2" t="s">
@@ -7257,11 +7328,15 @@
       <c r="CL21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="CM21" s="2"/>
+      <c r="CM21" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="CN21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="CO21" s="2"/>
+      <c r="CO21" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="CP21" s="2"/>
       <c r="CQ21" s="2"/>
       <c r="CR21" s="2"/>
@@ -7315,13 +7390,13 @@
       <c r="EN21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
@@ -7344,262 +7419,262 @@
       <c r="AJ22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="8" t="s">
+      <c r="B23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="14" t="n">
+      <c r="B24" s="13" t="n">
         <f aca="false">COUNTIF(D3:EB3,B$23)</f>
-        <v>67</v>
-      </c>
-      <c r="C24" s="14" t="n">
+        <v>68</v>
+      </c>
+      <c r="C24" s="13" t="n">
         <f aca="false">COUNTIF(E3:EC3,C$23)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="14" t="n">
+      <c r="B25" s="13" t="n">
         <f aca="false">COUNTIF(D4:EB4,B$23)</f>
         <v>68</v>
       </c>
-      <c r="C25" s="14" t="n">
+      <c r="C25" s="13" t="n">
         <f aca="false">COUNTIF(E4:EC4,C$23)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="14" t="n">
+      <c r="B26" s="13" t="n">
         <f aca="false">COUNTIF(D5:EB5,B$23)</f>
-        <v>48</v>
-      </c>
-      <c r="C26" s="14" t="n">
+        <v>49</v>
+      </c>
+      <c r="C26" s="13" t="n">
         <f aca="false">COUNTIF(E5:EC5,C$23)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="14" t="n">
+      <c r="B27" s="13" t="n">
         <f aca="false">COUNTIF(D6:EB6,B$23)</f>
-        <v>78</v>
-      </c>
-      <c r="C27" s="14" t="n">
+        <v>79</v>
+      </c>
+      <c r="C27" s="13" t="n">
         <f aca="false">COUNTIF(E6:EC6,C$23)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="14" t="n">
+      <c r="B28" s="13" t="n">
         <f aca="false">COUNTIF(D7:EB7,B$23)</f>
-        <v>75</v>
-      </c>
-      <c r="C28" s="14" t="n">
+        <v>77</v>
+      </c>
+      <c r="C28" s="13" t="n">
         <f aca="false">COUNTIF(E7:EC7,C$23)</f>
         <v>13</v>
       </c>
       <c r="BC28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="14" t="n">
+      <c r="B29" s="13" t="n">
         <f aca="false">COUNTIF(D8:EB8,B$23)</f>
-        <v>74</v>
-      </c>
-      <c r="C29" s="14" t="n">
+        <v>75</v>
+      </c>
+      <c r="C29" s="13" t="n">
         <f aca="false">COUNTIF(E8:EC8,C$23)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="14" t="n">
+      <c r="B30" s="13" t="n">
         <f aca="false">COUNTIF(D9:EB9,B$23)</f>
-        <v>57</v>
-      </c>
-      <c r="C30" s="14" t="n">
+        <v>58</v>
+      </c>
+      <c r="C30" s="13" t="n">
         <f aca="false">COUNTIF(E9:EC9,C$23)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="14" t="n">
+      <c r="B31" s="13" t="n">
         <f aca="false">COUNTIF(D10:EB10,B$23)</f>
         <v>50</v>
       </c>
-      <c r="C31" s="14" t="n">
+      <c r="C31" s="13" t="n">
         <f aca="false">COUNTIF(E10:EC10,C$23)</f>
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="14" t="n">
+      <c r="B32" s="13" t="n">
         <f aca="false">COUNTIF(D11:EB11,B$23)</f>
-        <v>48</v>
-      </c>
-      <c r="C32" s="14" t="n">
+        <v>49</v>
+      </c>
+      <c r="C32" s="13" t="n">
         <f aca="false">COUNTIF(E11:EC11,C$23)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="14" t="n">
+      <c r="B33" s="13" t="n">
         <f aca="false">COUNTIF(D12:EB12,B$23)</f>
-        <v>69</v>
-      </c>
-      <c r="C33" s="14" t="n">
+        <v>70</v>
+      </c>
+      <c r="C33" s="13" t="n">
         <f aca="false">COUNTIF(E12:EC12,C$23)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="14" t="n">
+      <c r="B34" s="13" t="n">
         <f aca="false">COUNTIF(D13:EB13,B$23)</f>
-        <v>64</v>
-      </c>
-      <c r="C34" s="14" t="n">
+        <v>66</v>
+      </c>
+      <c r="C34" s="13" t="n">
         <f aca="false">COUNTIF(E13:EC13,C$23)</f>
         <v>23</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="14" t="n">
+      <c r="B35" s="13" t="n">
         <f aca="false">COUNTIF(D14:EB14,B$23)</f>
-        <v>64</v>
-      </c>
-      <c r="C35" s="14" t="n">
+        <v>66</v>
+      </c>
+      <c r="C35" s="13" t="n">
         <f aca="false">COUNTIF(E14:EC14,C$23)</f>
         <v>24</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="14" t="n">
+      <c r="B36" s="13" t="n">
         <f aca="false">COUNTIF(D15:EB15,B$23)</f>
-        <v>68</v>
-      </c>
-      <c r="C36" s="14" t="n">
+        <v>70</v>
+      </c>
+      <c r="C36" s="13" t="n">
         <f aca="false">COUNTIF(E15:EC15,C$23)</f>
         <v>19</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="14" t="n">
+      <c r="B37" s="13" t="n">
         <f aca="false">COUNTIF(D16:EB16,B$23)</f>
-        <v>67</v>
-      </c>
-      <c r="C37" s="14" t="n">
+        <v>68</v>
+      </c>
+      <c r="C37" s="13" t="n">
         <f aca="false">COUNTIF(E16:EC16,C$23)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="14" t="n">
+      <c r="B38" s="13" t="n">
         <f aca="false">COUNTIF(D17:EB17,B$23)</f>
         <v>36</v>
       </c>
-      <c r="C38" s="14" t="n">
+      <c r="C38" s="13" t="n">
         <f aca="false">COUNTIF(E17:EC17,C$23)</f>
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="14" t="n">
+      <c r="B39" s="13" t="n">
         <f aca="false">COUNTIF(D18:EB18,B$23)</f>
-        <v>85</v>
-      </c>
-      <c r="C39" s="14" t="n">
+        <v>87</v>
+      </c>
+      <c r="C39" s="13" t="n">
         <f aca="false">COUNTIF(E18:EC18,C$23)</f>
         <v>3</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="14" t="n">
+      <c r="B40" s="13" t="n">
         <f aca="false">COUNTIF(D19:EB19,B$23)</f>
-        <v>84</v>
-      </c>
-      <c r="C40" s="14" t="n">
+        <v>85</v>
+      </c>
+      <c r="C40" s="13" t="n">
         <f aca="false">COUNTIF(E19:EC19,C$23)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="14" t="n">
+      <c r="B41" s="13" t="n">
         <f aca="false">COUNTIF(D20:EB20,B$23)</f>
-        <v>56</v>
-      </c>
-      <c r="C41" s="14" t="n">
+        <v>58</v>
+      </c>
+      <c r="C41" s="13" t="n">
         <f aca="false">COUNTIF(E20:EC20,C$23)</f>
         <v>32</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="14" t="n">
+      <c r="B42" s="13" t="n">
         <f aca="false">COUNTIF(D21:EB21,B$23)</f>
-        <v>61</v>
-      </c>
-      <c r="C42" s="14" t="n">
+        <v>62</v>
+      </c>
+      <c r="C42" s="13" t="n">
         <f aca="false">COUNTIF(E21:EC21,C$23)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -7619,7 +7694,7 @@
       <formula>0.75</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:ANE21 D22:AJ22 AK22:CM1048576 G23:AJ42 B24:C42">
+  <conditionalFormatting sqref="D22:AJ22 AK22:CM1048576 G23:AJ42 B24:C42 D1:ANE21">
     <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>"F"</formula>
     </cfRule>
@@ -7666,7 +7741,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -7683,105 +7758,105 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="15"/>
+      <c r="B21" s="14"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A21">

--- a/3des/frequencia.xlsx
+++ b/3des/frequencia.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1866" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="35">
   <si>
     <t xml:space="preserve">Alunos</t>
   </si>
@@ -443,11 +443,11 @@
   <dimension ref="A1:EN42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="BR3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="BR1" activeCellId="0" sqref="BR1"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CO21" activeCellId="0" sqref="CO21"/>
+      <selection pane="bottomRight" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -497,9 +497,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="90" min="89" style="1" width="7.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="91" min="91" style="1" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="92" min="92" style="1" width="8.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="93" min="93" style="1" width="9.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="94" min="94" style="1" width="6.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="95" min="95" style="1" width="7.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="93" min="93" style="1" width="8.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="95" min="94" style="1" width="6.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="96" min="96" style="1" width="6.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="99" min="97" style="1" width="7.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="100" min="100" style="1" width="7.42"/>
@@ -788,6 +787,15 @@
       <c r="CO1" s="4" t="n">
         <v>45265</v>
       </c>
+      <c r="CP1" s="4" t="n">
+        <v>45266</v>
+      </c>
+      <c r="CQ1" s="4" t="n">
+        <v>45267</v>
+      </c>
+      <c r="CR1" s="4" t="n">
+        <v>45268</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
@@ -1069,14 +1077,23 @@
       <c r="CO2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="CP2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="CQ2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="CR2" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="9" t="n">
         <f aca="false">B24/(B24+C24)</f>
-        <v>0.764044943820225</v>
+        <v>0.78021978021978</v>
       </c>
       <c r="C3" s="8" t="n">
         <v>1</v>
@@ -1112,7 +1129,7 @@
         <v>9</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O3" s="10" t="s">
         <v>9</v>
@@ -1351,8 +1368,12 @@
       <c r="CO3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="CP3" s="2"/>
-      <c r="CQ3" s="2"/>
+      <c r="CP3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="CQ3" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="CR3" s="2"/>
       <c r="CS3" s="2"/>
       <c r="CT3" s="2"/>
@@ -1403,13 +1424,13 @@
       <c r="EM3" s="2"/>
       <c r="EN3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="9" t="n">
         <f aca="false">B25/(B25+C25)</f>
-        <v>0.772727272727273</v>
+        <v>0.769230769230769</v>
       </c>
       <c r="C4" s="8" t="n">
         <v>2</v>
@@ -1445,7 +1466,7 @@
         <v>9</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O4" s="10" t="s">
         <v>9</v>
@@ -1675,15 +1696,21 @@
       <c r="CL4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="CM4" s="2"/>
+      <c r="CM4" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="CN4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="CO4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="CP4" s="2"/>
-      <c r="CQ4" s="2"/>
+      <c r="CP4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="CQ4" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="CR4" s="2"/>
       <c r="CS4" s="2"/>
       <c r="CT4" s="2"/>
@@ -1734,13 +1761,13 @@
       <c r="EM4" s="2"/>
       <c r="EN4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="9" t="n">
         <f aca="false">B26/(B26+C26)</f>
-        <v>0.550561797752809</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="C5" s="8" t="n">
         <v>3</v>
@@ -1776,7 +1803,7 @@
         <v>9</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O5" s="10" t="s">
         <v>9</v>
@@ -2015,8 +2042,12 @@
       <c r="CO5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="CP5" s="2"/>
-      <c r="CQ5" s="2"/>
+      <c r="CP5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="CQ5" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="CR5" s="2"/>
       <c r="CS5" s="2"/>
       <c r="CT5" s="2"/>
@@ -2067,13 +2098,13 @@
       <c r="EM5" s="2"/>
       <c r="EN5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="9" t="n">
         <f aca="false">B27/(B27+C27)</f>
-        <v>0.877777777777778</v>
+        <v>0.880434782608696</v>
       </c>
       <c r="C6" s="8" t="n">
         <v>4</v>
@@ -2109,7 +2140,7 @@
         <v>9</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O6" s="10" t="s">
         <v>9</v>
@@ -2348,8 +2379,12 @@
       <c r="CO6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="CP6" s="2"/>
-      <c r="CQ6" s="2"/>
+      <c r="CP6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="CQ6" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="CR6" s="2"/>
       <c r="CS6" s="2"/>
       <c r="CT6" s="2"/>
@@ -2400,13 +2435,13 @@
       <c r="EM6" s="2"/>
       <c r="EN6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="9" t="n">
         <f aca="false">B28/(B28+C28)</f>
-        <v>0.855555555555556</v>
+        <v>0.858695652173913</v>
       </c>
       <c r="C7" s="8" t="n">
         <v>5</v>
@@ -2442,7 +2477,7 @@
         <v>9</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O7" s="10" t="s">
         <v>9</v>
@@ -2681,8 +2716,12 @@
       <c r="CO7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="CP7" s="2"/>
-      <c r="CQ7" s="2"/>
+      <c r="CP7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="CQ7" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="CR7" s="2"/>
       <c r="CS7" s="2"/>
       <c r="CT7" s="2"/>
@@ -2733,13 +2772,13 @@
       <c r="EM7" s="2"/>
       <c r="EN7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="9" t="n">
         <f aca="false">B29/(B29+C29)</f>
-        <v>0.833333333333333</v>
+        <v>0.826086956521739</v>
       </c>
       <c r="C8" s="8" t="n">
         <v>6</v>
@@ -2775,7 +2814,7 @@
         <v>9</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O8" s="10" t="s">
         <v>9</v>
@@ -3014,8 +3053,12 @@
       <c r="CO8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="CP8" s="2"/>
-      <c r="CQ8" s="2"/>
+      <c r="CP8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="CQ8" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="CR8" s="2"/>
       <c r="CS8" s="2"/>
       <c r="CT8" s="2"/>
@@ -3066,13 +3109,13 @@
       <c r="EM8" s="2"/>
       <c r="EN8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="9" t="n">
         <f aca="false">B30/(B30+C30)</f>
-        <v>0.651685393258427</v>
+        <v>0.648351648351648</v>
       </c>
       <c r="C9" s="8" t="n">
         <v>7</v>
@@ -3108,7 +3151,7 @@
         <v>9</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O9" s="10" t="s">
         <v>9</v>
@@ -3347,8 +3390,12 @@
       <c r="CO9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="CP9" s="2"/>
-      <c r="CQ9" s="2"/>
+      <c r="CP9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="CQ9" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="CR9" s="2"/>
       <c r="CS9" s="2"/>
       <c r="CT9" s="2"/>
@@ -3399,15 +3446,15 @@
       <c r="EM9" s="2"/>
       <c r="EN9" s="2"/>
     </row>
-    <row r="10" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
+    <row r="10" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="9" t="n">
         <f aca="false">B31/(B31+C31)</f>
-        <v>0.568181818181818</v>
-      </c>
-      <c r="C10" s="12" t="n">
+        <v>0.582417582417583</v>
+      </c>
+      <c r="C10" s="8" t="n">
         <v>8</v>
       </c>
       <c r="D10" s="10" t="s">
@@ -3439,7 +3486,7 @@
         <v>9</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O10" s="10" t="s">
         <v>9</v>
@@ -3672,12 +3719,18 @@
       <c r="CM10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="CN10" s="2"/>
+      <c r="CN10" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="CO10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="CP10" s="2"/>
-      <c r="CQ10" s="2"/>
+      <c r="CP10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="CQ10" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="CR10" s="2"/>
       <c r="CS10" s="2"/>
       <c r="CT10" s="2"/>
@@ -3728,15 +3781,15 @@
       <c r="EM10" s="2"/>
       <c r="EN10" s="2"/>
     </row>
-    <row r="11" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
+    <row r="11" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="9" t="n">
         <f aca="false">B32/(B32+C32)</f>
-        <v>0.556818181818182</v>
-      </c>
-      <c r="C11" s="12" t="n">
+        <v>0.56043956043956</v>
+      </c>
+      <c r="C11" s="8" t="n">
         <v>9</v>
       </c>
       <c r="D11" s="10" t="s">
@@ -3770,7 +3823,7 @@
         <v>9</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O11" s="10" t="s">
         <v>9</v>
@@ -4003,12 +4056,18 @@
       <c r="CM11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="CN11" s="2"/>
+      <c r="CN11" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="CO11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="CP11" s="2"/>
-      <c r="CQ11" s="2"/>
+      <c r="CP11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="CQ11" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="CR11" s="2"/>
       <c r="CS11" s="2"/>
       <c r="CT11" s="2"/>
@@ -4059,13 +4118,13 @@
       <c r="EM11" s="2"/>
       <c r="EN11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="9" t="n">
         <f aca="false">B33/(B33+C33)</f>
-        <v>0.777777777777778</v>
+        <v>0.760869565217391</v>
       </c>
       <c r="C12" s="8" t="n">
         <v>10</v>
@@ -4340,8 +4399,12 @@
       <c r="CO12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="CP12" s="2"/>
-      <c r="CQ12" s="2"/>
+      <c r="CP12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="CQ12" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="CR12" s="2"/>
       <c r="CS12" s="2"/>
       <c r="CT12" s="2"/>
@@ -4392,13 +4455,13 @@
       <c r="EM12" s="2"/>
       <c r="EN12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="9" t="n">
         <f aca="false">B34/(B34+C34)</f>
-        <v>0.741573033707865</v>
+        <v>0.747252747252747</v>
       </c>
       <c r="C13" s="8" t="n">
         <v>11</v>
@@ -4434,7 +4497,7 @@
         <v>9</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O13" s="10" t="s">
         <v>9</v>
@@ -4673,8 +4736,12 @@
       <c r="CO13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="CP13" s="2"/>
-      <c r="CQ13" s="2"/>
+      <c r="CP13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="CQ13" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="CR13" s="2"/>
       <c r="CS13" s="2"/>
       <c r="CT13" s="2"/>
@@ -4725,13 +4792,13 @@
       <c r="EM13" s="2"/>
       <c r="EN13" s="2"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="9" t="n">
         <f aca="false">B35/(B35+C35)</f>
-        <v>0.733333333333333</v>
+        <v>0.739130434782609</v>
       </c>
       <c r="C14" s="8" t="n">
         <v>12</v>
@@ -4767,7 +4834,7 @@
         <v>9</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O14" s="10" t="s">
         <v>9</v>
@@ -5006,8 +5073,12 @@
       <c r="CO14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="CP14" s="2"/>
-      <c r="CQ14" s="2"/>
+      <c r="CP14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="CQ14" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="CR14" s="2"/>
       <c r="CS14" s="2"/>
       <c r="CT14" s="2"/>
@@ -5058,13 +5129,13 @@
       <c r="EM14" s="2"/>
       <c r="EN14" s="2"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="9" t="n">
         <f aca="false">B36/(B36+C36)</f>
-        <v>0.786516853932584</v>
+        <v>0.791208791208791</v>
       </c>
       <c r="C15" s="8" t="n">
         <v>13</v>
@@ -5100,7 +5171,7 @@
         <v>9</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O15" s="10" t="s">
         <v>9</v>
@@ -5339,8 +5410,12 @@
       <c r="CO15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="CP15" s="2"/>
-      <c r="CQ15" s="2"/>
+      <c r="CP15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="CQ15" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="CR15" s="2"/>
       <c r="CS15" s="2"/>
       <c r="CT15" s="2"/>
@@ -5391,13 +5466,13 @@
       <c r="EM15" s="2"/>
       <c r="EN15" s="2"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="9" t="n">
         <f aca="false">B37/(B37+C37)</f>
-        <v>0.764044943820225</v>
+        <v>0.758241758241758</v>
       </c>
       <c r="C16" s="8" t="n">
         <v>14</v>
@@ -5433,7 +5508,7 @@
         <v>9</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O16" s="10" t="s">
         <v>9</v>
@@ -5672,8 +5747,12 @@
       <c r="CO16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="CP16" s="2"/>
-      <c r="CQ16" s="2"/>
+      <c r="CP16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="CQ16" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="CR16" s="2"/>
       <c r="CS16" s="2"/>
       <c r="CT16" s="2"/>
@@ -5724,13 +5803,13 @@
       <c r="EM16" s="2"/>
       <c r="EN16" s="2"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="9" t="n">
         <f aca="false">B38/(B38+C38)</f>
-        <v>0.4</v>
+        <v>0.402173913043478</v>
       </c>
       <c r="C17" s="8" t="n">
         <v>15</v>
@@ -5766,7 +5845,7 @@
         <v>9</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O17" s="10" t="s">
         <v>9</v>
@@ -6005,8 +6084,12 @@
       <c r="CO17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="CP17" s="2"/>
-      <c r="CQ17" s="2"/>
+      <c r="CP17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="CQ17" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="CR17" s="2"/>
       <c r="CS17" s="2"/>
       <c r="CT17" s="2"/>
@@ -6057,15 +6140,15 @@
       <c r="EM17" s="2"/>
       <c r="EN17" s="2"/>
     </row>
-    <row r="18" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12" t="s">
+    <row r="18" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="9" t="n">
         <f aca="false">B39/(B39+C39)</f>
-        <v>0.966666666666667</v>
-      </c>
-      <c r="C18" s="12" t="n">
+        <v>0.978021978021978</v>
+      </c>
+      <c r="C18" s="8" t="n">
         <v>16</v>
       </c>
       <c r="D18" s="10" t="s">
@@ -6099,7 +6182,7 @@
         <v>9</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O18" s="10" t="s">
         <v>9</v>
@@ -6339,7 +6422,9 @@
         <v>9</v>
       </c>
       <c r="CP18" s="2"/>
-      <c r="CQ18" s="2"/>
+      <c r="CQ18" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="CR18" s="2"/>
       <c r="CS18" s="2"/>
       <c r="CT18" s="2"/>
@@ -6390,13 +6475,13 @@
       <c r="EM18" s="2"/>
       <c r="EN18" s="2"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="9" t="n">
         <f aca="false">B40/(B40+C40)</f>
-        <v>0.944444444444444</v>
+        <v>0.945652173913044</v>
       </c>
       <c r="C19" s="8" t="n">
         <v>17</v>
@@ -6432,7 +6517,7 @@
         <v>9</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O19" s="10" t="s">
         <v>9</v>
@@ -6671,8 +6756,12 @@
       <c r="CO19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="CP19" s="2"/>
-      <c r="CQ19" s="2"/>
+      <c r="CP19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="CQ19" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="CR19" s="2"/>
       <c r="CS19" s="2"/>
       <c r="CT19" s="2"/>
@@ -6723,13 +6812,13 @@
       <c r="EM19" s="2"/>
       <c r="EN19" s="2"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="9" t="n">
         <f aca="false">B41/(B41+C41)</f>
-        <v>0.644444444444445</v>
+        <v>0.659340659340659</v>
       </c>
       <c r="C20" s="8" t="n">
         <v>18</v>
@@ -6765,7 +6854,7 @@
         <v>9</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O20" s="10" t="s">
         <v>9</v>
@@ -7005,7 +7094,9 @@
         <v>9</v>
       </c>
       <c r="CP20" s="2"/>
-      <c r="CQ20" s="2"/>
+      <c r="CQ20" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="CR20" s="2"/>
       <c r="CS20" s="2"/>
       <c r="CT20" s="2"/>
@@ -7056,13 +7147,13 @@
       <c r="EM20" s="2"/>
       <c r="EN20" s="2"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="9" t="n">
         <f aca="false">B42/(B42+C42)</f>
-        <v>0.696629213483146</v>
+        <v>0.703296703296703</v>
       </c>
       <c r="C21" s="8" t="n">
         <v>19</v>
@@ -7098,7 +7189,7 @@
         <v>9</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O21" s="10" t="s">
         <v>9</v>
@@ -7337,8 +7428,12 @@
       <c r="CO21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="CP21" s="2"/>
-      <c r="CQ21" s="2"/>
+      <c r="CP21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="CQ21" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="CR21" s="2"/>
       <c r="CS21" s="2"/>
       <c r="CT21" s="2"/>
@@ -7435,11 +7530,11 @@
       </c>
       <c r="B24" s="13" t="n">
         <f aca="false">COUNTIF(D3:EB3,B$23)</f>
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C24" s="13" t="n">
         <f aca="false">COUNTIF(E3:EC3,C$23)</f>
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7448,11 +7543,11 @@
       </c>
       <c r="B25" s="13" t="n">
         <f aca="false">COUNTIF(D4:EB4,B$23)</f>
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C25" s="13" t="n">
         <f aca="false">COUNTIF(E4:EC4,C$23)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7461,11 +7556,11 @@
       </c>
       <c r="B26" s="13" t="n">
         <f aca="false">COUNTIF(D5:EB5,B$23)</f>
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C26" s="13" t="n">
         <f aca="false">COUNTIF(E5:EC5,C$23)</f>
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7474,7 +7569,7 @@
       </c>
       <c r="B27" s="13" t="n">
         <f aca="false">COUNTIF(D6:EB6,B$23)</f>
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C27" s="13" t="n">
         <f aca="false">COUNTIF(E6:EC6,C$23)</f>
@@ -7487,7 +7582,7 @@
       </c>
       <c r="B28" s="13" t="n">
         <f aca="false">COUNTIF(D7:EB7,B$23)</f>
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C28" s="13" t="n">
         <f aca="false">COUNTIF(E7:EC7,C$23)</f>
@@ -7501,11 +7596,11 @@
       </c>
       <c r="B29" s="13" t="n">
         <f aca="false">COUNTIF(D8:EB8,B$23)</f>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C29" s="13" t="n">
         <f aca="false">COUNTIF(E8:EC8,C$23)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7514,11 +7609,11 @@
       </c>
       <c r="B30" s="13" t="n">
         <f aca="false">COUNTIF(D9:EB9,B$23)</f>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C30" s="13" t="n">
         <f aca="false">COUNTIF(E9:EC9,C$23)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7527,7 +7622,7 @@
       </c>
       <c r="B31" s="13" t="n">
         <f aca="false">COUNTIF(D10:EB10,B$23)</f>
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C31" s="13" t="n">
         <f aca="false">COUNTIF(E10:EC10,C$23)</f>
@@ -7540,11 +7635,11 @@
       </c>
       <c r="B32" s="13" t="n">
         <f aca="false">COUNTIF(D11:EB11,B$23)</f>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C32" s="13" t="n">
         <f aca="false">COUNTIF(E11:EC11,C$23)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7557,7 +7652,7 @@
       </c>
       <c r="C33" s="13" t="n">
         <f aca="false">COUNTIF(E12:EC12,C$23)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7566,7 +7661,7 @@
       </c>
       <c r="B34" s="13" t="n">
         <f aca="false">COUNTIF(D13:EB13,B$23)</f>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C34" s="13" t="n">
         <f aca="false">COUNTIF(E13:EC13,C$23)</f>
@@ -7579,7 +7674,7 @@
       </c>
       <c r="B35" s="13" t="n">
         <f aca="false">COUNTIF(D14:EB14,B$23)</f>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C35" s="13" t="n">
         <f aca="false">COUNTIF(E14:EC14,C$23)</f>
@@ -7592,7 +7687,7 @@
       </c>
       <c r="B36" s="13" t="n">
         <f aca="false">COUNTIF(D15:EB15,B$23)</f>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C36" s="13" t="n">
         <f aca="false">COUNTIF(E15:EC15,C$23)</f>
@@ -7605,11 +7700,11 @@
       </c>
       <c r="B37" s="13" t="n">
         <f aca="false">COUNTIF(D16:EB16,B$23)</f>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C37" s="13" t="n">
         <f aca="false">COUNTIF(E16:EC16,C$23)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7618,11 +7713,11 @@
       </c>
       <c r="B38" s="13" t="n">
         <f aca="false">COUNTIF(D17:EB17,B$23)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C38" s="13" t="n">
         <f aca="false">COUNTIF(E17:EC17,C$23)</f>
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7631,11 +7726,11 @@
       </c>
       <c r="B39" s="13" t="n">
         <f aca="false">COUNTIF(D18:EB18,B$23)</f>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C39" s="13" t="n">
         <f aca="false">COUNTIF(E18:EC18,C$23)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7644,7 +7739,7 @@
       </c>
       <c r="B40" s="13" t="n">
         <f aca="false">COUNTIF(D19:EB19,B$23)</f>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C40" s="13" t="n">
         <f aca="false">COUNTIF(E19:EC19,C$23)</f>
@@ -7657,11 +7752,11 @@
       </c>
       <c r="B41" s="13" t="n">
         <f aca="false">COUNTIF(D20:EB20,B$23)</f>
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C41" s="13" t="n">
         <f aca="false">COUNTIF(E20:EC20,C$23)</f>
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7670,7 +7765,7 @@
       </c>
       <c r="B42" s="13" t="n">
         <f aca="false">COUNTIF(D21:EB21,B$23)</f>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C42" s="13" t="n">
         <f aca="false">COUNTIF(E21:EC21,C$23)</f>

--- a/3des/frequencia.xlsx
+++ b/3des/frequencia.xlsx
@@ -443,11 +443,11 @@
   <dimension ref="A1:EN42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="CA3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topRight" activeCell="CA1" activeCellId="0" sqref="CA1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="CI1" activeCellId="0" sqref="CI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1093,7 +1093,7 @@
       </c>
       <c r="B3" s="9" t="n">
         <f aca="false">B24/(B24+C24)</f>
-        <v>0.78021978021978</v>
+        <v>0.791208791208791</v>
       </c>
       <c r="C3" s="8" t="n">
         <v>1</v>
@@ -1108,7 +1108,7 @@
         <v>8</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>9</v>
@@ -1430,7 +1430,7 @@
       </c>
       <c r="B4" s="9" t="n">
         <f aca="false">B25/(B25+C25)</f>
-        <v>0.769230769230769</v>
+        <v>0.78021978021978</v>
       </c>
       <c r="C4" s="8" t="n">
         <v>2</v>
@@ -1445,7 +1445,7 @@
         <v>9</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>9</v>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="B5" s="9" t="n">
         <f aca="false">B26/(B26+C26)</f>
-        <v>0.571428571428571</v>
+        <v>0.582417582417583</v>
       </c>
       <c r="C5" s="8" t="n">
         <v>3</v>
@@ -1782,7 +1782,7 @@
         <v>8</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>9</v>
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B6" s="9" t="n">
         <f aca="false">B27/(B27+C27)</f>
-        <v>0.880434782608696</v>
+        <v>0.891304347826087</v>
       </c>
       <c r="C6" s="8" t="n">
         <v>4</v>
@@ -2119,7 +2119,7 @@
         <v>8</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>9</v>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="B7" s="9" t="n">
         <f aca="false">B28/(B28+C28)</f>
-        <v>0.858695652173913</v>
+        <v>0.869565217391304</v>
       </c>
       <c r="C7" s="8" t="n">
         <v>5</v>
@@ -2456,7 +2456,7 @@
         <v>9</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>9</v>
@@ -2778,7 +2778,7 @@
       </c>
       <c r="B8" s="9" t="n">
         <f aca="false">B29/(B29+C29)</f>
-        <v>0.826086956521739</v>
+        <v>0.836956521739131</v>
       </c>
       <c r="C8" s="8" t="n">
         <v>6</v>
@@ -2793,7 +2793,7 @@
         <v>9</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>9</v>
@@ -3115,7 +3115,7 @@
       </c>
       <c r="B9" s="9" t="n">
         <f aca="false">B30/(B30+C30)</f>
-        <v>0.648351648351648</v>
+        <v>0.659340659340659</v>
       </c>
       <c r="C9" s="8" t="n">
         <v>7</v>
@@ -3130,7 +3130,7 @@
         <v>8</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>8</v>
@@ -3452,7 +3452,7 @@
       </c>
       <c r="B10" s="9" t="n">
         <f aca="false">B31/(B31+C31)</f>
-        <v>0.582417582417583</v>
+        <v>0.593406593406593</v>
       </c>
       <c r="C10" s="8" t="n">
         <v>8</v>
@@ -3467,7 +3467,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>9</v>
@@ -3787,7 +3787,7 @@
       </c>
       <c r="B11" s="9" t="n">
         <f aca="false">B32/(B32+C32)</f>
-        <v>0.56043956043956</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="C11" s="8" t="n">
         <v>9</v>
@@ -3802,7 +3802,7 @@
         <v>8</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>8</v>
@@ -4124,7 +4124,7 @@
       </c>
       <c r="B12" s="9" t="n">
         <f aca="false">B33/(B33+C33)</f>
-        <v>0.760869565217391</v>
+        <v>0.771739130434783</v>
       </c>
       <c r="C12" s="8" t="n">
         <v>10</v>
@@ -4139,7 +4139,7 @@
         <v>8</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H12" s="10" t="s">
         <v>9</v>
@@ -4461,7 +4461,7 @@
       </c>
       <c r="B13" s="9" t="n">
         <f aca="false">B34/(B34+C34)</f>
-        <v>0.747252747252747</v>
+        <v>0.758241758241758</v>
       </c>
       <c r="C13" s="8" t="n">
         <v>11</v>
@@ -4476,7 +4476,7 @@
         <v>8</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>8</v>
@@ -4798,7 +4798,7 @@
       </c>
       <c r="B14" s="9" t="n">
         <f aca="false">B35/(B35+C35)</f>
-        <v>0.739130434782609</v>
+        <v>0.75</v>
       </c>
       <c r="C14" s="8" t="n">
         <v>12</v>
@@ -4813,7 +4813,7 @@
         <v>9</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H14" s="10" t="s">
         <v>8</v>
@@ -5135,7 +5135,7 @@
       </c>
       <c r="B15" s="9" t="n">
         <f aca="false">B36/(B36+C36)</f>
-        <v>0.791208791208791</v>
+        <v>0.802197802197802</v>
       </c>
       <c r="C15" s="8" t="n">
         <v>13</v>
@@ -5150,7 +5150,7 @@
         <v>8</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>8</v>
@@ -5472,7 +5472,7 @@
       </c>
       <c r="B16" s="9" t="n">
         <f aca="false">B37/(B37+C37)</f>
-        <v>0.758241758241758</v>
+        <v>0.769230769230769</v>
       </c>
       <c r="C16" s="8" t="n">
         <v>14</v>
@@ -5487,7 +5487,7 @@
         <v>8</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H16" s="10" t="s">
         <v>9</v>
@@ -5809,7 +5809,7 @@
       </c>
       <c r="B17" s="9" t="n">
         <f aca="false">B38/(B38+C38)</f>
-        <v>0.402173913043478</v>
+        <v>0.41304347826087</v>
       </c>
       <c r="C17" s="8" t="n">
         <v>15</v>
@@ -5824,7 +5824,7 @@
         <v>8</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H17" s="10" t="s">
         <v>9</v>
@@ -6146,7 +6146,7 @@
       </c>
       <c r="B18" s="9" t="n">
         <f aca="false">B39/(B39+C39)</f>
-        <v>0.978021978021978</v>
+        <v>0.989010989010989</v>
       </c>
       <c r="C18" s="8" t="n">
         <v>16</v>
@@ -6161,7 +6161,7 @@
         <v>9</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H18" s="10" t="s">
         <v>9</v>
@@ -6481,7 +6481,7 @@
       </c>
       <c r="B19" s="9" t="n">
         <f aca="false">B40/(B40+C40)</f>
-        <v>0.945652173913044</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="C19" s="8" t="n">
         <v>17</v>
@@ -6496,7 +6496,7 @@
         <v>9</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H19" s="10" t="s">
         <v>9</v>
@@ -6818,7 +6818,7 @@
       </c>
       <c r="B20" s="9" t="n">
         <f aca="false">B41/(B41+C41)</f>
-        <v>0.659340659340659</v>
+        <v>0.67032967032967</v>
       </c>
       <c r="C20" s="8" t="n">
         <v>18</v>
@@ -6833,7 +6833,7 @@
         <v>9</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H20" s="10" t="s">
         <v>8</v>
@@ -7153,7 +7153,7 @@
       </c>
       <c r="B21" s="9" t="n">
         <f aca="false">B42/(B42+C42)</f>
-        <v>0.703296703296703</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="C21" s="8" t="n">
         <v>19</v>
@@ -7168,7 +7168,7 @@
         <v>8</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H21" s="10" t="s">
         <v>9</v>
@@ -7530,11 +7530,11 @@
       </c>
       <c r="B24" s="13" t="n">
         <f aca="false">COUNTIF(D3:EB3,B$23)</f>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C24" s="13" t="n">
         <f aca="false">COUNTIF(E3:EC3,C$23)</f>
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="B25" s="13" t="n">
         <f aca="false">COUNTIF(D4:EB4,B$23)</f>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C25" s="13" t="n">
         <f aca="false">COUNTIF(E4:EC4,C$23)</f>
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7556,11 +7556,11 @@
       </c>
       <c r="B26" s="13" t="n">
         <f aca="false">COUNTIF(D5:EB5,B$23)</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C26" s="13" t="n">
         <f aca="false">COUNTIF(E5:EC5,C$23)</f>
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7569,11 +7569,11 @@
       </c>
       <c r="B27" s="13" t="n">
         <f aca="false">COUNTIF(D6:EB6,B$23)</f>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C27" s="13" t="n">
         <f aca="false">COUNTIF(E6:EC6,C$23)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7582,11 +7582,11 @@
       </c>
       <c r="B28" s="13" t="n">
         <f aca="false">COUNTIF(D7:EB7,B$23)</f>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C28" s="13" t="n">
         <f aca="false">COUNTIF(E7:EC7,C$23)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC28" s="5"/>
     </row>
@@ -7596,11 +7596,11 @@
       </c>
       <c r="B29" s="13" t="n">
         <f aca="false">COUNTIF(D8:EB8,B$23)</f>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C29" s="13" t="n">
         <f aca="false">COUNTIF(E8:EC8,C$23)</f>
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7609,11 +7609,11 @@
       </c>
       <c r="B30" s="13" t="n">
         <f aca="false">COUNTIF(D9:EB9,B$23)</f>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C30" s="13" t="n">
         <f aca="false">COUNTIF(E9:EC9,C$23)</f>
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7622,11 +7622,11 @@
       </c>
       <c r="B31" s="13" t="n">
         <f aca="false">COUNTIF(D10:EB10,B$23)</f>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C31" s="13" t="n">
         <f aca="false">COUNTIF(E10:EC10,C$23)</f>
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7635,11 +7635,11 @@
       </c>
       <c r="B32" s="13" t="n">
         <f aca="false">COUNTIF(D11:EB11,B$23)</f>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C32" s="13" t="n">
         <f aca="false">COUNTIF(E11:EC11,C$23)</f>
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7648,11 +7648,11 @@
       </c>
       <c r="B33" s="13" t="n">
         <f aca="false">COUNTIF(D12:EB12,B$23)</f>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C33" s="13" t="n">
         <f aca="false">COUNTIF(E12:EC12,C$23)</f>
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7661,11 +7661,11 @@
       </c>
       <c r="B34" s="13" t="n">
         <f aca="false">COUNTIF(D13:EB13,B$23)</f>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C34" s="13" t="n">
         <f aca="false">COUNTIF(E13:EC13,C$23)</f>
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7674,11 +7674,11 @@
       </c>
       <c r="B35" s="13" t="n">
         <f aca="false">COUNTIF(D14:EB14,B$23)</f>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C35" s="13" t="n">
         <f aca="false">COUNTIF(E14:EC14,C$23)</f>
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7687,11 +7687,11 @@
       </c>
       <c r="B36" s="13" t="n">
         <f aca="false">COUNTIF(D15:EB15,B$23)</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C36" s="13" t="n">
         <f aca="false">COUNTIF(E15:EC15,C$23)</f>
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7700,11 +7700,11 @@
       </c>
       <c r="B37" s="13" t="n">
         <f aca="false">COUNTIF(D16:EB16,B$23)</f>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C37" s="13" t="n">
         <f aca="false">COUNTIF(E16:EC16,C$23)</f>
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7713,11 +7713,11 @@
       </c>
       <c r="B38" s="13" t="n">
         <f aca="false">COUNTIF(D17:EB17,B$23)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" s="13" t="n">
         <f aca="false">COUNTIF(E17:EC17,C$23)</f>
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7726,11 +7726,11 @@
       </c>
       <c r="B39" s="13" t="n">
         <f aca="false">COUNTIF(D18:EB18,B$23)</f>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C39" s="13" t="n">
         <f aca="false">COUNTIF(E18:EC18,C$23)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7739,11 +7739,11 @@
       </c>
       <c r="B40" s="13" t="n">
         <f aca="false">COUNTIF(D19:EB19,B$23)</f>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C40" s="13" t="n">
         <f aca="false">COUNTIF(E19:EC19,C$23)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7752,11 +7752,11 @@
       </c>
       <c r="B41" s="13" t="n">
         <f aca="false">COUNTIF(D20:EB20,B$23)</f>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C41" s="13" t="n">
         <f aca="false">COUNTIF(E20:EC20,C$23)</f>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7765,11 +7765,11 @@
       </c>
       <c r="B42" s="13" t="n">
         <f aca="false">COUNTIF(D21:EB21,B$23)</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C42" s="13" t="n">
         <f aca="false">COUNTIF(E21:EC21,C$23)</f>
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/3des/frequencia.xlsx
+++ b/3des/frequencia.xlsx
@@ -10,6 +10,7 @@
   <sheets>
     <sheet name="Chamada" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Planilha1" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Notas Trabalhos e TCC" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="50">
   <si>
     <t xml:space="preserve">Alunos</t>
   </si>
@@ -127,18 +128,64 @@
   <si>
     <t xml:space="preserve">Leonardo De Assis Riso</t>
   </si>
+  <si>
+    <t xml:space="preserve">Projeto em Grupo – Ponte Palitos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESUMO SCRUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRUD – RECUPERAÇÃO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUSHIDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRABALHO FINAL (TCC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTA FINAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONCEITO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENTREGUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREVIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRITÉRIOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ 1 PONTO SE NECESSÁRIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+1 PONTO E ABONO DE FALTAS SE APLICÁVEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+1 PONTO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="d/mmm"/>
     <numFmt numFmtId="166" formatCode="0%"/>
     <numFmt numFmtId="167" formatCode="General"/>
+    <numFmt numFmtId="168" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -185,18 +232,83 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAA61A"/>
+        <bgColor rgb="FFFFCC00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FFFAA61A"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFAA61A"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFAA61A"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin">
+        <color rgb="FFFAA61A"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFAA61A"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FFFAA61A"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -230,7 +342,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -288,6 +400,38 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -397,7 +541,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -418,7 +562,7 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFAA61A"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
@@ -443,11 +587,11 @@
   <dimension ref="A1:EN42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="CA3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="CB3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="CA1" activeCellId="0" sqref="CA1"/>
+      <selection pane="topRight" activeCell="CB1" activeCellId="0" sqref="CB1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CI1" activeCellId="0" sqref="CI1"/>
+      <selection pane="bottomRight" activeCell="CR23" activeCellId="0" sqref="CR23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -994,10 +1138,10 @@
         <v>4</v>
       </c>
       <c r="BN2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BO2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="BO2" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="BP2" s="1" t="s">
         <v>4</v>
@@ -1093,7 +1237,7 @@
       </c>
       <c r="B3" s="9" t="n">
         <f aca="false">B24/(B24+C24)</f>
-        <v>0.791208791208791</v>
+        <v>0.793478260869565</v>
       </c>
       <c r="C3" s="8" t="n">
         <v>1</v>
@@ -1374,7 +1518,9 @@
       <c r="CQ3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="CR3" s="2"/>
+      <c r="CR3" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="CS3" s="2"/>
       <c r="CT3" s="2"/>
       <c r="CU3" s="2"/>
@@ -1430,7 +1576,7 @@
       </c>
       <c r="B4" s="9" t="n">
         <f aca="false">B25/(B25+C25)</f>
-        <v>0.78021978021978</v>
+        <v>0.771739130434783</v>
       </c>
       <c r="C4" s="8" t="n">
         <v>2</v>
@@ -1711,7 +1857,9 @@
       <c r="CQ4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="CR4" s="2"/>
+      <c r="CR4" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="CS4" s="2"/>
       <c r="CT4" s="2"/>
       <c r="CU4" s="2"/>
@@ -1767,7 +1915,7 @@
       </c>
       <c r="B5" s="9" t="n">
         <f aca="false">B26/(B26+C26)</f>
-        <v>0.582417582417583</v>
+        <v>0.576086956521739</v>
       </c>
       <c r="C5" s="8" t="n">
         <v>3</v>
@@ -2048,7 +2196,9 @@
       <c r="CQ5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="CR5" s="2"/>
+      <c r="CR5" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="CS5" s="2"/>
       <c r="CT5" s="2"/>
       <c r="CU5" s="2"/>
@@ -2104,7 +2254,7 @@
       </c>
       <c r="B6" s="9" t="n">
         <f aca="false">B27/(B27+C27)</f>
-        <v>0.891304347826087</v>
+        <v>0.881720430107527</v>
       </c>
       <c r="C6" s="8" t="n">
         <v>4</v>
@@ -2385,7 +2535,9 @@
       <c r="CQ6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="CR6" s="2"/>
+      <c r="CR6" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="CS6" s="2"/>
       <c r="CT6" s="2"/>
       <c r="CU6" s="2"/>
@@ -2441,7 +2593,7 @@
       </c>
       <c r="B7" s="9" t="n">
         <f aca="false">B28/(B28+C28)</f>
-        <v>0.869565217391304</v>
+        <v>0.870967741935484</v>
       </c>
       <c r="C7" s="8" t="n">
         <v>5</v>
@@ -2722,7 +2874,9 @@
       <c r="CQ7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="CR7" s="2"/>
+      <c r="CR7" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="CS7" s="2"/>
       <c r="CT7" s="2"/>
       <c r="CU7" s="2"/>
@@ -2778,7 +2932,7 @@
       </c>
       <c r="B8" s="9" t="n">
         <f aca="false">B29/(B29+C29)</f>
-        <v>0.836956521739131</v>
+        <v>0.827956989247312</v>
       </c>
       <c r="C8" s="8" t="n">
         <v>6</v>
@@ -3059,7 +3213,9 @@
       <c r="CQ8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="CR8" s="2"/>
+      <c r="CR8" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="CS8" s="2"/>
       <c r="CT8" s="2"/>
       <c r="CU8" s="2"/>
@@ -3115,7 +3271,7 @@
       </c>
       <c r="B9" s="9" t="n">
         <f aca="false">B30/(B30+C30)</f>
-        <v>0.659340659340659</v>
+        <v>0.652173913043478</v>
       </c>
       <c r="C9" s="8" t="n">
         <v>7</v>
@@ -3396,7 +3552,9 @@
       <c r="CQ9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="CR9" s="2"/>
+      <c r="CR9" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="CS9" s="2"/>
       <c r="CT9" s="2"/>
       <c r="CU9" s="2"/>
@@ -3452,7 +3610,7 @@
       </c>
       <c r="B10" s="9" t="n">
         <f aca="false">B31/(B31+C31)</f>
-        <v>0.593406593406593</v>
+        <v>0.586956521739131</v>
       </c>
       <c r="C10" s="8" t="n">
         <v>8</v>
@@ -3731,7 +3889,9 @@
       <c r="CQ10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="CR10" s="2"/>
+      <c r="CR10" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="CS10" s="2"/>
       <c r="CT10" s="2"/>
       <c r="CU10" s="2"/>
@@ -3787,7 +3947,7 @@
       </c>
       <c r="B11" s="9" t="n">
         <f aca="false">B32/(B32+C32)</f>
-        <v>0.571428571428571</v>
+        <v>0.565217391304348</v>
       </c>
       <c r="C11" s="8" t="n">
         <v>9</v>
@@ -4068,7 +4228,9 @@
       <c r="CQ11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="CR11" s="2"/>
+      <c r="CR11" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="CS11" s="2"/>
       <c r="CT11" s="2"/>
       <c r="CU11" s="2"/>
@@ -4124,7 +4286,7 @@
       </c>
       <c r="B12" s="9" t="n">
         <f aca="false">B33/(B33+C33)</f>
-        <v>0.771739130434783</v>
+        <v>0.763440860215054</v>
       </c>
       <c r="C12" s="8" t="n">
         <v>10</v>
@@ -4405,7 +4567,9 @@
       <c r="CQ12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="CR12" s="2"/>
+      <c r="CR12" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="CS12" s="2"/>
       <c r="CT12" s="2"/>
       <c r="CU12" s="2"/>
@@ -4461,7 +4625,7 @@
       </c>
       <c r="B13" s="9" t="n">
         <f aca="false">B34/(B34+C34)</f>
-        <v>0.758241758241758</v>
+        <v>0.760869565217391</v>
       </c>
       <c r="C13" s="8" t="n">
         <v>11</v>
@@ -4742,7 +4906,9 @@
       <c r="CQ13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="CR13" s="2"/>
+      <c r="CR13" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="CS13" s="2"/>
       <c r="CT13" s="2"/>
       <c r="CU13" s="2"/>
@@ -4798,7 +4964,7 @@
       </c>
       <c r="B14" s="9" t="n">
         <f aca="false">B35/(B35+C35)</f>
-        <v>0.75</v>
+        <v>0.752688172043011</v>
       </c>
       <c r="C14" s="8" t="n">
         <v>12</v>
@@ -5079,7 +5245,9 @@
       <c r="CQ14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="CR14" s="2"/>
+      <c r="CR14" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="CS14" s="2"/>
       <c r="CT14" s="2"/>
       <c r="CU14" s="2"/>
@@ -5135,7 +5303,7 @@
       </c>
       <c r="B15" s="9" t="n">
         <f aca="false">B36/(B36+C36)</f>
-        <v>0.802197802197802</v>
+        <v>0.793478260869565</v>
       </c>
       <c r="C15" s="8" t="n">
         <v>13</v>
@@ -5416,7 +5584,9 @@
       <c r="CQ15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="CR15" s="2"/>
+      <c r="CR15" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="CS15" s="2"/>
       <c r="CT15" s="2"/>
       <c r="CU15" s="2"/>
@@ -5472,7 +5642,7 @@
       </c>
       <c r="B16" s="9" t="n">
         <f aca="false">B37/(B37+C37)</f>
-        <v>0.769230769230769</v>
+        <v>0.760869565217391</v>
       </c>
       <c r="C16" s="8" t="n">
         <v>14</v>
@@ -5753,7 +5923,9 @@
       <c r="CQ16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="CR16" s="2"/>
+      <c r="CR16" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="CS16" s="2"/>
       <c r="CT16" s="2"/>
       <c r="CU16" s="2"/>
@@ -5809,7 +5981,7 @@
       </c>
       <c r="B17" s="9" t="n">
         <f aca="false">B38/(B38+C38)</f>
-        <v>0.41304347826087</v>
+        <v>0.408602150537634</v>
       </c>
       <c r="C17" s="8" t="n">
         <v>15</v>
@@ -6090,7 +6262,9 @@
       <c r="CQ17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="CR17" s="2"/>
+      <c r="CR17" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="CS17" s="2"/>
       <c r="CT17" s="2"/>
       <c r="CU17" s="2"/>
@@ -6146,7 +6320,7 @@
       </c>
       <c r="B18" s="9" t="n">
         <f aca="false">B39/(B39+C39)</f>
-        <v>0.989010989010989</v>
+        <v>0.989130434782609</v>
       </c>
       <c r="C18" s="8" t="n">
         <v>16</v>
@@ -6425,7 +6599,9 @@
       <c r="CQ18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="CR18" s="2"/>
+      <c r="CR18" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="CS18" s="2"/>
       <c r="CT18" s="2"/>
       <c r="CU18" s="2"/>
@@ -6481,7 +6657,7 @@
       </c>
       <c r="B19" s="9" t="n">
         <f aca="false">B40/(B40+C40)</f>
-        <v>0.956521739130435</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="C19" s="8" t="n">
         <v>17</v>
@@ -6762,7 +6938,9 @@
       <c r="CQ19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="CR19" s="2"/>
+      <c r="CR19" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="CS19" s="2"/>
       <c r="CT19" s="2"/>
       <c r="CU19" s="2"/>
@@ -6818,7 +6996,7 @@
       </c>
       <c r="B20" s="9" t="n">
         <f aca="false">B41/(B41+C41)</f>
-        <v>0.67032967032967</v>
+        <v>0.673913043478261</v>
       </c>
       <c r="C20" s="8" t="n">
         <v>18</v>
@@ -7097,7 +7275,9 @@
       <c r="CQ20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="CR20" s="2"/>
+      <c r="CR20" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="CS20" s="2"/>
       <c r="CT20" s="2"/>
       <c r="CU20" s="2"/>
@@ -7153,7 +7333,7 @@
       </c>
       <c r="B21" s="9" t="n">
         <f aca="false">B42/(B42+C42)</f>
-        <v>0.714285714285714</v>
+        <v>0.706521739130435</v>
       </c>
       <c r="C21" s="8" t="n">
         <v>19</v>
@@ -7434,7 +7614,9 @@
       <c r="CQ21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="CR21" s="2"/>
+      <c r="CR21" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="CS21" s="2"/>
       <c r="CT21" s="2"/>
       <c r="CU21" s="2"/>
@@ -7530,7 +7712,7 @@
       </c>
       <c r="B24" s="13" t="n">
         <f aca="false">COUNTIF(D3:EB3,B$23)</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C24" s="13" t="n">
         <f aca="false">COUNTIF(E3:EC3,C$23)</f>
@@ -7547,7 +7729,7 @@
       </c>
       <c r="C25" s="13" t="n">
         <f aca="false">COUNTIF(E4:EC4,C$23)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7560,7 +7742,7 @@
       </c>
       <c r="C26" s="13" t="n">
         <f aca="false">COUNTIF(E5:EC5,C$23)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7573,7 +7755,7 @@
       </c>
       <c r="C27" s="13" t="n">
         <f aca="false">COUNTIF(E6:EC6,C$23)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7582,7 +7764,7 @@
       </c>
       <c r="B28" s="13" t="n">
         <f aca="false">COUNTIF(D7:EB7,B$23)</f>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C28" s="13" t="n">
         <f aca="false">COUNTIF(E7:EC7,C$23)</f>
@@ -7600,7 +7782,7 @@
       </c>
       <c r="C29" s="13" t="n">
         <f aca="false">COUNTIF(E8:EC8,C$23)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7613,7 +7795,7 @@
       </c>
       <c r="C30" s="13" t="n">
         <f aca="false">COUNTIF(E9:EC9,C$23)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7626,7 +7808,7 @@
       </c>
       <c r="C31" s="13" t="n">
         <f aca="false">COUNTIF(E10:EC10,C$23)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7639,7 +7821,7 @@
       </c>
       <c r="C32" s="13" t="n">
         <f aca="false">COUNTIF(E11:EC11,C$23)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7652,7 +7834,7 @@
       </c>
       <c r="C33" s="13" t="n">
         <f aca="false">COUNTIF(E12:EC12,C$23)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7661,7 +7843,7 @@
       </c>
       <c r="B34" s="13" t="n">
         <f aca="false">COUNTIF(D13:EB13,B$23)</f>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C34" s="13" t="n">
         <f aca="false">COUNTIF(E13:EC13,C$23)</f>
@@ -7674,7 +7856,7 @@
       </c>
       <c r="B35" s="13" t="n">
         <f aca="false">COUNTIF(D14:EB14,B$23)</f>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C35" s="13" t="n">
         <f aca="false">COUNTIF(E14:EC14,C$23)</f>
@@ -7691,7 +7873,7 @@
       </c>
       <c r="C36" s="13" t="n">
         <f aca="false">COUNTIF(E15:EC15,C$23)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7704,7 +7886,7 @@
       </c>
       <c r="C37" s="13" t="n">
         <f aca="false">COUNTIF(E16:EC16,C$23)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7717,7 +7899,7 @@
       </c>
       <c r="C38" s="13" t="n">
         <f aca="false">COUNTIF(E17:EC17,C$23)</f>
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7726,7 +7908,7 @@
       </c>
       <c r="B39" s="13" t="n">
         <f aca="false">COUNTIF(D18:EB18,B$23)</f>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C39" s="13" t="n">
         <f aca="false">COUNTIF(E18:EC18,C$23)</f>
@@ -7739,7 +7921,7 @@
       </c>
       <c r="B40" s="13" t="n">
         <f aca="false">COUNTIF(D19:EB19,B$23)</f>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C40" s="13" t="n">
         <f aca="false">COUNTIF(E19:EC19,C$23)</f>
@@ -7752,7 +7934,7 @@
       </c>
       <c r="B41" s="13" t="n">
         <f aca="false">COUNTIF(D20:EB20,B$23)</f>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C41" s="13" t="n">
         <f aca="false">COUNTIF(E20:EC20,C$23)</f>
@@ -7769,7 +7951,7 @@
       </c>
       <c r="C42" s="13" t="n">
         <f aca="false">COUNTIF(E21:EC21,C$23)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -7970,4 +8152,457 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="39.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="36.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="51.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="28.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.75"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8"/>
+      <c r="B21" s="14"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A21 B20:F20">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/3des/frequencia.xlsx
+++ b/3des/frequencia.xlsx
@@ -238,12 +238,14 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -415,7 +417,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -587,11 +589,11 @@
   <dimension ref="A1:EN42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="CB3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="BY3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="CB1" activeCellId="0" sqref="CB1"/>
+      <selection pane="topRight" activeCell="BY1" activeCellId="0" sqref="BY1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CR23" activeCellId="0" sqref="CR23"/>
+      <selection pane="bottomRight" activeCell="CK22" activeCellId="0" sqref="CK22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8162,7 +8164,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8172,9 +8174,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="51.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="28.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="28.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="22.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.75"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/3des/frequencia.xlsx
+++ b/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C5CED1-6840-403A-A566-4D8653A8A518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30168FAC-1C5C-435B-9F9C-171A66A2575E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -836,7 +836,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="BY3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="BY1" sqref="BY1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CS9" sqref="CS9"/>
+      <selection pane="bottomRight" activeCell="CF28" sqref="CF28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/3des/frequencia.xlsx
+++ b/3des/frequencia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30168FAC-1C5C-435B-9F9C-171A66A2575E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCE4B42-C3B4-4D86-96C1-2264EC2AC307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,6 @@
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -38,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2051" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2070" uniqueCount="50">
   <si>
     <t>Alunos</t>
   </si>
@@ -836,7 +825,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="BY3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="BY1" sqref="BY1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CF28" sqref="CF28"/>
+      <selection pane="bottomRight" activeCell="CT20" sqref="CT20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1512,7 +1501,7 @@
       </c>
       <c r="B3" s="6">
         <f t="shared" ref="B3:B21" si="0">B24/(B24+C24)</f>
-        <v>0.78494623655913975</v>
+        <v>0.78723404255319152</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1799,7 +1788,9 @@
       <c r="CS3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CT3" s="1"/>
+      <c r="CT3" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="CU3" s="1"/>
       <c r="CV3" s="1"/>
       <c r="CW3" s="1"/>
@@ -1853,7 +1844,7 @@
       </c>
       <c r="B4" s="6">
         <f t="shared" si="0"/>
-        <v>0.77419354838709675</v>
+        <v>0.77659574468085102</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -2140,7 +2131,9 @@
       <c r="CS4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CT4" s="1"/>
+      <c r="CT4" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="CU4" s="1"/>
       <c r="CV4" s="1"/>
       <c r="CW4" s="1"/>
@@ -2194,7 +2187,7 @@
       </c>
       <c r="B5" s="6">
         <f t="shared" si="0"/>
-        <v>0.56989247311827962</v>
+        <v>0.57446808510638303</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -2481,7 +2474,9 @@
       <c r="CS5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CT5" s="1"/>
+      <c r="CT5" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="CU5" s="1"/>
       <c r="CV5" s="1"/>
       <c r="CW5" s="1"/>
@@ -2535,7 +2530,7 @@
       </c>
       <c r="B6" s="6">
         <f t="shared" si="0"/>
-        <v>0.88297872340425532</v>
+        <v>0.87368421052631584</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -2822,7 +2817,9 @@
       <c r="CS6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CT6" s="1"/>
+      <c r="CT6" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CU6" s="1"/>
       <c r="CV6" s="1"/>
       <c r="CW6" s="1"/>
@@ -2876,7 +2873,7 @@
       </c>
       <c r="B7" s="6">
         <f t="shared" si="0"/>
-        <v>0.86170212765957444</v>
+        <v>0.86315789473684212</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -3163,7 +3160,9 @@
       <c r="CS7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CT7" s="1"/>
+      <c r="CT7" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="CU7" s="1"/>
       <c r="CV7" s="1"/>
       <c r="CW7" s="1"/>
@@ -3217,7 +3216,7 @@
       </c>
       <c r="B8" s="6">
         <f t="shared" si="0"/>
-        <v>0.82978723404255317</v>
+        <v>0.83157894736842108</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -3504,7 +3503,9 @@
       <c r="CS8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CT8" s="1"/>
+      <c r="CT8" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="CU8" s="1"/>
       <c r="CV8" s="1"/>
       <c r="CW8" s="1"/>
@@ -3558,7 +3559,7 @@
       </c>
       <c r="B9" s="6">
         <f t="shared" si="0"/>
-        <v>0.65591397849462363</v>
+        <v>0.65957446808510634</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -3845,7 +3846,9 @@
       <c r="CS9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CT9" s="1"/>
+      <c r="CT9" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="CU9" s="1"/>
       <c r="CV9" s="1"/>
       <c r="CW9" s="1"/>
@@ -3899,7 +3902,7 @@
       </c>
       <c r="B10" s="6">
         <f t="shared" si="0"/>
-        <v>0.58064516129032262</v>
+        <v>0.58510638297872342</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -4184,7 +4187,9 @@
       <c r="CS10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CT10" s="1"/>
+      <c r="CT10" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="CU10" s="1"/>
       <c r="CV10" s="1"/>
       <c r="CW10" s="1"/>
@@ -4238,7 +4243,7 @@
       </c>
       <c r="B11" s="6">
         <f t="shared" si="0"/>
-        <v>0.55913978494623651</v>
+        <v>0.55319148936170215</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -4525,7 +4530,9 @@
       <c r="CS11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CT11" s="1"/>
+      <c r="CT11" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CU11" s="1"/>
       <c r="CV11" s="1"/>
       <c r="CW11" s="1"/>
@@ -4579,7 +4586,7 @@
       </c>
       <c r="B12" s="6">
         <f t="shared" si="0"/>
-        <v>0.75531914893617025</v>
+        <v>0.74736842105263157</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -4866,7 +4873,9 @@
       <c r="CS12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CT12" s="1"/>
+      <c r="CT12" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CU12" s="1"/>
       <c r="CV12" s="1"/>
       <c r="CW12" s="1"/>
@@ -4920,7 +4929,7 @@
       </c>
       <c r="B13" s="6">
         <f t="shared" si="0"/>
-        <v>0.75268817204301075</v>
+        <v>0.75531914893617025</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -5207,7 +5216,9 @@
       <c r="CS13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CT13" s="1"/>
+      <c r="CT13" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="CU13" s="1"/>
       <c r="CV13" s="1"/>
       <c r="CW13" s="1"/>
@@ -5261,7 +5272,7 @@
       </c>
       <c r="B14" s="6">
         <f t="shared" si="0"/>
-        <v>0.74468085106382975</v>
+        <v>0.74736842105263157</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -5548,7 +5559,9 @@
       <c r="CS14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CT14" s="1"/>
+      <c r="CT14" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="CU14" s="1"/>
       <c r="CV14" s="1"/>
       <c r="CW14" s="1"/>
@@ -5602,7 +5615,7 @@
       </c>
       <c r="B15" s="6">
         <f t="shared" si="0"/>
-        <v>0.79569892473118276</v>
+        <v>0.7978723404255319</v>
       </c>
       <c r="C15">
         <v>13</v>
@@ -5889,7 +5902,9 @@
       <c r="CS15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CT15" s="1"/>
+      <c r="CT15" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="CU15" s="1"/>
       <c r="CV15" s="1"/>
       <c r="CW15" s="1"/>
@@ -5943,7 +5958,7 @@
       </c>
       <c r="B16" s="6">
         <f t="shared" si="0"/>
-        <v>0.75268817204301075</v>
+        <v>0.74468085106382975</v>
       </c>
       <c r="C16">
         <v>14</v>
@@ -6230,7 +6245,9 @@
       <c r="CS16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CT16" s="1"/>
+      <c r="CT16" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CU16" s="1"/>
       <c r="CV16" s="1"/>
       <c r="CW16" s="1"/>
@@ -6284,7 +6301,7 @@
       </c>
       <c r="B17" s="6">
         <f t="shared" si="0"/>
-        <v>0.40425531914893614</v>
+        <v>0.4</v>
       </c>
       <c r="C17">
         <v>15</v>
@@ -6571,7 +6588,9 @@
       <c r="CS17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CT17" s="1"/>
+      <c r="CT17" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CU17" s="1"/>
       <c r="CV17" s="1"/>
       <c r="CW17" s="1"/>
@@ -6625,7 +6644,7 @@
       </c>
       <c r="B18" s="6">
         <f t="shared" si="0"/>
-        <v>0.989247311827957</v>
+        <v>0.98936170212765961</v>
       </c>
       <c r="C18">
         <v>16</v>
@@ -6910,7 +6929,9 @@
       <c r="CS18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CT18" s="1"/>
+      <c r="CT18" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="CU18" s="1"/>
       <c r="CV18" s="1"/>
       <c r="CW18" s="1"/>
@@ -6964,7 +6985,7 @@
       </c>
       <c r="B19" s="6">
         <f t="shared" si="0"/>
-        <v>0.94680851063829785</v>
+        <v>0.94736842105263153</v>
       </c>
       <c r="C19">
         <v>17</v>
@@ -7251,7 +7272,9 @@
       <c r="CS19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CT19" s="1"/>
+      <c r="CT19" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="CU19" s="1"/>
       <c r="CV19" s="1"/>
       <c r="CW19" s="1"/>
@@ -7305,7 +7328,7 @@
       </c>
       <c r="B20" s="6">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.67021276595744683</v>
       </c>
       <c r="C20">
         <v>18</v>
@@ -7590,7 +7613,9 @@
       <c r="CS20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CT20" s="1"/>
+      <c r="CT20" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="CU20" s="1"/>
       <c r="CV20" s="1"/>
       <c r="CW20" s="1"/>
@@ -7644,7 +7669,7 @@
       </c>
       <c r="B21" s="6">
         <f t="shared" si="0"/>
-        <v>0.69892473118279574</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="C21">
         <v>19</v>
@@ -7931,7 +7956,9 @@
       <c r="CS21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CT21" s="1"/>
+      <c r="CT21" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="CU21" s="1"/>
       <c r="CV21" s="1"/>
       <c r="CW21" s="1"/>
@@ -8022,7 +8049,7 @@
       </c>
       <c r="B24">
         <f t="shared" ref="B24:B42" si="1">COUNTIF(D3:EB3,B$23)</f>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C24">
         <f t="shared" ref="C24:C42" si="2">COUNTIF(E3:EC3,C$23)</f>
@@ -8035,7 +8062,7 @@
       </c>
       <c r="B25">
         <f t="shared" si="1"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C25">
         <f t="shared" si="2"/>
@@ -8048,7 +8075,7 @@
       </c>
       <c r="B26">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26">
         <f t="shared" si="2"/>
@@ -8065,7 +8092,7 @@
       </c>
       <c r="C27">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:144" x14ac:dyDescent="0.25">
@@ -8074,7 +8101,7 @@
       </c>
       <c r="B28">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C28">
         <f t="shared" si="2"/>
@@ -8088,7 +8115,7 @@
       </c>
       <c r="B29">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C29">
         <f t="shared" si="2"/>
@@ -8101,7 +8128,7 @@
       </c>
       <c r="B30">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30">
         <f t="shared" si="2"/>
@@ -8114,7 +8141,7 @@
       </c>
       <c r="B31">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C31">
         <f t="shared" si="2"/>
@@ -8131,7 +8158,7 @@
       </c>
       <c r="C32">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -8144,7 +8171,7 @@
       </c>
       <c r="C33">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -8153,7 +8180,7 @@
       </c>
       <c r="B34">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C34">
         <f t="shared" si="2"/>
@@ -8166,7 +8193,7 @@
       </c>
       <c r="B35">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C35">
         <f t="shared" si="2"/>
@@ -8179,7 +8206,7 @@
       </c>
       <c r="B36">
         <f t="shared" si="1"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C36">
         <f t="shared" si="2"/>
@@ -8196,7 +8223,7 @@
       </c>
       <c r="C37">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -8209,7 +8236,7 @@
       </c>
       <c r="C38">
         <f t="shared" si="2"/>
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -8218,7 +8245,7 @@
       </c>
       <c r="B39">
         <f t="shared" si="1"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C39">
         <f t="shared" si="2"/>
@@ -8231,7 +8258,7 @@
       </c>
       <c r="B40">
         <f t="shared" si="1"/>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C40">
         <f t="shared" si="2"/>
@@ -8244,7 +8271,7 @@
       </c>
       <c r="B41">
         <f t="shared" si="1"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C41">
         <f t="shared" si="2"/>
@@ -8257,7 +8284,7 @@
       </c>
       <c r="B42">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C42">
         <f t="shared" si="2"/>

--- a/3des/frequencia.xlsx
+++ b/3des/frequencia.xlsx
@@ -8,14 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCE4B42-C3B4-4D86-96C1-2264EC2AC307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39791DFB-34CB-40B5-B90F-BF0858A2BF43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
-    <sheet name="Notas Trabalhos e TCC" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -27,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2070" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2002" uniqueCount="30">
   <si>
     <t>Alunos</t>
   </si>
@@ -118,66 +116,6 @@
   <si>
     <t>FREQUÊNCIA</t>
   </si>
-  <si>
-    <t>Desenvolveu</t>
-  </si>
-  <si>
-    <t>Teste Unitário</t>
-  </si>
-  <si>
-    <t>Integração</t>
-  </si>
-  <si>
-    <t>Ponto a Ponto</t>
-  </si>
-  <si>
-    <t>Leonardo De Assis Riso</t>
-  </si>
-  <si>
-    <t>Projeto em Grupo – Ponte Palitos</t>
-  </si>
-  <si>
-    <t>RESUMO SCRUM</t>
-  </si>
-  <si>
-    <t>CRUD – RECUPERAÇÃO</t>
-  </si>
-  <si>
-    <t>BUSHIDO</t>
-  </si>
-  <si>
-    <t>TRABALHO FINAL (TCC)</t>
-  </si>
-  <si>
-    <t>NOTA FINAL</t>
-  </si>
-  <si>
-    <t>CONCEITO</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>ENTREGUE</t>
-  </si>
-  <si>
-    <t>PREVIO</t>
-  </si>
-  <si>
-    <t>NOK</t>
-  </si>
-  <si>
-    <t>CRITÉRIOS</t>
-  </si>
-  <si>
-    <t>+ 1 PONTO SE NECESSÁRIO</t>
-  </si>
-  <si>
-    <t>+1 PONTO E ABONO DE FALTAS SE APLICÁVEL</t>
-  </si>
-  <si>
-    <t>+1 PONTO</t>
-  </si>
 </sst>
 </file>
 
@@ -186,7 +124,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mmm"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -211,29 +149,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -241,69 +156,17 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFAA61A"/>
-        <bgColor rgb="FFFFCC00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="1">
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFAA61A"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFAA61A"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFAA61A"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFFAA61A"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFAA61A"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFAA61A"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -312,9 +175,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -327,25 +190,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -355,37 +207,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -825,7 +647,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="BY3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="BY1" sqref="BY1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CT20" sqref="CT20"/>
+      <selection pane="bottomRight" activeCell="CW14" sqref="CW14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -890,11 +712,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:144" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
       <c r="D1" s="2">
         <v>45126</v>
       </c>
@@ -1174,19 +996,19 @@
       <c r="CR1" s="2">
         <v>45268</v>
       </c>
-      <c r="CS1" s="19">
+      <c r="CS1" s="10">
         <v>45271</v>
       </c>
-      <c r="CT1" s="19">
+      <c r="CT1" s="10">
         <v>45272</v>
       </c>
-      <c r="CU1" s="19">
+      <c r="CU1" s="10">
         <v>45273</v>
       </c>
-      <c r="CV1" s="19">
+      <c r="CV1" s="10">
         <v>45274</v>
       </c>
-      <c r="CW1" s="19">
+      <c r="CW1" s="10">
         <v>45275</v>
       </c>
     </row>
@@ -1501,7 +1323,7 @@
       </c>
       <c r="B3" s="6">
         <f t="shared" ref="B3:B21" si="0">B24/(B24+C24)</f>
-        <v>0.78723404255319152</v>
+        <v>0.79381443298969068</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1791,9 +1613,15 @@
       <c r="CT3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CU3" s="1"/>
-      <c r="CV3" s="1"/>
-      <c r="CW3" s="1"/>
+      <c r="CU3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CV3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CW3" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="CX3" s="1"/>
       <c r="CY3" s="1"/>
       <c r="CZ3" s="1"/>
@@ -1844,7 +1672,7 @@
       </c>
       <c r="B4" s="6">
         <f t="shared" si="0"/>
-        <v>0.77659574468085102</v>
+        <v>0.78350515463917525</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -2134,9 +1962,15 @@
       <c r="CT4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CU4" s="1"/>
-      <c r="CV4" s="1"/>
-      <c r="CW4" s="1"/>
+      <c r="CU4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CV4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CW4" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="CX4" s="1"/>
       <c r="CY4" s="1"/>
       <c r="CZ4" s="1"/>
@@ -2187,7 +2021,7 @@
       </c>
       <c r="B5" s="6">
         <f t="shared" si="0"/>
-        <v>0.57446808510638303</v>
+        <v>0.58762886597938147</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -2477,9 +2311,15 @@
       <c r="CT5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CU5" s="1"/>
-      <c r="CV5" s="1"/>
-      <c r="CW5" s="1"/>
+      <c r="CU5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CV5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CW5" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="CX5" s="1"/>
       <c r="CY5" s="1"/>
       <c r="CZ5" s="1"/>
@@ -2530,7 +2370,7 @@
       </c>
       <c r="B6" s="6">
         <f t="shared" si="0"/>
-        <v>0.87368421052631584</v>
+        <v>0.87755102040816324</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -2820,9 +2660,15 @@
       <c r="CT6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CU6" s="1"/>
-      <c r="CV6" s="1"/>
-      <c r="CW6" s="1"/>
+      <c r="CU6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CV6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CW6" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="CX6" s="1"/>
       <c r="CY6" s="1"/>
       <c r="CZ6" s="1"/>
@@ -2873,7 +2719,7 @@
       </c>
       <c r="B7" s="6">
         <f t="shared" si="0"/>
-        <v>0.86315789473684212</v>
+        <v>0.86734693877551017</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -3163,9 +3009,15 @@
       <c r="CT7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CU7" s="1"/>
-      <c r="CV7" s="1"/>
-      <c r="CW7" s="1"/>
+      <c r="CU7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CV7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CW7" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="CX7" s="1"/>
       <c r="CY7" s="1"/>
       <c r="CZ7" s="1"/>
@@ -3216,7 +3068,7 @@
       </c>
       <c r="B8" s="6">
         <f t="shared" si="0"/>
-        <v>0.83157894736842108</v>
+        <v>0.83673469387755106</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -3506,9 +3358,15 @@
       <c r="CT8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CU8" s="1"/>
-      <c r="CV8" s="1"/>
-      <c r="CW8" s="1"/>
+      <c r="CU8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CV8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CW8" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="CX8" s="1"/>
       <c r="CY8" s="1"/>
       <c r="CZ8" s="1"/>
@@ -3559,7 +3417,7 @@
       </c>
       <c r="B9" s="6">
         <f t="shared" si="0"/>
-        <v>0.65957446808510634</v>
+        <v>0.67010309278350511</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -3849,9 +3707,15 @@
       <c r="CT9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CU9" s="1"/>
-      <c r="CV9" s="1"/>
-      <c r="CW9" s="1"/>
+      <c r="CU9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CV9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CW9" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="CX9" s="1"/>
       <c r="CY9" s="1"/>
       <c r="CZ9" s="1"/>
@@ -3902,7 +3766,7 @@
       </c>
       <c r="B10" s="6">
         <f t="shared" si="0"/>
-        <v>0.58510638297872342</v>
+        <v>0.59793814432989689</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -4190,9 +4054,15 @@
       <c r="CT10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CU10" s="1"/>
-      <c r="CV10" s="1"/>
-      <c r="CW10" s="1"/>
+      <c r="CU10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CV10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CW10" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="CX10" s="1"/>
       <c r="CY10" s="1"/>
       <c r="CZ10" s="1"/>
@@ -4243,7 +4113,7 @@
       </c>
       <c r="B11" s="6">
         <f t="shared" si="0"/>
-        <v>0.55319148936170215</v>
+        <v>0.53608247422680411</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -4533,9 +4403,15 @@
       <c r="CT11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CU11" s="1"/>
-      <c r="CV11" s="1"/>
-      <c r="CW11" s="1"/>
+      <c r="CU11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CV11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CW11" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CX11" s="1"/>
       <c r="CY11" s="1"/>
       <c r="CZ11" s="1"/>
@@ -4586,7 +4462,7 @@
       </c>
       <c r="B12" s="6">
         <f t="shared" si="0"/>
-        <v>0.74736842105263157</v>
+        <v>0.75510204081632648</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -4876,9 +4752,15 @@
       <c r="CT12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CU12" s="1"/>
-      <c r="CV12" s="1"/>
-      <c r="CW12" s="1"/>
+      <c r="CU12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CV12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CW12" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="CX12" s="1"/>
       <c r="CY12" s="1"/>
       <c r="CZ12" s="1"/>
@@ -4929,7 +4811,7 @@
       </c>
       <c r="B13" s="6">
         <f t="shared" si="0"/>
-        <v>0.75531914893617025</v>
+        <v>0.76288659793814428</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -5219,9 +5101,15 @@
       <c r="CT13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CU13" s="1"/>
-      <c r="CV13" s="1"/>
-      <c r="CW13" s="1"/>
+      <c r="CU13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CV13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CW13" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="CX13" s="1"/>
       <c r="CY13" s="1"/>
       <c r="CZ13" s="1"/>
@@ -5272,7 +5160,7 @@
       </c>
       <c r="B14" s="6">
         <f t="shared" si="0"/>
-        <v>0.74736842105263157</v>
+        <v>0.75510204081632648</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -5562,9 +5450,15 @@
       <c r="CT14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CU14" s="1"/>
-      <c r="CV14" s="1"/>
-      <c r="CW14" s="1"/>
+      <c r="CU14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CV14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CW14" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="CX14" s="1"/>
       <c r="CY14" s="1"/>
       <c r="CZ14" s="1"/>
@@ -5615,7 +5509,7 @@
       </c>
       <c r="B15" s="6">
         <f t="shared" si="0"/>
-        <v>0.7978723404255319</v>
+        <v>0.80412371134020622</v>
       </c>
       <c r="C15">
         <v>13</v>
@@ -5905,9 +5799,15 @@
       <c r="CT15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CU15" s="1"/>
-      <c r="CV15" s="1"/>
-      <c r="CW15" s="1"/>
+      <c r="CU15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CV15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CW15" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="CX15" s="1"/>
       <c r="CY15" s="1"/>
       <c r="CZ15" s="1"/>
@@ -5958,7 +5858,7 @@
       </c>
       <c r="B16" s="6">
         <f t="shared" si="0"/>
-        <v>0.74468085106382975</v>
+        <v>0.75257731958762886</v>
       </c>
       <c r="C16">
         <v>14</v>
@@ -6248,9 +6148,15 @@
       <c r="CT16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CU16" s="1"/>
-      <c r="CV16" s="1"/>
-      <c r="CW16" s="1"/>
+      <c r="CU16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CV16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CW16" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="CX16" s="1"/>
       <c r="CY16" s="1"/>
       <c r="CZ16" s="1"/>
@@ -6301,7 +6207,7 @@
       </c>
       <c r="B17" s="6">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.41836734693877553</v>
       </c>
       <c r="C17">
         <v>15</v>
@@ -6591,9 +6497,15 @@
       <c r="CT17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CU17" s="1"/>
-      <c r="CV17" s="1"/>
-      <c r="CW17" s="1"/>
+      <c r="CU17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CV17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CW17" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="CX17" s="1"/>
       <c r="CY17" s="1"/>
       <c r="CZ17" s="1"/>
@@ -6644,7 +6556,7 @@
       </c>
       <c r="B18" s="6">
         <f t="shared" si="0"/>
-        <v>0.98936170212765961</v>
+        <v>0.98969072164948457</v>
       </c>
       <c r="C18">
         <v>16</v>
@@ -6932,9 +6844,15 @@
       <c r="CT18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CU18" s="1"/>
-      <c r="CV18" s="1"/>
-      <c r="CW18" s="1"/>
+      <c r="CU18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CV18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CW18" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="CX18" s="1"/>
       <c r="CY18" s="1"/>
       <c r="CZ18" s="1"/>
@@ -6985,7 +6903,7 @@
       </c>
       <c r="B19" s="6">
         <f t="shared" si="0"/>
-        <v>0.94736842105263153</v>
+        <v>0.94897959183673475</v>
       </c>
       <c r="C19">
         <v>17</v>
@@ -7275,9 +7193,15 @@
       <c r="CT19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CU19" s="1"/>
-      <c r="CV19" s="1"/>
-      <c r="CW19" s="1"/>
+      <c r="CU19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CV19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CW19" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="CX19" s="1"/>
       <c r="CY19" s="1"/>
       <c r="CZ19" s="1"/>
@@ -7328,7 +7252,7 @@
       </c>
       <c r="B20" s="6">
         <f t="shared" si="0"/>
-        <v>0.67021276595744683</v>
+        <v>0.68041237113402064</v>
       </c>
       <c r="C20">
         <v>18</v>
@@ -7616,9 +7540,15 @@
       <c r="CT20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CU20" s="1"/>
-      <c r="CV20" s="1"/>
-      <c r="CW20" s="1"/>
+      <c r="CU20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CV20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CW20" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="CX20" s="1"/>
       <c r="CY20" s="1"/>
       <c r="CZ20" s="1"/>
@@ -7669,7 +7599,7 @@
       </c>
       <c r="B21" s="6">
         <f t="shared" si="0"/>
-        <v>0.7021276595744681</v>
+        <v>0.71134020618556704</v>
       </c>
       <c r="C21">
         <v>19</v>
@@ -7959,9 +7889,15 @@
       <c r="CT21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CU21" s="1"/>
-      <c r="CV21" s="1"/>
-      <c r="CW21" s="1"/>
+      <c r="CU21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CV21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CW21" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="CX21" s="1"/>
       <c r="CY21" s="1"/>
       <c r="CZ21" s="1"/>
@@ -8049,7 +7985,7 @@
       </c>
       <c r="B24">
         <f t="shared" ref="B24:B42" si="1">COUNTIF(D3:EB3,B$23)</f>
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C24">
         <f t="shared" ref="C24:C42" si="2">COUNTIF(E3:EC3,C$23)</f>
@@ -8062,7 +7998,7 @@
       </c>
       <c r="B25">
         <f t="shared" si="1"/>
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C25">
         <f t="shared" si="2"/>
@@ -8075,7 +8011,7 @@
       </c>
       <c r="B26">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C26">
         <f t="shared" si="2"/>
@@ -8088,7 +8024,7 @@
       </c>
       <c r="B27">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C27">
         <f t="shared" si="2"/>
@@ -8101,7 +8037,7 @@
       </c>
       <c r="B28">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C28">
         <f t="shared" si="2"/>
@@ -8115,7 +8051,7 @@
       </c>
       <c r="B29">
         <f t="shared" si="1"/>
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C29">
         <f t="shared" si="2"/>
@@ -8128,7 +8064,7 @@
       </c>
       <c r="B30">
         <f t="shared" si="1"/>
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C30">
         <f t="shared" si="2"/>
@@ -8141,7 +8077,7 @@
       </c>
       <c r="B31">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C31">
         <f t="shared" si="2"/>
@@ -8158,7 +8094,7 @@
       </c>
       <c r="C32">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -8167,7 +8103,7 @@
       </c>
       <c r="B33">
         <f t="shared" si="1"/>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C33">
         <f t="shared" si="2"/>
@@ -8180,7 +8116,7 @@
       </c>
       <c r="B34">
         <f t="shared" si="1"/>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C34">
         <f t="shared" si="2"/>
@@ -8193,7 +8129,7 @@
       </c>
       <c r="B35">
         <f t="shared" si="1"/>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C35">
         <f t="shared" si="2"/>
@@ -8206,7 +8142,7 @@
       </c>
       <c r="B36">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C36">
         <f t="shared" si="2"/>
@@ -8219,7 +8155,7 @@
       </c>
       <c r="B37">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C37">
         <f t="shared" si="2"/>
@@ -8232,7 +8168,7 @@
       </c>
       <c r="B38">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C38">
         <f t="shared" si="2"/>
@@ -8245,7 +8181,7 @@
       </c>
       <c r="B39">
         <f t="shared" si="1"/>
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C39">
         <f t="shared" si="2"/>
@@ -8258,7 +8194,7 @@
       </c>
       <c r="B40">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C40">
         <f t="shared" si="2"/>
@@ -8271,7 +8207,7 @@
       </c>
       <c r="B41">
         <f t="shared" si="1"/>
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C41">
         <f t="shared" si="2"/>
@@ -8284,7 +8220,7 @@
       </c>
       <c r="B42">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C42">
         <f t="shared" si="2"/>
@@ -8296,624 +8232,31 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:C42">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B21">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
       <formula>0.75</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:ANE21 D22:AJ22 AK22:CM1048576 G23:AJ42 B24:C42">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+  <conditionalFormatting sqref="D22:AJ22 AK22:CM1048576 G23:AJ42 B24:C42 D1:ANE21">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CO22:ANE1048576 A43:AJ1048576">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E21"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="34.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="10"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A1:A21">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H22"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="39.85546875" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="51.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="28.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="10"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22">
-        <v>0.25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A1:A21 B20:F20">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/3des/frequencia.xlsx
+++ b/3des/frequencia.xlsx
@@ -8,15 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39791DFB-34CB-40B5-B90F-BF0858A2BF43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24045153-8639-454D-B0B4-4F6675FD0A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -25,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2002" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2026" uniqueCount="30">
   <si>
     <t>Alunos</t>
   </si>
@@ -111,10 +122,10 @@
     <t>Yukina Madum Shinhama</t>
   </si>
   <si>
-    <t>q</t>
+    <t>FREQUÊNCIA</t>
   </si>
   <si>
-    <t>FREQUÊNCIA</t>
+    <t>Atividade Remota</t>
   </si>
 </sst>
 </file>
@@ -156,12 +167,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -177,7 +194,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -202,6 +219,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -641,13 +661,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:EN42"/>
+  <dimension ref="A1:EO42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="BY3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="CA3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="BY1" sqref="BY1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CW14" sqref="CW14"/>
+      <selection pane="bottomRight" activeCell="CR14" sqref="CR14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,43 +695,42 @@
     <col min="40" max="42" width="6.5703125" style="1" customWidth="1"/>
     <col min="43" max="44" width="7.7109375" style="1" customWidth="1"/>
     <col min="45" max="47" width="6.5703125" style="1" customWidth="1"/>
-    <col min="48" max="50" width="7.7109375" style="1" customWidth="1"/>
-    <col min="51" max="52" width="6.5703125" style="1" customWidth="1"/>
-    <col min="53" max="54" width="7.7109375" style="1" customWidth="1"/>
-    <col min="55" max="57" width="5.85546875" style="1" customWidth="1"/>
-    <col min="58" max="59" width="7.7109375" style="1" customWidth="1"/>
-    <col min="60" max="60" width="6.85546875" style="1" customWidth="1"/>
-    <col min="61" max="62" width="7.7109375" style="1" customWidth="1"/>
-    <col min="63" max="65" width="6.85546875" customWidth="1"/>
-    <col min="66" max="67" width="7.7109375" customWidth="1"/>
-    <col min="68" max="70" width="6.85546875" customWidth="1"/>
-    <col min="71" max="72" width="7.7109375" customWidth="1"/>
-    <col min="73" max="73" width="7.140625" customWidth="1"/>
-    <col min="74" max="75" width="7.7109375" customWidth="1"/>
-    <col min="76" max="78" width="7.140625" customWidth="1"/>
-    <col min="79" max="80" width="7.7109375" customWidth="1"/>
-    <col min="81" max="82" width="7.140625" customWidth="1"/>
-    <col min="83" max="83" width="7.7109375" customWidth="1"/>
-    <col min="84" max="86" width="7.140625" customWidth="1"/>
-    <col min="87" max="88" width="7.7109375" customWidth="1"/>
-    <col min="89" max="90" width="7.140625" customWidth="1"/>
-    <col min="91" max="91" width="7" customWidth="1"/>
-    <col min="92" max="92" width="8" customWidth="1"/>
-    <col min="93" max="93" width="8.28515625" customWidth="1"/>
-    <col min="94" max="95" width="6.42578125" customWidth="1"/>
-    <col min="96" max="96" width="6.7109375" customWidth="1"/>
-    <col min="97" max="99" width="7.140625" customWidth="1"/>
-    <col min="100" max="100" width="7.42578125" customWidth="1"/>
-    <col min="101" max="104" width="7.140625" customWidth="1"/>
-    <col min="105" max="105" width="7.42578125" customWidth="1"/>
-    <col min="106" max="109" width="7.140625" customWidth="1"/>
-    <col min="110" max="110" width="7.42578125" customWidth="1"/>
-    <col min="111" max="114" width="7.140625" customWidth="1"/>
-    <col min="115" max="115" width="7.42578125" customWidth="1"/>
-    <col min="116" max="116" width="6.7109375" customWidth="1"/>
+    <col min="48" max="51" width="7.7109375" style="1" customWidth="1"/>
+    <col min="52" max="53" width="6.5703125" style="1" customWidth="1"/>
+    <col min="54" max="55" width="7.7109375" style="1" customWidth="1"/>
+    <col min="56" max="58" width="5.85546875" style="1" customWidth="1"/>
+    <col min="59" max="60" width="7.7109375" style="1" customWidth="1"/>
+    <col min="61" max="61" width="6.85546875" style="1" customWidth="1"/>
+    <col min="62" max="63" width="7.7109375" style="1" customWidth="1"/>
+    <col min="64" max="66" width="6.85546875" customWidth="1"/>
+    <col min="67" max="68" width="7.7109375" customWidth="1"/>
+    <col min="69" max="71" width="6.85546875" customWidth="1"/>
+    <col min="72" max="73" width="7.7109375" customWidth="1"/>
+    <col min="74" max="74" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="75" max="76" width="7.7109375" customWidth="1"/>
+    <col min="77" max="78" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="7.140625" customWidth="1"/>
+    <col min="80" max="81" width="7.7109375" customWidth="1"/>
+    <col min="82" max="83" width="7.140625" customWidth="1"/>
+    <col min="84" max="84" width="7.7109375" customWidth="1"/>
+    <col min="85" max="87" width="7.140625" customWidth="1"/>
+    <col min="88" max="89" width="7.7109375" customWidth="1"/>
+    <col min="90" max="91" width="7.140625" customWidth="1"/>
+    <col min="92" max="92" width="6" bestFit="1" customWidth="1"/>
+    <col min="93" max="94" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="95" max="97" width="6" bestFit="1" customWidth="1"/>
+    <col min="98" max="99" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="100" max="102" width="7" bestFit="1" customWidth="1"/>
+    <col min="103" max="105" width="7.140625" customWidth="1"/>
+    <col min="106" max="106" width="7.42578125" customWidth="1"/>
+    <col min="107" max="110" width="7.140625" customWidth="1"/>
+    <col min="111" max="111" width="7.42578125" customWidth="1"/>
+    <col min="112" max="115" width="7.140625" customWidth="1"/>
+    <col min="116" max="116" width="7.42578125" customWidth="1"/>
+    <col min="117" max="117" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -849,170 +868,173 @@
       <c r="AU1" s="2">
         <v>45191</v>
       </c>
-      <c r="AV1" s="2">
+      <c r="AV1" s="12">
         <v>45192</v>
       </c>
-      <c r="AW1" s="2">
+      <c r="AW1" s="14">
+        <v>45194</v>
+      </c>
+      <c r="AX1" s="2">
         <v>45195</v>
       </c>
-      <c r="AX1" s="2">
+      <c r="AY1" s="2">
         <v>45196</v>
       </c>
-      <c r="AY1" s="2">
+      <c r="AZ1" s="2">
         <v>45197</v>
       </c>
-      <c r="AZ1" s="2">
+      <c r="BA1" s="2">
         <v>45198</v>
       </c>
-      <c r="BA1" s="2">
+      <c r="BB1" s="2">
         <v>45201</v>
       </c>
-      <c r="BB1" s="2">
+      <c r="BC1" s="2">
         <v>45202</v>
       </c>
-      <c r="BC1" s="2">
+      <c r="BD1" s="2">
         <v>45203</v>
       </c>
-      <c r="BD1" s="2">
+      <c r="BE1" s="2">
         <v>45204</v>
       </c>
-      <c r="BE1" s="2">
+      <c r="BF1" s="2">
         <v>45205</v>
       </c>
-      <c r="BF1" s="3">
+      <c r="BG1" s="3">
         <v>45208</v>
       </c>
-      <c r="BG1" s="3">
+      <c r="BH1" s="3">
         <v>45209</v>
       </c>
-      <c r="BH1" s="3">
+      <c r="BI1" s="3">
         <v>45210</v>
       </c>
-      <c r="BI1" s="3">
+      <c r="BJ1" s="3">
         <v>45215</v>
       </c>
-      <c r="BJ1" s="3">
+      <c r="BK1" s="3">
         <v>45216</v>
       </c>
-      <c r="BK1" s="3">
+      <c r="BL1" s="3">
         <v>45217</v>
       </c>
-      <c r="BL1" s="3">
+      <c r="BM1" s="3">
         <v>45218</v>
       </c>
-      <c r="BM1" s="3">
+      <c r="BN1" s="3">
         <v>45219</v>
       </c>
-      <c r="BN1" s="2">
+      <c r="BO1" s="2">
         <v>45222</v>
       </c>
-      <c r="BO1" s="2">
+      <c r="BP1" s="2">
         <v>45223</v>
       </c>
-      <c r="BP1" s="2">
+      <c r="BQ1" s="2">
         <v>45224</v>
       </c>
-      <c r="BQ1" s="2">
+      <c r="BR1" s="2">
         <v>45225</v>
       </c>
-      <c r="BR1" s="2">
+      <c r="BS1" s="2">
         <v>45226</v>
       </c>
-      <c r="BS1" s="2">
+      <c r="BT1" s="2">
         <v>45229</v>
       </c>
-      <c r="BT1" s="2">
+      <c r="BU1" s="2">
         <v>45230</v>
       </c>
-      <c r="BU1" s="2">
+      <c r="BV1" s="2">
         <v>45231</v>
       </c>
-      <c r="BV1" s="2">
+      <c r="BW1" s="2">
         <v>45236</v>
       </c>
-      <c r="BW1" s="2">
+      <c r="BX1" s="2">
         <v>45237</v>
       </c>
-      <c r="BX1" s="2">
+      <c r="BY1" s="2">
         <v>45238</v>
       </c>
-      <c r="BY1" s="2">
+      <c r="BZ1" s="2">
         <v>45239</v>
       </c>
-      <c r="BZ1" s="2">
+      <c r="CA1" s="2">
         <v>45240</v>
       </c>
-      <c r="CA1" s="2">
+      <c r="CB1" s="2">
         <v>45243</v>
       </c>
-      <c r="CB1" s="2">
+      <c r="CC1" s="2">
         <v>45244</v>
       </c>
-      <c r="CC1" s="2">
+      <c r="CD1" s="2">
         <v>45246</v>
       </c>
-      <c r="CD1" s="2">
+      <c r="CE1" s="2">
         <v>45247</v>
       </c>
-      <c r="CE1" s="2">
+      <c r="CF1" s="2">
         <v>45251</v>
       </c>
-      <c r="CF1" s="2">
+      <c r="CG1" s="2">
         <v>45252</v>
       </c>
-      <c r="CG1" s="2">
+      <c r="CH1" s="2">
         <v>45253</v>
       </c>
-      <c r="CH1" s="2">
+      <c r="CI1" s="2">
         <v>45254</v>
       </c>
-      <c r="CI1" s="2">
+      <c r="CJ1" s="2">
         <v>45257</v>
       </c>
-      <c r="CJ1" s="2">
+      <c r="CK1" s="2">
         <v>45258</v>
       </c>
-      <c r="CK1" s="2">
+      <c r="CL1" s="2">
         <v>45259</v>
       </c>
-      <c r="CL1" s="2">
+      <c r="CM1" s="2">
         <v>45260</v>
       </c>
-      <c r="CM1" s="2">
+      <c r="CN1" s="2">
         <v>45261</v>
       </c>
-      <c r="CN1" s="2">
+      <c r="CO1" s="2">
         <v>45264</v>
       </c>
-      <c r="CO1" s="2">
+      <c r="CP1" s="2">
         <v>45265</v>
       </c>
-      <c r="CP1" s="2">
+      <c r="CQ1" s="2">
         <v>45266</v>
       </c>
-      <c r="CQ1" s="2">
+      <c r="CR1" s="2">
         <v>45267</v>
       </c>
-      <c r="CR1" s="2">
+      <c r="CS1" s="2">
         <v>45268</v>
       </c>
-      <c r="CS1" s="10">
+      <c r="CT1" s="10">
         <v>45271</v>
       </c>
-      <c r="CT1" s="10">
+      <c r="CU1" s="10">
         <v>45272</v>
       </c>
-      <c r="CU1" s="10">
+      <c r="CV1" s="10">
         <v>45273</v>
       </c>
-      <c r="CV1" s="10">
+      <c r="CW1" s="10">
         <v>45274</v>
       </c>
-      <c r="CW1" s="10">
+      <c r="CX1" s="10">
         <v>45275</v>
       </c>
     </row>
-    <row r="2" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1157,10 +1179,10 @@
       <c r="AV2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AW2" t="s">
         <v>5</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="AX2" t="s">
         <v>6</v>
       </c>
       <c r="AY2" s="1" t="s">
@@ -1170,13 +1192,13 @@
         <v>4</v>
       </c>
       <c r="BA2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BC2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="BD2" s="1" t="s">
         <v>4</v>
@@ -1185,22 +1207,22 @@
         <v>4</v>
       </c>
       <c r="BF2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BG2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="BG2" s="1" t="s">
+      <c r="BH2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="BH2" s="1" t="s">
+      <c r="BI2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="BI2" s="1" t="s">
+      <c r="BJ2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="BJ2" s="1" t="s">
+      <c r="BK2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>4</v>
       </c>
       <c r="BL2" t="s">
         <v>4</v>
@@ -1209,13 +1231,13 @@
         <v>4</v>
       </c>
       <c r="BN2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BO2" t="s">
         <v>5</v>
       </c>
-      <c r="BO2" s="1" t="s">
+      <c r="BP2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>4</v>
       </c>
       <c r="BQ2" t="s">
         <v>4</v>
@@ -1224,22 +1246,22 @@
         <v>4</v>
       </c>
       <c r="BS2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BT2" t="s">
         <v>5</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="BU2" t="s">
         <v>6</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="BV2" t="s">
         <v>4</v>
       </c>
-      <c r="BV2" t="s">
+      <c r="BW2" t="s">
         <v>5</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="BX2" t="s">
         <v>6</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>4</v>
       </c>
       <c r="BY2" t="s">
         <v>4</v>
@@ -1248,22 +1270,22 @@
         <v>4</v>
       </c>
       <c r="CA2" t="s">
+        <v>4</v>
+      </c>
+      <c r="CB2" t="s">
         <v>5</v>
       </c>
-      <c r="CB2" t="s">
+      <c r="CC2" t="s">
         <v>6</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>4</v>
       </c>
       <c r="CD2" t="s">
         <v>4</v>
       </c>
       <c r="CE2" t="s">
+        <v>4</v>
+      </c>
+      <c r="CF2" t="s">
         <v>6</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>4</v>
       </c>
       <c r="CG2" t="s">
         <v>4</v>
@@ -1272,13 +1294,13 @@
         <v>4</v>
       </c>
       <c r="CI2" t="s">
+        <v>4</v>
+      </c>
+      <c r="CJ2" t="s">
         <v>5</v>
       </c>
-      <c r="CJ2" t="s">
+      <c r="CK2" t="s">
         <v>6</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>4</v>
       </c>
       <c r="CL2" t="s">
         <v>4</v>
@@ -1287,13 +1309,13 @@
         <v>4</v>
       </c>
       <c r="CN2" t="s">
+        <v>4</v>
+      </c>
+      <c r="CO2" t="s">
         <v>5</v>
       </c>
-      <c r="CO2" t="s">
+      <c r="CP2" t="s">
         <v>6</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>4</v>
       </c>
       <c r="CQ2" t="s">
         <v>4</v>
@@ -1302,13 +1324,13 @@
         <v>4</v>
       </c>
       <c r="CS2" t="s">
+        <v>4</v>
+      </c>
+      <c r="CT2" t="s">
         <v>5</v>
       </c>
-      <c r="CT2" t="s">
+      <c r="CU2" t="s">
         <v>6</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>4</v>
       </c>
       <c r="CV2" t="s">
         <v>4</v>
@@ -1316,14 +1338,17 @@
       <c r="CW2" t="s">
         <v>4</v>
       </c>
+      <c r="CX2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="6">
         <f t="shared" ref="B3:B21" si="0">B24/(B24+C24)</f>
-        <v>0.79381443298969068</v>
+        <v>0.89795918367346939</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1332,10 +1357,10 @@
         <v>8</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>9</v>
@@ -1419,10 +1444,10 @@
         <v>8</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ3" s="7" t="s">
         <v>9</v>
@@ -1431,10 +1456,10 @@
         <v>9</v>
       </c>
       <c r="AL3" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM3" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN3" s="7" t="s">
         <v>8</v>
@@ -1467,10 +1492,10 @@
         <v>9</v>
       </c>
       <c r="AX3" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY3" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ3" s="7" t="s">
         <v>9</v>
@@ -1481,20 +1506,20 @@
       <c r="BB3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="BC3" s="1" t="s">
+      <c r="BC3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="BD3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BE3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BF3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BG3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BH3" s="1" t="s">
         <v>9</v>
@@ -1509,7 +1534,7 @@
         <v>9</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BM3" s="1" t="s">
         <v>8</v>
@@ -1542,7 +1567,7 @@
         <v>9</v>
       </c>
       <c r="BW3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BX3" s="1" t="s">
         <v>8</v>
@@ -1556,7 +1581,7 @@
       <c r="CA3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CB3" s="8" t="s">
+      <c r="CB3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="CC3" s="8" t="s">
@@ -1568,7 +1593,7 @@
       <c r="CE3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="CF3" s="1" t="s">
+      <c r="CF3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="CG3" s="1" t="s">
@@ -1593,13 +1618,13 @@
         <v>9</v>
       </c>
       <c r="CN3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CO3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="CP3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CQ3" s="1" t="s">
         <v>9</v>
@@ -1608,10 +1633,10 @@
         <v>9</v>
       </c>
       <c r="CS3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CT3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CU3" s="1" t="s">
         <v>9</v>
@@ -1622,7 +1647,9 @@
       <c r="CW3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CX3" s="1"/>
+      <c r="CX3" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="CY3" s="1"/>
       <c r="CZ3" s="1"/>
       <c r="DA3" s="1"/>
@@ -1665,14 +1692,15 @@
       <c r="EL3" s="1"/>
       <c r="EM3" s="1"/>
       <c r="EN3" s="1"/>
+      <c r="EO3" s="1"/>
     </row>
-    <row r="4" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="6">
         <f t="shared" si="0"/>
-        <v>0.78350515463917525</v>
+        <v>0.84693877551020413</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1729,7 +1757,7 @@
         <v>9</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V4" s="7" t="s">
         <v>8</v>
@@ -1783,7 +1811,7 @@
         <v>9</v>
       </c>
       <c r="AM4" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN4" s="7" t="s">
         <v>9</v>
@@ -1830,26 +1858,26 @@
       <c r="BB4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="BC4" s="1" t="s">
+      <c r="BC4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="BD4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BE4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BF4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BG4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BH4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BI4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BJ4" s="1" t="s">
         <v>9</v>
@@ -1858,10 +1886,10 @@
         <v>9</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BM4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BN4" s="1" t="s">
         <v>9</v>
@@ -1870,22 +1898,22 @@
         <v>9</v>
       </c>
       <c r="BP4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BQ4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BR4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BS4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BT4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BU4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BV4" s="1" t="s">
         <v>9</v>
@@ -1897,15 +1925,15 @@
         <v>9</v>
       </c>
       <c r="BY4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BZ4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="CA4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="CB4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="CB4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="CC4" s="8" t="s">
@@ -1917,8 +1945,8 @@
       <c r="CE4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="CF4" s="1" t="s">
-        <v>8</v>
+      <c r="CF4" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="CG4" s="1" t="s">
         <v>9</v>
@@ -1936,13 +1964,13 @@
         <v>9</v>
       </c>
       <c r="CL4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CM4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CN4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CO4" s="1" t="s">
         <v>8</v>
@@ -1971,7 +1999,9 @@
       <c r="CW4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CX4" s="1"/>
+      <c r="CX4" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="CY4" s="1"/>
       <c r="CZ4" s="1"/>
       <c r="DA4" s="1"/>
@@ -2014,14 +2044,15 @@
       <c r="EL4" s="1"/>
       <c r="EM4" s="1"/>
       <c r="EN4" s="1"/>
+      <c r="EO4" s="1"/>
     </row>
-    <row r="5" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="6">
         <f t="shared" si="0"/>
-        <v>0.58762886597938147</v>
+        <v>0.79591836734693877</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -2030,10 +2061,10 @@
         <v>8</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>9</v>
@@ -2075,10 +2106,10 @@
         <v>9</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V5" s="7" t="s">
         <v>9</v>
@@ -2102,13 +2133,13 @@
         <v>8</v>
       </c>
       <c r="AC5" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="AE5" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF5" s="7" t="s">
         <v>8</v>
@@ -2120,7 +2151,7 @@
         <v>9</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ5" s="7" t="s">
         <v>9</v>
@@ -2129,10 +2160,10 @@
         <v>9</v>
       </c>
       <c r="AL5" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM5" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN5" s="7" t="s">
         <v>9</v>
@@ -2153,7 +2184,7 @@
         <v>9</v>
       </c>
       <c r="AT5" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU5" s="7" t="s">
         <v>9</v>
@@ -2165,7 +2196,7 @@
         <v>9</v>
       </c>
       <c r="AX5" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY5" s="7" t="s">
         <v>9</v>
@@ -2179,23 +2210,23 @@
       <c r="BB5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="BC5" s="1" t="s">
-        <v>8</v>
+      <c r="BC5" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="BD5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BE5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BF5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BG5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BH5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BI5" s="1" t="s">
         <v>9</v>
@@ -2207,40 +2238,40 @@
         <v>9</v>
       </c>
       <c r="BL5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BM5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BN5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BO5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BP5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BQ5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BR5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BS5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BT5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BU5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BV5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BW5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BX5" s="1" t="s">
         <v>8</v>
@@ -2249,13 +2280,13 @@
         <v>9</v>
       </c>
       <c r="BZ5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CA5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CB5" s="8" t="s">
-        <v>9</v>
+      <c r="CB5" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="CC5" s="8" t="s">
         <v>9</v>
@@ -2266,8 +2297,8 @@
       <c r="CE5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="CF5" s="1" t="s">
-        <v>8</v>
+      <c r="CF5" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="CG5" s="1" t="s">
         <v>9</v>
@@ -2276,40 +2307,40 @@
         <v>9</v>
       </c>
       <c r="CI5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CJ5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CK5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="CL5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CM5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CN5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CO5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="CP5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CQ5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="CR5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CS5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CT5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CU5" s="1" t="s">
         <v>9</v>
@@ -2320,7 +2351,9 @@
       <c r="CW5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CX5" s="1"/>
+      <c r="CX5" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="CY5" s="1"/>
       <c r="CZ5" s="1"/>
       <c r="DA5" s="1"/>
@@ -2363,14 +2396,15 @@
       <c r="EL5" s="1"/>
       <c r="EM5" s="1"/>
       <c r="EN5" s="1"/>
+      <c r="EO5" s="1"/>
     </row>
-    <row r="6" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="6">
         <f t="shared" si="0"/>
-        <v>0.87755102040816324</v>
+        <v>0.92929292929292928</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -2457,7 +2491,7 @@
         <v>9</v>
       </c>
       <c r="AE6" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF6" s="7" t="s">
         <v>9</v>
@@ -2481,7 +2515,7 @@
         <v>9</v>
       </c>
       <c r="AM6" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN6" s="7" t="s">
         <v>9</v>
@@ -2528,7 +2562,7 @@
       <c r="BB6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="BC6" s="1" t="s">
+      <c r="BC6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="BD6" s="1" t="s">
@@ -2547,10 +2581,10 @@
         <v>9</v>
       </c>
       <c r="BI6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BJ6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BK6" s="1" t="s">
         <v>9</v>
@@ -2592,7 +2626,7 @@
         <v>9</v>
       </c>
       <c r="BX6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BY6" s="1" t="s">
         <v>9</v>
@@ -2603,7 +2637,7 @@
       <c r="CA6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CB6" s="8" t="s">
+      <c r="CB6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="CC6" s="8" t="s">
@@ -2615,8 +2649,8 @@
       <c r="CE6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="CF6" s="1" t="s">
-        <v>8</v>
+      <c r="CF6" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="CG6" s="1" t="s">
         <v>9</v>
@@ -2634,22 +2668,22 @@
         <v>9</v>
       </c>
       <c r="CL6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CM6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CN6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="CO6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CP6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CQ6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CR6" s="1" t="s">
         <v>8</v>
@@ -2658,10 +2692,10 @@
         <v>9</v>
       </c>
       <c r="CT6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CU6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CV6" s="1" t="s">
         <v>9</v>
@@ -2669,7 +2703,9 @@
       <c r="CW6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CX6" s="1"/>
+      <c r="CX6" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="CY6" s="1"/>
       <c r="CZ6" s="1"/>
       <c r="DA6" s="1"/>
@@ -2712,14 +2748,15 @@
       <c r="EL6" s="1"/>
       <c r="EM6" s="1"/>
       <c r="EN6" s="1"/>
+      <c r="EO6" s="1"/>
     </row>
-    <row r="7" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="6">
         <f t="shared" si="0"/>
-        <v>0.86734693877551017</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -2830,7 +2867,7 @@
         <v>9</v>
       </c>
       <c r="AM7" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN7" s="7" t="s">
         <v>9</v>
@@ -2860,7 +2897,7 @@
         <v>9</v>
       </c>
       <c r="AW7" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX7" s="7" t="s">
         <v>9</v>
@@ -2875,10 +2912,10 @@
         <v>9</v>
       </c>
       <c r="BB7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="BC7" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="BC7" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="BD7" s="1" t="s">
         <v>9</v>
@@ -2914,25 +2951,25 @@
         <v>9</v>
       </c>
       <c r="BO7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BP7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BQ7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BR7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BS7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BT7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BU7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BV7" s="1" t="s">
         <v>9</v>
@@ -2941,7 +2978,7 @@
         <v>9</v>
       </c>
       <c r="BX7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BY7" s="1" t="s">
         <v>9</v>
@@ -2950,10 +2987,10 @@
         <v>9</v>
       </c>
       <c r="CA7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CB7" s="8" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="CB7" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="CC7" s="8" t="s">
         <v>9</v>
@@ -2964,8 +3001,8 @@
       <c r="CE7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="CF7" s="1" t="s">
-        <v>8</v>
+      <c r="CF7" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="CG7" s="1" t="s">
         <v>9</v>
@@ -2986,7 +3023,7 @@
         <v>8</v>
       </c>
       <c r="CM7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CN7" s="1" t="s">
         <v>9</v>
@@ -2995,19 +3032,19 @@
         <v>9</v>
       </c>
       <c r="CP7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CQ7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CR7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="CS7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CT7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CU7" s="1" t="s">
         <v>9</v>
@@ -3018,7 +3055,9 @@
       <c r="CW7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CX7" s="1"/>
+      <c r="CX7" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="CY7" s="1"/>
       <c r="CZ7" s="1"/>
       <c r="DA7" s="1"/>
@@ -3061,14 +3100,15 @@
       <c r="EL7" s="1"/>
       <c r="EM7" s="1"/>
       <c r="EN7" s="1"/>
+      <c r="EO7" s="1"/>
     </row>
-    <row r="8" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="6">
         <f t="shared" si="0"/>
-        <v>0.83673469387755106</v>
+        <v>0.92929292929292928</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -3152,7 +3192,7 @@
         <v>9</v>
       </c>
       <c r="AD8" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE8" s="7" t="s">
         <v>9</v>
@@ -3176,10 +3216,10 @@
         <v>9</v>
       </c>
       <c r="AL8" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM8" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN8" s="7" t="s">
         <v>9</v>
@@ -3212,7 +3252,7 @@
         <v>9</v>
       </c>
       <c r="AX8" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY8" s="7" t="s">
         <v>9</v>
@@ -3224,10 +3264,10 @@
         <v>9</v>
       </c>
       <c r="BB8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="BC8" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="BC8" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="BD8" s="1" t="s">
         <v>9</v>
@@ -3239,10 +3279,10 @@
         <v>9</v>
       </c>
       <c r="BG8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BH8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BI8" s="1" t="s">
         <v>9</v>
@@ -3266,7 +3306,7 @@
         <v>9</v>
       </c>
       <c r="BP8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BQ8" s="1" t="s">
         <v>9</v>
@@ -3281,7 +3321,7 @@
         <v>9</v>
       </c>
       <c r="BU8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BV8" s="1" t="s">
         <v>9</v>
@@ -3290,7 +3330,7 @@
         <v>9</v>
       </c>
       <c r="BX8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BY8" s="1" t="s">
         <v>9</v>
@@ -3301,7 +3341,7 @@
       <c r="CA8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CB8" s="8" t="s">
+      <c r="CB8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="CC8" s="8" t="s">
@@ -3313,8 +3353,8 @@
       <c r="CE8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="CF8" s="1" t="s">
-        <v>8</v>
+      <c r="CF8" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="CG8" s="1" t="s">
         <v>9</v>
@@ -3332,13 +3372,13 @@
         <v>9</v>
       </c>
       <c r="CL8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CM8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CN8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CO8" s="1" t="s">
         <v>8</v>
@@ -3367,7 +3407,9 @@
       <c r="CW8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CX8" s="1"/>
+      <c r="CX8" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="CY8" s="1"/>
       <c r="CZ8" s="1"/>
       <c r="DA8" s="1"/>
@@ -3410,14 +3452,15 @@
       <c r="EL8" s="1"/>
       <c r="EM8" s="1"/>
       <c r="EN8" s="1"/>
+      <c r="EO8" s="1"/>
     </row>
-    <row r="9" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="6">
         <f t="shared" si="0"/>
-        <v>0.67010309278350511</v>
+        <v>0.86734693877551017</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -3426,10 +3469,10 @@
         <v>8</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>9</v>
@@ -3438,7 +3481,7 @@
         <v>8</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>9</v>
@@ -3471,10 +3514,10 @@
         <v>9</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V9" s="7" t="s">
         <v>9</v>
@@ -3483,7 +3526,7 @@
         <v>9</v>
       </c>
       <c r="X9" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y9" s="7" t="s">
         <v>9</v>
@@ -3498,10 +3541,10 @@
         <v>9</v>
       </c>
       <c r="AC9" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD9" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE9" s="7" t="s">
         <v>9</v>
@@ -3513,10 +3556,10 @@
         <v>9</v>
       </c>
       <c r="AH9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ9" s="7" t="s">
         <v>9</v>
@@ -3549,7 +3592,7 @@
         <v>9</v>
       </c>
       <c r="AT9" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU9" s="7" t="s">
         <v>9</v>
@@ -3558,10 +3601,10 @@
         <v>9</v>
       </c>
       <c r="AW9" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX9" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY9" s="7" t="s">
         <v>9</v>
@@ -3573,10 +3616,10 @@
         <v>9</v>
       </c>
       <c r="BB9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="BC9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="BC9" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="BD9" s="1" t="s">
         <v>9</v>
@@ -3585,10 +3628,10 @@
         <v>9</v>
       </c>
       <c r="BF9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BG9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BH9" s="1" t="s">
         <v>9</v>
@@ -3603,19 +3646,19 @@
         <v>9</v>
       </c>
       <c r="BL9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BM9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BN9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BO9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BP9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BQ9" s="1" t="s">
         <v>9</v>
@@ -3624,13 +3667,13 @@
         <v>9</v>
       </c>
       <c r="BS9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BT9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BU9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BV9" s="1" t="s">
         <v>9</v>
@@ -3639,18 +3682,18 @@
         <v>9</v>
       </c>
       <c r="BX9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BY9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BZ9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="CA9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="CB9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="CB9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="CC9" s="8" t="s">
@@ -3662,8 +3705,8 @@
       <c r="CE9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="CF9" s="1" t="s">
-        <v>8</v>
+      <c r="CF9" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="CG9" s="1" t="s">
         <v>9</v>
@@ -3687,7 +3730,7 @@
         <v>9</v>
       </c>
       <c r="CN9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CO9" s="1" t="s">
         <v>8</v>
@@ -3716,7 +3759,9 @@
       <c r="CW9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CX9" s="1"/>
+      <c r="CX9" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="CY9" s="1"/>
       <c r="CZ9" s="1"/>
       <c r="DA9" s="1"/>
@@ -3759,14 +3804,15 @@
       <c r="EL9" s="1"/>
       <c r="EM9" s="1"/>
       <c r="EN9" s="1"/>
+      <c r="EO9" s="1"/>
     </row>
-    <row r="10" spans="1:144" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:145" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="6">
         <f t="shared" si="0"/>
-        <v>0.59793814432989689</v>
+        <v>0.78787878787878785</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -3775,10 +3821,10 @@
         <v>9</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>9</v>
@@ -3786,7 +3832,9 @@
       <c r="H10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="7"/>
+      <c r="I10" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="J10" s="7" t="s">
         <v>9</v>
       </c>
@@ -3818,10 +3866,10 @@
         <v>9</v>
       </c>
       <c r="T10" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V10" s="7" t="s">
         <v>8</v>
@@ -3830,7 +3878,7 @@
         <v>9</v>
       </c>
       <c r="X10" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y10" s="7" t="s">
         <v>9</v>
@@ -3845,7 +3893,7 @@
         <v>9</v>
       </c>
       <c r="AC10" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD10" s="7" t="s">
         <v>9</v>
@@ -3859,8 +3907,8 @@
       <c r="AG10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AH10" s="7" t="s">
-        <v>8</v>
+      <c r="AH10" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="AI10" s="1" t="s">
         <v>9</v>
@@ -3872,7 +3920,7 @@
         <v>9</v>
       </c>
       <c r="AL10" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM10" s="7" t="s">
         <v>9</v>
@@ -3899,13 +3947,13 @@
         <v>9</v>
       </c>
       <c r="AU10" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV10" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW10" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX10" s="7" t="s">
         <v>9</v>
@@ -3920,28 +3968,28 @@
         <v>9</v>
       </c>
       <c r="BB10" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="BD10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD10" s="7" t="s">
         <v>9</v>
       </c>
       <c r="BE10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BF10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BG10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BH10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BI10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BJ10" s="1" t="s">
         <v>9</v>
@@ -3950,7 +3998,7 @@
         <v>9</v>
       </c>
       <c r="BL10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BM10" s="1" t="s">
         <v>9</v>
@@ -3959,7 +4007,7 @@
         <v>9</v>
       </c>
       <c r="BO10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BP10" s="1" t="s">
         <v>8</v>
@@ -3974,7 +4022,7 @@
         <v>9</v>
       </c>
       <c r="BT10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BU10" s="1" t="s">
         <v>8</v>
@@ -3983,25 +4031,25 @@
         <v>9</v>
       </c>
       <c r="BW10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BX10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BY10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BZ10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CA10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CB10" s="8" t="s">
-        <v>8</v>
+      <c r="CB10" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="CC10" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CD10" s="8" t="s">
         <v>9</v>
@@ -4009,8 +4057,8 @@
       <c r="CE10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="CF10" s="1" t="s">
-        <v>8</v>
+      <c r="CF10" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="CG10" s="1" t="s">
         <v>9</v>
@@ -4028,31 +4076,31 @@
         <v>9</v>
       </c>
       <c r="CL10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CM10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="CN10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CO10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CP10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="CQ10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CR10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CS10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CT10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CU10" s="1" t="s">
         <v>9</v>
@@ -4063,7 +4111,9 @@
       <c r="CW10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CX10" s="1"/>
+      <c r="CX10" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="CY10" s="1"/>
       <c r="CZ10" s="1"/>
       <c r="DA10" s="1"/>
@@ -4106,14 +4156,15 @@
       <c r="EL10" s="1"/>
       <c r="EM10" s="1"/>
       <c r="EN10" s="1"/>
+      <c r="EO10" s="1"/>
     </row>
-    <row r="11" spans="1:144" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:145" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="6">
         <f t="shared" si="0"/>
-        <v>0.53608247422680411</v>
+        <v>0.62244897959183676</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -4125,7 +4176,7 @@
         <v>8</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>9</v>
@@ -4208,7 +4259,7 @@
       <c r="AG11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AH11" s="7" t="s">
+      <c r="AH11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AI11" s="1" t="s">
@@ -4224,7 +4275,7 @@
         <v>9</v>
       </c>
       <c r="AM11" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN11" s="7" t="s">
         <v>8</v>
@@ -4242,19 +4293,19 @@
         <v>8</v>
       </c>
       <c r="AS11" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT11" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU11" s="7" t="s">
         <v>9</v>
       </c>
       <c r="AV11" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW11" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX11" s="7" t="s">
         <v>9</v>
@@ -4263,7 +4314,7 @@
         <v>9</v>
       </c>
       <c r="AZ11" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA11" s="7" t="s">
         <v>9</v>
@@ -4274,7 +4325,7 @@
       <c r="BC11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="BD11" s="1" t="s">
+      <c r="BD11" s="7" t="s">
         <v>9</v>
       </c>
       <c r="BE11" s="1" t="s">
@@ -4284,7 +4335,7 @@
         <v>9</v>
       </c>
       <c r="BG11" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BH11" s="1" t="s">
         <v>8</v>
@@ -4320,7 +4371,7 @@
         <v>8</v>
       </c>
       <c r="BS11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BT11" s="1" t="s">
         <v>9</v>
@@ -4341,12 +4392,12 @@
         <v>9</v>
       </c>
       <c r="BZ11" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CA11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="CB11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="CB11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="CC11" s="8" t="s">
@@ -4356,9 +4407,9 @@
         <v>9</v>
       </c>
       <c r="CE11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="CF11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CF11" s="8" t="s">
         <v>8</v>
       </c>
       <c r="CG11" s="1" t="s">
@@ -4377,16 +4428,16 @@
         <v>9</v>
       </c>
       <c r="CL11" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CM11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CN11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="CO11" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CP11" s="1" t="s">
         <v>8</v>
@@ -4412,7 +4463,9 @@
       <c r="CW11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CX11" s="1"/>
+      <c r="CX11" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CY11" s="1"/>
       <c r="CZ11" s="1"/>
       <c r="DA11" s="1"/>
@@ -4455,14 +4508,15 @@
       <c r="EL11" s="1"/>
       <c r="EM11" s="1"/>
       <c r="EN11" s="1"/>
+      <c r="EO11" s="1"/>
     </row>
-    <row r="12" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="6">
         <f t="shared" si="0"/>
-        <v>0.75510204081632648</v>
+        <v>0.80808080808080807</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -4474,7 +4528,7 @@
         <v>9</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>9</v>
@@ -4501,7 +4555,7 @@
         <v>9</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>9</v>
@@ -4516,7 +4570,7 @@
         <v>9</v>
       </c>
       <c r="T12" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U12" s="7" t="s">
         <v>9</v>
@@ -4549,7 +4603,7 @@
         <v>9</v>
       </c>
       <c r="AE12" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF12" s="7" t="s">
         <v>9</v>
@@ -4558,7 +4612,7 @@
         <v>9</v>
       </c>
       <c r="AH12" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI12" s="1" t="s">
         <v>9</v>
@@ -4573,7 +4627,7 @@
         <v>9</v>
       </c>
       <c r="AM12" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN12" s="7" t="s">
         <v>9</v>
@@ -4591,7 +4645,7 @@
         <v>8</v>
       </c>
       <c r="AS12" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT12" s="7" t="s">
         <v>9</v>
@@ -4606,34 +4660,34 @@
         <v>9</v>
       </c>
       <c r="AX12" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY12" s="7" t="s">
         <v>9</v>
       </c>
       <c r="AZ12" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA12" s="7" t="s">
         <v>9</v>
       </c>
       <c r="BB12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="BC12" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="BC12" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="BD12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BE12" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BF12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BG12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BH12" s="1" t="s">
         <v>9</v>
@@ -4660,7 +4714,7 @@
         <v>9</v>
       </c>
       <c r="BP12" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BQ12" s="1" t="s">
         <v>9</v>
@@ -4672,10 +4726,10 @@
         <v>9</v>
       </c>
       <c r="BT12" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BU12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BV12" s="1" t="s">
         <v>9</v>
@@ -4695,11 +4749,11 @@
       <c r="CA12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CB12" s="8" t="s">
-        <v>8</v>
+      <c r="CB12" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="CC12" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CD12" s="8" t="s">
         <v>9</v>
@@ -4707,7 +4761,7 @@
       <c r="CE12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="CF12" s="1" t="s">
+      <c r="CF12" s="8" t="s">
         <v>9</v>
       </c>
       <c r="CG12" s="1" t="s">
@@ -4732,7 +4786,7 @@
         <v>9</v>
       </c>
       <c r="CN12" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CO12" s="1" t="s">
         <v>8</v>
@@ -4753,15 +4807,17 @@
         <v>8</v>
       </c>
       <c r="CU12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CV12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CW12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="CX12" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="CX12" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CY12" s="1"/>
       <c r="CZ12" s="1"/>
       <c r="DA12" s="1"/>
@@ -4804,14 +4860,15 @@
       <c r="EL12" s="1"/>
       <c r="EM12" s="1"/>
       <c r="EN12" s="1"/>
+      <c r="EO12" s="1"/>
     </row>
-    <row r="13" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="6">
         <f t="shared" si="0"/>
-        <v>0.76288659793814428</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -4820,10 +4877,10 @@
         <v>8</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>9</v>
@@ -4865,10 +4922,10 @@
         <v>9</v>
       </c>
       <c r="T13" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V13" s="7" t="s">
         <v>8</v>
@@ -4919,7 +4976,7 @@
         <v>9</v>
       </c>
       <c r="AL13" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM13" s="7" t="s">
         <v>9</v>
@@ -4955,10 +5012,10 @@
         <v>9</v>
       </c>
       <c r="AX13" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY13" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ13" s="7" t="s">
         <v>9</v>
@@ -4969,26 +5026,26 @@
       <c r="BB13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="BC13" s="1" t="s">
+      <c r="BC13" s="7" t="s">
         <v>9</v>
       </c>
       <c r="BD13" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BE13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BF13" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BG13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BH13" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BI13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BJ13" s="1" t="s">
         <v>9</v>
@@ -5000,16 +5057,16 @@
         <v>9</v>
       </c>
       <c r="BM13" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BN13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BO13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BP13" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BQ13" s="1" t="s">
         <v>9</v>
@@ -5024,19 +5081,19 @@
         <v>9</v>
       </c>
       <c r="BU13" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BV13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BW13" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BX13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BY13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BZ13" s="1" t="s">
         <v>9</v>
@@ -5044,7 +5101,7 @@
       <c r="CA13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CB13" s="8" t="s">
+      <c r="CB13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="CC13" s="8" t="s">
@@ -5056,7 +5113,7 @@
       <c r="CE13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="CF13" s="1" t="s">
+      <c r="CF13" s="8" t="s">
         <v>9</v>
       </c>
       <c r="CG13" s="1" t="s">
@@ -5081,25 +5138,25 @@
         <v>9</v>
       </c>
       <c r="CN13" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CO13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CP13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="CQ13" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CR13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CS13" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CT13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CU13" s="1" t="s">
         <v>9</v>
@@ -5110,7 +5167,9 @@
       <c r="CW13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CX13" s="1"/>
+      <c r="CX13" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="CY13" s="1"/>
       <c r="CZ13" s="1"/>
       <c r="DA13" s="1"/>
@@ -5153,14 +5212,15 @@
       <c r="EL13" s="1"/>
       <c r="EM13" s="1"/>
       <c r="EN13" s="1"/>
+      <c r="EO13" s="1"/>
     </row>
-    <row r="14" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="6">
         <f t="shared" si="0"/>
-        <v>0.75510204081632648</v>
+        <v>0.82828282828282829</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -5181,7 +5241,7 @@
         <v>8</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>9</v>
@@ -5226,7 +5286,7 @@
         <v>9</v>
       </c>
       <c r="X14" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y14" s="7" t="s">
         <v>9</v>
@@ -5304,7 +5364,7 @@
         <v>9</v>
       </c>
       <c r="AX14" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY14" s="7" t="s">
         <v>9</v>
@@ -5318,26 +5378,26 @@
       <c r="BB14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="BC14" s="1" t="s">
+      <c r="BC14" s="7" t="s">
         <v>9</v>
       </c>
       <c r="BD14" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BE14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BF14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BG14" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BH14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BI14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BJ14" s="1" t="s">
         <v>9</v>
@@ -5349,31 +5409,31 @@
         <v>9</v>
       </c>
       <c r="BM14" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BN14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BO14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BP14" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BQ14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BR14" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BS14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BT14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BU14" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BV14" s="1" t="s">
         <v>9</v>
@@ -5382,22 +5442,22 @@
         <v>9</v>
       </c>
       <c r="BX14" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BY14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BZ14" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CA14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="CB14" s="8" t="s">
-        <v>8</v>
+        <v>8</v>
+      </c>
+      <c r="CB14" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="CC14" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CD14" s="8" t="s">
         <v>9</v>
@@ -5405,14 +5465,14 @@
       <c r="CE14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="CF14" s="1" t="s">
-        <v>8</v>
+      <c r="CF14" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="CG14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="CH14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CI14" s="1" t="s">
         <v>9</v>
@@ -5424,10 +5484,10 @@
         <v>9</v>
       </c>
       <c r="CL14" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CM14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CN14" s="1" t="s">
         <v>9</v>
@@ -5439,16 +5499,16 @@
         <v>9</v>
       </c>
       <c r="CQ14" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CR14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="CS14" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CT14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CU14" s="1" t="s">
         <v>9</v>
@@ -5459,7 +5519,9 @@
       <c r="CW14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CX14" s="1"/>
+      <c r="CX14" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="CY14" s="1"/>
       <c r="CZ14" s="1"/>
       <c r="DA14" s="1"/>
@@ -5502,14 +5564,15 @@
       <c r="EL14" s="1"/>
       <c r="EM14" s="1"/>
       <c r="EN14" s="1"/>
+      <c r="EO14" s="1"/>
     </row>
-    <row r="15" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="6">
         <f t="shared" si="0"/>
-        <v>0.80412371134020622</v>
+        <v>0.87755102040816324</v>
       </c>
       <c r="C15">
         <v>13</v>
@@ -5518,10 +5581,10 @@
         <v>8</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>9</v>
@@ -5608,7 +5671,7 @@
         <v>9</v>
       </c>
       <c r="AI15" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ15" s="7" t="s">
         <v>9</v>
@@ -5620,7 +5683,7 @@
         <v>9</v>
       </c>
       <c r="AM15" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN15" s="7" t="s">
         <v>9</v>
@@ -5653,7 +5716,7 @@
         <v>9</v>
       </c>
       <c r="AX15" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY15" s="7" t="s">
         <v>9</v>
@@ -5662,16 +5725,16 @@
         <v>9</v>
       </c>
       <c r="BA15" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB15" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="BC15" s="1" t="s">
-        <v>8</v>
+        <v>8</v>
+      </c>
+      <c r="BC15" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="BD15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BE15" s="1" t="s">
         <v>9</v>
@@ -5707,13 +5770,13 @@
         <v>9</v>
       </c>
       <c r="BP15" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BQ15" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BR15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BS15" s="1" t="s">
         <v>9</v>
@@ -5731,19 +5794,19 @@
         <v>9</v>
       </c>
       <c r="BX15" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BY15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BZ15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="CA15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CB15" s="8" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="CB15" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="CC15" s="8" t="s">
         <v>9</v>
@@ -5754,7 +5817,7 @@
       <c r="CE15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="CF15" s="1" t="s">
+      <c r="CF15" s="8" t="s">
         <v>9</v>
       </c>
       <c r="CG15" s="1" t="s">
@@ -5788,7 +5851,7 @@
         <v>9</v>
       </c>
       <c r="CQ15" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CR15" s="1" t="s">
         <v>8</v>
@@ -5808,7 +5871,9 @@
       <c r="CW15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CX15" s="1"/>
+      <c r="CX15" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="CY15" s="1"/>
       <c r="CZ15" s="1"/>
       <c r="DA15" s="1"/>
@@ -5851,14 +5916,15 @@
       <c r="EL15" s="1"/>
       <c r="EM15" s="1"/>
       <c r="EN15" s="1"/>
+      <c r="EO15" s="1"/>
     </row>
-    <row r="16" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="6">
         <f t="shared" si="0"/>
-        <v>0.75257731958762886</v>
+        <v>0.79591836734693877</v>
       </c>
       <c r="C16">
         <v>14</v>
@@ -5867,10 +5933,10 @@
         <v>8</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>9</v>
@@ -5879,7 +5945,7 @@
         <v>9</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>9</v>
@@ -5942,10 +6008,10 @@
         <v>9</v>
       </c>
       <c r="AD16" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE16" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF16" s="7" t="s">
         <v>9</v>
@@ -5990,7 +6056,7 @@
         <v>9</v>
       </c>
       <c r="AT16" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU16" s="7" t="s">
         <v>9</v>
@@ -6011,12 +6077,12 @@
         <v>9</v>
       </c>
       <c r="BA16" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB16" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="BC16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC16" s="7" t="s">
         <v>9</v>
       </c>
       <c r="BD16" s="1" t="s">
@@ -6041,10 +6107,10 @@
         <v>9</v>
       </c>
       <c r="BK16" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BL16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BM16" s="1" t="s">
         <v>9</v>
@@ -6068,10 +6134,10 @@
         <v>9</v>
       </c>
       <c r="BT16" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BU16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BV16" s="1" t="s">
         <v>9</v>
@@ -6080,19 +6146,19 @@
         <v>9</v>
       </c>
       <c r="BX16" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BY16" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BZ16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CA16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CB16" s="8" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="CB16" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="CC16" s="8" t="s">
         <v>9</v>
@@ -6103,32 +6169,32 @@
       <c r="CE16" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="CF16" s="1" t="s">
-        <v>8</v>
+      <c r="CF16" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="CG16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CH16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="CI16" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CJ16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="CK16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CL16" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CM16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CN16" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CO16" s="1" t="s">
         <v>8</v>
@@ -6149,15 +6215,17 @@
         <v>8</v>
       </c>
       <c r="CU16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CV16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CW16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="CX16" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="CX16" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CY16" s="1"/>
       <c r="CZ16" s="1"/>
       <c r="DA16" s="1"/>
@@ -6200,14 +6268,15 @@
       <c r="EL16" s="1"/>
       <c r="EM16" s="1"/>
       <c r="EN16" s="1"/>
+      <c r="EO16" s="1"/>
     </row>
-    <row r="17" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="6">
         <f t="shared" si="0"/>
-        <v>0.41836734693877553</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="C17">
         <v>15</v>
@@ -6219,7 +6288,7 @@
         <v>9</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>9</v>
@@ -6261,10 +6330,10 @@
         <v>8</v>
       </c>
       <c r="T17" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U17" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V17" s="7" t="s">
         <v>9</v>
@@ -6279,7 +6348,7 @@
         <v>8</v>
       </c>
       <c r="Z17" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA17" s="7" t="s">
         <v>9</v>
@@ -6288,7 +6357,7 @@
         <v>8</v>
       </c>
       <c r="AC17" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD17" s="7" t="s">
         <v>9</v>
@@ -6315,10 +6384,10 @@
         <v>8</v>
       </c>
       <c r="AL17" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM17" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN17" s="7" t="s">
         <v>9</v>
@@ -6345,10 +6414,10 @@
         <v>8</v>
       </c>
       <c r="AV17" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW17" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX17" s="7" t="s">
         <v>8</v>
@@ -6365,23 +6434,23 @@
       <c r="BB17" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="BC17" s="1" t="s">
-        <v>8</v>
+      <c r="BC17" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="BD17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BE17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BF17" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BG17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BH17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BI17" s="1" t="s">
         <v>9</v>
@@ -6390,31 +6459,31 @@
         <v>9</v>
       </c>
       <c r="BK17" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BL17" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BM17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BN17" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BO17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BP17" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BQ17" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BR17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BS17" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BT17" s="1" t="s">
         <v>8</v>
@@ -6426,7 +6495,7 @@
         <v>9</v>
       </c>
       <c r="BW17" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BX17" s="1" t="s">
         <v>8</v>
@@ -6438,13 +6507,13 @@
         <v>8</v>
       </c>
       <c r="CA17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="CB17" s="8" t="s">
-        <v>8</v>
+        <v>8</v>
+      </c>
+      <c r="CB17" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="CC17" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CD17" s="8" t="s">
         <v>9</v>
@@ -6452,8 +6521,8 @@
       <c r="CE17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="CF17" s="1" t="s">
-        <v>8</v>
+      <c r="CF17" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="CG17" s="1" t="s">
         <v>8</v>
@@ -6471,16 +6540,16 @@
         <v>8</v>
       </c>
       <c r="CL17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CM17" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CN17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CO17" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CP17" s="1" t="s">
         <v>8</v>
@@ -6492,13 +6561,13 @@
         <v>8</v>
       </c>
       <c r="CS17" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CT17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="CU17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CV17" s="1" t="s">
         <v>9</v>
@@ -6506,7 +6575,9 @@
       <c r="CW17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CX17" s="1"/>
+      <c r="CX17" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="CY17" s="1"/>
       <c r="CZ17" s="1"/>
       <c r="DA17" s="1"/>
@@ -6549,14 +6620,15 @@
       <c r="EL17" s="1"/>
       <c r="EM17" s="1"/>
       <c r="EN17" s="1"/>
+      <c r="EO17" s="1"/>
     </row>
-    <row r="18" spans="1:144" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:145" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="6">
         <f t="shared" si="0"/>
-        <v>0.98969072164948457</v>
+        <v>0.98989898989898994</v>
       </c>
       <c r="C18">
         <v>16</v>
@@ -6651,10 +6723,10 @@
       <c r="AG18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AH18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI18" s="7" t="s">
+      <c r="AH18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AJ18" s="7" t="s">
@@ -6726,17 +6798,17 @@
       <c r="BF18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="BG18" s="1" t="s">
+      <c r="BG18" s="7" t="s">
         <v>9</v>
       </c>
       <c r="BH18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BI18" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BJ18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BK18" s="1" t="s">
         <v>9</v>
@@ -6789,7 +6861,7 @@
       <c r="CA18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CB18" s="8" t="s">
+      <c r="CB18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="CC18" s="8" t="s">
@@ -6801,7 +6873,7 @@
       <c r="CE18" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="CF18" s="1" t="s">
+      <c r="CF18" s="8" t="s">
         <v>9</v>
       </c>
       <c r="CG18" s="1" t="s">
@@ -6831,7 +6903,9 @@
       <c r="CO18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CP18" s="1"/>
+      <c r="CP18" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="CQ18" s="1" t="s">
         <v>9</v>
       </c>
@@ -6853,7 +6927,9 @@
       <c r="CW18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CX18" s="1"/>
+      <c r="CX18" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="CY18" s="1"/>
       <c r="CZ18" s="1"/>
       <c r="DA18" s="1"/>
@@ -6896,14 +6972,15 @@
       <c r="EL18" s="1"/>
       <c r="EM18" s="1"/>
       <c r="EN18" s="1"/>
+      <c r="EO18" s="1"/>
     </row>
-    <row r="19" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="6">
         <f t="shared" si="0"/>
-        <v>0.94897959183673475</v>
+        <v>0.95959595959595956</v>
       </c>
       <c r="C19">
         <v>17</v>
@@ -6998,10 +7075,10 @@
       <c r="AG19" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AH19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI19" s="7" t="s">
+      <c r="AH19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AJ19" s="7" t="s">
@@ -7067,7 +7144,7 @@
       <c r="BD19" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="BE19" s="1" t="s">
+      <c r="BE19" s="7" t="s">
         <v>9</v>
       </c>
       <c r="BF19" s="1" t="s">
@@ -7101,7 +7178,7 @@
         <v>9</v>
       </c>
       <c r="BP19" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BQ19" s="1" t="s">
         <v>9</v>
@@ -7136,7 +7213,7 @@
       <c r="CA19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CB19" s="8" t="s">
+      <c r="CB19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="CC19" s="8" t="s">
@@ -7148,7 +7225,7 @@
       <c r="CE19" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="CF19" s="1" t="s">
+      <c r="CF19" s="8" t="s">
         <v>9</v>
       </c>
       <c r="CG19" s="1" t="s">
@@ -7167,31 +7244,31 @@
         <v>9</v>
       </c>
       <c r="CL19" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CM19" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CN19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="CO19" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CP19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="CQ19" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CR19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="CS19" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CT19" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CU19" s="1" t="s">
         <v>9</v>
@@ -7202,7 +7279,9 @@
       <c r="CW19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CX19" s="1"/>
+      <c r="CX19" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="CY19" s="1"/>
       <c r="CZ19" s="1"/>
       <c r="DA19" s="1"/>
@@ -7245,14 +7324,15 @@
       <c r="EL19" s="1"/>
       <c r="EM19" s="1"/>
       <c r="EN19" s="1"/>
+      <c r="EO19" s="1"/>
     </row>
-    <row r="20" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="6">
         <f t="shared" si="0"/>
-        <v>0.68041237113402064</v>
+        <v>0.75757575757575757</v>
       </c>
       <c r="C20">
         <v>18</v>
@@ -7273,7 +7353,7 @@
         <v>8</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>9</v>
@@ -7306,7 +7386,7 @@
         <v>8</v>
       </c>
       <c r="T20" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U20" s="7" t="s">
         <v>9</v>
@@ -7351,7 +7431,7 @@
         <v>9</v>
       </c>
       <c r="AI20" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ20" s="7" t="s">
         <v>9</v>
@@ -7360,10 +7440,10 @@
         <v>9</v>
       </c>
       <c r="AL20" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM20" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN20" s="7" t="s">
         <v>8</v>
@@ -7390,7 +7470,7 @@
         <v>9</v>
       </c>
       <c r="AV20" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW20" s="7" t="s">
         <v>9</v>
@@ -7410,17 +7490,17 @@
       <c r="BB20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="BC20" s="1" t="s">
-        <v>8</v>
+      <c r="BC20" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="BD20" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BE20" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BF20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BG20" s="1" t="s">
         <v>9</v>
@@ -7429,19 +7509,19 @@
         <v>9</v>
       </c>
       <c r="BI20" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BJ20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BK20" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BL20" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BM20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BN20" s="1" t="s">
         <v>9</v>
@@ -7459,13 +7539,13 @@
         <v>9</v>
       </c>
       <c r="BS20" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BT20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BU20" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BV20" s="1" t="s">
         <v>8</v>
@@ -7477,7 +7557,7 @@
         <v>8</v>
       </c>
       <c r="BY20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BZ20" s="1" t="s">
         <v>9</v>
@@ -7485,11 +7565,11 @@
       <c r="CA20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CB20" s="8" t="s">
-        <v>8</v>
+      <c r="CB20" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="CC20" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CD20" s="8" t="s">
         <v>9</v>
@@ -7497,7 +7577,7 @@
       <c r="CE20" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="CF20" s="1" t="s">
+      <c r="CF20" s="8" t="s">
         <v>9</v>
       </c>
       <c r="CG20" s="1" t="s">
@@ -7507,10 +7587,10 @@
         <v>9</v>
       </c>
       <c r="CI20" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CJ20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CK20" s="1" t="s">
         <v>9</v>
@@ -7522,12 +7602,14 @@
         <v>9</v>
       </c>
       <c r="CN20" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CO20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="CP20" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="CP20" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="CQ20" s="1" t="s">
         <v>9</v>
       </c>
@@ -7535,10 +7617,10 @@
         <v>9</v>
       </c>
       <c r="CS20" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CT20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CU20" s="1" t="s">
         <v>9</v>
@@ -7549,7 +7631,9 @@
       <c r="CW20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CX20" s="1"/>
+      <c r="CX20" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="CY20" s="1"/>
       <c r="CZ20" s="1"/>
       <c r="DA20" s="1"/>
@@ -7592,14 +7676,15 @@
       <c r="EL20" s="1"/>
       <c r="EM20" s="1"/>
       <c r="EN20" s="1"/>
+      <c r="EO20" s="1"/>
     </row>
-    <row r="21" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="6">
         <f t="shared" si="0"/>
-        <v>0.71134020618556704</v>
+        <v>0.75757575757575757</v>
       </c>
       <c r="C21">
         <v>19</v>
@@ -7707,7 +7792,7 @@
         <v>9</v>
       </c>
       <c r="AL21" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM21" s="7" t="s">
         <v>9</v>
@@ -7731,19 +7816,19 @@
         <v>9</v>
       </c>
       <c r="AT21" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU21" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV21" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW21" s="7" t="s">
         <v>9</v>
       </c>
       <c r="AX21" s="7" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="AY21" s="7" t="s">
         <v>9</v>
@@ -7752,12 +7837,12 @@
         <v>9</v>
       </c>
       <c r="BA21" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB21" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="BC21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC21" s="7" t="s">
         <v>9</v>
       </c>
       <c r="BD21" s="1" t="s">
@@ -7767,7 +7852,7 @@
         <v>9</v>
       </c>
       <c r="BF21" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BG21" s="1" t="s">
         <v>8</v>
@@ -7779,7 +7864,7 @@
         <v>8</v>
       </c>
       <c r="BJ21" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BK21" s="1" t="s">
         <v>9</v>
@@ -7794,16 +7879,16 @@
         <v>9</v>
       </c>
       <c r="BO21" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BP21" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BQ21" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BR21" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BS21" s="1" t="s">
         <v>8</v>
@@ -7827,16 +7912,16 @@
         <v>9</v>
       </c>
       <c r="BZ21" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CA21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CB21" s="8" t="s">
+      <c r="CB21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="CC21" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CD21" s="8" t="s">
         <v>9</v>
@@ -7844,11 +7929,11 @@
       <c r="CE21" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="CF21" s="1" t="s">
-        <v>8</v>
+      <c r="CF21" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="CG21" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CH21" s="1" t="s">
         <v>9</v>
@@ -7869,7 +7954,7 @@
         <v>9</v>
       </c>
       <c r="CN21" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CO21" s="1" t="s">
         <v>8</v>
@@ -7878,7 +7963,7 @@
         <v>8</v>
       </c>
       <c r="CQ21" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CR21" s="1" t="s">
         <v>8</v>
@@ -7887,7 +7972,7 @@
         <v>8</v>
       </c>
       <c r="CT21" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CU21" s="1" t="s">
         <v>9</v>
@@ -7898,7 +7983,9 @@
       <c r="CW21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CX21" s="1"/>
+      <c r="CX21" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="CY21" s="1"/>
       <c r="CZ21" s="1"/>
       <c r="DA21" s="1"/>
@@ -7941,8 +8028,9 @@
       <c r="EL21" s="1"/>
       <c r="EM21" s="1"/>
       <c r="EN21" s="1"/>
+      <c r="EO21" s="1"/>
     </row>
-    <row r="22" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:145" x14ac:dyDescent="0.25">
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
@@ -7968,133 +8056,137 @@
       <c r="AI22" s="1"/>
       <c r="AJ22" s="1"/>
     </row>
-    <row r="23" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB23" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="AC23" s="7"/>
     </row>
-    <row r="24" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
       <c r="B24">
-        <f t="shared" ref="B24:B42" si="1">COUNTIF(D3:EB3,B$23)</f>
-        <v>77</v>
+        <f t="shared" ref="B24:B42" si="1">COUNTIF(D3:EC3,B$23)</f>
+        <v>88</v>
       </c>
       <c r="C24">
-        <f t="shared" ref="C24:C42" si="2">COUNTIF(E3:EC3,C$23)</f>
-        <v>20</v>
+        <f t="shared" ref="C24:C42" si="2">COUNTIF(E3:ED3,C$23)</f>
+        <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>10</v>
       </c>
       <c r="B25">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C25">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>11</v>
       </c>
       <c r="B26">
         <f t="shared" si="1"/>
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="C26">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
       <c r="B27">
         <f t="shared" si="1"/>
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C27">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>13</v>
       </c>
       <c r="B28">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C28">
         <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="BC28" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="BD28" s="3"/>
     </row>
-    <row r="29" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>14</v>
       </c>
       <c r="B29">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C29">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>15</v>
       </c>
       <c r="B30">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C30">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>16</v>
       </c>
       <c r="B31">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C31">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>17</v>
       </c>
       <c r="B32">
         <f t="shared" si="1"/>
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C32">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -8103,11 +8195,11 @@
       </c>
       <c r="B33">
         <f t="shared" si="1"/>
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C33">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -8116,11 +8208,11 @@
       </c>
       <c r="B34">
         <f t="shared" si="1"/>
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C34">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -8129,11 +8221,11 @@
       </c>
       <c r="B35">
         <f t="shared" si="1"/>
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C35">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -8142,11 +8234,11 @@
       </c>
       <c r="B36">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C36">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -8155,11 +8247,11 @@
       </c>
       <c r="B37">
         <f t="shared" si="1"/>
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C37">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -8168,11 +8260,11 @@
       </c>
       <c r="B38">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C38">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -8181,7 +8273,7 @@
       </c>
       <c r="B39">
         <f t="shared" si="1"/>
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C39">
         <f t="shared" si="2"/>
@@ -8194,11 +8286,11 @@
       </c>
       <c r="B40">
         <f t="shared" si="1"/>
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C40">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -8207,11 +8299,11 @@
       </c>
       <c r="B41">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C41">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -8220,11 +8312,11 @@
       </c>
       <c r="B42">
         <f t="shared" si="1"/>
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C42">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -8244,7 +8336,7 @@
       <formula>0.75</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22:AJ22 AK22:CM1048576 G23:AJ42 B24:C42 D1:ANE21">
+  <conditionalFormatting sqref="D22:AJ22 AK22:CN1048576 G23:AJ42 B24:C42 D1:ANF21">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
@@ -8252,7 +8344,7 @@
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CO22:ANE1048576 A43:AJ1048576">
+  <conditionalFormatting sqref="CP22:ANF1048576 A43:AJ1048576">
     <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/3des/frequencia.xlsx
+++ b/3des/frequencia.xlsx
@@ -8,26 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24045153-8639-454D-B0B4-4F6675FD0A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793E26DD-4F64-4B49-B396-736D941EF006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -36,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2026" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2047" uniqueCount="30">
   <si>
     <t>Alunos</t>
   </si>
@@ -194,7 +183,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -216,12 +205,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -667,7 +655,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="CA3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="BY1" sqref="BY1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CR14" sqref="CR14"/>
+      <selection pane="bottomRight" activeCell="CY3" sqref="CY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,11 +719,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:145" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
       <c r="D1" s="2">
         <v>45126</v>
       </c>
@@ -868,10 +856,10 @@
       <c r="AU1" s="2">
         <v>45191</v>
       </c>
-      <c r="AV1" s="12">
+      <c r="AV1" s="11">
         <v>45192</v>
       </c>
-      <c r="AW1" s="14">
+      <c r="AW1" s="2">
         <v>45194</v>
       </c>
       <c r="AX1" s="2">
@@ -1032,6 +1020,12 @@
       </c>
       <c r="CX1" s="10">
         <v>45275</v>
+      </c>
+      <c r="CY1" s="10">
+        <v>18</v>
+      </c>
+      <c r="CZ1" s="10">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:145" x14ac:dyDescent="0.25">
@@ -1341,6 +1335,12 @@
       <c r="CX2" t="s">
         <v>4</v>
       </c>
+      <c r="CY2" t="s">
+        <v>5</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:145" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="B3" s="6">
         <f t="shared" ref="B3:B21" si="0">B24/(B24+C24)</f>
-        <v>0.89795918367346939</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1650,7 +1650,9 @@
       <c r="CX3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CY3" s="1"/>
+      <c r="CY3" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CZ3" s="1"/>
       <c r="DA3" s="1"/>
       <c r="DB3" s="1"/>
@@ -1700,7 +1702,7 @@
       </c>
       <c r="B4" s="6">
         <f t="shared" si="0"/>
-        <v>0.84693877551020413</v>
+        <v>0.83838383838383834</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -2002,7 +2004,9 @@
       <c r="CX4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CY4" s="1"/>
+      <c r="CY4" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CZ4" s="1"/>
       <c r="DA4" s="1"/>
       <c r="DB4" s="1"/>
@@ -2052,7 +2056,7 @@
       </c>
       <c r="B5" s="6">
         <f t="shared" si="0"/>
-        <v>0.79591836734693877</v>
+        <v>0.78787878787878785</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -2354,7 +2358,9 @@
       <c r="CX5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CY5" s="1"/>
+      <c r="CY5" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CZ5" s="1"/>
       <c r="DA5" s="1"/>
       <c r="DB5" s="1"/>
@@ -2404,7 +2410,7 @@
       </c>
       <c r="B6" s="6">
         <f t="shared" si="0"/>
-        <v>0.92929292929292928</v>
+        <v>0.92</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -2706,7 +2712,9 @@
       <c r="CX6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CY6" s="1"/>
+      <c r="CY6" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CZ6" s="1"/>
       <c r="DA6" s="1"/>
       <c r="DB6" s="1"/>
@@ -2756,7 +2764,7 @@
       </c>
       <c r="B7" s="6">
         <f t="shared" si="0"/>
-        <v>0.90909090909090906</v>
+        <v>0.91</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -3058,7 +3066,9 @@
       <c r="CX7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CY7" s="1"/>
+      <c r="CY7" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="CZ7" s="1"/>
       <c r="DA7" s="1"/>
       <c r="DB7" s="1"/>
@@ -3108,7 +3118,7 @@
       </c>
       <c r="B8" s="6">
         <f t="shared" si="0"/>
-        <v>0.92929292929292928</v>
+        <v>0.92</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -3410,7 +3420,9 @@
       <c r="CX8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CY8" s="1"/>
+      <c r="CY8" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CZ8" s="1"/>
       <c r="DA8" s="1"/>
       <c r="DB8" s="1"/>
@@ -3460,7 +3472,7 @@
       </c>
       <c r="B9" s="6">
         <f t="shared" si="0"/>
-        <v>0.86734693877551017</v>
+        <v>0.85858585858585856</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -3762,7 +3774,9 @@
       <c r="CX9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CY9" s="1"/>
+      <c r="CY9" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CZ9" s="1"/>
       <c r="DA9" s="1"/>
       <c r="DB9" s="1"/>
@@ -3812,7 +3826,7 @@
       </c>
       <c r="B10" s="6">
         <f t="shared" si="0"/>
-        <v>0.78787878787878785</v>
+        <v>0.78</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -4114,7 +4128,9 @@
       <c r="CX10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CY10" s="1"/>
+      <c r="CY10" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CZ10" s="1"/>
       <c r="DA10" s="1"/>
       <c r="DB10" s="1"/>
@@ -4164,7 +4180,7 @@
       </c>
       <c r="B11" s="6">
         <f t="shared" si="0"/>
-        <v>0.62244897959183676</v>
+        <v>0.61616161616161613</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -4466,7 +4482,9 @@
       <c r="CX11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CY11" s="1"/>
+      <c r="CY11" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CZ11" s="1"/>
       <c r="DA11" s="1"/>
       <c r="DB11" s="1"/>
@@ -4516,7 +4534,7 @@
       </c>
       <c r="B12" s="6">
         <f t="shared" si="0"/>
-        <v>0.80808080808080807</v>
+        <v>0.8</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -4818,7 +4836,9 @@
       <c r="CX12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CY12" s="1"/>
+      <c r="CY12" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CZ12" s="1"/>
       <c r="DA12" s="1"/>
       <c r="DB12" s="1"/>
@@ -4868,7 +4888,7 @@
       </c>
       <c r="B13" s="6">
         <f t="shared" si="0"/>
-        <v>0.8571428571428571</v>
+        <v>0.84848484848484851</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -5170,7 +5190,9 @@
       <c r="CX13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CY13" s="1"/>
+      <c r="CY13" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CZ13" s="1"/>
       <c r="DA13" s="1"/>
       <c r="DB13" s="1"/>
@@ -5220,7 +5242,7 @@
       </c>
       <c r="B14" s="6">
         <f t="shared" si="0"/>
-        <v>0.82828282828282829</v>
+        <v>0.83</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -5522,7 +5544,9 @@
       <c r="CX14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CY14" s="1"/>
+      <c r="CY14" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="CZ14" s="1"/>
       <c r="DA14" s="1"/>
       <c r="DB14" s="1"/>
@@ -5572,7 +5596,7 @@
       </c>
       <c r="B15" s="6">
         <f t="shared" si="0"/>
-        <v>0.87755102040816324</v>
+        <v>0.86868686868686873</v>
       </c>
       <c r="C15">
         <v>13</v>
@@ -5874,7 +5898,9 @@
       <c r="CX15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CY15" s="1"/>
+      <c r="CY15" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CZ15" s="1"/>
       <c r="DA15" s="1"/>
       <c r="DB15" s="1"/>
@@ -5924,7 +5950,7 @@
       </c>
       <c r="B16" s="6">
         <f t="shared" si="0"/>
-        <v>0.79591836734693877</v>
+        <v>0.78787878787878785</v>
       </c>
       <c r="C16">
         <v>14</v>
@@ -6226,7 +6252,9 @@
       <c r="CX16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CY16" s="1"/>
+      <c r="CY16" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CZ16" s="1"/>
       <c r="DA16" s="1"/>
       <c r="DB16" s="1"/>
@@ -6276,7 +6304,7 @@
       </c>
       <c r="B17" s="6">
         <f t="shared" si="0"/>
-        <v>0.54545454545454541</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C17">
         <v>15</v>
@@ -6578,7 +6606,9 @@
       <c r="CX17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CY17" s="1"/>
+      <c r="CY17" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="CZ17" s="1"/>
       <c r="DA17" s="1"/>
       <c r="DB17" s="1"/>
@@ -6628,7 +6658,7 @@
       </c>
       <c r="B18" s="6">
         <f t="shared" si="0"/>
-        <v>0.98989898989898994</v>
+        <v>0.99</v>
       </c>
       <c r="C18">
         <v>16</v>
@@ -6930,7 +6960,9 @@
       <c r="CX18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CY18" s="1"/>
+      <c r="CY18" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="CZ18" s="1"/>
       <c r="DA18" s="1"/>
       <c r="DB18" s="1"/>
@@ -6980,7 +7012,7 @@
       </c>
       <c r="B19" s="6">
         <f t="shared" si="0"/>
-        <v>0.95959595959595956</v>
+        <v>0.95</v>
       </c>
       <c r="C19">
         <v>17</v>
@@ -7282,7 +7314,9 @@
       <c r="CX19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CY19" s="1"/>
+      <c r="CY19" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CZ19" s="1"/>
       <c r="DA19" s="1"/>
       <c r="DB19" s="1"/>
@@ -7332,7 +7366,7 @@
       </c>
       <c r="B20" s="6">
         <f t="shared" si="0"/>
-        <v>0.75757575757575757</v>
+        <v>0.75</v>
       </c>
       <c r="C20">
         <v>18</v>
@@ -7634,7 +7668,9 @@
       <c r="CX20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CY20" s="1"/>
+      <c r="CY20" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="CZ20" s="1"/>
       <c r="DA20" s="1"/>
       <c r="DB20" s="1"/>
@@ -7684,7 +7720,7 @@
       </c>
       <c r="B21" s="6">
         <f t="shared" si="0"/>
-        <v>0.75757575757575757</v>
+        <v>0.76</v>
       </c>
       <c r="C21">
         <v>19</v>
@@ -7986,7 +8022,9 @@
       <c r="CX21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CY21" s="1"/>
+      <c r="CY21" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="CZ21" s="1"/>
       <c r="DA21" s="1"/>
       <c r="DB21" s="1"/>
@@ -8066,7 +8104,7 @@
       <c r="C23" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AB23" s="13" t="s">
+      <c r="AB23" s="12" t="s">
         <v>29</v>
       </c>
       <c r="AC23" s="7"/>
@@ -8081,7 +8119,7 @@
       </c>
       <c r="C24">
         <f t="shared" ref="C24:C42" si="2">COUNTIF(E3:ED3,C$23)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:145" x14ac:dyDescent="0.25">
@@ -8094,7 +8132,7 @@
       </c>
       <c r="C25">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:145" x14ac:dyDescent="0.25">
@@ -8107,7 +8145,7 @@
       </c>
       <c r="C26">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:145" x14ac:dyDescent="0.25">
@@ -8120,7 +8158,7 @@
       </c>
       <c r="C27">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:145" x14ac:dyDescent="0.25">
@@ -8129,7 +8167,7 @@
       </c>
       <c r="B28">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C28">
         <f t="shared" si="2"/>
@@ -8147,7 +8185,7 @@
       </c>
       <c r="C29">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:145" x14ac:dyDescent="0.25">
@@ -8160,7 +8198,7 @@
       </c>
       <c r="C30">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:145" x14ac:dyDescent="0.25">
@@ -8173,7 +8211,7 @@
       </c>
       <c r="C31">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:145" x14ac:dyDescent="0.25">
@@ -8186,7 +8224,7 @@
       </c>
       <c r="C32">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -8199,7 +8237,7 @@
       </c>
       <c r="C33">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -8212,7 +8250,7 @@
       </c>
       <c r="C34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -8221,7 +8259,7 @@
       </c>
       <c r="B35">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C35">
         <f t="shared" si="2"/>
@@ -8238,7 +8276,7 @@
       </c>
       <c r="C36">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -8251,7 +8289,7 @@
       </c>
       <c r="C37">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -8260,7 +8298,7 @@
       </c>
       <c r="B38">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C38">
         <f t="shared" si="2"/>
@@ -8273,7 +8311,7 @@
       </c>
       <c r="B39">
         <f t="shared" si="1"/>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C39">
         <f t="shared" si="2"/>
@@ -8290,7 +8328,7 @@
       </c>
       <c r="C40">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -8303,7 +8341,7 @@
       </c>
       <c r="C41">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -8312,7 +8350,7 @@
       </c>
       <c r="B42">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C42">
         <f t="shared" si="2"/>

--- a/3des/frequencia.xlsx
+++ b/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793E26DD-4F64-4B49-B396-736D941EF006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826543E3-CBB7-4964-8584-EDF3C919D9C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -652,10 +652,10 @@
   <dimension ref="A1:EO42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="CA3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="AL3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="BY1" sqref="BY1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CY3" sqref="CY3"/>
+      <selection pane="bottomRight" activeCell="BA12" sqref="BA12:BB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,7 +683,9 @@
     <col min="40" max="42" width="6.5703125" style="1" customWidth="1"/>
     <col min="43" max="44" width="7.7109375" style="1" customWidth="1"/>
     <col min="45" max="47" width="6.5703125" style="1" customWidth="1"/>
-    <col min="48" max="51" width="7.7109375" style="1" customWidth="1"/>
+    <col min="48" max="49" width="7.7109375" style="1" customWidth="1"/>
+    <col min="50" max="50" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="7.7109375" style="1" customWidth="1"/>
     <col min="52" max="53" width="6.5703125" style="1" customWidth="1"/>
     <col min="54" max="55" width="7.7109375" style="1" customWidth="1"/>
     <col min="56" max="58" width="5.85546875" style="1" customWidth="1"/>
@@ -2056,7 +2058,7 @@
       </c>
       <c r="B5" s="6">
         <f t="shared" si="0"/>
-        <v>0.78787878787878785</v>
+        <v>0.80808080808080807</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -2134,7 +2136,7 @@
         <v>9</v>
       </c>
       <c r="AB5" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC5" s="7" t="s">
         <v>9</v>
@@ -2149,7 +2151,7 @@
         <v>8</v>
       </c>
       <c r="AG5" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH5" s="1" t="s">
         <v>9</v>
@@ -3472,7 +3474,7 @@
       </c>
       <c r="B9" s="6">
         <f t="shared" si="0"/>
-        <v>0.85858585858585856</v>
+        <v>0.86868686868686873</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -3490,7 +3492,7 @@
         <v>9</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>9</v>
@@ -3826,7 +3828,7 @@
       </c>
       <c r="B10" s="6">
         <f t="shared" si="0"/>
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -3919,7 +3921,7 @@
         <v>8</v>
       </c>
       <c r="AG10" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH10" s="1" t="s">
         <v>9</v>
@@ -3985,7 +3987,7 @@
         <v>9</v>
       </c>
       <c r="BC10" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD10" s="7" t="s">
         <v>9</v>
@@ -4180,7 +4182,7 @@
       </c>
       <c r="B11" s="6">
         <f t="shared" si="0"/>
-        <v>0.61616161616161613</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -4198,7 +4200,7 @@
         <v>9</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>9</v>
@@ -4228,7 +4230,7 @@
         <v>8</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S11" s="7" t="s">
         <v>8</v>
@@ -4273,7 +4275,7 @@
         <v>9</v>
       </c>
       <c r="AG11" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH11" s="1" t="s">
         <v>9</v>
@@ -4306,7 +4308,7 @@
         <v>9</v>
       </c>
       <c r="AR11" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS11" s="7" t="s">
         <v>9</v>
@@ -4534,7 +4536,7 @@
       </c>
       <c r="B12" s="6">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -4612,7 +4614,7 @@
         <v>9</v>
       </c>
       <c r="AB12" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC12" s="7" t="s">
         <v>9</v>
@@ -4657,10 +4659,10 @@
         <v>9</v>
       </c>
       <c r="AQ12" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR12" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS12" s="7" t="s">
         <v>9</v>
@@ -4888,7 +4890,7 @@
       </c>
       <c r="B13" s="6">
         <f t="shared" si="0"/>
-        <v>0.84848484848484851</v>
+        <v>0.85858585858585856</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -4906,7 +4908,7 @@
         <v>9</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>9</v>
@@ -5242,7 +5244,7 @@
       </c>
       <c r="B14" s="6">
         <f t="shared" si="0"/>
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -5260,7 +5262,7 @@
         <v>9</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>9</v>
@@ -5596,7 +5598,7 @@
       </c>
       <c r="B15" s="6">
         <f t="shared" si="0"/>
-        <v>0.86868686868686873</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="C15">
         <v>13</v>
@@ -5614,7 +5616,7 @@
         <v>9</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>9</v>
@@ -5644,7 +5646,7 @@
         <v>9</v>
       </c>
       <c r="R15" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S15" s="7" t="s">
         <v>9</v>
@@ -6304,7 +6306,7 @@
       </c>
       <c r="B17" s="6">
         <f t="shared" si="0"/>
-        <v>0.55000000000000004</v>
+        <v>0.61</v>
       </c>
       <c r="C17">
         <v>15</v>
@@ -6352,7 +6354,7 @@
         <v>9</v>
       </c>
       <c r="R17" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S17" s="7" t="s">
         <v>8</v>
@@ -6367,7 +6369,7 @@
         <v>9</v>
       </c>
       <c r="W17" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X17" s="7" t="s">
         <v>8</v>
@@ -6382,7 +6384,7 @@
         <v>9</v>
       </c>
       <c r="AB17" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC17" s="7" t="s">
         <v>9</v>
@@ -6394,10 +6396,10 @@
         <v>9</v>
       </c>
       <c r="AF17" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG17" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH17" s="1" t="s">
         <v>8</v>
@@ -6448,7 +6450,7 @@
         <v>9</v>
       </c>
       <c r="AX17" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY17" s="7" t="s">
         <v>9</v>
@@ -7366,7 +7368,7 @@
       </c>
       <c r="B20" s="6">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="C20">
         <v>18</v>
@@ -7384,7 +7386,7 @@
         <v>9</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>9</v>
@@ -7414,7 +7416,7 @@
         <v>9</v>
       </c>
       <c r="R20" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S20" s="7" t="s">
         <v>8</v>
@@ -8141,11 +8143,11 @@
       </c>
       <c r="B26">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C26">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:145" x14ac:dyDescent="0.25">
@@ -8194,11 +8196,11 @@
       </c>
       <c r="B30">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C30">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:145" x14ac:dyDescent="0.25">
@@ -8207,11 +8209,11 @@
       </c>
       <c r="B31">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C31">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:145" x14ac:dyDescent="0.25">
@@ -8220,11 +8222,11 @@
       </c>
       <c r="B32">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C32">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -8233,11 +8235,11 @@
       </c>
       <c r="B33">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C33">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -8246,11 +8248,11 @@
       </c>
       <c r="B34">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -8259,11 +8261,11 @@
       </c>
       <c r="B35">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C35">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -8272,11 +8274,11 @@
       </c>
       <c r="B36">
         <f t="shared" si="1"/>
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C36">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -8298,11 +8300,11 @@
       </c>
       <c r="B38">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C38">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -8337,11 +8339,11 @@
       </c>
       <c r="B41">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C41">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">

--- a/3des/frequencia.xlsx
+++ b/3des/frequencia.xlsx
@@ -8,15 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826543E3-CBB7-4964-8584-EDF3C919D9C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66404C5E-7DB6-484D-A742-B61539349342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -25,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2047" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2026" uniqueCount="30">
   <si>
     <t>Alunos</t>
   </si>
@@ -114,7 +125,7 @@
     <t>FREQUÊNCIA</t>
   </si>
   <si>
-    <t>Atividade Remota</t>
+    <t>p</t>
   </si>
 </sst>
 </file>
@@ -156,18 +167,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -183,7 +188,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -205,8 +210,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -649,13 +652,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:EO42"/>
+  <dimension ref="A1:EN42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="AL3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="CD3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="BY1" sqref="BY1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BA12" sqref="BA12:BB12"/>
+      <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,49 +686,49 @@
     <col min="40" max="42" width="6.5703125" style="1" customWidth="1"/>
     <col min="43" max="44" width="7.7109375" style="1" customWidth="1"/>
     <col min="45" max="47" width="6.5703125" style="1" customWidth="1"/>
-    <col min="48" max="49" width="7.7109375" style="1" customWidth="1"/>
-    <col min="50" max="50" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="7.7109375" style="1" customWidth="1"/>
-    <col min="52" max="53" width="6.5703125" style="1" customWidth="1"/>
-    <col min="54" max="55" width="7.7109375" style="1" customWidth="1"/>
-    <col min="56" max="58" width="5.85546875" style="1" customWidth="1"/>
-    <col min="59" max="60" width="7.7109375" style="1" customWidth="1"/>
-    <col min="61" max="61" width="6.85546875" style="1" customWidth="1"/>
-    <col min="62" max="63" width="7.7109375" style="1" customWidth="1"/>
-    <col min="64" max="66" width="6.85546875" customWidth="1"/>
-    <col min="67" max="68" width="7.7109375" customWidth="1"/>
-    <col min="69" max="71" width="6.85546875" customWidth="1"/>
-    <col min="72" max="73" width="7.7109375" customWidth="1"/>
-    <col min="74" max="74" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="75" max="76" width="7.7109375" customWidth="1"/>
-    <col min="77" max="78" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="7.140625" customWidth="1"/>
-    <col min="80" max="81" width="7.7109375" customWidth="1"/>
-    <col min="82" max="83" width="7.140625" customWidth="1"/>
-    <col min="84" max="84" width="7.7109375" customWidth="1"/>
-    <col min="85" max="87" width="7.140625" customWidth="1"/>
-    <col min="88" max="89" width="7.7109375" customWidth="1"/>
-    <col min="90" max="91" width="7.140625" customWidth="1"/>
-    <col min="92" max="92" width="6" bestFit="1" customWidth="1"/>
-    <col min="93" max="94" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="95" max="97" width="6" bestFit="1" customWidth="1"/>
-    <col min="98" max="99" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="100" max="102" width="7" bestFit="1" customWidth="1"/>
-    <col min="103" max="105" width="7.140625" customWidth="1"/>
-    <col min="106" max="106" width="7.42578125" customWidth="1"/>
-    <col min="107" max="110" width="7.140625" customWidth="1"/>
-    <col min="111" max="111" width="7.42578125" customWidth="1"/>
-    <col min="112" max="115" width="7.140625" customWidth="1"/>
-    <col min="116" max="116" width="7.42578125" customWidth="1"/>
-    <col min="117" max="117" width="6.7109375" customWidth="1"/>
+    <col min="48" max="48" width="7.7109375" style="1" customWidth="1"/>
+    <col min="49" max="49" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="7.7109375" style="1" customWidth="1"/>
+    <col min="51" max="52" width="6.5703125" style="1" customWidth="1"/>
+    <col min="53" max="54" width="7.7109375" style="1" customWidth="1"/>
+    <col min="55" max="57" width="5.85546875" style="1" customWidth="1"/>
+    <col min="58" max="59" width="7.7109375" style="1" customWidth="1"/>
+    <col min="60" max="60" width="6.85546875" style="1" customWidth="1"/>
+    <col min="61" max="62" width="7.7109375" style="1" customWidth="1"/>
+    <col min="63" max="65" width="6.85546875" customWidth="1"/>
+    <col min="66" max="67" width="7.7109375" customWidth="1"/>
+    <col min="68" max="70" width="6.85546875" customWidth="1"/>
+    <col min="71" max="72" width="7.7109375" customWidth="1"/>
+    <col min="73" max="73" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="74" max="75" width="7.7109375" customWidth="1"/>
+    <col min="76" max="77" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="7.140625" customWidth="1"/>
+    <col min="79" max="80" width="7.7109375" customWidth="1"/>
+    <col min="81" max="82" width="7.140625" customWidth="1"/>
+    <col min="83" max="83" width="7.7109375" customWidth="1"/>
+    <col min="84" max="86" width="7.140625" customWidth="1"/>
+    <col min="87" max="88" width="7.7109375" customWidth="1"/>
+    <col min="89" max="90" width="7.140625" customWidth="1"/>
+    <col min="91" max="91" width="6" bestFit="1" customWidth="1"/>
+    <col min="92" max="93" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="94" max="96" width="6" bestFit="1" customWidth="1"/>
+    <col min="97" max="98" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="99" max="101" width="7" bestFit="1" customWidth="1"/>
+    <col min="102" max="104" width="7.140625" customWidth="1"/>
+    <col min="105" max="105" width="7.42578125" customWidth="1"/>
+    <col min="106" max="109" width="7.140625" customWidth="1"/>
+    <col min="110" max="110" width="7.42578125" customWidth="1"/>
+    <col min="111" max="114" width="7.140625" customWidth="1"/>
+    <col min="115" max="115" width="7.42578125" customWidth="1"/>
+    <col min="116" max="116" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:145" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:144" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
       <c r="D1" s="2">
         <v>45126</v>
       </c>
@@ -858,179 +861,176 @@
       <c r="AU1" s="2">
         <v>45191</v>
       </c>
-      <c r="AV1" s="11">
-        <v>45192</v>
+      <c r="AV1" s="2">
+        <v>45194</v>
       </c>
       <c r="AW1" s="2">
-        <v>45194</v>
+        <v>45195</v>
       </c>
       <c r="AX1" s="2">
-        <v>45195</v>
+        <v>45196</v>
       </c>
       <c r="AY1" s="2">
-        <v>45196</v>
+        <v>45197</v>
       </c>
       <c r="AZ1" s="2">
-        <v>45197</v>
+        <v>45198</v>
       </c>
       <c r="BA1" s="2">
-        <v>45198</v>
+        <v>45201</v>
       </c>
       <c r="BB1" s="2">
-        <v>45201</v>
+        <v>45202</v>
       </c>
       <c r="BC1" s="2">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="BD1" s="2">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="BE1" s="2">
-        <v>45204</v>
-      </c>
-      <c r="BF1" s="2">
         <v>45205</v>
       </c>
+      <c r="BF1" s="3">
+        <v>45208</v>
+      </c>
       <c r="BG1" s="3">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="BH1" s="3">
-        <v>45209</v>
+        <v>45210</v>
       </c>
       <c r="BI1" s="3">
-        <v>45210</v>
+        <v>45215</v>
       </c>
       <c r="BJ1" s="3">
-        <v>45215</v>
+        <v>45216</v>
       </c>
       <c r="BK1" s="3">
-        <v>45216</v>
+        <v>45217</v>
       </c>
       <c r="BL1" s="3">
-        <v>45217</v>
+        <v>45218</v>
       </c>
       <c r="BM1" s="3">
-        <v>45218</v>
-      </c>
-      <c r="BN1" s="3">
         <v>45219</v>
       </c>
+      <c r="BN1" s="2">
+        <v>45222</v>
+      </c>
       <c r="BO1" s="2">
-        <v>45222</v>
+        <v>45223</v>
       </c>
       <c r="BP1" s="2">
-        <v>45223</v>
+        <v>45224</v>
       </c>
       <c r="BQ1" s="2">
-        <v>45224</v>
+        <v>45225</v>
       </c>
       <c r="BR1" s="2">
-        <v>45225</v>
+        <v>45226</v>
       </c>
       <c r="BS1" s="2">
-        <v>45226</v>
+        <v>45229</v>
       </c>
       <c r="BT1" s="2">
-        <v>45229</v>
+        <v>45230</v>
       </c>
       <c r="BU1" s="2">
-        <v>45230</v>
+        <v>45231</v>
       </c>
       <c r="BV1" s="2">
-        <v>45231</v>
+        <v>45236</v>
       </c>
       <c r="BW1" s="2">
-        <v>45236</v>
+        <v>45237</v>
       </c>
       <c r="BX1" s="2">
-        <v>45237</v>
+        <v>45238</v>
       </c>
       <c r="BY1" s="2">
-        <v>45238</v>
+        <v>45239</v>
       </c>
       <c r="BZ1" s="2">
-        <v>45239</v>
+        <v>45240</v>
       </c>
       <c r="CA1" s="2">
-        <v>45240</v>
+        <v>45243</v>
       </c>
       <c r="CB1" s="2">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="CC1" s="2">
-        <v>45244</v>
+        <v>45246</v>
       </c>
       <c r="CD1" s="2">
-        <v>45246</v>
+        <v>45247</v>
       </c>
       <c r="CE1" s="2">
-        <v>45247</v>
+        <v>45251</v>
       </c>
       <c r="CF1" s="2">
-        <v>45251</v>
+        <v>45252</v>
       </c>
       <c r="CG1" s="2">
-        <v>45252</v>
+        <v>45253</v>
       </c>
       <c r="CH1" s="2">
-        <v>45253</v>
+        <v>45254</v>
       </c>
       <c r="CI1" s="2">
-        <v>45254</v>
+        <v>45257</v>
       </c>
       <c r="CJ1" s="2">
-        <v>45257</v>
+        <v>45258</v>
       </c>
       <c r="CK1" s="2">
-        <v>45258</v>
+        <v>45259</v>
       </c>
       <c r="CL1" s="2">
-        <v>45259</v>
+        <v>45260</v>
       </c>
       <c r="CM1" s="2">
-        <v>45260</v>
+        <v>45261</v>
       </c>
       <c r="CN1" s="2">
-        <v>45261</v>
+        <v>45264</v>
       </c>
       <c r="CO1" s="2">
-        <v>45264</v>
+        <v>45265</v>
       </c>
       <c r="CP1" s="2">
-        <v>45265</v>
+        <v>45266</v>
       </c>
       <c r="CQ1" s="2">
-        <v>45266</v>
+        <v>45267</v>
       </c>
       <c r="CR1" s="2">
-        <v>45267</v>
-      </c>
-      <c r="CS1" s="2">
         <v>45268</v>
       </c>
+      <c r="CS1" s="10">
+        <v>45271</v>
+      </c>
       <c r="CT1" s="10">
-        <v>45271</v>
+        <v>45272</v>
       </c>
       <c r="CU1" s="10">
-        <v>45272</v>
+        <v>45273</v>
       </c>
       <c r="CV1" s="10">
-        <v>45273</v>
+        <v>45274</v>
       </c>
       <c r="CW1" s="10">
-        <v>45274</v>
+        <v>45275</v>
       </c>
       <c r="CX1" s="10">
-        <v>45275</v>
+        <v>18</v>
       </c>
       <c r="CY1" s="10">
-        <v>18</v>
-      </c>
-      <c r="CZ1" s="10">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1172,14 +1172,14 @@
       <c r="AU2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AV2" s="1" t="s">
+      <c r="AV2" t="s">
         <v>5</v>
       </c>
       <c r="AW2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AX2" t="s">
         <v>6</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="AY2" s="1" t="s">
         <v>4</v>
@@ -1188,13 +1188,13 @@
         <v>4</v>
       </c>
       <c r="BA2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BC2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="BD2" s="1" t="s">
         <v>4</v>
@@ -1203,22 +1203,22 @@
         <v>4</v>
       </c>
       <c r="BF2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BH2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="BG2" s="1" t="s">
+      <c r="BI2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="BH2" s="1" t="s">
+      <c r="BJ2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="BI2" s="1" t="s">
+      <c r="BK2" t="s">
         <v>4</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BK2" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="BL2" t="s">
         <v>4</v>
@@ -1227,13 +1227,13 @@
         <v>4</v>
       </c>
       <c r="BN2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BP2" t="s">
         <v>4</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>5</v>
-      </c>
-      <c r="BP2" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="BQ2" t="s">
         <v>4</v>
@@ -1242,22 +1242,22 @@
         <v>4</v>
       </c>
       <c r="BS2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BU2" t="s">
         <v>4</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="BV2" t="s">
         <v>5</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="BW2" t="s">
         <v>6</v>
       </c>
-      <c r="BV2" t="s">
+      <c r="BX2" t="s">
         <v>4</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>5</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>6</v>
       </c>
       <c r="BY2" t="s">
         <v>4</v>
@@ -1266,22 +1266,22 @@
         <v>4</v>
       </c>
       <c r="CA2" t="s">
+        <v>5</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CC2" t="s">
         <v>4</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>5</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>6</v>
       </c>
       <c r="CD2" t="s">
         <v>4</v>
       </c>
       <c r="CE2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CF2" t="s">
         <v>4</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>6</v>
       </c>
       <c r="CG2" t="s">
         <v>4</v>
@@ -1290,13 +1290,13 @@
         <v>4</v>
       </c>
       <c r="CI2" t="s">
+        <v>5</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CK2" t="s">
         <v>4</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>5</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>6</v>
       </c>
       <c r="CL2" t="s">
         <v>4</v>
@@ -1305,13 +1305,13 @@
         <v>4</v>
       </c>
       <c r="CN2" t="s">
+        <v>5</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CP2" t="s">
         <v>4</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>5</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>6</v>
       </c>
       <c r="CQ2" t="s">
         <v>4</v>
@@ -1320,13 +1320,13 @@
         <v>4</v>
       </c>
       <c r="CS2" t="s">
+        <v>5</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CU2" t="s">
         <v>4</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>5</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>6</v>
       </c>
       <c r="CV2" t="s">
         <v>4</v>
@@ -1335,22 +1335,19 @@
         <v>4</v>
       </c>
       <c r="CX2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CY2" t="s">
-        <v>5</v>
-      </c>
-      <c r="CZ2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="6">
         <f t="shared" ref="B3:B21" si="0">B24/(B24+C24)</f>
-        <v>0.88888888888888884</v>
+        <v>0.88775510204081631</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1508,20 +1505,20 @@
       <c r="BB3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="BC3" s="7" t="s">
+      <c r="BC3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BD3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BE3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BF3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BG3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BH3" s="1" t="s">
         <v>9</v>
@@ -1536,10 +1533,10 @@
         <v>9</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BM3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BN3" s="1" t="s">
         <v>9</v>
@@ -1569,10 +1566,10 @@
         <v>9</v>
       </c>
       <c r="BW3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BX3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BY3" s="1" t="s">
         <v>9</v>
@@ -1583,7 +1580,7 @@
       <c r="CA3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CB3" s="1" t="s">
+      <c r="CB3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="CC3" s="8" t="s">
@@ -1595,7 +1592,7 @@
       <c r="CE3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="CF3" s="8" t="s">
+      <c r="CF3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="CG3" s="1" t="s">
@@ -1620,13 +1617,13 @@
         <v>9</v>
       </c>
       <c r="CN3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CO3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="CP3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CQ3" s="1" t="s">
         <v>9</v>
@@ -1635,10 +1632,10 @@
         <v>9</v>
       </c>
       <c r="CS3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CT3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CU3" s="1" t="s">
         <v>9</v>
@@ -1650,11 +1647,9 @@
         <v>9</v>
       </c>
       <c r="CX3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="CY3" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="CY3" s="1"/>
       <c r="CZ3" s="1"/>
       <c r="DA3" s="1"/>
       <c r="DB3" s="1"/>
@@ -1696,15 +1691,14 @@
       <c r="EL3" s="1"/>
       <c r="EM3" s="1"/>
       <c r="EN3" s="1"/>
-      <c r="EO3" s="1"/>
     </row>
-    <row r="4" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="6">
         <f t="shared" si="0"/>
-        <v>0.83838383838383834</v>
+        <v>0.83673469387755106</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1862,26 +1856,26 @@
       <c r="BB4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="BC4" s="7" t="s">
+      <c r="BC4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BD4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BE4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BF4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BG4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BH4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BI4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BJ4" s="1" t="s">
         <v>9</v>
@@ -1890,10 +1884,10 @@
         <v>9</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BM4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BN4" s="1" t="s">
         <v>9</v>
@@ -1908,10 +1902,10 @@
         <v>9</v>
       </c>
       <c r="BR4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BS4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BT4" s="1" t="s">
         <v>9</v>
@@ -1929,15 +1923,15 @@
         <v>9</v>
       </c>
       <c r="BY4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BZ4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="CA4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CB4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CB4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="CC4" s="8" t="s">
@@ -1949,7 +1943,7 @@
       <c r="CE4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="CF4" s="8" t="s">
+      <c r="CF4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="CG4" s="1" t="s">
@@ -1968,13 +1962,13 @@
         <v>9</v>
       </c>
       <c r="CL4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CM4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CN4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CO4" s="1" t="s">
         <v>8</v>
@@ -1986,7 +1980,7 @@
         <v>8</v>
       </c>
       <c r="CR4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CS4" s="1" t="s">
         <v>9</v>
@@ -2004,11 +1998,9 @@
         <v>9</v>
       </c>
       <c r="CX4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="CY4" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="CY4" s="1"/>
       <c r="CZ4" s="1"/>
       <c r="DA4" s="1"/>
       <c r="DB4" s="1"/>
@@ -2050,15 +2042,14 @@
       <c r="EL4" s="1"/>
       <c r="EM4" s="1"/>
       <c r="EN4" s="1"/>
-      <c r="EO4" s="1"/>
     </row>
-    <row r="5" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="6">
         <f t="shared" si="0"/>
-        <v>0.80808080808080807</v>
+        <v>0.81632653061224492</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -2148,7 +2139,7 @@
         <v>9</v>
       </c>
       <c r="AF5" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG5" s="7" t="s">
         <v>9</v>
@@ -2216,7 +2207,7 @@
       <c r="BB5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="BC5" s="7" t="s">
+      <c r="BC5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BD5" s="1" t="s">
@@ -2226,13 +2217,13 @@
         <v>9</v>
       </c>
       <c r="BF5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BG5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BH5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BI5" s="1" t="s">
         <v>9</v>
@@ -2253,22 +2244,22 @@
         <v>9</v>
       </c>
       <c r="BO5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BP5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BQ5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BR5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BS5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BT5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BU5" s="1" t="s">
         <v>9</v>
@@ -2277,22 +2268,22 @@
         <v>9</v>
       </c>
       <c r="BW5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BX5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BY5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BZ5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CA5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CB5" s="1" t="s">
-        <v>8</v>
+      <c r="CB5" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="CC5" s="8" t="s">
         <v>9</v>
@@ -2303,7 +2294,7 @@
       <c r="CE5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="CF5" s="8" t="s">
+      <c r="CF5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="CG5" s="1" t="s">
@@ -2313,28 +2304,28 @@
         <v>9</v>
       </c>
       <c r="CI5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CJ5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CK5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="CL5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CM5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CN5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CO5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="CP5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CQ5" s="1" t="s">
         <v>9</v>
@@ -2343,10 +2334,10 @@
         <v>9</v>
       </c>
       <c r="CS5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CT5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CU5" s="1" t="s">
         <v>9</v>
@@ -2358,11 +2349,9 @@
         <v>9</v>
       </c>
       <c r="CX5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="CY5" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="CY5" s="1"/>
       <c r="CZ5" s="1"/>
       <c r="DA5" s="1"/>
       <c r="DB5" s="1"/>
@@ -2404,15 +2393,14 @@
       <c r="EL5" s="1"/>
       <c r="EM5" s="1"/>
       <c r="EN5" s="1"/>
-      <c r="EO5" s="1"/>
     </row>
-    <row r="6" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="6">
         <f t="shared" si="0"/>
-        <v>0.92</v>
+        <v>0.91919191919191923</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -2570,7 +2558,7 @@
       <c r="BB6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="BC6" s="7" t="s">
+      <c r="BC6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BD6" s="1" t="s">
@@ -2589,10 +2577,10 @@
         <v>9</v>
       </c>
       <c r="BI6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BJ6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BK6" s="1" t="s">
         <v>9</v>
@@ -2645,7 +2633,7 @@
       <c r="CA6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CB6" s="1" t="s">
+      <c r="CB6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="CC6" s="8" t="s">
@@ -2657,7 +2645,7 @@
       <c r="CE6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="CF6" s="8" t="s">
+      <c r="CF6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="CG6" s="1" t="s">
@@ -2676,34 +2664,34 @@
         <v>9</v>
       </c>
       <c r="CL6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CM6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CN6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="CO6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CP6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CQ6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CR6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CS6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="CT6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CU6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CV6" s="1" t="s">
         <v>9</v>
@@ -2712,11 +2700,9 @@
         <v>9</v>
       </c>
       <c r="CX6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="CY6" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="CY6" s="1"/>
       <c r="CZ6" s="1"/>
       <c r="DA6" s="1"/>
       <c r="DB6" s="1"/>
@@ -2758,15 +2744,14 @@
       <c r="EL6" s="1"/>
       <c r="EM6" s="1"/>
       <c r="EN6" s="1"/>
-      <c r="EO6" s="1"/>
     </row>
-    <row r="7" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="6">
         <f t="shared" si="0"/>
-        <v>0.91</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -2922,10 +2907,10 @@
         <v>9</v>
       </c>
       <c r="BB7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="BC7" s="7" t="s">
-        <v>8</v>
+        <v>8</v>
+      </c>
+      <c r="BC7" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="BD7" s="1" t="s">
         <v>9</v>
@@ -2961,22 +2946,22 @@
         <v>9</v>
       </c>
       <c r="BO7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BP7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BQ7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BR7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BS7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BT7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BU7" s="1" t="s">
         <v>9</v>
@@ -2997,10 +2982,10 @@
         <v>9</v>
       </c>
       <c r="CA7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="CB7" s="1" t="s">
-        <v>8</v>
+        <v>8</v>
+      </c>
+      <c r="CB7" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="CC7" s="8" t="s">
         <v>9</v>
@@ -3011,7 +2996,7 @@
       <c r="CE7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="CF7" s="8" t="s">
+      <c r="CF7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="CG7" s="1" t="s">
@@ -3027,13 +3012,13 @@
         <v>9</v>
       </c>
       <c r="CK7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CL7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="CM7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CN7" s="1" t="s">
         <v>9</v>
@@ -3042,19 +3027,19 @@
         <v>9</v>
       </c>
       <c r="CP7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CQ7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CR7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="CS7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CT7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CU7" s="1" t="s">
         <v>9</v>
@@ -3068,9 +3053,7 @@
       <c r="CX7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CY7" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="CY7" s="1"/>
       <c r="CZ7" s="1"/>
       <c r="DA7" s="1"/>
       <c r="DB7" s="1"/>
@@ -3112,15 +3095,14 @@
       <c r="EL7" s="1"/>
       <c r="EM7" s="1"/>
       <c r="EN7" s="1"/>
-      <c r="EO7" s="1"/>
     </row>
-    <row r="8" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="6">
         <f t="shared" si="0"/>
-        <v>0.92</v>
+        <v>0.91919191919191923</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -3276,10 +3258,10 @@
         <v>9</v>
       </c>
       <c r="BB8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="BC8" s="7" t="s">
-        <v>8</v>
+        <v>8</v>
+      </c>
+      <c r="BC8" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="BD8" s="1" t="s">
         <v>9</v>
@@ -3291,10 +3273,10 @@
         <v>9</v>
       </c>
       <c r="BG8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BH8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BI8" s="1" t="s">
         <v>9</v>
@@ -3353,7 +3335,7 @@
       <c r="CA8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CB8" s="1" t="s">
+      <c r="CB8" s="8" t="s">
         <v>9</v>
       </c>
       <c r="CC8" s="8" t="s">
@@ -3365,7 +3347,7 @@
       <c r="CE8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="CF8" s="8" t="s">
+      <c r="CF8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="CG8" s="1" t="s">
@@ -3384,13 +3366,13 @@
         <v>9</v>
       </c>
       <c r="CL8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CM8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CN8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CO8" s="1" t="s">
         <v>8</v>
@@ -3402,7 +3384,7 @@
         <v>8</v>
       </c>
       <c r="CR8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CS8" s="1" t="s">
         <v>9</v>
@@ -3420,11 +3402,9 @@
         <v>9</v>
       </c>
       <c r="CX8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="CY8" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="CY8" s="1"/>
       <c r="CZ8" s="1"/>
       <c r="DA8" s="1"/>
       <c r="DB8" s="1"/>
@@ -3466,15 +3446,14 @@
       <c r="EL8" s="1"/>
       <c r="EM8" s="1"/>
       <c r="EN8" s="1"/>
-      <c r="EO8" s="1"/>
     </row>
-    <row r="9" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="6">
         <f t="shared" si="0"/>
-        <v>0.86868686868686873</v>
+        <v>0.86734693877551017</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -3632,7 +3611,7 @@
       <c r="BB9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="BC9" s="7" t="s">
+      <c r="BC9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BD9" s="1" t="s">
@@ -3642,10 +3621,10 @@
         <v>9</v>
       </c>
       <c r="BF9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BG9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BH9" s="1" t="s">
         <v>9</v>
@@ -3660,19 +3639,19 @@
         <v>9</v>
       </c>
       <c r="BL9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BM9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BN9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BO9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BP9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BQ9" s="1" t="s">
         <v>9</v>
@@ -3681,10 +3660,10 @@
         <v>9</v>
       </c>
       <c r="BS9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BT9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BU9" s="1" t="s">
         <v>9</v>
@@ -3699,15 +3678,15 @@
         <v>9</v>
       </c>
       <c r="BY9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BZ9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="CA9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CB9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CB9" s="8" t="s">
         <v>9</v>
       </c>
       <c r="CC9" s="8" t="s">
@@ -3719,7 +3698,7 @@
       <c r="CE9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="CF9" s="8" t="s">
+      <c r="CF9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="CG9" s="1" t="s">
@@ -3744,7 +3723,7 @@
         <v>9</v>
       </c>
       <c r="CN9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CO9" s="1" t="s">
         <v>8</v>
@@ -3756,7 +3735,7 @@
         <v>8</v>
       </c>
       <c r="CR9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CS9" s="1" t="s">
         <v>9</v>
@@ -3774,11 +3753,9 @@
         <v>9</v>
       </c>
       <c r="CX9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="CY9" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="CY9" s="1"/>
       <c r="CZ9" s="1"/>
       <c r="DA9" s="1"/>
       <c r="DB9" s="1"/>
@@ -3820,15 +3797,14 @@
       <c r="EL9" s="1"/>
       <c r="EM9" s="1"/>
       <c r="EN9" s="1"/>
-      <c r="EO9" s="1"/>
     </row>
-    <row r="10" spans="1:145" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:144" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="6">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0.83838383838383834</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -3888,7 +3864,7 @@
         <v>9</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W10" s="7" t="s">
         <v>9</v>
@@ -3989,7 +3965,7 @@
       <c r="BC10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="BD10" s="7" t="s">
+      <c r="BD10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BE10" s="1" t="s">
@@ -3999,13 +3975,13 @@
         <v>9</v>
       </c>
       <c r="BG10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BH10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BI10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BJ10" s="1" t="s">
         <v>9</v>
@@ -4026,7 +4002,7 @@
         <v>9</v>
       </c>
       <c r="BP10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BQ10" s="1" t="s">
         <v>9</v>
@@ -4041,31 +4017,31 @@
         <v>9</v>
       </c>
       <c r="BU10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BV10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BW10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BX10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BY10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BZ10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CA10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CB10" s="1" t="s">
-        <v>9</v>
+      <c r="CB10" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="CC10" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CD10" s="8" t="s">
         <v>9</v>
@@ -4073,7 +4049,7 @@
       <c r="CE10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="CF10" s="8" t="s">
+      <c r="CF10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="CG10" s="1" t="s">
@@ -4092,13 +4068,13 @@
         <v>9</v>
       </c>
       <c r="CL10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CM10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="CN10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CO10" s="1" t="s">
         <v>9</v>
@@ -4107,16 +4083,16 @@
         <v>8</v>
       </c>
       <c r="CQ10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CR10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="CS10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CT10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CU10" s="1" t="s">
         <v>9</v>
@@ -4128,11 +4104,9 @@
         <v>9</v>
       </c>
       <c r="CX10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="CY10" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="CY10" s="1"/>
       <c r="CZ10" s="1"/>
       <c r="DA10" s="1"/>
       <c r="DB10" s="1"/>
@@ -4174,21 +4148,20 @@
       <c r="EL10" s="1"/>
       <c r="EM10" s="1"/>
       <c r="EN10" s="1"/>
-      <c r="EO10" s="1"/>
     </row>
-    <row r="11" spans="1:145" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:144" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="6">
         <f t="shared" si="0"/>
-        <v>0.63636363636363635</v>
+        <v>0.64646464646464652</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>8</v>
@@ -4343,7 +4316,7 @@
       <c r="BC11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="BD11" s="7" t="s">
+      <c r="BD11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BE11" s="1" t="s">
@@ -4353,7 +4326,7 @@
         <v>9</v>
       </c>
       <c r="BG11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BH11" s="1" t="s">
         <v>8</v>
@@ -4377,7 +4350,7 @@
         <v>8</v>
       </c>
       <c r="BO11" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BP11" s="1" t="s">
         <v>8</v>
@@ -4389,7 +4362,7 @@
         <v>8</v>
       </c>
       <c r="BS11" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BT11" s="1" t="s">
         <v>9</v>
@@ -4410,12 +4383,12 @@
         <v>9</v>
       </c>
       <c r="BZ11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CA11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CB11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CB11" s="8" t="s">
         <v>9</v>
       </c>
       <c r="CC11" s="8" t="s">
@@ -4425,10 +4398,10 @@
         <v>9</v>
       </c>
       <c r="CE11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="CF11" s="8" t="s">
-        <v>8</v>
+        <v>8</v>
+      </c>
+      <c r="CF11" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="CG11" s="1" t="s">
         <v>9</v>
@@ -4446,16 +4419,16 @@
         <v>9</v>
       </c>
       <c r="CL11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CM11" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CN11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="CO11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CP11" s="1" t="s">
         <v>8</v>
@@ -4484,9 +4457,7 @@
       <c r="CX11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CY11" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="CY11" s="1"/>
       <c r="CZ11" s="1"/>
       <c r="DA11" s="1"/>
       <c r="DB11" s="1"/>
@@ -4528,15 +4499,14 @@
       <c r="EL11" s="1"/>
       <c r="EM11" s="1"/>
       <c r="EN11" s="1"/>
-      <c r="EO11" s="1"/>
     </row>
-    <row r="12" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="6">
         <f t="shared" si="0"/>
-        <v>0.83</v>
+        <v>0.82828282828282829</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -4692,22 +4662,22 @@
         <v>9</v>
       </c>
       <c r="BB12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="BC12" s="7" t="s">
-        <v>8</v>
+        <v>8</v>
+      </c>
+      <c r="BC12" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="BD12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BE12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BF12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BG12" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BH12" s="1" t="s">
         <v>9</v>
@@ -4746,10 +4716,10 @@
         <v>9</v>
       </c>
       <c r="BT12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BU12" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BV12" s="1" t="s">
         <v>9</v>
@@ -4769,11 +4739,11 @@
       <c r="CA12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CB12" s="1" t="s">
-        <v>9</v>
+      <c r="CB12" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="CC12" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CD12" s="8" t="s">
         <v>9</v>
@@ -4781,7 +4751,7 @@
       <c r="CE12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="CF12" s="8" t="s">
+      <c r="CF12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="CG12" s="1" t="s">
@@ -4806,7 +4776,7 @@
         <v>9</v>
       </c>
       <c r="CN12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CO12" s="1" t="s">
         <v>8</v>
@@ -4838,9 +4808,7 @@
       <c r="CX12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CY12" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="CY12" s="1"/>
       <c r="CZ12" s="1"/>
       <c r="DA12" s="1"/>
       <c r="DB12" s="1"/>
@@ -4882,15 +4850,14 @@
       <c r="EL12" s="1"/>
       <c r="EM12" s="1"/>
       <c r="EN12" s="1"/>
-      <c r="EO12" s="1"/>
     </row>
-    <row r="13" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="6">
         <f t="shared" si="0"/>
-        <v>0.85858585858585856</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -5048,26 +5015,26 @@
       <c r="BB13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="BC13" s="7" t="s">
+      <c r="BC13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BD13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BE13" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BF13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BG13" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BH13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BI13" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BJ13" s="1" t="s">
         <v>9</v>
@@ -5079,10 +5046,10 @@
         <v>9</v>
       </c>
       <c r="BM13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BN13" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BO13" s="1" t="s">
         <v>9</v>
@@ -5109,13 +5076,13 @@
         <v>9</v>
       </c>
       <c r="BW13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BX13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BY13" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BZ13" s="1" t="s">
         <v>9</v>
@@ -5123,7 +5090,7 @@
       <c r="CA13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CB13" s="1" t="s">
+      <c r="CB13" s="8" t="s">
         <v>9</v>
       </c>
       <c r="CC13" s="8" t="s">
@@ -5135,7 +5102,7 @@
       <c r="CE13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="CF13" s="8" t="s">
+      <c r="CF13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="CG13" s="1" t="s">
@@ -5160,25 +5127,25 @@
         <v>9</v>
       </c>
       <c r="CN13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CO13" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CP13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="CQ13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CR13" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CS13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CT13" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CU13" s="1" t="s">
         <v>9</v>
@@ -5190,11 +5157,9 @@
         <v>9</v>
       </c>
       <c r="CX13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="CY13" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="CY13" s="1"/>
       <c r="CZ13" s="1"/>
       <c r="DA13" s="1"/>
       <c r="DB13" s="1"/>
@@ -5236,15 +5201,14 @@
       <c r="EL13" s="1"/>
       <c r="EM13" s="1"/>
       <c r="EN13" s="1"/>
-      <c r="EO13" s="1"/>
     </row>
-    <row r="14" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="6">
         <f t="shared" si="0"/>
-        <v>0.84</v>
+        <v>0.83838383838383834</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -5402,26 +5366,26 @@
       <c r="BB14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="BC14" s="7" t="s">
+      <c r="BC14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BD14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BE14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BF14" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BG14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BH14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BI14" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BJ14" s="1" t="s">
         <v>9</v>
@@ -5433,13 +5397,13 @@
         <v>9</v>
       </c>
       <c r="BM14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BN14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BO14" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BP14" s="1" t="s">
         <v>9</v>
@@ -5448,13 +5412,13 @@
         <v>9</v>
       </c>
       <c r="BR14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BS14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BT14" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BU14" s="1" t="s">
         <v>9</v>
@@ -5472,16 +5436,16 @@
         <v>9</v>
       </c>
       <c r="BZ14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CA14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CB14" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="CB14" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="CC14" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CD14" s="8" t="s">
         <v>9</v>
@@ -5489,14 +5453,14 @@
       <c r="CE14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="CF14" s="8" t="s">
-        <v>9</v>
+      <c r="CF14" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="CG14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="CH14" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CI14" s="1" t="s">
         <v>9</v>
@@ -5508,10 +5472,10 @@
         <v>9</v>
       </c>
       <c r="CL14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CM14" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CN14" s="1" t="s">
         <v>9</v>
@@ -5529,10 +5493,10 @@
         <v>9</v>
       </c>
       <c r="CS14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CT14" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CU14" s="1" t="s">
         <v>9</v>
@@ -5546,9 +5510,7 @@
       <c r="CX14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CY14" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="CY14" s="1"/>
       <c r="CZ14" s="1"/>
       <c r="DA14" s="1"/>
       <c r="DB14" s="1"/>
@@ -5590,15 +5552,14 @@
       <c r="EL14" s="1"/>
       <c r="EM14" s="1"/>
       <c r="EN14" s="1"/>
-      <c r="EO14" s="1"/>
     </row>
-    <row r="15" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="6">
         <f t="shared" si="0"/>
-        <v>0.88888888888888884</v>
+        <v>0.88775510204081631</v>
       </c>
       <c r="C15">
         <v>13</v>
@@ -5751,16 +5712,16 @@
         <v>9</v>
       </c>
       <c r="BA15" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB15" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="BC15" s="7" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="BC15" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="BD15" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BE15" s="1" t="s">
         <v>9</v>
@@ -5799,10 +5760,10 @@
         <v>9</v>
       </c>
       <c r="BQ15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BR15" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BS15" s="1" t="s">
         <v>9</v>
@@ -5820,19 +5781,19 @@
         <v>9</v>
       </c>
       <c r="BX15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BY15" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BZ15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="CA15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="CB15" s="1" t="s">
-        <v>8</v>
+        <v>8</v>
+      </c>
+      <c r="CB15" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="CC15" s="8" t="s">
         <v>9</v>
@@ -5843,7 +5804,7 @@
       <c r="CE15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="CF15" s="8" t="s">
+      <c r="CF15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="CG15" s="1" t="s">
@@ -5877,10 +5838,10 @@
         <v>9</v>
       </c>
       <c r="CQ15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CR15" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CS15" s="1" t="s">
         <v>9</v>
@@ -5898,11 +5859,9 @@
         <v>9</v>
       </c>
       <c r="CX15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="CY15" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="CY15" s="1"/>
       <c r="CZ15" s="1"/>
       <c r="DA15" s="1"/>
       <c r="DB15" s="1"/>
@@ -5944,15 +5903,14 @@
       <c r="EL15" s="1"/>
       <c r="EM15" s="1"/>
       <c r="EN15" s="1"/>
-      <c r="EO15" s="1"/>
     </row>
-    <row r="16" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="6">
         <f t="shared" si="0"/>
-        <v>0.78787878787878785</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="C16">
         <v>14</v>
@@ -6105,12 +6063,12 @@
         <v>9</v>
       </c>
       <c r="BA16" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="BC16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BC16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BD16" s="1" t="s">
@@ -6135,10 +6093,10 @@
         <v>9</v>
       </c>
       <c r="BK16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BL16" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BM16" s="1" t="s">
         <v>9</v>
@@ -6162,10 +6120,10 @@
         <v>9</v>
       </c>
       <c r="BT16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BU16" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BV16" s="1" t="s">
         <v>9</v>
@@ -6177,16 +6135,16 @@
         <v>9</v>
       </c>
       <c r="BY16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BZ16" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CA16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="CB16" s="1" t="s">
-        <v>8</v>
+        <v>8</v>
+      </c>
+      <c r="CB16" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="CC16" s="8" t="s">
         <v>9</v>
@@ -6197,32 +6155,32 @@
       <c r="CE16" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="CF16" s="8" t="s">
-        <v>9</v>
+      <c r="CF16" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="CG16" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CH16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="CI16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CJ16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="CK16" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CL16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CM16" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CN16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CO16" s="1" t="s">
         <v>8</v>
@@ -6254,9 +6212,7 @@
       <c r="CX16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CY16" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="CY16" s="1"/>
       <c r="CZ16" s="1"/>
       <c r="DA16" s="1"/>
       <c r="DB16" s="1"/>
@@ -6298,15 +6254,14 @@
       <c r="EL16" s="1"/>
       <c r="EM16" s="1"/>
       <c r="EN16" s="1"/>
-      <c r="EO16" s="1"/>
     </row>
-    <row r="17" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="6">
         <f t="shared" si="0"/>
-        <v>0.61</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="C17">
         <v>15</v>
@@ -6464,23 +6419,23 @@
       <c r="BB17" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="BC17" s="7" t="s">
-        <v>9</v>
+      <c r="BC17" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="BD17" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BE17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BF17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BG17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BH17" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BI17" s="1" t="s">
         <v>9</v>
@@ -6498,28 +6453,28 @@
         <v>9</v>
       </c>
       <c r="BN17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BO17" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BP17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BQ17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BR17" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BS17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BT17" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="BU17" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BV17" s="1" t="s">
         <v>9</v>
@@ -6537,13 +6492,13 @@
         <v>8</v>
       </c>
       <c r="CA17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CB17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CB17" s="8" t="s">
         <v>9</v>
       </c>
       <c r="CC17" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CD17" s="8" t="s">
         <v>9</v>
@@ -6551,8 +6506,8 @@
       <c r="CE17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="CF17" s="8" t="s">
-        <v>9</v>
+      <c r="CF17" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="CG17" s="1" t="s">
         <v>8</v>
@@ -6570,16 +6525,16 @@
         <v>8</v>
       </c>
       <c r="CL17" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CM17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CN17" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CO17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CP17" s="1" t="s">
         <v>8</v>
@@ -6588,16 +6543,16 @@
         <v>8</v>
       </c>
       <c r="CR17" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CS17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CT17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="CU17" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CV17" s="1" t="s">
         <v>9</v>
@@ -6608,9 +6563,7 @@
       <c r="CX17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CY17" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="CY17" s="1"/>
       <c r="CZ17" s="1"/>
       <c r="DA17" s="1"/>
       <c r="DB17" s="1"/>
@@ -6652,15 +6605,14 @@
       <c r="EL17" s="1"/>
       <c r="EM17" s="1"/>
       <c r="EN17" s="1"/>
-      <c r="EO17" s="1"/>
     </row>
-    <row r="18" spans="1:145" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:144" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="6">
         <f t="shared" si="0"/>
-        <v>0.99</v>
+        <v>0.98989898989898994</v>
       </c>
       <c r="C18">
         <v>16</v>
@@ -6830,17 +6782,17 @@
       <c r="BF18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="BG18" s="7" t="s">
+      <c r="BG18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BH18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BI18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BJ18" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BK18" s="1" t="s">
         <v>9</v>
@@ -6893,7 +6845,7 @@
       <c r="CA18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CB18" s="1" t="s">
+      <c r="CB18" s="8" t="s">
         <v>9</v>
       </c>
       <c r="CC18" s="8" t="s">
@@ -6905,7 +6857,7 @@
       <c r="CE18" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="CF18" s="8" t="s">
+      <c r="CF18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="CG18" s="1" t="s">
@@ -6962,9 +6914,7 @@
       <c r="CX18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CY18" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="CY18" s="1"/>
       <c r="CZ18" s="1"/>
       <c r="DA18" s="1"/>
       <c r="DB18" s="1"/>
@@ -7006,15 +6956,14 @@
       <c r="EL18" s="1"/>
       <c r="EM18" s="1"/>
       <c r="EN18" s="1"/>
-      <c r="EO18" s="1"/>
     </row>
-    <row r="19" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="6">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.9494949494949495</v>
       </c>
       <c r="C19">
         <v>17</v>
@@ -7178,7 +7127,7 @@
       <c r="BD19" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="BE19" s="7" t="s">
+      <c r="BE19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BF19" s="1" t="s">
@@ -7247,7 +7196,7 @@
       <c r="CA19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CB19" s="1" t="s">
+      <c r="CB19" s="8" t="s">
         <v>9</v>
       </c>
       <c r="CC19" s="8" t="s">
@@ -7259,7 +7208,7 @@
       <c r="CE19" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="CF19" s="8" t="s">
+      <c r="CF19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="CG19" s="1" t="s">
@@ -7278,31 +7227,31 @@
         <v>9</v>
       </c>
       <c r="CL19" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CM19" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CN19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="CO19" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CP19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="CQ19" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CR19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="CS19" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CT19" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CU19" s="1" t="s">
         <v>9</v>
@@ -7314,11 +7263,9 @@
         <v>9</v>
       </c>
       <c r="CX19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="CY19" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="CY19" s="1"/>
       <c r="CZ19" s="1"/>
       <c r="DA19" s="1"/>
       <c r="DB19" s="1"/>
@@ -7360,15 +7307,14 @@
       <c r="EL19" s="1"/>
       <c r="EM19" s="1"/>
       <c r="EN19" s="1"/>
-      <c r="EO19" s="1"/>
     </row>
-    <row r="20" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="6">
         <f t="shared" si="0"/>
-        <v>0.77</v>
+        <v>0.80808080808080807</v>
       </c>
       <c r="C20">
         <v>18</v>
@@ -7428,7 +7374,7 @@
         <v>9</v>
       </c>
       <c r="V20" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W20" s="7" t="s">
         <v>9</v>
@@ -7443,7 +7389,7 @@
         <v>9</v>
       </c>
       <c r="AA20" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB20" s="7" t="s">
         <v>9</v>
@@ -7482,7 +7428,7 @@
         <v>9</v>
       </c>
       <c r="AN20" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO20" s="7" t="s">
         <v>8</v>
@@ -7491,7 +7437,7 @@
         <v>8</v>
       </c>
       <c r="AQ20" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR20" s="7" t="s">
         <v>8</v>
@@ -7526,17 +7472,17 @@
       <c r="BB20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="BC20" s="7" t="s">
+      <c r="BC20" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BD20" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BE20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BF20" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BG20" s="1" t="s">
         <v>9</v>
@@ -7545,19 +7491,19 @@
         <v>9</v>
       </c>
       <c r="BI20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BJ20" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BK20" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BL20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BM20" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BN20" s="1" t="s">
         <v>9</v>
@@ -7575,13 +7521,13 @@
         <v>9</v>
       </c>
       <c r="BS20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BT20" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BU20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BV20" s="1" t="s">
         <v>8</v>
@@ -7593,7 +7539,7 @@
         <v>8</v>
       </c>
       <c r="BY20" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BZ20" s="1" t="s">
         <v>9</v>
@@ -7601,11 +7547,11 @@
       <c r="CA20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CB20" s="1" t="s">
-        <v>9</v>
+      <c r="CB20" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="CC20" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CD20" s="8" t="s">
         <v>9</v>
@@ -7613,7 +7559,7 @@
       <c r="CE20" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="CF20" s="8" t="s">
+      <c r="CF20" s="1" t="s">
         <v>9</v>
       </c>
       <c r="CG20" s="1" t="s">
@@ -7623,10 +7569,10 @@
         <v>9</v>
       </c>
       <c r="CI20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CJ20" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CK20" s="1" t="s">
         <v>9</v>
@@ -7638,10 +7584,10 @@
         <v>9</v>
       </c>
       <c r="CN20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CO20" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CP20" s="1" t="s">
         <v>9</v>
@@ -7653,10 +7599,10 @@
         <v>9</v>
       </c>
       <c r="CS20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CT20" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CU20" s="1" t="s">
         <v>9</v>
@@ -7668,11 +7614,9 @@
         <v>9</v>
       </c>
       <c r="CX20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="CY20" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="CY20" s="1"/>
       <c r="CZ20" s="1"/>
       <c r="DA20" s="1"/>
       <c r="DB20" s="1"/>
@@ -7714,15 +7658,14 @@
       <c r="EL20" s="1"/>
       <c r="EM20" s="1"/>
       <c r="EN20" s="1"/>
-      <c r="EO20" s="1"/>
     </row>
-    <row r="21" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="6">
         <f t="shared" si="0"/>
-        <v>0.76</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="C21">
         <v>19</v>
@@ -7836,7 +7779,7 @@
         <v>9</v>
       </c>
       <c r="AN21" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO21" s="7" t="s">
         <v>9</v>
@@ -7845,7 +7788,7 @@
         <v>8</v>
       </c>
       <c r="AQ21" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR21" s="7" t="s">
         <v>9</v>
@@ -7875,12 +7818,12 @@
         <v>9</v>
       </c>
       <c r="BA21" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB21" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="BC21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BC21" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BD21" s="1" t="s">
@@ -7890,7 +7833,7 @@
         <v>9</v>
       </c>
       <c r="BF21" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BG21" s="1" t="s">
         <v>8</v>
@@ -7902,7 +7845,7 @@
         <v>8</v>
       </c>
       <c r="BJ21" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BK21" s="1" t="s">
         <v>9</v>
@@ -7917,16 +7860,16 @@
         <v>9</v>
       </c>
       <c r="BO21" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BP21" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BQ21" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BR21" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BS21" s="1" t="s">
         <v>8</v>
@@ -7935,7 +7878,7 @@
         <v>8</v>
       </c>
       <c r="BU21" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BV21" s="1" t="s">
         <v>9</v>
@@ -7950,16 +7893,16 @@
         <v>9</v>
       </c>
       <c r="BZ21" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CA21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="CB21" s="1" t="s">
+      <c r="CB21" s="8" t="s">
         <v>8</v>
       </c>
       <c r="CC21" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CD21" s="8" t="s">
         <v>9</v>
@@ -7967,11 +7910,11 @@
       <c r="CE21" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="CF21" s="8" t="s">
-        <v>9</v>
+      <c r="CF21" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="CG21" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CH21" s="1" t="s">
         <v>9</v>
@@ -7992,7 +7935,7 @@
         <v>9</v>
       </c>
       <c r="CN21" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CO21" s="1" t="s">
         <v>8</v>
@@ -8010,7 +7953,7 @@
         <v>8</v>
       </c>
       <c r="CT21" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CU21" s="1" t="s">
         <v>9</v>
@@ -8024,9 +7967,7 @@
       <c r="CX21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="CY21" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="CY21" s="1"/>
       <c r="CZ21" s="1"/>
       <c r="DA21" s="1"/>
       <c r="DB21" s="1"/>
@@ -8068,9 +8009,8 @@
       <c r="EL21" s="1"/>
       <c r="EM21" s="1"/>
       <c r="EN21" s="1"/>
-      <c r="EO21" s="1"/>
     </row>
-    <row r="22" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:144" x14ac:dyDescent="0.25">
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
@@ -8096,7 +8036,7 @@
       <c r="AI22" s="1"/>
       <c r="AJ22" s="1"/>
     </row>
-    <row r="23" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>28</v>
       </c>
@@ -8106,127 +8046,124 @@
       <c r="C23" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AB23" s="12" t="s">
-        <v>29</v>
-      </c>
       <c r="AC23" s="7"/>
     </row>
-    <row r="24" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
       <c r="B24">
-        <f t="shared" ref="B24:B42" si="1">COUNTIF(D3:EC3,B$23)</f>
-        <v>88</v>
+        <f>COUNTIF(D3:EB3,B$23)</f>
+        <v>87</v>
       </c>
       <c r="C24">
-        <f t="shared" ref="C24:C42" si="2">COUNTIF(E3:ED3,C$23)</f>
+        <f>COUNTIF(E3:EC3,C$23)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>10</v>
       </c>
       <c r="B25">
-        <f t="shared" si="1"/>
-        <v>83</v>
+        <f>COUNTIF(D4:EB4,B$23)</f>
+        <v>82</v>
       </c>
       <c r="C25">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(E4:EC4,C$23)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>11</v>
       </c>
       <c r="B26">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D5:EB5,B$23)</f>
         <v>80</v>
       </c>
       <c r="C26">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <f>COUNTIF(E5:EC5,C$23)</f>
+        <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
       <c r="B27">
-        <f t="shared" si="1"/>
-        <v>92</v>
+        <f>COUNTIF(D6:EB6,B$23)</f>
+        <v>91</v>
       </c>
       <c r="C27">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(E6:EC6,C$23)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>13</v>
       </c>
       <c r="B28">
-        <f t="shared" si="1"/>
-        <v>91</v>
+        <f>COUNTIF(D7:EB7,B$23)</f>
+        <v>90</v>
       </c>
       <c r="C28">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="BD28" s="3"/>
+        <f>COUNTIF(E7:EC7,C$23)</f>
+        <v>9</v>
+      </c>
+      <c r="BC28" s="3"/>
     </row>
-    <row r="29" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>14</v>
       </c>
       <c r="B29">
-        <f t="shared" si="1"/>
-        <v>92</v>
+        <f>COUNTIF(D8:EB8,B$23)</f>
+        <v>91</v>
       </c>
       <c r="C29">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(E8:EC8,C$23)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>15</v>
       </c>
       <c r="B30">
-        <f t="shared" si="1"/>
-        <v>86</v>
+        <f>COUNTIF(D9:EB9,B$23)</f>
+        <v>85</v>
       </c>
       <c r="C30">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(E9:EC9,C$23)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>16</v>
       </c>
       <c r="B31">
-        <f t="shared" si="1"/>
-        <v>80</v>
+        <f>COUNTIF(D10:EB10,B$23)</f>
+        <v>83</v>
       </c>
       <c r="C31">
-        <f t="shared" si="2"/>
-        <v>20</v>
+        <f>COUNTIF(E10:EC10,C$23)</f>
+        <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:145" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:144" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>17</v>
       </c>
       <c r="B32">
-        <f t="shared" si="1"/>
-        <v>63</v>
+        <f>COUNTIF(D11:EB11,B$23)</f>
+        <v>64</v>
       </c>
       <c r="C32">
-        <f t="shared" si="2"/>
-        <v>36</v>
+        <f>COUNTIF(E11:EC11,C$23)</f>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -8234,11 +8171,11 @@
         <v>18</v>
       </c>
       <c r="B33">
-        <f t="shared" si="1"/>
-        <v>83</v>
+        <f>COUNTIF(D12:EB12,B$23)</f>
+        <v>82</v>
       </c>
       <c r="C33">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(E12:EC12,C$23)</f>
         <v>17</v>
       </c>
     </row>
@@ -8247,11 +8184,11 @@
         <v>19</v>
       </c>
       <c r="B34">
-        <f t="shared" si="1"/>
-        <v>85</v>
+        <f>COUNTIF(D13:EB13,B$23)</f>
+        <v>84</v>
       </c>
       <c r="C34">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(E13:EC13,C$23)</f>
         <v>14</v>
       </c>
     </row>
@@ -8260,11 +8197,11 @@
         <v>20</v>
       </c>
       <c r="B35">
-        <f t="shared" si="1"/>
-        <v>84</v>
+        <f>COUNTIF(D14:EB14,B$23)</f>
+        <v>83</v>
       </c>
       <c r="C35">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(E14:EC14,C$23)</f>
         <v>16</v>
       </c>
     </row>
@@ -8273,11 +8210,11 @@
         <v>21</v>
       </c>
       <c r="B36">
-        <f t="shared" si="1"/>
-        <v>88</v>
+        <f>COUNTIF(D15:EB15,B$23)</f>
+        <v>87</v>
       </c>
       <c r="C36">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(E15:EC15,C$23)</f>
         <v>11</v>
       </c>
     </row>
@@ -8286,11 +8223,11 @@
         <v>22</v>
       </c>
       <c r="B37">
-        <f t="shared" si="1"/>
-        <v>78</v>
+        <f>COUNTIF(D16:EB16,B$23)</f>
+        <v>77</v>
       </c>
       <c r="C37">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(E16:EC16,C$23)</f>
         <v>21</v>
       </c>
     </row>
@@ -8299,12 +8236,12 @@
         <v>23</v>
       </c>
       <c r="B38">
-        <f t="shared" si="1"/>
-        <v>61</v>
+        <f>COUNTIF(D17:EB17,B$23)</f>
+        <v>63</v>
       </c>
       <c r="C38">
-        <f t="shared" si="2"/>
-        <v>39</v>
+        <f>COUNTIF(E17:EC17,C$23)</f>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -8312,11 +8249,11 @@
         <v>24</v>
       </c>
       <c r="B39">
-        <f t="shared" si="1"/>
-        <v>99</v>
+        <f>COUNTIF(D18:EB18,B$23)</f>
+        <v>98</v>
       </c>
       <c r="C39">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(E18:EC18,C$23)</f>
         <v>1</v>
       </c>
     </row>
@@ -8325,11 +8262,11 @@
         <v>25</v>
       </c>
       <c r="B40">
-        <f t="shared" si="1"/>
-        <v>95</v>
+        <f>COUNTIF(D19:EB19,B$23)</f>
+        <v>94</v>
       </c>
       <c r="C40">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(E19:EC19,C$23)</f>
         <v>5</v>
       </c>
     </row>
@@ -8338,12 +8275,12 @@
         <v>26</v>
       </c>
       <c r="B41">
-        <f t="shared" si="1"/>
-        <v>77</v>
+        <f>COUNTIF(D20:EB20,B$23)</f>
+        <v>80</v>
       </c>
       <c r="C41">
-        <f t="shared" si="2"/>
-        <v>23</v>
+        <f>COUNTIF(E20:EC20,C$23)</f>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -8351,19 +8288,19 @@
         <v>27</v>
       </c>
       <c r="B42">
-        <f t="shared" si="1"/>
-        <v>76</v>
+        <f>COUNTIF(D21:EB21,B$23)</f>
+        <v>77</v>
       </c>
       <c r="C42">
-        <f t="shared" si="2"/>
-        <v>24</v>
+        <f>COUNTIF(E21:EC21,C$23)</f>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:C42">
+  <conditionalFormatting sqref="A1:C42 D1:ANE21 AK22:CM1048576">
     <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
@@ -8376,7 +8313,7 @@
       <formula>0.75</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22:AJ22 AK22:CN1048576 G23:AJ42 B24:C42 D1:ANF21">
+  <conditionalFormatting sqref="D22:AJ22 G24:AJ42 B24:C42 G23:AA23 AC23:AJ23">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
@@ -8384,7 +8321,7 @@
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CP22:ANF1048576 A43:AJ1048576">
+  <conditionalFormatting sqref="CO22:ANE1048576 A43:AJ1048576">
     <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
